--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB326B1-CF01-4061-82A0-F4D0915D3398}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A599423F-AED4-46EB-9467-0011177E046D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -372,11 +372,6 @@
 3. Goto the website</t>
   </si>
   <si>
-    <t xml:space="preserve">Google Chrome 
-Microsoft Edge Mozila Firefox
-Opera </t>
-  </si>
-  <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
 2. Click on 'Sign in' button at the right corner then click on 'Sign up' buttton at the center bottom.
@@ -913,6 +908,12 @@
   </si>
   <si>
     <t>119/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Chrome
+Microsoft Edge
+Mozila Firefox
+Opera </t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1893,17 +1894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2034,7 +2024,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2111,9 +2101,6 @@
     <xf numFmtId="0" fontId="30" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,9 +2608,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2702,7 +2686,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2714,7 +2698,7 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2723,17 +2707,134 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2759,137 +2860,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3562,35 +3546,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="111"/>
-    <col min="2" max="2" width="13.8984375" style="111" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="111" customWidth="1"/>
-    <col min="4" max="4" width="15" style="111" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="111" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="111" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="111" customWidth="1"/>
-    <col min="8" max="8" width="14" style="111" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="111" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="111" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="111" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="111" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" style="111" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="111"/>
+    <col min="1" max="1" width="8.796875" style="110"/>
+    <col min="2" max="2" width="13.8984375" style="110" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="110" customWidth="1"/>
+    <col min="4" max="4" width="15" style="110" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="110" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="110" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="110" customWidth="1"/>
+    <col min="8" max="8" width="14" style="110" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="110" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="110" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="110" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="110" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" style="110" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="278" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="237"/>
+      <c r="B1" s="274"/>
       <c r="C1" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3601,148 +3585,148 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="285" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="234" t="s">
+      <c r="G1" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="235"/>
-    </row>
-    <row r="2" spans="1:15" ht="65.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="241" t="s">
+      <c r="M1" s="272"/>
+    </row>
+    <row r="2" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="32" t="s">
-        <v>235</v>
+      <c r="B2" s="274"/>
+      <c r="C2" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="284" t="s">
-        <v>201</v>
+      <c r="E2" s="269" t="s">
+        <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
+      <c r="G2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="34">
         <f>COUNTIF(L8:L68, "Passed")</f>
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="274"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="114" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="K3" s="114"/>
+      <c r="H3" s="112"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="34">
         <f>COUNTIF(L8:L367, "Failed")</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="274"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="114" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="34">
         <f>COUNTIF(L7:L371, "Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238" t="s">
+      <c r="B5" s="274"/>
+      <c r="C5" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <f>COUNTIF(L7:L371, "Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <f>SUM(M2:M5)</f>
         <v>53</v>
       </c>
@@ -3788,11 +3772,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="87.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="181">
+    <row r="8" spans="1:15" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="180">
         <v>1</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
@@ -3806,24 +3790,24 @@
       <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="118" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="111" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="182"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+    <row r="9" spans="1:15" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="181"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="279"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -3831,54 +3815,54 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="33"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="183">
+      <c r="A10" s="182">
         <v>2</v>
       </c>
-      <c r="B10" s="194" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="230" t="s">
+      <c r="B10" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>112</v>
+      <c r="I10" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="107" t="s">
+      <c r="L10" s="106" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="183">
+      <c r="A11" s="182">
         <v>3</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="194"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="38" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -3890,24 +3874,24 @@
       <c r="H11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="41" t="s">
-        <v>107</v>
+      <c r="I11" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>4</v>
       </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="s">
+      <c r="B12" s="194"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -3919,355 +3903,355 @@
       <c r="H12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="120" t="s">
+      <c r="I12" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="121"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="73" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="183">
+      <c r="A13" s="182">
         <v>5</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45" t="s">
+      <c r="B13" s="194"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>109</v>
+      <c r="G13" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="120" t="s">
+      <c r="I13" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="121"/>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="183">
+      <c r="A14" s="182">
         <v>6</v>
       </c>
-      <c r="B14" s="195"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="45" t="s">
-        <v>167</v>
+      <c r="B14" s="194"/>
+      <c r="C14" s="281"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="44" t="s">
+      <c r="I14" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="120"/>
+    </row>
+    <row r="15" spans="1:15" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="183">
+        <v>7</v>
+      </c>
+      <c r="B15" s="195"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="123"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="184"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="128"/>
+    </row>
+    <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="183">
+        <v>8</v>
+      </c>
+      <c r="B17" s="195"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="L14" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="121"/>
-    </row>
-    <row r="15" spans="1:15" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="184">
-        <v>7</v>
-      </c>
-      <c r="B15" s="197"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="47" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="131"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+    </row>
+    <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="183">
+        <v>9</v>
+      </c>
+      <c r="B18" s="194"/>
+      <c r="C18" s="281"/>
+      <c r="E18" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="63"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="133"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+    </row>
+    <row r="19" spans="1:15" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="64">
+        <v>10</v>
+      </c>
+      <c r="B19" s="194"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="135"/>
+      <c r="N19" s="128"/>
+    </row>
+    <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="185">
+        <v>11</v>
+      </c>
+      <c r="B20" s="194"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="48" t="s">
+      <c r="F20" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="75"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="124"/>
-    </row>
-    <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="185"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
-    </row>
-    <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="184">
-        <v>8</v>
-      </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-    </row>
-    <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184">
-        <v>9</v>
-      </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="231"/>
-      <c r="E18" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="134"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-    </row>
-    <row r="19" spans="1:15" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65">
-        <v>10</v>
-      </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="129"/>
-    </row>
-    <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="186">
-        <v>11</v>
-      </c>
-      <c r="B20" s="195"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="138"/>
-      <c r="O20" s="129"/>
+      <c r="M20" s="137"/>
+      <c r="O20" s="128"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="187"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="219"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="217"/>
     </row>
     <row r="22" spans="1:15" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="188">
+      <c r="A22" s="187">
         <v>12</v>
       </c>
-      <c r="B22" s="195"/>
-      <c r="C22" s="158" t="s">
+      <c r="B22" s="194"/>
+      <c r="C22" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="77" t="s">
-        <v>114</v>
+      <c r="E22" s="76" t="s">
+        <v>113</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="78" t="s">
-        <v>113</v>
+      <c r="G22" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="107" t="s">
+      <c r="I22" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="188">
+      <c r="A23" s="187">
         <v>13</v>
       </c>
-      <c r="B23" s="195"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="B23" s="194"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="78" t="s">
-        <v>116</v>
+      <c r="I23" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="J23" s="21"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="107" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="188">
+      <c r="A24" s="187">
         <v>14</v>
       </c>
-      <c r="B24" s="195"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="77" t="s">
-        <v>123</v>
+      <c r="B24" s="194"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="78" t="s">
+      <c r="G24" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="79"/>
+      <c r="L24" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="187">
+        <v>15</v>
+      </c>
+      <c r="B25" s="194"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="76" t="s">
         <v>124</v>
-      </c>
-      <c r="J24" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="188">
-        <v>15</v>
-      </c>
-      <c r="B25" s="195"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="77" t="s">
-        <v>125</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>55</v>
@@ -4275,60 +4259,60 @@
       <c r="G25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="82" t="s">
+      <c r="H25" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="139"/>
+      <c r="L25" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="187">
+        <v>16</v>
+      </c>
+      <c r="B26" s="194"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="83"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="187">
+        <v>17</v>
+      </c>
+      <c r="B27" s="194"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="140"/>
-      <c r="L25" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="188">
-        <v>16</v>
-      </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="84"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="188">
-        <v>17</v>
-      </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="85" t="s">
+      <c r="F27" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>36</v>
@@ -4336,25 +4320,25 @@
       <c r="H27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="107" t="s">
+      <c r="I27" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="85"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="188">
+      <c r="A28" s="187">
         <v>18</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="85" t="s">
-        <v>133</v>
+      <c r="B28" s="194"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>55</v>
@@ -4365,27 +4349,27 @@
       <c r="H28" s="21">
         <v>162987</v>
       </c>
-      <c r="I28" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="141"/>
-      <c r="L28" s="107" t="s">
+      <c r="I28" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="140"/>
+      <c r="L28" s="106" t="s">
         <v>37</v>
       </c>
       <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="188">
+      <c r="A29" s="187">
         <v>19</v>
       </c>
-      <c r="B29" s="195"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="85" t="s">
-        <v>134</v>
+      <c r="B29" s="194"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>55</v>
@@ -4393,30 +4377,30 @@
       <c r="G29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="87" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="79"/>
+      <c r="L29" s="106" t="s">
         <v>37</v>
       </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="188">
+      <c r="A30" s="187">
         <v>20</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="85" t="s">
-        <v>135</v>
+      <c r="B30" s="194"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="84" t="s">
+        <v>134</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>54</v>
@@ -4425,27 +4409,27 @@
         <v>36</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="21"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="107" t="s">
+      <c r="K30" s="79"/>
+      <c r="L30" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="188">
+      <c r="A31" s="187">
         <v>21</v>
       </c>
-      <c r="B31" s="195"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="85" t="s">
-        <v>136</v>
+      <c r="B31" s="194"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="84" t="s">
+        <v>135</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>55</v>
@@ -4454,29 +4438,29 @@
         <v>52</v>
       </c>
       <c r="H31" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="229" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="79"/>
+      <c r="L31" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="187">
+        <v>22</v>
+      </c>
+      <c r="B32" s="194"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="84" t="s">
         <v>138</v>
-      </c>
-      <c r="J31" s="243" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="188">
-        <v>22</v>
-      </c>
-      <c r="B32" s="195"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="85" t="s">
-        <v>139</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>54</v>
@@ -4488,23 +4472,23 @@
         <v>104</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="242"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="228"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="188">
+      <c r="A33" s="187">
         <v>23</v>
       </c>
-      <c r="B33" s="195"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="85" t="s">
+      <c r="B33" s="194"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="84" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -4513,27 +4497,27 @@
       <c r="G33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="90" t="s">
-        <v>141</v>
+      <c r="H33" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>140</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="107" t="s">
+      <c r="L33" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="188">
+      <c r="A34" s="187">
         <v>24</v>
       </c>
-      <c r="B34" s="195"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="85" t="s">
+      <c r="B34" s="194"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="84" t="s">
         <v>60</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -4542,27 +4526,27 @@
       <c r="G34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="91" t="s">
+      <c r="H34" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="89" t="s">
         <v>142</v>
-      </c>
-      <c r="I34" s="90" t="s">
-        <v>143</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="107" t="s">
+      <c r="L34" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="188">
+      <c r="A35" s="187">
         <v>25</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="85" t="s">
+      <c r="B35" s="194"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="84" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -4571,27 +4555,27 @@
       <c r="G35" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35" s="90" t="s">
-        <v>144</v>
+      <c r="H35" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="89" t="s">
+        <v>143</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="188">
+      <c r="A36" s="187">
         <v>26</v>
       </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="45" t="s">
+      <c r="B36" s="194"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="44" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -4600,28 +4584,28 @@
       <c r="G36" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="89" t="s">
         <v>145</v>
-      </c>
-      <c r="I36" s="90" t="s">
-        <v>146</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="107" t="s">
+      <c r="L36" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="107"/>
+      <c r="M36" s="106"/>
     </row>
     <row r="37" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="188">
+      <c r="A37" s="187">
         <v>27</v>
       </c>
-      <c r="B37" s="195"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="45" t="s">
-        <v>149</v>
+      <c r="B37" s="194"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="44" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>65</v>
@@ -4630,55 +4614,55 @@
         <v>36</v>
       </c>
       <c r="H37" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="89" t="s">
         <v>147</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>148</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="107" t="s">
+      <c r="L37" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="107"/>
+      <c r="M37" s="106"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="188">
+      <c r="A38" s="187">
         <v>28</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="45" t="s">
+      <c r="B38" s="194"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" s="90" t="s">
         <v>151</v>
+      </c>
+      <c r="I38" s="89" t="s">
+        <v>150</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="107" t="s">
+      <c r="L38" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="107"/>
+      <c r="M38" s="106"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="188">
+      <c r="A39" s="187">
         <v>29</v>
       </c>
-      <c r="B39" s="195"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="45" t="s">
+      <c r="B39" s="194"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="44" t="s">
         <v>68</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -4687,31 +4671,31 @@
       <c r="G39" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="91" t="str">
+      <c r="H39" s="90" t="str">
         <f>H43</f>
         <v>Full name: Anik Chakraborty
 Email: xolope8846@ahieh.com
 Password: A123456@
 Confirm Password: A123456@</v>
       </c>
-      <c r="I39" s="90" t="s">
-        <v>153</v>
+      <c r="I39" s="89" t="s">
+        <v>152</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="107" t="s">
+      <c r="L39" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="107"/>
+      <c r="M39" s="106"/>
     </row>
     <row r="40" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="188">
+      <c r="A40" s="187">
         <v>30</v>
       </c>
-      <c r="B40" s="195"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="45" t="s">
+      <c r="B40" s="194"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="44" t="s">
         <v>69</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -4720,27 +4704,27 @@
       <c r="G40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="91" t="s">
+      <c r="H40" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" s="89" t="s">
         <v>154</v>
-      </c>
-      <c r="I40" s="90" t="s">
-        <v>155</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="107" t="s">
+      <c r="L40" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="107"/>
+      <c r="M40" s="106"/>
     </row>
     <row r="41" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="188">
+      <c r="A41" s="187">
         <v>31</v>
       </c>
-      <c r="B41" s="195"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="45" t="s">
+      <c r="B41" s="194"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="44" t="s">
         <v>70</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -4750,26 +4734,26 @@
         <v>36</v>
       </c>
       <c r="H41" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="89" t="s">
         <v>156</v>
-      </c>
-      <c r="I41" s="90" t="s">
-        <v>157</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="107" t="s">
+      <c r="L41" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="107"/>
+      <c r="M41" s="106"/>
     </row>
     <row r="42" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="188">
+      <c r="A42" s="187">
         <v>32</v>
       </c>
-      <c r="B42" s="195"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="45" t="s">
+      <c r="B42" s="194"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="44" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -4778,27 +4762,27 @@
       <c r="G42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="86"/>
+      <c r="H42" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="85"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="107" t="s">
+      <c r="L42" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="107"/>
+      <c r="M42" s="106"/>
     </row>
     <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="188">
+      <c r="A43" s="187">
         <v>33</v>
       </c>
-      <c r="B43" s="195"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="85" t="s">
+      <c r="B43" s="194"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="84" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="21" t="s">
@@ -4807,27 +4791,27 @@
       <c r="G43" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="90" t="s">
-        <v>166</v>
+      <c r="H43" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>165</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="107" t="s">
+      <c r="L43" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="107"/>
+      <c r="M43" s="106"/>
     </row>
     <row r="44" spans="1:14" ht="261.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="188">
+      <c r="A44" s="187">
         <v>34</v>
       </c>
-      <c r="B44" s="195"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="85" t="s">
+      <c r="B44" s="194"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="84" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -4836,27 +4820,27 @@
       <c r="G44" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" s="90" t="s">
-        <v>169</v>
+      <c r="H44" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>168</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="107" t="s">
+      <c r="L44" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M44" s="107"/>
+      <c r="M44" s="106"/>
     </row>
     <row r="45" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="188">
+      <c r="A45" s="187">
         <v>35</v>
       </c>
-      <c r="B45" s="195"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="85" t="s">
+      <c r="B45" s="194"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="84" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -4866,28 +4850,28 @@
         <v>52</v>
       </c>
       <c r="H45" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="I45" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="J45" s="91" t="s">
-        <v>213</v>
+      <c r="J45" s="90" t="s">
+        <v>212</v>
       </c>
       <c r="K45" s="21"/>
-      <c r="L45" s="107" t="s">
+      <c r="L45" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="M45" s="107"/>
+      <c r="M45" s="106"/>
     </row>
     <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="188">
+      <c r="A46" s="187">
         <v>36</v>
       </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="77" t="s">
+      <c r="B46" s="194"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="76" t="s">
         <v>77</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -4896,135 +4880,135 @@
       <c r="G46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="I46" s="79" t="s">
+      <c r="H46" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="J46" s="91" t="s">
-        <v>212</v>
+      <c r="I46" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" s="90" t="s">
+        <v>211</v>
       </c>
       <c r="K46" s="21"/>
-      <c r="L46" s="107" t="s">
+      <c r="L46" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="M46" s="107"/>
+      <c r="M46" s="106"/>
     </row>
     <row r="47" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="188">
+      <c r="A47" s="187">
         <v>37</v>
       </c>
-      <c r="B47" s="195"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="94" t="s">
+      <c r="B47" s="194"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="95" t="s">
+      <c r="F47" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="95" t="s">
+      <c r="H47" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="142" t="s">
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="M47" s="143"/>
-      <c r="N47" s="86"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="85"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="205"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="221"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="210"/>
-      <c r="K48" s="210"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="212"/>
-      <c r="N48" s="145"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="208"/>
+      <c r="G48" s="208"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="208"/>
+      <c r="K48" s="208"/>
+      <c r="L48" s="143"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="144"/>
     </row>
     <row r="49" spans="1:16" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="188">
+      <c r="A49" s="187">
         <v>38</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="167" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="97" t="s">
+      <c r="B49" s="194"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="98" t="s">
+      <c r="F49" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="84" t="s">
+      <c r="G49" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="146" t="s">
+      <c r="I49" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="147"/>
+      <c r="M49" s="146"/>
     </row>
     <row r="50" spans="1:16" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="188">
+      <c r="A50" s="187">
         <v>39</v>
       </c>
-      <c r="B50" s="195"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="100" t="s">
+      <c r="B50" s="194"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="84" t="s">
         <v>64</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="89" t="s">
         <v>177</v>
-      </c>
-      <c r="I50" s="90" t="s">
-        <v>178</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="107" t="s">
+      <c r="L50" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:16" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="188">
+      <c r="A51" s="187">
         <v>40</v>
       </c>
-      <c r="B51" s="195"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="101" t="s">
+      <c r="B51" s="194"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="100" t="s">
         <v>90</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -5033,57 +5017,57 @@
       <c r="G51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="79" t="s">
+      <c r="H51" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="78" t="s">
         <v>91</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="107" t="s">
+      <c r="L51" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="P51" s="129"/>
+      <c r="P51" s="128"/>
     </row>
     <row r="52" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="188">
+      <c r="A52" s="187">
         <v>41</v>
       </c>
-      <c r="B52" s="195"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="85" t="s">
+      <c r="B52" s="194"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="84" t="s">
         <v>92</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I52" s="90" t="s">
-        <v>180</v>
+        <v>204</v>
+      </c>
+      <c r="I52" s="89" t="s">
+        <v>179</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="107" t="s">
+      <c r="L52" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="188">
+      <c r="A53" s="187">
         <v>42</v>
       </c>
-      <c r="B53" s="195"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="85" t="s">
+      <c r="B53" s="194"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="84" t="s">
         <v>93</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -5095,24 +5079,24 @@
       <c r="H53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="90" t="s">
-        <v>182</v>
+      <c r="I53" s="89" t="s">
+        <v>181</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="107" t="s">
+      <c r="L53" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="188">
+      <c r="A54" s="187">
         <v>43</v>
       </c>
-      <c r="B54" s="195"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="166"/>
-      <c r="E54" s="103" t="s">
+      <c r="B54" s="194"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="102" t="s">
         <v>95</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -5124,25 +5108,25 @@
       <c r="H54" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="90" t="s">
-        <v>183</v>
+      <c r="I54" s="89" t="s">
+        <v>182</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
-      <c r="L54" s="107" t="s">
+      <c r="L54" s="106" t="s">
         <v>37</v>
       </c>
       <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="189">
+      <c r="A55" s="188">
         <v>44</v>
       </c>
-      <c r="B55" s="195"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="85" t="s">
-        <v>184</v>
+      <c r="B55" s="194"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="84" t="s">
+        <v>183</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>97</v>
@@ -5153,24 +5137,24 @@
       <c r="H55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="90" t="s">
-        <v>185</v>
+      <c r="I55" s="89" t="s">
+        <v>184</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
-      <c r="L55" s="107" t="s">
+      <c r="L55" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="188">
+      <c r="A56" s="187">
         <v>45</v>
       </c>
-      <c r="B56" s="195"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
-      <c r="E56" s="85" t="s">
+      <c r="B56" s="194"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="84" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -5182,53 +5166,53 @@
       <c r="H56" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="79" t="s">
-        <v>186</v>
+      <c r="I56" s="78" t="s">
+        <v>185</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
-      <c r="L56" s="107" t="s">
+      <c r="L56" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="232.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="188">
+      <c r="A57" s="187">
         <v>46</v>
       </c>
-      <c r="B57" s="195"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="85" t="s">
+      <c r="B57" s="194"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="89" t="s">
         <v>189</v>
-      </c>
-      <c r="I57" s="90" t="s">
-        <v>190</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
-      <c r="L57" s="107" t="s">
+      <c r="L57" s="106" t="s">
         <v>43</v>
       </c>
       <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:16" ht="258.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="188">
+      <c r="A58" s="187">
         <v>47</v>
       </c>
-      <c r="B58" s="195"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="85" t="s">
+      <c r="B58" s="194"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F58" s="21" t="s">
@@ -5238,46 +5222,46 @@
         <v>36</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I58" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" s="89" t="s">
         <v>102</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
-      <c r="L58" s="107" t="s">
+      <c r="L58" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="107"/>
+      <c r="M58" s="106"/>
     </row>
     <row r="59" spans="1:16" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="205"/>
-      <c r="B59" s="195"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="200"/>
-      <c r="E59" s="201"/>
-      <c r="F59" s="202"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="203"/>
-      <c r="K59" s="204"/>
-      <c r="L59" s="199"/>
-      <c r="M59" s="199"/>
-      <c r="N59" s="86"/>
+      <c r="A59" s="203"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="201"/>
+      <c r="H59" s="201"/>
+      <c r="I59" s="201"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="202"/>
+      <c r="L59" s="197"/>
+      <c r="M59" s="197"/>
+      <c r="N59" s="85"/>
     </row>
     <row r="60" spans="1:16" ht="188.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="188">
+      <c r="A60" s="187">
         <v>48</v>
       </c>
-      <c r="B60" s="195"/>
-      <c r="C60" s="172" t="s">
+      <c r="B60" s="194"/>
+      <c r="C60" s="171" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="84" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="21" t="s">
@@ -5286,27 +5270,27 @@
       <c r="G60" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="I60" s="78" t="s">
-        <v>173</v>
+      <c r="H60" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="I60" s="77" t="s">
+        <v>172</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
-      <c r="L60" s="107" t="s">
+      <c r="L60" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="107"/>
+      <c r="M60" s="106"/>
     </row>
     <row r="61" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="188">
+      <c r="A61" s="187">
         <v>49</v>
       </c>
-      <c r="B61" s="195"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="173" t="s">
+      <c r="B61" s="194"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="172" t="s">
         <v>81</v>
       </c>
       <c r="F61" s="21" t="s">
@@ -5319,226 +5303,226 @@
         <v>83</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
-      <c r="L61" s="107" t="s">
+      <c r="L61" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M61" s="107"/>
+      <c r="M61" s="106"/>
     </row>
     <row r="62" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="262">
+      <c r="A62" s="248">
         <v>50</v>
       </c>
-      <c r="B62" s="195"/>
-      <c r="C62" s="263"/>
-      <c r="D62" s="255"/>
-      <c r="E62" s="257" t="s">
+      <c r="B62" s="194"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="241"/>
+      <c r="E62" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="256" t="s">
+      <c r="F62" s="242" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="174" t="s">
+      <c r="G62" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="174" t="s">
+      <c r="H62" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="J62" s="175"/>
-      <c r="K62" s="174"/>
-      <c r="L62" s="123" t="s">
+      <c r="I62" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="174"/>
+      <c r="K62" s="173"/>
+      <c r="L62" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="123"/>
-      <c r="N62" s="86"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:16" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="273"/>
-      <c r="B63" s="274"/>
-      <c r="C63" s="275"/>
-      <c r="D63" s="276"/>
-      <c r="E63" s="277"/>
-      <c r="F63" s="280"/>
-      <c r="G63" s="278"/>
-      <c r="H63" s="280"/>
-      <c r="I63" s="281"/>
-      <c r="J63" s="281"/>
-      <c r="K63" s="280"/>
-      <c r="L63" s="279"/>
-      <c r="M63" s="279"/>
-      <c r="N63" s="128"/>
+      <c r="A63" s="259"/>
+      <c r="B63" s="260"/>
+      <c r="C63" s="261"/>
+      <c r="D63" s="262"/>
+      <c r="E63" s="263"/>
+      <c r="F63" s="266"/>
+      <c r="G63" s="264"/>
+      <c r="H63" s="266"/>
+      <c r="I63" s="267"/>
+      <c r="J63" s="267"/>
+      <c r="K63" s="266"/>
+      <c r="L63" s="265"/>
+      <c r="M63" s="265"/>
+      <c r="N63" s="127"/>
     </row>
     <row r="64" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="264">
+      <c r="A64" s="250">
         <v>51</v>
       </c>
-      <c r="B64" s="282" t="s">
+      <c r="B64" s="268" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="251" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="245" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="253" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="254" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="255" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="255" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="256" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" s="257"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="258" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" s="240"/>
+      <c r="N64" s="144"/>
+    </row>
+    <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="187">
+        <v>52</v>
+      </c>
+      <c r="B65" s="196"/>
+      <c r="C65" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="265" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="283" t="s">
+      <c r="D65" s="252"/>
+      <c r="E65" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="267" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="268" t="s">
+      <c r="G65" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="G64" s="269" t="s">
+      <c r="H65" s="231" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="247" t="s">
         <v>230</v>
       </c>
-      <c r="H64" s="269" t="s">
+      <c r="J65" s="246"/>
+      <c r="K65" s="231"/>
+      <c r="L65" s="240" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="240"/>
+      <c r="N65" s="85"/>
+    </row>
+    <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="187">
+        <v>53</v>
+      </c>
+      <c r="B66" s="230"/>
+      <c r="C66" s="245" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="245" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="231" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="270" t="s">
+      <c r="I66" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="J64" s="271"/>
-      <c r="K64" s="269"/>
-      <c r="L64" s="272" t="s">
+      <c r="J66" s="237"/>
+      <c r="K66" s="238"/>
+      <c r="L66" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="254"/>
-      <c r="N64" s="145"/>
-    </row>
-    <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="188">
-        <v>52</v>
-      </c>
-      <c r="B65" s="198"/>
-      <c r="C65" s="259" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="266"/>
-      <c r="E65" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="258" t="s">
-        <v>223</v>
-      </c>
-      <c r="G65" s="245" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" s="245" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="261" t="s">
-        <v>231</v>
-      </c>
-      <c r="J65" s="260"/>
-      <c r="K65" s="245"/>
-      <c r="L65" s="254" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="254"/>
-      <c r="N65" s="86"/>
-    </row>
-    <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="188">
-        <v>53</v>
-      </c>
-      <c r="B66" s="244"/>
-      <c r="C66" s="259" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="259" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="F66" s="245" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66" s="245" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="250" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="251" t="s">
-        <v>232</v>
-      </c>
-      <c r="J66" s="251"/>
-      <c r="K66" s="252"/>
-      <c r="L66" s="253" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="254"/>
-      <c r="N66" s="145"/>
+      <c r="M66" s="240"/>
+      <c r="N66" s="144"/>
     </row>
     <row r="67" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="205"/>
-      <c r="B67" s="206"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="207"/>
-      <c r="F67" s="208"/>
-      <c r="G67" s="208"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
-      <c r="K67" s="247"/>
-      <c r="L67" s="248"/>
-      <c r="M67" s="249"/>
-      <c r="N67" s="145"/>
+      <c r="A67" s="203"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="205"/>
+      <c r="F67" s="206"/>
+      <c r="G67" s="206"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
+      <c r="K67" s="233"/>
+      <c r="L67" s="234"/>
+      <c r="M67" s="235"/>
+      <c r="N67" s="144"/>
     </row>
     <row r="68" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="188">
+      <c r="A68" s="187">
         <v>54</v>
       </c>
-      <c r="B68" s="180"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="223" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="146"/>
+      <c r="B68" s="179"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="221" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="145"/>
+      <c r="M68" s="145"/>
     </row>
     <row r="69" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="188">
+      <c r="A69" s="187">
         <v>55</v>
       </c>
-      <c r="B69" s="180"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
+      <c r="B69" s="179"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
     </row>
     <row r="70" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="188">
+      <c r="A70" s="187">
         <v>55</v>
       </c>
-      <c r="B70" s="180"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="179" t="s">
+      <c r="B70" s="179"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="224" t="s">
-        <v>214</v>
+      <c r="E70" s="222" t="s">
+        <v>213</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -5546,120 +5530,120 @@
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="107"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="106"/>
     </row>
     <row r="71" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="188">
+      <c r="A71" s="187">
         <v>56</v>
       </c>
-      <c r="B71" s="180"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="229" t="s">
-        <v>215</v>
-      </c>
-      <c r="F71" s="228"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="178"/>
+      <c r="E71" s="227" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="226"/>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="107"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="106"/>
       <c r="M71" s="22"/>
     </row>
     <row r="72" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="188">
+      <c r="A72" s="187">
         <v>58</v>
       </c>
-      <c r="B72" s="180"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="226"/>
-      <c r="E72" s="98"/>
+      <c r="B72" s="179"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="224"/>
+      <c r="E72" s="97"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="107"/>
-      <c r="L72" s="149"/>
-      <c r="M72" s="148"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="148"/>
+      <c r="M72" s="147"/>
     </row>
     <row r="73" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="188">
+      <c r="A73" s="187">
         <v>57</v>
       </c>
-      <c r="B73" s="178"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="227"/>
-      <c r="E73" s="222" t="s">
-        <v>216</v>
+      <c r="B73" s="177"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="225"/>
+      <c r="E73" s="220" t="s">
+        <v>215</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="130"/>
-    </row>
-    <row r="74" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="188">
+      <c r="K73" s="106"/>
+      <c r="L73" s="149"/>
+      <c r="M73" s="129"/>
+    </row>
+    <row r="74" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="187">
         <v>58</v>
       </c>
-      <c r="B74" s="178"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="225"/>
-      <c r="E74" s="222" t="s">
-        <v>217</v>
+      <c r="B74" s="177"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="223"/>
+      <c r="E74" s="220" t="s">
+        <v>216</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
-      <c r="M74" s="130"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="M74" s="129"/>
     </row>
     <row r="75" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="188">
+      <c r="A75" s="187">
         <v>59</v>
       </c>
-      <c r="B75" s="178"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="105"/>
+      <c r="B75" s="177"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="104"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="107"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="130"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="149"/>
+      <c r="M75" s="129"/>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="188">
+      <c r="A76" s="187">
         <v>60</v>
       </c>
-      <c r="B76" s="178"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="105"/>
+      <c r="B76" s="177"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="104"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
-      <c r="K76" s="107"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="130"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="149"/>
+      <c r="M76" s="129"/>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="188"/>
-      <c r="B77" s="178"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="105"/>
+      <c r="A77" s="187"/>
+      <c r="B77" s="177"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="104"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -5667,500 +5651,500 @@
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="130"/>
+      <c r="L77" s="149"/>
+      <c r="M77" s="129"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="189"/>
-      <c r="B78" s="178"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="28"/>
+      <c r="A78" s="188"/>
+      <c r="B78" s="177"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" s="123"/>
-      <c r="L78" s="149"/>
-      <c r="M78" s="130"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="129"/>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="188"/>
-      <c r="B79" s="178"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="105"/>
+      <c r="A79" s="187"/>
+      <c r="B79" s="177"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="104"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="87"/>
-      <c r="K79" s="151"/>
-      <c r="L79" s="152"/>
-      <c r="M79" s="130"/>
+      <c r="J79" s="86"/>
+      <c r="K79" s="150"/>
+      <c r="L79" s="151"/>
+      <c r="M79" s="129"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="188"/>
-      <c r="B80" s="178"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="105"/>
+      <c r="A80" s="187"/>
+      <c r="B80" s="177"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="154"/>
-      <c r="L80" s="155"/>
-      <c r="M80" s="153"/>
+      <c r="J80" s="86"/>
+      <c r="K80" s="153"/>
+      <c r="L80" s="154"/>
+      <c r="M80" s="152"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="188"/>
-      <c r="B81" s="180"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="104"/>
+      <c r="A81" s="187"/>
+      <c r="B81" s="179"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="103"/>
       <c r="F81" s="13"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="154"/>
-      <c r="L81" s="155"/>
-      <c r="M81" s="156"/>
+      <c r="J81" s="86"/>
+      <c r="K81" s="153"/>
+      <c r="L81" s="154"/>
+      <c r="M81" s="155"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="188"/>
-      <c r="B82" s="178"/>
-      <c r="M82" s="107"/>
+      <c r="A82" s="187"/>
+      <c r="B82" s="177"/>
+      <c r="M82" s="106"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="188"/>
-      <c r="B83" s="178"/>
+      <c r="A83" s="187"/>
+      <c r="B83" s="177"/>
     </row>
     <row r="84" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="190"/>
-      <c r="B84" s="178"/>
+      <c r="A84" s="189"/>
+      <c r="B84" s="177"/>
     </row>
     <row r="85" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="190"/>
-      <c r="B85" s="178"/>
+      <c r="A85" s="189"/>
+      <c r="B85" s="177"/>
     </row>
     <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="190"/>
-      <c r="B86" s="178"/>
+      <c r="A86" s="189"/>
+      <c r="B86" s="177"/>
     </row>
     <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="190"/>
-      <c r="B87" s="178"/>
+      <c r="A87" s="189"/>
+      <c r="B87" s="177"/>
     </row>
     <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="190"/>
-      <c r="B88" s="178"/>
+      <c r="A88" s="189"/>
+      <c r="B88" s="177"/>
     </row>
     <row r="89" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="190"/>
-      <c r="B89" s="178"/>
+      <c r="A89" s="189"/>
+      <c r="B89" s="177"/>
     </row>
     <row r="90" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="190"/>
-      <c r="B90" s="178"/>
+      <c r="A90" s="189"/>
+      <c r="B90" s="177"/>
     </row>
     <row r="91" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="190"/>
-      <c r="B91" s="178"/>
+      <c r="A91" s="189"/>
+      <c r="B91" s="177"/>
     </row>
     <row r="92" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="190"/>
-      <c r="B92" s="178"/>
+      <c r="A92" s="189"/>
+      <c r="B92" s="177"/>
     </row>
     <row r="93" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="190"/>
-      <c r="B93" s="178"/>
+      <c r="A93" s="189"/>
+      <c r="B93" s="177"/>
     </row>
     <row r="94" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="190"/>
-      <c r="B94" s="178"/>
+      <c r="A94" s="189"/>
+      <c r="B94" s="177"/>
     </row>
     <row r="95" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="190"/>
-      <c r="B95" s="178"/>
+      <c r="A95" s="189"/>
+      <c r="B95" s="177"/>
     </row>
     <row r="96" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="190"/>
-      <c r="B96" s="178"/>
+      <c r="A96" s="189"/>
+      <c r="B96" s="177"/>
     </row>
     <row r="97" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="190"/>
-      <c r="B97" s="178"/>
+      <c r="A97" s="189"/>
+      <c r="B97" s="177"/>
     </row>
     <row r="98" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="190"/>
-      <c r="B98" s="178"/>
+      <c r="A98" s="189"/>
+      <c r="B98" s="177"/>
     </row>
     <row r="99" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="190"/>
-      <c r="B99" s="178"/>
+      <c r="A99" s="189"/>
+      <c r="B99" s="177"/>
     </row>
     <row r="100" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="190"/>
-      <c r="B100" s="178"/>
+      <c r="A100" s="189"/>
+      <c r="B100" s="177"/>
     </row>
     <row r="101" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="190"/>
-      <c r="B101" s="178"/>
+      <c r="A101" s="189"/>
+      <c r="B101" s="177"/>
     </row>
     <row r="102" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="190"/>
-      <c r="B102" s="178"/>
+      <c r="A102" s="189"/>
+      <c r="B102" s="177"/>
     </row>
     <row r="103" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="190"/>
-      <c r="B103" s="178"/>
+      <c r="A103" s="189"/>
+      <c r="B103" s="177"/>
     </row>
     <row r="104" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="190"/>
-      <c r="B104" s="178"/>
+      <c r="A104" s="189"/>
+      <c r="B104" s="177"/>
     </row>
     <row r="105" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="190"/>
-      <c r="B105" s="178"/>
+      <c r="A105" s="189"/>
+      <c r="B105" s="177"/>
     </row>
     <row r="106" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="190"/>
-      <c r="B106" s="178"/>
+      <c r="A106" s="189"/>
+      <c r="B106" s="177"/>
     </row>
     <row r="107" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="190"/>
-      <c r="B107" s="178"/>
+      <c r="A107" s="189"/>
+      <c r="B107" s="177"/>
     </row>
     <row r="108" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="190"/>
-      <c r="B108" s="178"/>
+      <c r="A108" s="189"/>
+      <c r="B108" s="177"/>
     </row>
     <row r="109" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="190"/>
-      <c r="B109" s="178"/>
+      <c r="A109" s="189"/>
+      <c r="B109" s="177"/>
     </row>
     <row r="110" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="190"/>
-      <c r="B110" s="178"/>
+      <c r="A110" s="189"/>
+      <c r="B110" s="177"/>
     </row>
     <row r="111" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="190"/>
-      <c r="B111" s="178"/>
+      <c r="A111" s="189"/>
+      <c r="B111" s="177"/>
     </row>
     <row r="112" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="190"/>
-      <c r="B112" s="178"/>
+      <c r="A112" s="189"/>
+      <c r="B112" s="177"/>
     </row>
     <row r="113" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="190"/>
-      <c r="B113" s="178"/>
+      <c r="A113" s="189"/>
+      <c r="B113" s="177"/>
     </row>
     <row r="114" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="190"/>
-      <c r="B114" s="178"/>
+      <c r="A114" s="189"/>
+      <c r="B114" s="177"/>
     </row>
     <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="191"/>
-      <c r="B115" s="178"/>
+      <c r="A115" s="190"/>
+      <c r="B115" s="177"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="192"/>
-      <c r="B116" s="178"/>
+      <c r="A116" s="191"/>
+      <c r="B116" s="177"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="192"/>
-      <c r="B117" s="178"/>
+      <c r="A117" s="191"/>
+      <c r="B117" s="177"/>
     </row>
     <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="192"/>
-      <c r="B118" s="178"/>
+      <c r="A118" s="191"/>
+      <c r="B118" s="177"/>
     </row>
     <row r="119" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="192"/>
-      <c r="B119" s="178"/>
+      <c r="A119" s="191"/>
+      <c r="B119" s="177"/>
     </row>
     <row r="120" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="192"/>
-      <c r="B120" s="178"/>
+      <c r="A120" s="191"/>
+      <c r="B120" s="177"/>
     </row>
     <row r="121" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="192"/>
-      <c r="B121" s="178"/>
+      <c r="A121" s="191"/>
+      <c r="B121" s="177"/>
     </row>
     <row r="122" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="192"/>
-      <c r="B122" s="178"/>
+      <c r="A122" s="191"/>
+      <c r="B122" s="177"/>
     </row>
     <row r="123" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="192"/>
-      <c r="B123" s="178"/>
+      <c r="A123" s="191"/>
+      <c r="B123" s="177"/>
     </row>
     <row r="124" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="192"/>
-      <c r="B124" s="178"/>
+      <c r="A124" s="191"/>
+      <c r="B124" s="177"/>
     </row>
     <row r="125" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="192"/>
-      <c r="B125" s="178"/>
+      <c r="A125" s="191"/>
+      <c r="B125" s="177"/>
     </row>
     <row r="126" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="192"/>
-      <c r="B126" s="178"/>
+      <c r="A126" s="191"/>
+      <c r="B126" s="177"/>
     </row>
     <row r="127" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="192"/>
-      <c r="B127" s="178"/>
+      <c r="A127" s="191"/>
+      <c r="B127" s="177"/>
     </row>
     <row r="128" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="192"/>
-      <c r="B128" s="178"/>
+      <c r="A128" s="191"/>
+      <c r="B128" s="177"/>
     </row>
     <row r="129" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="192"/>
-      <c r="B129" s="178"/>
+      <c r="A129" s="191"/>
+      <c r="B129" s="177"/>
     </row>
     <row r="130" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="192"/>
-      <c r="B130" s="178"/>
+      <c r="A130" s="191"/>
+      <c r="B130" s="177"/>
     </row>
     <row r="131" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="192"/>
-      <c r="B131" s="178"/>
+      <c r="A131" s="191"/>
+      <c r="B131" s="177"/>
     </row>
     <row r="132" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="192"/>
-      <c r="B132" s="178"/>
+      <c r="A132" s="191"/>
+      <c r="B132" s="177"/>
     </row>
     <row r="133" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="192"/>
-      <c r="B133" s="178"/>
+      <c r="A133" s="191"/>
+      <c r="B133" s="177"/>
     </row>
     <row r="134" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="192"/>
-      <c r="B134" s="178"/>
+      <c r="A134" s="191"/>
+      <c r="B134" s="177"/>
     </row>
     <row r="135" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="192"/>
-      <c r="B135" s="178"/>
+      <c r="A135" s="191"/>
+      <c r="B135" s="177"/>
     </row>
     <row r="136" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="192"/>
-      <c r="B136" s="178"/>
+      <c r="A136" s="191"/>
+      <c r="B136" s="177"/>
     </row>
     <row r="137" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="192"/>
-      <c r="B137" s="178"/>
+      <c r="A137" s="191"/>
+      <c r="B137" s="177"/>
     </row>
     <row r="138" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="192"/>
-      <c r="B138" s="178"/>
+      <c r="A138" s="191"/>
+      <c r="B138" s="177"/>
     </row>
     <row r="139" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="192"/>
-      <c r="B139" s="178"/>
+      <c r="A139" s="191"/>
+      <c r="B139" s="177"/>
     </row>
     <row r="140" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="192"/>
-      <c r="B140" s="178"/>
+      <c r="A140" s="191"/>
+      <c r="B140" s="177"/>
     </row>
     <row r="141" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="192"/>
-      <c r="B141" s="178"/>
+      <c r="A141" s="191"/>
+      <c r="B141" s="177"/>
     </row>
     <row r="142" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="192"/>
-      <c r="B142" s="178"/>
+      <c r="A142" s="191"/>
+      <c r="B142" s="177"/>
     </row>
     <row r="143" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="192"/>
-      <c r="B143" s="178"/>
+      <c r="A143" s="191"/>
+      <c r="B143" s="177"/>
     </row>
     <row r="144" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="192"/>
-      <c r="B144" s="178"/>
+      <c r="A144" s="191"/>
+      <c r="B144" s="177"/>
     </row>
     <row r="145" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="192"/>
-      <c r="B145" s="178"/>
+      <c r="A145" s="191"/>
+      <c r="B145" s="177"/>
     </row>
     <row r="146" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="192"/>
-      <c r="B146" s="178"/>
+      <c r="A146" s="191"/>
+      <c r="B146" s="177"/>
     </row>
     <row r="147" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="192"/>
-      <c r="B147" s="178"/>
+      <c r="A147" s="191"/>
+      <c r="B147" s="177"/>
     </row>
     <row r="148" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="192"/>
-      <c r="B148" s="178"/>
+      <c r="A148" s="191"/>
+      <c r="B148" s="177"/>
     </row>
     <row r="149" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="192"/>
-      <c r="B149" s="178"/>
+      <c r="A149" s="191"/>
+      <c r="B149" s="177"/>
     </row>
     <row r="150" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="192"/>
-      <c r="B150" s="178"/>
+      <c r="A150" s="191"/>
+      <c r="B150" s="177"/>
     </row>
     <row r="151" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="192"/>
-      <c r="B151" s="178"/>
+      <c r="A151" s="191"/>
+      <c r="B151" s="177"/>
     </row>
     <row r="152" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="192"/>
-      <c r="B152" s="178"/>
+      <c r="A152" s="191"/>
+      <c r="B152" s="177"/>
     </row>
     <row r="153" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="192"/>
-      <c r="B153" s="178"/>
+      <c r="A153" s="191"/>
+      <c r="B153" s="177"/>
     </row>
     <row r="154" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="192"/>
-      <c r="B154" s="178"/>
+      <c r="A154" s="191"/>
+      <c r="B154" s="177"/>
     </row>
     <row r="155" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="192"/>
-      <c r="B155" s="178"/>
+      <c r="A155" s="191"/>
+      <c r="B155" s="177"/>
     </row>
     <row r="156" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="192"/>
-      <c r="B156" s="178"/>
+      <c r="A156" s="191"/>
+      <c r="B156" s="177"/>
     </row>
     <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="192"/>
-      <c r="B157" s="178"/>
+      <c r="A157" s="191"/>
+      <c r="B157" s="177"/>
     </row>
     <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="193"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="192"/>
+      <c r="B158" s="176"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="159"/>
-      <c r="B159" s="177"/>
+      <c r="A159" s="158"/>
+      <c r="B159" s="176"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="160"/>
-      <c r="B160" s="177"/>
+      <c r="A160" s="159"/>
+      <c r="B160" s="176"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="160"/>
-      <c r="B161" s="177"/>
+      <c r="A161" s="159"/>
+      <c r="B161" s="176"/>
     </row>
     <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="160"/>
-      <c r="B162" s="177"/>
+      <c r="A162" s="159"/>
+      <c r="B162" s="176"/>
     </row>
     <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="161"/>
-      <c r="B163" s="177"/>
+      <c r="A163" s="160"/>
+      <c r="B163" s="176"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="161"/>
-      <c r="B164" s="177"/>
+      <c r="A164" s="160"/>
+      <c r="B164" s="176"/>
     </row>
     <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="161"/>
-      <c r="B165" s="177"/>
+      <c r="A165" s="160"/>
+      <c r="B165" s="176"/>
     </row>
     <row r="166" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="161"/>
-      <c r="B166" s="177"/>
+      <c r="A166" s="160"/>
+      <c r="B166" s="176"/>
     </row>
     <row r="167" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="161"/>
-      <c r="B167" s="177"/>
+      <c r="A167" s="160"/>
+      <c r="B167" s="176"/>
     </row>
     <row r="168" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="161"/>
-      <c r="B168" s="177"/>
+      <c r="A168" s="160"/>
+      <c r="B168" s="176"/>
     </row>
     <row r="169" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="161"/>
-      <c r="B169" s="177"/>
+      <c r="A169" s="160"/>
+      <c r="B169" s="176"/>
     </row>
     <row r="170" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="161"/>
-      <c r="B170" s="177"/>
+      <c r="A170" s="160"/>
+      <c r="B170" s="176"/>
     </row>
     <row r="171" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="161"/>
-      <c r="B171" s="177"/>
+      <c r="A171" s="160"/>
+      <c r="B171" s="176"/>
     </row>
     <row r="172" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="161"/>
-      <c r="B172" s="177"/>
+      <c r="A172" s="160"/>
+      <c r="B172" s="176"/>
     </row>
     <row r="173" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="161"/>
-      <c r="B173" s="177"/>
+      <c r="A173" s="160"/>
+      <c r="B173" s="176"/>
     </row>
     <row r="174" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="161"/>
-      <c r="B174" s="177"/>
+      <c r="A174" s="160"/>
+      <c r="B174" s="176"/>
     </row>
     <row r="175" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="161"/>
-      <c r="B175" s="177"/>
+      <c r="A175" s="160"/>
+      <c r="B175" s="176"/>
     </row>
     <row r="176" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="161"/>
-      <c r="B176" s="177"/>
+      <c r="A176" s="160"/>
+      <c r="B176" s="176"/>
     </row>
     <row r="177" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="161"/>
-      <c r="B177" s="177"/>
+      <c r="A177" s="160"/>
+      <c r="B177" s="176"/>
     </row>
     <row r="178" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="161"/>
-      <c r="B178" s="177"/>
+      <c r="A178" s="160"/>
+      <c r="B178" s="176"/>
     </row>
     <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="160"/>
-      <c r="B179" s="177"/>
+      <c r="A179" s="159"/>
+      <c r="B179" s="176"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="160"/>
-      <c r="B180" s="177"/>
+      <c r="A180" s="159"/>
+      <c r="B180" s="176"/>
     </row>
     <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="160"/>
-      <c r="B181" s="177"/>
+      <c r="A181" s="159"/>
+      <c r="B181" s="176"/>
     </row>
     <row r="182" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="160"/>
-      <c r="B182" s="177"/>
+      <c r="A182" s="159"/>
+      <c r="B182" s="176"/>
     </row>
     <row r="183" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="160"/>
-      <c r="B183" s="177"/>
+      <c r="A183" s="159"/>
+      <c r="B183" s="176"/>
     </row>
     <row r="184" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="160"/>
-      <c r="B184" s="177"/>
+      <c r="A184" s="159"/>
+      <c r="B184" s="176"/>
     </row>
     <row r="185" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="160"/>
-      <c r="B185" s="177"/>
+      <c r="A185" s="159"/>
+      <c r="B185" s="176"/>
     </row>
     <row r="186" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="160"/>
-      <c r="B186" s="177"/>
+      <c r="A186" s="159"/>
+      <c r="B186" s="176"/>
     </row>
     <row r="187" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="160"/>
-      <c r="B187" s="177"/>
+      <c r="A187" s="159"/>
+      <c r="B187" s="176"/>
     </row>
     <row r="188" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="160"/>
-      <c r="B188" s="177"/>
+      <c r="A188" s="159"/>
+      <c r="B188" s="176"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="162"/>
+      <c r="A189" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A599423F-AED4-46EB-9467-0011177E046D}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{783E11F6-9BE0-463E-B3DF-7A39797C3EC6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -852,9 +852,6 @@
     <t xml:space="preserve"> UI Testing</t>
   </si>
   <si>
-    <t>Mainl UI Allignment and Functionality Testing</t>
-  </si>
-  <si>
     <t>Functionality Testing</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
 Microsoft Edge
 Mozila Firefox
 Opera </t>
+  </si>
+  <si>
+    <t>Main User UI Allignment and Functionality Testing</t>
   </si>
 </sst>
 </file>
@@ -2836,6 +2836,21 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2859,21 +2874,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3546,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3569,12 +3569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="274"/>
+      <c r="B1" s="279"/>
       <c r="C1" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3592,18 +3592,18 @@
       <c r="I1" s="112"/>
       <c r="J1" s="85"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="271" t="s">
+      <c r="L1" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="272"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="274"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="37" t="s">
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="274"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -3660,10 +3660,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="278" t="s">
+      <c r="A4" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="274"/>
+      <c r="B4" s="279"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="112"/>
       <c r="I4" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J4" s="112"/>
       <c r="K4" s="113"/>
@@ -3688,17 +3688,17 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="274"/>
-      <c r="C5" s="275" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="276"/>
-      <c r="G5" s="277"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="282"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
       <c r="J5" s="115"/>
@@ -3791,7 +3791,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="118" t="s">
         <v>105</v>
@@ -3806,7 +3806,7 @@
     <row r="9" spans="1:15" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="181"/>
       <c r="B9" s="211"/>
-      <c r="C9" s="279"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3825,7 +3825,7 @@
       <c r="B10" s="193" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="280" t="s">
+      <c r="C10" s="272" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="194"/>
-      <c r="C11" s="281"/>
+      <c r="C11" s="273"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>44</v>
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="194"/>
-      <c r="C12" s="281"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>46</v>
@@ -3920,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="194"/>
-      <c r="C13" s="281"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>48</v>
@@ -3949,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="194"/>
-      <c r="C14" s="281"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
         <v>166</v>
@@ -3977,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="195"/>
-      <c r="C15" s="281"/>
+      <c r="C15" s="273"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>50</v>
@@ -4004,7 +4004,7 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="184"/>
       <c r="B16" s="196"/>
-      <c r="C16" s="282"/>
+      <c r="C16" s="274"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4023,7 +4023,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="195"/>
-      <c r="C17" s="281"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="33" t="s">
         <v>190</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="194"/>
-      <c r="C18" s="281"/>
+      <c r="C18" s="273"/>
       <c r="E18" s="60" t="s">
         <v>193</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="194"/>
-      <c r="C19" s="283"/>
+      <c r="C19" s="275"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
         <v>197</v>
@@ -5363,28 +5363,28 @@
         <v>51</v>
       </c>
       <c r="B64" s="268" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C64" s="251" t="s">
         <v>218</v>
       </c>
       <c r="D64" s="245" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" s="253" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="254" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="254" t="s">
+      <c r="G64" s="255" t="s">
         <v>228</v>
-      </c>
-      <c r="G64" s="255" t="s">
-        <v>229</v>
       </c>
       <c r="H64" s="255" t="s">
         <v>42</v>
       </c>
       <c r="I64" s="256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J64" s="257"/>
       <c r="K64" s="255"/>
@@ -5400,23 +5400,23 @@
       </c>
       <c r="B65" s="196"/>
       <c r="C65" s="245" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D65" s="252"/>
       <c r="E65" s="66" t="s">
         <v>217</v>
       </c>
       <c r="F65" s="244" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G65" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H65" s="231" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="247" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J65" s="246"/>
       <c r="K65" s="231"/>
@@ -5432,16 +5432,16 @@
       </c>
       <c r="B66" s="230"/>
       <c r="C66" s="245" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="245" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="245" t="s">
+      <c r="F66" s="231" t="s">
         <v>225</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="F66" s="231" t="s">
-        <v>226</v>
       </c>
       <c r="G66" s="231" t="s">
         <v>36</v>
@@ -5450,7 +5450,7 @@
         <v>42</v>
       </c>
       <c r="I66" s="237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J66" s="237"/>
       <c r="K66" s="238"/>

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{783E11F6-9BE0-463E-B3DF-7A39797C3EC6}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E007FF33-9130-416B-84A4-D3D8010FDDBC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -904,9 +904,6 @@
     <t>Full Web App</t>
   </si>
   <si>
-    <t>119/05/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Google Chrome
 Microsoft Edge
 Mozila Firefox
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>Main User UI Allignment and Functionality Testing</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
   </si>
 </sst>
 </file>
@@ -3546,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="37" t="s">
@@ -3791,7 +3791,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I8" s="118" t="s">
         <v>105</v>
@@ -5363,7 +5363,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="268" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" s="251" t="s">
         <v>218</v>

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E007FF33-9130-416B-84A4-D3D8010FDDBC}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51251CB1-2216-49A8-9B61-4E6ADE6A1D6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="243">
   <si>
     <t>Product Name</t>
   </si>
@@ -915,12 +915,33 @@
   <si>
     <t>15/05/2024</t>
   </si>
+  <si>
+    <t>Mobile App Download</t>
+  </si>
+  <si>
+    <t>All Kinds of user functions</t>
+  </si>
+  <si>
+    <t>Download from "Google Play"</t>
+  </si>
+  <si>
+    <t>Download in android Phone</t>
+  </si>
+  <si>
+    <t>It should be download properly in Android environment(Android Phone)</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Log In.
+3. Check andriod app/Google Play download option in bottom-right</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1106,6 +1127,21 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -2024,7 +2060,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2737,9 +2773,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2758,9 +2791,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2776,12 +2806,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2873,6 +2897,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3236,6 +3287,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF29CD40"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3544,10 +3600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3569,10 +3625,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="279"/>
+      <c r="B1" s="275"/>
       <c r="C1" s="23" t="s">
         <v>231</v>
       </c>
@@ -3585,30 +3641,30 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="266" t="s">
         <v>200</v>
       </c>
       <c r="H1" s="112"/>
       <c r="I1" s="112"/>
       <c r="J1" s="85"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="276" t="s">
+      <c r="L1" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="277"/>
+      <c r="M1" s="273"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="279"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="31" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="269" t="s">
+      <c r="E2" s="265" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3627,15 +3683,15 @@
         <v>7</v>
       </c>
       <c r="M2" s="34">
-        <f>COUNTIF(L8:L68, "Passed")</f>
-        <v>40</v>
+        <f>COUNTIF(L8:L69, "Passed")</f>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="279"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -3655,15 +3711,15 @@
         <v>12</v>
       </c>
       <c r="M3" s="34">
-        <f>COUNTIF(L8:L367, "Failed")</f>
+        <f>COUNTIF(L8:L368, "Failed")</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="279"/>
+      <c r="B4" s="275"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3683,22 +3739,22 @@
         <v>16</v>
       </c>
       <c r="M4" s="34">
-        <f>COUNTIF(L7:L371, "Not Executed")</f>
+        <f>COUNTIF(L7:L372, "Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="279"/>
-      <c r="C5" s="280" t="s">
+      <c r="B5" s="275"/>
+      <c r="C5" s="276" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="278"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
       <c r="J5" s="115"/>
@@ -3707,7 +3763,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="35">
-        <f>COUNTIF(L7:L371, "Out of Scope")</f>
+        <f>COUNTIF(L7:L372, "Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
@@ -3728,7 +3784,7 @@
       </c>
       <c r="M6" s="36">
         <f>SUM(M2:M5)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3806,7 +3862,7 @@
     <row r="9" spans="1:15" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="181"/>
       <c r="B9" s="211"/>
-      <c r="C9" s="271"/>
+      <c r="C9" s="267"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3825,7 +3881,7 @@
       <c r="B10" s="193" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="272" t="s">
+      <c r="C10" s="268" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -3860,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="194"/>
-      <c r="C11" s="273"/>
+      <c r="C11" s="269"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>44</v>
@@ -3889,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="194"/>
-      <c r="C12" s="273"/>
+      <c r="C12" s="269"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>46</v>
@@ -3920,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="194"/>
-      <c r="C13" s="273"/>
+      <c r="C13" s="269"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>48</v>
@@ -3949,7 +4005,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="194"/>
-      <c r="C14" s="273"/>
+      <c r="C14" s="269"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
         <v>166</v>
@@ -3977,7 +4033,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="195"/>
-      <c r="C15" s="273"/>
+      <c r="C15" s="269"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>50</v>
@@ -4004,7 +4060,7 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="184"/>
       <c r="B16" s="196"/>
-      <c r="C16" s="274"/>
+      <c r="C16" s="270"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4023,7 +4079,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="195"/>
-      <c r="C17" s="273"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="33" t="s">
         <v>190</v>
       </c>
@@ -4056,7 +4112,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="194"/>
-      <c r="C18" s="273"/>
+      <c r="C18" s="269"/>
       <c r="E18" s="60" t="s">
         <v>193</v>
       </c>
@@ -4086,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="194"/>
-      <c r="C19" s="275"/>
+      <c r="C19" s="271"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
         <v>197</v>
@@ -5313,16 +5369,16 @@
       <c r="M61" s="106"/>
     </row>
     <row r="62" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="248">
+      <c r="A62" s="246">
         <v>50</v>
       </c>
       <c r="B62" s="194"/>
-      <c r="C62" s="249"/>
-      <c r="D62" s="241"/>
-      <c r="E62" s="243" t="s">
+      <c r="C62" s="247"/>
+      <c r="D62" s="240"/>
+      <c r="E62" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="242" t="s">
+      <c r="F62" s="241" t="s">
         <v>85</v>
       </c>
       <c r="G62" s="173" t="s">
@@ -5343,55 +5399,55 @@
       <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:16" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="259"/>
-      <c r="B63" s="260"/>
-      <c r="C63" s="261"/>
-      <c r="D63" s="262"/>
-      <c r="E63" s="263"/>
-      <c r="F63" s="266"/>
-      <c r="G63" s="264"/>
-      <c r="H63" s="266"/>
-      <c r="I63" s="267"/>
-      <c r="J63" s="267"/>
-      <c r="K63" s="266"/>
-      <c r="L63" s="265"/>
-      <c r="M63" s="265"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="259"/>
+      <c r="F63" s="262"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="262"/>
+      <c r="I63" s="263"/>
+      <c r="J63" s="263"/>
+      <c r="K63" s="262"/>
+      <c r="L63" s="261"/>
+      <c r="M63" s="261"/>
       <c r="N63" s="127"/>
     </row>
     <row r="64" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="250">
+      <c r="A64" s="248">
         <v>51</v>
       </c>
-      <c r="B64" s="268" t="s">
+      <c r="B64" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="251" t="s">
+      <c r="C64" s="281" t="s">
         <v>218</v>
       </c>
-      <c r="D64" s="245" t="s">
+      <c r="D64" s="282" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="253" t="s">
+      <c r="E64" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="F64" s="254" t="s">
+      <c r="F64" s="250" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="255" t="s">
+      <c r="G64" s="251" t="s">
         <v>228</v>
       </c>
-      <c r="H64" s="255" t="s">
+      <c r="H64" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="256" t="s">
+      <c r="I64" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="J64" s="257"/>
-      <c r="K64" s="255"/>
-      <c r="L64" s="258" t="s">
+      <c r="J64" s="253"/>
+      <c r="K64" s="251"/>
+      <c r="L64" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="240"/>
+      <c r="M64" s="239"/>
       <c r="N64" s="144"/>
     </row>
     <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5399,14 +5455,16 @@
         <v>52</v>
       </c>
       <c r="B65" s="196"/>
-      <c r="C65" s="245" t="s">
+      <c r="C65" s="282" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="252"/>
+      <c r="D65" s="283" t="s">
+        <v>238</v>
+      </c>
       <c r="E65" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="244" t="s">
+      <c r="F65" s="243" t="s">
         <v>221</v>
       </c>
       <c r="G65" s="231" t="s">
@@ -5415,26 +5473,26 @@
       <c r="H65" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="247" t="s">
+      <c r="I65" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="J65" s="246"/>
+      <c r="J65" s="244"/>
       <c r="K65" s="231"/>
-      <c r="L65" s="240" t="s">
+      <c r="L65" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="240"/>
+      <c r="M65" s="239"/>
       <c r="N65" s="85"/>
     </row>
     <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="187">
         <v>53</v>
       </c>
-      <c r="B66" s="230"/>
-      <c r="C66" s="245" t="s">
+      <c r="B66" s="264"/>
+      <c r="C66" s="282" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="245" t="s">
+      <c r="D66" s="282" t="s">
         <v>224</v>
       </c>
       <c r="E66" s="66" t="s">
@@ -5449,192 +5507,209 @@
       <c r="H66" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="237" t="s">
+      <c r="I66" s="285" t="s">
         <v>230</v>
       </c>
-      <c r="J66" s="237"/>
-      <c r="K66" s="238"/>
-      <c r="L66" s="239" t="s">
+      <c r="J66" s="245"/>
+      <c r="K66" s="243"/>
+      <c r="L66" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="M66" s="240"/>
-      <c r="N66" s="144"/>
-    </row>
-    <row r="67" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="203"/>
-      <c r="B67" s="204"/>
-      <c r="C67" s="198"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="205"/>
-      <c r="F67" s="206"/>
-      <c r="G67" s="206"/>
-      <c r="H67" s="232"/>
-      <c r="I67" s="232"/>
-      <c r="J67" s="232"/>
-      <c r="K67" s="233"/>
-      <c r="L67" s="234"/>
-      <c r="M67" s="235"/>
+      <c r="M66" s="239"/>
+      <c r="N66" s="85"/>
+    </row>
+    <row r="67" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="187">
+        <v>54</v>
+      </c>
+      <c r="B67" s="230"/>
+      <c r="C67" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="280" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="280" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="280" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="287" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="286" t="s">
+        <v>242</v>
+      </c>
+      <c r="J67" s="237"/>
+      <c r="K67" s="288"/>
+      <c r="L67" s="238" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="239"/>
       <c r="N67" s="144"/>
     </row>
-    <row r="68" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="187">
-        <v>54</v>
-      </c>
-      <c r="B68" s="179"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="221" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="145"/>
-    </row>
-    <row r="69" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="203"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="205"/>
+      <c r="F68" s="206"/>
+      <c r="G68" s="206"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="232"/>
+      <c r="K68" s="233"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="235"/>
+      <c r="N68" s="144"/>
+    </row>
+    <row r="69" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="187">
         <v>55</v>
       </c>
       <c r="B69" s="179"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-    </row>
-    <row r="70" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="164"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="221" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="145"/>
+      <c r="M69" s="145"/>
+    </row>
+    <row r="70" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="187">
         <v>55</v>
       </c>
       <c r="B70" s="179"/>
       <c r="C70" s="163"/>
-      <c r="D70" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="222" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="D70" s="178"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
-      <c r="L70" s="79"/>
+      <c r="L70" s="106"/>
       <c r="M70" s="106"/>
     </row>
-    <row r="71" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="187">
         <v>56</v>
       </c>
       <c r="B71" s="179"/>
       <c r="C71" s="163"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="227" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="226"/>
+      <c r="D71" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="222" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="22"/>
-    </row>
-    <row r="72" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K71" s="21"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="106"/>
+    </row>
+    <row r="72" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="187">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="179"/>
       <c r="C72" s="163"/>
-      <c r="D72" s="224"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="21"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="227" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="226"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="147"/>
-    </row>
-    <row r="73" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K72" s="79"/>
+      <c r="L72" s="106"/>
+      <c r="M72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="187">
-        <v>57</v>
-      </c>
-      <c r="B73" s="177"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="225"/>
-      <c r="E73" s="220" t="s">
-        <v>215</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B73" s="179"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="224"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="21"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="106"/>
-      <c r="L73" s="149"/>
-      <c r="M73" s="129"/>
-    </row>
-    <row r="74" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L73" s="148"/>
+      <c r="M73" s="147"/>
+    </row>
+    <row r="74" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="187">
         <v>58</v>
       </c>
       <c r="B74" s="177"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="223"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="225"/>
       <c r="E74" s="220" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="21"/>
+        <v>215</v>
+      </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
-      <c r="J74" s="106"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="106"/>
+      <c r="L74" s="149"/>
       <c r="M74" s="129"/>
     </row>
-    <row r="75" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="187">
         <v>59</v>
       </c>
       <c r="B75" s="177"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="79"/>
+      <c r="D75" s="223"/>
+      <c r="E75" s="220" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="106"/>
       <c r="K75" s="106"/>
-      <c r="L75" s="149"/>
       <c r="M75" s="129"/>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="187">
         <v>60</v>
       </c>
       <c r="B76" s="177"/>
       <c r="C76" s="27"/>
       <c r="D76" s="104"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="79"/>
       <c r="K76" s="106"/>
       <c r="L76" s="149"/>
       <c r="M76" s="129"/>
@@ -5650,81 +5725,92 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="106"/>
       <c r="L77" s="149"/>
       <c r="M77" s="129"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="188"/>
+      <c r="A78" s="187"/>
       <c r="B78" s="177"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="104"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="148"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="149"/>
       <c r="M78" s="129"/>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="187"/>
+      <c r="A79" s="188"/>
       <c r="B79" s="177"/>
       <c r="C79" s="107"/>
       <c r="D79" s="27"/>
-      <c r="E79" s="104"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="86"/>
-      <c r="K79" s="150"/>
-      <c r="L79" s="151"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="148"/>
       <c r="M79" s="129"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="187"/>
       <c r="B80" s="177"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="109"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="104"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="86"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="152"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="151"/>
+      <c r="M80" s="129"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="187"/>
-      <c r="B81" s="179"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="13"/>
+      <c r="B81" s="177"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="86"/>
       <c r="K81" s="153"/>
       <c r="L81" s="154"/>
-      <c r="M81" s="155"/>
+      <c r="M81" s="152"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="187"/>
-      <c r="B82" s="177"/>
-      <c r="M82" s="106"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="154"/>
+      <c r="M82" s="155"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="187"/>
       <c r="B83" s="177"/>
-    </row>
-    <row r="84" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="189"/>
+      <c r="M83" s="106"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="187"/>
       <c r="B84" s="177"/>
     </row>
     <row r="85" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -5848,11 +5934,11 @@
       <c r="B114" s="177"/>
     </row>
     <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="190"/>
+      <c r="A115" s="189"/>
       <c r="B115" s="177"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="191"/>
+      <c r="A116" s="190"/>
       <c r="B116" s="177"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6020,15 +6106,15 @@
       <c r="B157" s="177"/>
     </row>
     <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="192"/>
-      <c r="B158" s="176"/>
+      <c r="A158" s="191"/>
+      <c r="B158" s="177"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="158"/>
+      <c r="A159" s="192"/>
       <c r="B159" s="176"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="159"/>
+      <c r="A160" s="158"/>
       <c r="B160" s="176"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6040,7 +6126,7 @@
       <c r="B162" s="176"/>
     </row>
     <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="160"/>
+      <c r="A163" s="159"/>
       <c r="B163" s="176"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6104,7 +6190,7 @@
       <c r="B178" s="176"/>
     </row>
     <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="159"/>
+      <c r="A179" s="160"/>
       <c r="B179" s="176"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6143,8 +6229,12 @@
       <c r="A188" s="159"/>
       <c r="B188" s="176"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="161"/>
+    <row r="189" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="159"/>
+      <c r="B189" s="176"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6157,22 +6247,22 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L71 K75:K76 K78 J74 L79:L81 L13:L20 L58:L69 L22:L53 K72:K73">
+  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
     <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71 K75:K76 K78 J74 L79:L81 L13:L20 L58:L69 L22:L53 K72:K73">
+  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
     <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71 K75:K76 K78 J74 L79:L81 L13:L20 L58:L69 L22:L53 K72:K73">
+  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
     <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71 K75:K76 K78 J74 L79:L81 L13:L20 L58:L69 L22:L53 K72:K73">
+  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
     <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
@@ -6378,7 +6468,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L8 L71 K75:K76 J74 K78 L79:L81 L10:L69 K72:K73" xr:uid="{568807F5-88EF-4EC8-AD05-7652F536B404}">
+    <dataValidation type="list" allowBlank="1" sqref="L8 L72 K76:K77 J75 K79 L80:L82 K73:K74 L10:L70" xr:uid="{568807F5-88EF-4EC8-AD05-7652F536B404}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51251CB1-2216-49A8-9B61-4E6ADE6A1D6F}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0C2B50-9079-437C-A985-32DE34DB183D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -2060,7 +2060,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2320,9 +2320,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2863,6 +2860,33 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2897,33 +2921,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3602,33 +3599,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="110"/>
-    <col min="2" max="2" width="13.8984375" style="110" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="110" customWidth="1"/>
-    <col min="4" max="4" width="15" style="110" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="110" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="110" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="110" customWidth="1"/>
-    <col min="8" max="8" width="14" style="110" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="110" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="110" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="110" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="110" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" style="110" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="110"/>
+    <col min="1" max="1" width="8.796875" style="109"/>
+    <col min="2" max="2" width="13.8984375" style="109" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="109" customWidth="1"/>
+    <col min="4" max="4" width="15" style="109" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="109" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="109" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="109" customWidth="1"/>
+    <col min="8" max="8" width="14" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="109" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="109" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="109" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="109" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" style="109" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="283"/>
       <c r="C1" s="23" t="s">
         <v>231</v>
       </c>
@@ -3641,30 +3638,30 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="266" t="s">
+      <c r="G1" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="85"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="272" t="s">
+      <c r="K1" s="112"/>
+      <c r="L1" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="273"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="275"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="31" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="265" t="s">
+      <c r="E2" s="264" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3673,12 +3670,12 @@
       <c r="G2" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="112"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3688,10 +3685,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="275"/>
+      <c r="B3" s="283"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -3699,14 +3696,14 @@
       <c r="E3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="113" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="H3" s="111"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3716,25 +3713,25 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="275"/>
+      <c r="B4" s="283"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="113" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="112"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3744,21 +3741,21 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="275"/>
-      <c r="C5" s="276" t="s">
+      <c r="B5" s="283"/>
+      <c r="C5" s="284" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -3768,17 +3765,17 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
@@ -3829,7 +3826,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="180">
+      <c r="A8" s="179">
         <v>1</v>
       </c>
       <c r="B8" s="47"/>
@@ -3846,23 +3843,23 @@
       <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="117" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="110" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="267"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3875,13 +3872,13 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="182">
+      <c r="A10" s="181">
         <v>2</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="276" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -3906,17 +3903,17 @@
         <v>158</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="182">
+      <c r="A11" s="181">
         <v>3</v>
       </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="269"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="277"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>44</v>
@@ -3935,17 +3932,17 @@
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="182">
+      <c r="A12" s="181">
         <v>4</v>
       </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="269"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="277"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>46</v>
@@ -3966,17 +3963,17 @@
         <v>159</v>
       </c>
       <c r="K12" s="45"/>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="120"/>
+      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:15" ht="73" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="182">
+      <c r="A13" s="181">
         <v>5</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="269"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="277"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>48</v>
@@ -3995,17 +3992,17 @@
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="119" t="s">
+      <c r="L13" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="120"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="182">
+      <c r="A14" s="181">
         <v>6</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="269"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="277"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
         <v>166</v>
@@ -4023,17 +4020,17 @@
       <c r="J14" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="L14" s="119" t="s">
+      <c r="L14" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="120"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:15" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="183">
+      <c r="A15" s="182">
         <v>7</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="269"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="277"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>50</v>
@@ -4051,16 +4048,16 @@
         <v>109</v>
       </c>
       <c r="J15" s="49"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122" t="s">
+      <c r="K15" s="120"/>
+      <c r="L15" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="123"/>
+      <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="184"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="270"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="278"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4068,18 +4065,18 @@
       <c r="H16" s="52"/>
       <c r="I16" s="54"/>
       <c r="J16" s="55"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="128"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
     </row>
     <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="183">
+      <c r="A17" s="182">
         <v>8</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="269"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="277"/>
       <c r="D17" s="33" t="s">
         <v>190</v>
       </c>
@@ -4099,20 +4096,20 @@
         <v>192</v>
       </c>
       <c r="J17" s="59"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130" t="s">
+      <c r="K17" s="128"/>
+      <c r="L17" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
     </row>
     <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183">
+      <c r="A18" s="182">
         <v>9</v>
       </c>
-      <c r="B18" s="194"/>
-      <c r="C18" s="269"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="277"/>
       <c r="E18" s="60" t="s">
         <v>193</v>
       </c>
@@ -4129,20 +4126,20 @@
         <v>195</v>
       </c>
       <c r="J18" s="63"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="132" t="s">
+      <c r="K18" s="127"/>
+      <c r="L18" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="133"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
     </row>
     <row r="19" spans="1:15" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64">
         <v>10</v>
       </c>
-      <c r="B19" s="194"/>
-      <c r="C19" s="271"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="279"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
         <v>197</v>
@@ -4158,18 +4155,18 @@
         <v>196</v>
       </c>
       <c r="J19" s="69"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="134" t="s">
+      <c r="K19" s="90"/>
+      <c r="L19" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="135"/>
-      <c r="N19" s="128"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="127"/>
     </row>
     <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="185">
+      <c r="A20" s="184">
         <v>11</v>
       </c>
-      <c r="B20" s="194"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="30"/>
       <c r="D20" s="70"/>
       <c r="E20" s="71" t="s">
@@ -4186,37 +4183,37 @@
         <v>199</v>
       </c>
       <c r="J20" s="75"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="136" t="s">
+      <c r="K20" s="90"/>
+      <c r="L20" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="137"/>
-      <c r="O20" s="128"/>
+      <c r="M20" s="136"/>
+      <c r="O20" s="127"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="186"/>
-      <c r="B21" s="218"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="217"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="216"/>
     </row>
     <row r="22" spans="1:15" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="187">
+      <c r="A22" s="186">
         <v>12</v>
       </c>
-      <c r="B22" s="194"/>
-      <c r="C22" s="157" t="s">
+      <c r="B22" s="193"/>
+      <c r="C22" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="166" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="76" t="s">
@@ -4236,18 +4233,18 @@
       </c>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
-      <c r="L22" s="106" t="s">
+      <c r="L22" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="187">
+      <c r="A23" s="186">
         <v>13</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="168"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="76" t="s">
         <v>117</v>
       </c>
@@ -4263,18 +4260,18 @@
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="79"/>
-      <c r="L23" s="106" t="s">
+      <c r="L23" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="187">
+      <c r="A24" s="186">
         <v>14</v>
       </c>
-      <c r="B24" s="194"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="168"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="76" t="s">
         <v>122</v>
       </c>
@@ -4294,18 +4291,18 @@
         <v>160</v>
       </c>
       <c r="K24" s="79"/>
-      <c r="L24" s="106" t="s">
+      <c r="L24" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="187">
+      <c r="A25" s="186">
         <v>15</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="168"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="76" t="s">
         <v>124</v>
       </c>
@@ -4324,19 +4321,19 @@
       <c r="J25" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="139"/>
-      <c r="L25" s="106" t="s">
+      <c r="K25" s="138"/>
+      <c r="L25" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="187">
+      <c r="A26" s="186">
         <v>16</v>
       </c>
-      <c r="B26" s="194"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="168"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="76" t="s">
         <v>118</v>
       </c>
@@ -4352,18 +4349,18 @@
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="79"/>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="187">
+      <c r="A27" s="186">
         <v>17</v>
       </c>
-      <c r="B27" s="194"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="168"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="84" t="s">
         <v>126</v>
       </c>
@@ -4381,18 +4378,18 @@
       </c>
       <c r="J27" s="85"/>
       <c r="K27" s="79"/>
-      <c r="L27" s="106" t="s">
+      <c r="L27" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="187">
+      <c r="A28" s="186">
         <v>18</v>
       </c>
-      <c r="B28" s="194"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="168"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="84" t="s">
         <v>132</v>
       </c>
@@ -4411,19 +4408,19 @@
       <c r="J28" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="140"/>
-      <c r="L28" s="106" t="s">
+      <c r="K28" s="139"/>
+      <c r="L28" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="187">
+      <c r="A29" s="186">
         <v>19</v>
       </c>
-      <c r="B29" s="194"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="168"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="84" t="s">
         <v>133</v>
       </c>
@@ -4433,7 +4430,7 @@
       <c r="G29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="87" t="s">
+      <c r="H29" s="21" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="21" t="s">
@@ -4443,18 +4440,18 @@
         <v>163</v>
       </c>
       <c r="K29" s="79"/>
-      <c r="L29" s="106" t="s">
+      <c r="L29" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="187">
+      <c r="A30" s="186">
         <v>20</v>
       </c>
-      <c r="B30" s="194"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="168"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="84" t="s">
         <v>134</v>
       </c>
@@ -4472,18 +4469,18 @@
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="79"/>
-      <c r="L30" s="106" t="s">
+      <c r="L30" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="187">
+      <c r="A31" s="186">
         <v>21</v>
       </c>
-      <c r="B31" s="194"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="168"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="84" t="s">
         <v>135</v>
       </c>
@@ -4499,22 +4496,22 @@
       <c r="I31" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J31" s="229" t="s">
+      <c r="J31" s="228" t="s">
         <v>164</v>
       </c>
       <c r="K31" s="79"/>
-      <c r="L31" s="106" t="s">
+      <c r="L31" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="187">
+      <c r="A32" s="186">
         <v>22</v>
       </c>
-      <c r="B32" s="194"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="168"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="167"/>
       <c r="E32" s="84" t="s">
         <v>138</v>
       </c>
@@ -4530,20 +4527,20 @@
       <c r="I32" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="228"/>
+      <c r="J32" s="227"/>
       <c r="K32" s="79"/>
-      <c r="L32" s="106" t="s">
+      <c r="L32" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="187">
+      <c r="A33" s="186">
         <v>23</v>
       </c>
-      <c r="B33" s="194"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="168"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="84" t="s">
         <v>57</v>
       </c>
@@ -4553,26 +4550,26 @@
       <c r="G33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="88" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="106" t="s">
+      <c r="L33" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="187">
+      <c r="A34" s="186">
         <v>24</v>
       </c>
-      <c r="B34" s="194"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="168"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="84" t="s">
         <v>60</v>
       </c>
@@ -4582,26 +4579,26 @@
       <c r="G34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="88" t="s">
         <v>142</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="106" t="s">
+      <c r="L34" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187">
+      <c r="A35" s="186">
         <v>25</v>
       </c>
-      <c r="B35" s="194"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="168"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="84" t="s">
         <v>62</v>
       </c>
@@ -4611,26 +4608,26 @@
       <c r="G35" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="I35" s="89" t="s">
+      <c r="I35" s="88" t="s">
         <v>143</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="106" t="s">
+      <c r="L35" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="187">
+      <c r="A36" s="186">
         <v>26</v>
       </c>
-      <c r="B36" s="194"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="167"/>
       <c r="E36" s="44" t="s">
         <v>63</v>
       </c>
@@ -4640,26 +4637,26 @@
       <c r="G36" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="89" t="s">
+      <c r="I36" s="88" t="s">
         <v>145</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="106" t="s">
+      <c r="L36" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="106"/>
+      <c r="M36" s="105"/>
     </row>
     <row r="37" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="187">
+      <c r="A37" s="186">
         <v>27</v>
       </c>
-      <c r="B37" s="194"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="168"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="167"/>
       <c r="E37" s="44" t="s">
         <v>148</v>
       </c>
@@ -4672,23 +4669,23 @@
       <c r="H37" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I37" s="88" t="s">
         <v>147</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="106" t="s">
+      <c r="L37" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="106"/>
+      <c r="M37" s="105"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="187">
+      <c r="A38" s="186">
         <v>28</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="168"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="167"/>
       <c r="E38" s="44" t="s">
         <v>66</v>
       </c>
@@ -4701,23 +4698,23 @@
       <c r="H38" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="89" t="s">
+      <c r="I38" s="88" t="s">
         <v>150</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="106" t="s">
+      <c r="L38" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="106"/>
+      <c r="M38" s="105"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="187">
+      <c r="A39" s="186">
         <v>29</v>
       </c>
-      <c r="B39" s="194"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="168"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="44" t="s">
         <v>68</v>
       </c>
@@ -4727,30 +4724,30 @@
       <c r="G39" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="90" t="str">
+      <c r="H39" s="89" t="str">
         <f>H43</f>
         <v>Full name: Anik Chakraborty
 Email: xolope8846@ahieh.com
 Password: A123456@
 Confirm Password: A123456@</v>
       </c>
-      <c r="I39" s="89" t="s">
+      <c r="I39" s="88" t="s">
         <v>152</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="106" t="s">
+      <c r="L39" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="106"/>
+      <c r="M39" s="105"/>
     </row>
     <row r="40" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="187">
+      <c r="A40" s="186">
         <v>30</v>
       </c>
-      <c r="B40" s="194"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="168"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="167"/>
       <c r="E40" s="44" t="s">
         <v>69</v>
       </c>
@@ -4760,26 +4757,26 @@
       <c r="G40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="89" t="s">
+      <c r="I40" s="88" t="s">
         <v>154</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="106" t="s">
+      <c r="L40" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="106"/>
+      <c r="M40" s="105"/>
     </row>
     <row r="41" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="187">
+      <c r="A41" s="186">
         <v>31</v>
       </c>
-      <c r="B41" s="194"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="44" t="s">
         <v>70</v>
       </c>
@@ -4792,23 +4789,23 @@
       <c r="H41" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="I41" s="89" t="s">
+      <c r="I41" s="88" t="s">
         <v>156</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="106" t="s">
+      <c r="L41" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="106"/>
+      <c r="M41" s="105"/>
     </row>
     <row r="42" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="187">
+      <c r="A42" s="186">
         <v>32</v>
       </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="44" t="s">
         <v>71</v>
       </c>
@@ -4818,26 +4815,26 @@
       <c r="G42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="89" t="s">
+      <c r="H42" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="89" t="s">
+      <c r="I42" s="88" t="s">
         <v>165</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="106" t="s">
+      <c r="L42" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="106"/>
+      <c r="M42" s="105"/>
     </row>
     <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="187">
+      <c r="A43" s="186">
         <v>33</v>
       </c>
-      <c r="B43" s="194"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="84" t="s">
         <v>73</v>
       </c>
@@ -4847,26 +4844,26 @@
       <c r="G43" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="89" t="s">
+      <c r="H43" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="88" t="s">
         <v>165</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="106" t="s">
+      <c r="L43" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="106"/>
+      <c r="M43" s="105"/>
     </row>
     <row r="44" spans="1:14" ht="261.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="187">
+      <c r="A44" s="186">
         <v>34</v>
       </c>
-      <c r="B44" s="194"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="84" t="s">
         <v>74</v>
       </c>
@@ -4876,26 +4873,26 @@
       <c r="G44" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="I44" s="88" t="s">
         <v>168</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="106" t="s">
+      <c r="L44" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M44" s="106"/>
+      <c r="M44" s="105"/>
     </row>
     <row r="45" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="187">
+      <c r="A45" s="186">
         <v>35</v>
       </c>
-      <c r="B45" s="194"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="84" t="s">
         <v>76</v>
       </c>
@@ -4908,25 +4905,25 @@
       <c r="H45" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="89" t="s">
+      <c r="I45" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="90" t="s">
+      <c r="J45" s="89" t="s">
         <v>212</v>
       </c>
       <c r="K45" s="21"/>
-      <c r="L45" s="106" t="s">
+      <c r="L45" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="M45" s="106"/>
+      <c r="M45" s="105"/>
     </row>
     <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="187">
+      <c r="A46" s="186">
         <v>36</v>
       </c>
-      <c r="B46" s="194"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="76" t="s">
         <v>77</v>
       </c>
@@ -4942,74 +4939,74 @@
       <c r="I46" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="90" t="s">
+      <c r="J46" s="89" t="s">
         <v>211</v>
       </c>
       <c r="K46" s="21"/>
-      <c r="L46" s="106" t="s">
+      <c r="L46" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="M46" s="106"/>
+      <c r="M46" s="105"/>
     </row>
     <row r="47" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="187">
+      <c r="A47" s="186">
         <v>37</v>
       </c>
-      <c r="B47" s="194"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="93" t="s">
+      <c r="B47" s="193"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="94" t="s">
+      <c r="F47" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="94" t="s">
+      <c r="H47" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="I47" s="95" t="s">
+      <c r="I47" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="141" t="s">
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="M47" s="142"/>
+      <c r="M47" s="141"/>
       <c r="N47" s="85"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="203"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="219"/>
+      <c r="A48" s="202"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="218"/>
       <c r="D48" s="50"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="208"/>
-      <c r="G48" s="208"/>
-      <c r="H48" s="208"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="208"/>
-      <c r="K48" s="208"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="210"/>
-      <c r="N48" s="144"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="207"/>
+      <c r="K48" s="207"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="209"/>
+      <c r="N48" s="143"/>
     </row>
     <row r="49" spans="1:16" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="187">
+      <c r="A49" s="186">
         <v>38</v>
       </c>
-      <c r="B49" s="194"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="166" t="s">
+      <c r="B49" s="193"/>
+      <c r="C49" s="161"/>
+      <c r="D49" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="96" t="s">
+      <c r="E49" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="97" t="s">
+      <c r="F49" s="96" t="s">
         <v>88</v>
       </c>
       <c r="G49" s="83" t="s">
@@ -5018,24 +5015,24 @@
       <c r="H49" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="I49" s="97" t="s">
         <v>175</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
-      <c r="L49" s="145" t="s">
+      <c r="L49" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="146"/>
+      <c r="M49" s="145"/>
     </row>
     <row r="50" spans="1:16" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="187">
+      <c r="A50" s="186">
         <v>39</v>
       </c>
-      <c r="B50" s="194"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="99" t="s">
+      <c r="B50" s="193"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="98" t="s">
         <v>89</v>
       </c>
       <c r="F50" s="84" t="s">
@@ -5047,24 +5044,24 @@
       <c r="H50" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I50" s="89" t="s">
+      <c r="I50" s="88" t="s">
         <v>177</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="106" t="s">
+      <c r="L50" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:16" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="187">
+      <c r="A51" s="186">
         <v>40</v>
       </c>
-      <c r="B51" s="194"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="100" t="s">
+      <c r="B51" s="193"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="99" t="s">
         <v>90</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -5073,7 +5070,7 @@
       <c r="G51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="101" t="s">
+      <c r="H51" s="100" t="s">
         <v>178</v>
       </c>
       <c r="I51" s="78" t="s">
@@ -5081,19 +5078,19 @@
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="106" t="s">
+      <c r="L51" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="P51" s="128"/>
+      <c r="P51" s="127"/>
     </row>
     <row r="52" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="187">
+      <c r="A52" s="186">
         <v>41</v>
       </c>
-      <c r="B52" s="194"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="84" t="s">
         <v>92</v>
       </c>
@@ -5106,23 +5103,23 @@
       <c r="H52" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I52" s="89" t="s">
+      <c r="I52" s="88" t="s">
         <v>179</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="106" t="s">
+      <c r="L52" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="187">
+      <c r="A53" s="186">
         <v>42</v>
       </c>
-      <c r="B53" s="194"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="84" t="s">
         <v>93</v>
       </c>
@@ -5135,24 +5132,24 @@
       <c r="H53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="89" t="s">
+      <c r="I53" s="88" t="s">
         <v>181</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="106" t="s">
+      <c r="L53" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="187">
+      <c r="A54" s="186">
         <v>43</v>
       </c>
-      <c r="B54" s="194"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="102" t="s">
+      <c r="B54" s="193"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="101" t="s">
         <v>95</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -5164,23 +5161,23 @@
       <c r="H54" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="89" t="s">
+      <c r="I54" s="88" t="s">
         <v>182</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
-      <c r="L54" s="106" t="s">
+      <c r="L54" s="105" t="s">
         <v>37</v>
       </c>
       <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="188">
+      <c r="A55" s="187">
         <v>44</v>
       </c>
-      <c r="B55" s="194"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="193"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="84" t="s">
         <v>183</v>
       </c>
@@ -5193,23 +5190,23 @@
       <c r="H55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="89" t="s">
+      <c r="I55" s="88" t="s">
         <v>184</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
-      <c r="L55" s="106" t="s">
+      <c r="L55" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="187">
+      <c r="A56" s="186">
         <v>45</v>
       </c>
-      <c r="B56" s="194"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="84" t="s">
         <v>98</v>
       </c>
@@ -5227,18 +5224,18 @@
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
-      <c r="L56" s="106" t="s">
+      <c r="L56" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="232.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="187">
+      <c r="A57" s="186">
         <v>46</v>
       </c>
-      <c r="B57" s="194"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="193"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="84" t="s">
         <v>186</v>
       </c>
@@ -5251,23 +5248,23 @@
       <c r="H57" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I57" s="89" t="s">
+      <c r="I57" s="88" t="s">
         <v>189</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
-      <c r="L57" s="106" t="s">
+      <c r="L57" s="105" t="s">
         <v>43</v>
       </c>
       <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:16" ht="258.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="187">
+      <c r="A58" s="186">
         <v>47</v>
       </c>
-      <c r="B58" s="194"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
+      <c r="B58" s="193"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="84" t="s">
         <v>100</v>
       </c>
@@ -5280,41 +5277,41 @@
       <c r="H58" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="I58" s="89" t="s">
+      <c r="I58" s="88" t="s">
         <v>102</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
-      <c r="L58" s="106" t="s">
+      <c r="L58" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="106"/>
+      <c r="M58" s="105"/>
     </row>
     <row r="59" spans="1:16" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="203"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="201"/>
-      <c r="H59" s="201"/>
-      <c r="I59" s="201"/>
-      <c r="J59" s="201"/>
-      <c r="K59" s="202"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
+      <c r="A59" s="202"/>
+      <c r="B59" s="193"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="201"/>
+      <c r="L59" s="196"/>
+      <c r="M59" s="196"/>
       <c r="N59" s="85"/>
     </row>
     <row r="60" spans="1:16" ht="188.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="187">
+      <c r="A60" s="186">
         <v>48</v>
       </c>
-      <c r="B60" s="194"/>
-      <c r="C60" s="171" t="s">
+      <c r="B60" s="193"/>
+      <c r="C60" s="170" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="174" t="s">
         <v>209</v>
       </c>
       <c r="E60" s="84" t="s">
@@ -5326,7 +5323,7 @@
       <c r="G60" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="92" t="s">
+      <c r="H60" s="91" t="s">
         <v>203</v>
       </c>
       <c r="I60" s="77" t="s">
@@ -5334,19 +5331,19 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
-      <c r="L60" s="106" t="s">
+      <c r="L60" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="106"/>
+      <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="187">
+      <c r="A61" s="186">
         <v>49</v>
       </c>
-      <c r="B61" s="194"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="172" t="s">
+      <c r="B61" s="193"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="171" t="s">
         <v>81</v>
       </c>
       <c r="F61" s="21" t="s">
@@ -5363,257 +5360,257 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
-      <c r="L61" s="106" t="s">
+      <c r="L61" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="M61" s="106"/>
+      <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="246">
+      <c r="A62" s="245">
         <v>50</v>
       </c>
-      <c r="B62" s="194"/>
-      <c r="C62" s="247"/>
-      <c r="D62" s="240"/>
-      <c r="E62" s="242" t="s">
+      <c r="B62" s="193"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="239"/>
+      <c r="E62" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="241" t="s">
+      <c r="F62" s="240" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="173" t="s">
+      <c r="G62" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="173" t="s">
+      <c r="H62" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="174" t="s">
+      <c r="I62" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="J62" s="174"/>
-      <c r="K62" s="173"/>
-      <c r="L62" s="122" t="s">
+      <c r="J62" s="173"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="122"/>
+      <c r="M62" s="121"/>
       <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:16" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="255"/>
-      <c r="B63" s="256"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="259"/>
-      <c r="F63" s="262"/>
-      <c r="G63" s="260"/>
-      <c r="H63" s="262"/>
-      <c r="I63" s="263"/>
-      <c r="J63" s="263"/>
-      <c r="K63" s="262"/>
-      <c r="L63" s="261"/>
-      <c r="M63" s="261"/>
-      <c r="N63" s="127"/>
+      <c r="A63" s="254"/>
+      <c r="B63" s="255"/>
+      <c r="C63" s="256"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="261"/>
+      <c r="G63" s="259"/>
+      <c r="H63" s="261"/>
+      <c r="I63" s="262"/>
+      <c r="J63" s="262"/>
+      <c r="K63" s="261"/>
+      <c r="L63" s="260"/>
+      <c r="M63" s="260"/>
+      <c r="N63" s="126"/>
     </row>
     <row r="64" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="248">
+      <c r="A64" s="247">
         <v>51</v>
       </c>
-      <c r="B64" s="264" t="s">
+      <c r="B64" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="281" t="s">
+      <c r="C64" s="268" t="s">
         <v>218</v>
       </c>
-      <c r="D64" s="282" t="s">
+      <c r="D64" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="249" t="s">
+      <c r="E64" s="248" t="s">
         <v>226</v>
       </c>
-      <c r="F64" s="250" t="s">
+      <c r="F64" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="251" t="s">
+      <c r="G64" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="H64" s="251" t="s">
+      <c r="H64" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="252" t="s">
+      <c r="I64" s="251" t="s">
         <v>229</v>
       </c>
-      <c r="J64" s="253"/>
-      <c r="K64" s="251"/>
-      <c r="L64" s="254" t="s">
+      <c r="J64" s="252"/>
+      <c r="K64" s="250"/>
+      <c r="L64" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="239"/>
-      <c r="N64" s="144"/>
+      <c r="M64" s="238"/>
+      <c r="N64" s="143"/>
     </row>
     <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="187">
+      <c r="A65" s="186">
         <v>52</v>
       </c>
-      <c r="B65" s="196"/>
-      <c r="C65" s="282" t="s">
+      <c r="B65" s="195"/>
+      <c r="C65" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="283" t="s">
+      <c r="D65" s="270" t="s">
         <v>238</v>
       </c>
       <c r="E65" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="243" t="s">
+      <c r="F65" s="242" t="s">
         <v>221</v>
       </c>
-      <c r="G65" s="231" t="s">
+      <c r="G65" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="231" t="s">
+      <c r="H65" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="245" t="s">
+      <c r="I65" s="244" t="s">
         <v>229</v>
       </c>
-      <c r="J65" s="244"/>
-      <c r="K65" s="231"/>
-      <c r="L65" s="239" t="s">
+      <c r="J65" s="243"/>
+      <c r="K65" s="230"/>
+      <c r="L65" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="239"/>
+      <c r="M65" s="238"/>
       <c r="N65" s="85"/>
     </row>
     <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="187">
+      <c r="A66" s="186">
         <v>53</v>
       </c>
-      <c r="B66" s="264"/>
-      <c r="C66" s="282" t="s">
+      <c r="B66" s="263"/>
+      <c r="C66" s="269" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="282" t="s">
+      <c r="D66" s="269" t="s">
         <v>224</v>
       </c>
       <c r="E66" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="F66" s="231" t="s">
+      <c r="F66" s="230" t="s">
         <v>225</v>
       </c>
-      <c r="G66" s="231" t="s">
+      <c r="G66" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="236" t="s">
+      <c r="H66" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="285" t="s">
+      <c r="I66" s="272" t="s">
         <v>230</v>
       </c>
-      <c r="J66" s="245"/>
-      <c r="K66" s="243"/>
-      <c r="L66" s="238" t="s">
+      <c r="J66" s="244"/>
+      <c r="K66" s="242"/>
+      <c r="L66" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="M66" s="239"/>
+      <c r="M66" s="238"/>
       <c r="N66" s="85"/>
     </row>
     <row r="67" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="187">
+      <c r="A67" s="186">
         <v>54</v>
       </c>
-      <c r="B67" s="230"/>
-      <c r="C67" s="284" t="s">
+      <c r="B67" s="229"/>
+      <c r="C67" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="284" t="s">
+      <c r="D67" s="271" t="s">
         <v>239</v>
       </c>
-      <c r="E67" s="280" t="s">
+      <c r="E67" s="267" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="280" t="s">
+      <c r="F67" s="267" t="s">
         <v>241</v>
       </c>
-      <c r="G67" s="280" t="s">
+      <c r="G67" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="287" t="s">
+      <c r="H67" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="286" t="s">
+      <c r="I67" s="273" t="s">
         <v>242</v>
       </c>
-      <c r="J67" s="237"/>
-      <c r="K67" s="288"/>
-      <c r="L67" s="238" t="s">
+      <c r="J67" s="236"/>
+      <c r="K67" s="275"/>
+      <c r="L67" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="M67" s="239"/>
-      <c r="N67" s="144"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="143"/>
     </row>
     <row r="68" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="203"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="205"/>
-      <c r="F68" s="206"/>
-      <c r="G68" s="206"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="232"/>
-      <c r="K68" s="233"/>
-      <c r="L68" s="234"/>
-      <c r="M68" s="235"/>
-      <c r="N68" s="144"/>
+      <c r="A68" s="202"/>
+      <c r="B68" s="203"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="204"/>
+      <c r="F68" s="205"/>
+      <c r="G68" s="205"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
+      <c r="K68" s="232"/>
+      <c r="L68" s="233"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="143"/>
     </row>
     <row r="69" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="187">
+      <c r="A69" s="186">
         <v>55</v>
       </c>
-      <c r="B69" s="179"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="221" t="s">
+      <c r="B69" s="178"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="169"/>
+      <c r="E69" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
       <c r="K69" s="83"/>
-      <c r="L69" s="145"/>
-      <c r="M69" s="145"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
     </row>
     <row r="70" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="187">
+      <c r="A70" s="186">
         <v>55</v>
       </c>
-      <c r="B70" s="179"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="104"/>
+      <c r="B70" s="178"/>
+      <c r="C70" s="162"/>
+      <c r="D70" s="177"/>
+      <c r="E70" s="103"/>
       <c r="F70" s="83"/>
       <c r="G70" s="83"/>
       <c r="H70" s="83"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="106"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
     </row>
     <row r="71" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="187">
+      <c r="A71" s="186">
         <v>56</v>
       </c>
-      <c r="B71" s="179"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="178" t="s">
+      <c r="B71" s="178"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="222" t="s">
+      <c r="E71" s="221" t="s">
         <v>213</v>
       </c>
       <c r="F71" s="21"/>
@@ -5623,117 +5620,117 @@
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
       <c r="L71" s="79"/>
-      <c r="M71" s="106"/>
+      <c r="M71" s="105"/>
     </row>
     <row r="72" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="187">
+      <c r="A72" s="186">
         <v>57</v>
       </c>
-      <c r="B72" s="179"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="227" t="s">
+      <c r="B72" s="178"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="177"/>
+      <c r="E72" s="226" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="226"/>
+      <c r="F72" s="225"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="79"/>
-      <c r="L72" s="106"/>
+      <c r="L72" s="105"/>
       <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="187">
+      <c r="A73" s="186">
         <v>58</v>
       </c>
-      <c r="B73" s="179"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="224"/>
-      <c r="E73" s="97"/>
+      <c r="B73" s="178"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="223"/>
+      <c r="E73" s="96"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="148"/>
-      <c r="M73" s="147"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="146"/>
     </row>
     <row r="74" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="187">
+      <c r="A74" s="186">
         <v>58</v>
       </c>
-      <c r="B74" s="177"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="225"/>
-      <c r="E74" s="220" t="s">
+      <c r="B74" s="176"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="224"/>
+      <c r="E74" s="219" t="s">
         <v>215</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="149"/>
-      <c r="M74" s="129"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="128"/>
     </row>
     <row r="75" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="187">
+      <c r="A75" s="186">
         <v>59</v>
       </c>
-      <c r="B75" s="177"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="223"/>
-      <c r="E75" s="220" t="s">
+      <c r="D75" s="222"/>
+      <c r="E75" s="219" t="s">
         <v>216</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
-      <c r="J75" s="106"/>
-      <c r="K75" s="106"/>
-      <c r="M75" s="129"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="M75" s="128"/>
     </row>
     <row r="76" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="187">
+      <c r="A76" s="186">
         <v>60</v>
       </c>
-      <c r="B76" s="177"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="27"/>
-      <c r="D76" s="104"/>
+      <c r="D76" s="103"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="79"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="149"/>
-      <c r="M76" s="129"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="128"/>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="187"/>
-      <c r="B77" s="177"/>
+      <c r="A77" s="186"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="104"/>
+      <c r="D77" s="103"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="129"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="128"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="187"/>
-      <c r="B78" s="177"/>
+      <c r="A78" s="186"/>
+      <c r="B78" s="176"/>
       <c r="C78" s="27"/>
-      <c r="D78" s="104"/>
+      <c r="D78" s="103"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -5741,13 +5738,13 @@
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
-      <c r="L78" s="149"/>
-      <c r="M78" s="129"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="128"/>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="188"/>
-      <c r="B79" s="177"/>
-      <c r="C79" s="107"/>
+      <c r="A79" s="187"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="106"/>
       <c r="D79" s="27"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -5755,486 +5752,486 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="148"/>
-      <c r="M79" s="129"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="147"/>
+      <c r="M79" s="128"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="187"/>
-      <c r="B80" s="177"/>
-      <c r="C80" s="107"/>
+      <c r="A80" s="186"/>
+      <c r="B80" s="176"/>
+      <c r="C80" s="106"/>
       <c r="D80" s="27"/>
-      <c r="E80" s="104"/>
+      <c r="E80" s="103"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="86"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="151"/>
-      <c r="M80" s="129"/>
+      <c r="K80" s="149"/>
+      <c r="L80" s="150"/>
+      <c r="M80" s="128"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="187"/>
-      <c r="B81" s="177"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="104"/>
+      <c r="A81" s="186"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="103"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="86"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="154"/>
-      <c r="M81" s="152"/>
+      <c r="K81" s="152"/>
+      <c r="L81" s="153"/>
+      <c r="M81" s="151"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="187"/>
-      <c r="B82" s="179"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="103"/>
+      <c r="A82" s="186"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="102"/>
       <c r="F82" s="13"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="86"/>
-      <c r="K82" s="153"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="155"/>
+      <c r="K82" s="152"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="154"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="187"/>
-      <c r="B83" s="177"/>
-      <c r="M83" s="106"/>
+      <c r="A83" s="186"/>
+      <c r="B83" s="176"/>
+      <c r="M83" s="105"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="187"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="186"/>
+      <c r="B84" s="176"/>
     </row>
     <row r="85" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="189"/>
-      <c r="B85" s="177"/>
+      <c r="A85" s="188"/>
+      <c r="B85" s="176"/>
     </row>
     <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="189"/>
-      <c r="B86" s="177"/>
+      <c r="A86" s="188"/>
+      <c r="B86" s="176"/>
     </row>
     <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="189"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="188"/>
+      <c r="B87" s="176"/>
     </row>
     <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="189"/>
-      <c r="B88" s="177"/>
+      <c r="A88" s="188"/>
+      <c r="B88" s="176"/>
     </row>
     <row r="89" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="189"/>
-      <c r="B89" s="177"/>
+      <c r="A89" s="188"/>
+      <c r="B89" s="176"/>
     </row>
     <row r="90" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="189"/>
-      <c r="B90" s="177"/>
+      <c r="A90" s="188"/>
+      <c r="B90" s="176"/>
     </row>
     <row r="91" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="189"/>
-      <c r="B91" s="177"/>
+      <c r="A91" s="188"/>
+      <c r="B91" s="176"/>
     </row>
     <row r="92" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="189"/>
-      <c r="B92" s="177"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="176"/>
     </row>
     <row r="93" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="189"/>
-      <c r="B93" s="177"/>
+      <c r="A93" s="188"/>
+      <c r="B93" s="176"/>
     </row>
     <row r="94" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="189"/>
-      <c r="B94" s="177"/>
+      <c r="A94" s="188"/>
+      <c r="B94" s="176"/>
     </row>
     <row r="95" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="189"/>
-      <c r="B95" s="177"/>
+      <c r="A95" s="188"/>
+      <c r="B95" s="176"/>
     </row>
     <row r="96" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="189"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="188"/>
+      <c r="B96" s="176"/>
     </row>
     <row r="97" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="189"/>
-      <c r="B97" s="177"/>
+      <c r="A97" s="188"/>
+      <c r="B97" s="176"/>
     </row>
     <row r="98" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="189"/>
-      <c r="B98" s="177"/>
+      <c r="A98" s="188"/>
+      <c r="B98" s="176"/>
     </row>
     <row r="99" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="189"/>
-      <c r="B99" s="177"/>
+      <c r="A99" s="188"/>
+      <c r="B99" s="176"/>
     </row>
     <row r="100" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="189"/>
-      <c r="B100" s="177"/>
+      <c r="A100" s="188"/>
+      <c r="B100" s="176"/>
     </row>
     <row r="101" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="189"/>
-      <c r="B101" s="177"/>
+      <c r="A101" s="188"/>
+      <c r="B101" s="176"/>
     </row>
     <row r="102" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="189"/>
-      <c r="B102" s="177"/>
+      <c r="A102" s="188"/>
+      <c r="B102" s="176"/>
     </row>
     <row r="103" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="189"/>
-      <c r="B103" s="177"/>
+      <c r="A103" s="188"/>
+      <c r="B103" s="176"/>
     </row>
     <row r="104" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="189"/>
-      <c r="B104" s="177"/>
+      <c r="A104" s="188"/>
+      <c r="B104" s="176"/>
     </row>
     <row r="105" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="189"/>
-      <c r="B105" s="177"/>
+      <c r="A105" s="188"/>
+      <c r="B105" s="176"/>
     </row>
     <row r="106" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="189"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="188"/>
+      <c r="B106" s="176"/>
     </row>
     <row r="107" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="189"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="188"/>
+      <c r="B107" s="176"/>
     </row>
     <row r="108" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="189"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="188"/>
+      <c r="B108" s="176"/>
     </row>
     <row r="109" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="189"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="188"/>
+      <c r="B109" s="176"/>
     </row>
     <row r="110" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="189"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="188"/>
+      <c r="B110" s="176"/>
     </row>
     <row r="111" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="189"/>
-      <c r="B111" s="177"/>
+      <c r="A111" s="188"/>
+      <c r="B111" s="176"/>
     </row>
     <row r="112" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="189"/>
-      <c r="B112" s="177"/>
+      <c r="A112" s="188"/>
+      <c r="B112" s="176"/>
     </row>
     <row r="113" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="189"/>
-      <c r="B113" s="177"/>
+      <c r="A113" s="188"/>
+      <c r="B113" s="176"/>
     </row>
     <row r="114" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="189"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="188"/>
+      <c r="B114" s="176"/>
     </row>
     <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="189"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="188"/>
+      <c r="B115" s="176"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="190"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="189"/>
+      <c r="B116" s="176"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="191"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="190"/>
+      <c r="B117" s="176"/>
     </row>
     <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="191"/>
-      <c r="B118" s="177"/>
+      <c r="A118" s="190"/>
+      <c r="B118" s="176"/>
     </row>
     <row r="119" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="191"/>
-      <c r="B119" s="177"/>
+      <c r="A119" s="190"/>
+      <c r="B119" s="176"/>
     </row>
     <row r="120" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="191"/>
-      <c r="B120" s="177"/>
+      <c r="A120" s="190"/>
+      <c r="B120" s="176"/>
     </row>
     <row r="121" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="191"/>
-      <c r="B121" s="177"/>
+      <c r="A121" s="190"/>
+      <c r="B121" s="176"/>
     </row>
     <row r="122" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="191"/>
-      <c r="B122" s="177"/>
+      <c r="A122" s="190"/>
+      <c r="B122" s="176"/>
     </row>
     <row r="123" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="191"/>
-      <c r="B123" s="177"/>
+      <c r="A123" s="190"/>
+      <c r="B123" s="176"/>
     </row>
     <row r="124" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="191"/>
-      <c r="B124" s="177"/>
+      <c r="A124" s="190"/>
+      <c r="B124" s="176"/>
     </row>
     <row r="125" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="191"/>
-      <c r="B125" s="177"/>
+      <c r="A125" s="190"/>
+      <c r="B125" s="176"/>
     </row>
     <row r="126" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="191"/>
-      <c r="B126" s="177"/>
+      <c r="A126" s="190"/>
+      <c r="B126" s="176"/>
     </row>
     <row r="127" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="191"/>
-      <c r="B127" s="177"/>
+      <c r="A127" s="190"/>
+      <c r="B127" s="176"/>
     </row>
     <row r="128" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="191"/>
-      <c r="B128" s="177"/>
+      <c r="A128" s="190"/>
+      <c r="B128" s="176"/>
     </row>
     <row r="129" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="191"/>
-      <c r="B129" s="177"/>
+      <c r="A129" s="190"/>
+      <c r="B129" s="176"/>
     </row>
     <row r="130" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="191"/>
-      <c r="B130" s="177"/>
+      <c r="A130" s="190"/>
+      <c r="B130" s="176"/>
     </row>
     <row r="131" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="191"/>
-      <c r="B131" s="177"/>
+      <c r="A131" s="190"/>
+      <c r="B131" s="176"/>
     </row>
     <row r="132" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="191"/>
-      <c r="B132" s="177"/>
+      <c r="A132" s="190"/>
+      <c r="B132" s="176"/>
     </row>
     <row r="133" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="191"/>
-      <c r="B133" s="177"/>
+      <c r="A133" s="190"/>
+      <c r="B133" s="176"/>
     </row>
     <row r="134" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="191"/>
-      <c r="B134" s="177"/>
+      <c r="A134" s="190"/>
+      <c r="B134" s="176"/>
     </row>
     <row r="135" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="191"/>
-      <c r="B135" s="177"/>
+      <c r="A135" s="190"/>
+      <c r="B135" s="176"/>
     </row>
     <row r="136" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="191"/>
-      <c r="B136" s="177"/>
+      <c r="A136" s="190"/>
+      <c r="B136" s="176"/>
     </row>
     <row r="137" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="191"/>
-      <c r="B137" s="177"/>
+      <c r="A137" s="190"/>
+      <c r="B137" s="176"/>
     </row>
     <row r="138" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="191"/>
-      <c r="B138" s="177"/>
+      <c r="A138" s="190"/>
+      <c r="B138" s="176"/>
     </row>
     <row r="139" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="191"/>
-      <c r="B139" s="177"/>
+      <c r="A139" s="190"/>
+      <c r="B139" s="176"/>
     </row>
     <row r="140" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="191"/>
-      <c r="B140" s="177"/>
+      <c r="A140" s="190"/>
+      <c r="B140" s="176"/>
     </row>
     <row r="141" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="191"/>
-      <c r="B141" s="177"/>
+      <c r="A141" s="190"/>
+      <c r="B141" s="176"/>
     </row>
     <row r="142" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="191"/>
-      <c r="B142" s="177"/>
+      <c r="A142" s="190"/>
+      <c r="B142" s="176"/>
     </row>
     <row r="143" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="191"/>
-      <c r="B143" s="177"/>
+      <c r="A143" s="190"/>
+      <c r="B143" s="176"/>
     </row>
     <row r="144" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="191"/>
-      <c r="B144" s="177"/>
+      <c r="A144" s="190"/>
+      <c r="B144" s="176"/>
     </row>
     <row r="145" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="191"/>
-      <c r="B145" s="177"/>
+      <c r="A145" s="190"/>
+      <c r="B145" s="176"/>
     </row>
     <row r="146" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="191"/>
-      <c r="B146" s="177"/>
+      <c r="A146" s="190"/>
+      <c r="B146" s="176"/>
     </row>
     <row r="147" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="191"/>
-      <c r="B147" s="177"/>
+      <c r="A147" s="190"/>
+      <c r="B147" s="176"/>
     </row>
     <row r="148" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="191"/>
-      <c r="B148" s="177"/>
+      <c r="A148" s="190"/>
+      <c r="B148" s="176"/>
     </row>
     <row r="149" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="191"/>
-      <c r="B149" s="177"/>
+      <c r="A149" s="190"/>
+      <c r="B149" s="176"/>
     </row>
     <row r="150" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="191"/>
-      <c r="B150" s="177"/>
+      <c r="A150" s="190"/>
+      <c r="B150" s="176"/>
     </row>
     <row r="151" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="191"/>
-      <c r="B151" s="177"/>
+      <c r="A151" s="190"/>
+      <c r="B151" s="176"/>
     </row>
     <row r="152" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="191"/>
-      <c r="B152" s="177"/>
+      <c r="A152" s="190"/>
+      <c r="B152" s="176"/>
     </row>
     <row r="153" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="191"/>
-      <c r="B153" s="177"/>
+      <c r="A153" s="190"/>
+      <c r="B153" s="176"/>
     </row>
     <row r="154" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="191"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="190"/>
+      <c r="B154" s="176"/>
     </row>
     <row r="155" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="191"/>
-      <c r="B155" s="177"/>
+      <c r="A155" s="190"/>
+      <c r="B155" s="176"/>
     </row>
     <row r="156" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="191"/>
-      <c r="B156" s="177"/>
+      <c r="A156" s="190"/>
+      <c r="B156" s="176"/>
     </row>
     <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="191"/>
-      <c r="B157" s="177"/>
+      <c r="A157" s="190"/>
+      <c r="B157" s="176"/>
     </row>
     <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="191"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="190"/>
+      <c r="B158" s="176"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="192"/>
-      <c r="B159" s="176"/>
+      <c r="A159" s="191"/>
+      <c r="B159" s="175"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="158"/>
-      <c r="B160" s="176"/>
+      <c r="A160" s="157"/>
+      <c r="B160" s="175"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="159"/>
-      <c r="B161" s="176"/>
+      <c r="A161" s="158"/>
+      <c r="B161" s="175"/>
     </row>
     <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="159"/>
-      <c r="B162" s="176"/>
+      <c r="A162" s="158"/>
+      <c r="B162" s="175"/>
     </row>
     <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="159"/>
-      <c r="B163" s="176"/>
+      <c r="A163" s="158"/>
+      <c r="B163" s="175"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="160"/>
-      <c r="B164" s="176"/>
+      <c r="A164" s="159"/>
+      <c r="B164" s="175"/>
     </row>
     <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="160"/>
-      <c r="B165" s="176"/>
+      <c r="A165" s="159"/>
+      <c r="B165" s="175"/>
     </row>
     <row r="166" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="160"/>
-      <c r="B166" s="176"/>
+      <c r="A166" s="159"/>
+      <c r="B166" s="175"/>
     </row>
     <row r="167" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="160"/>
-      <c r="B167" s="176"/>
+      <c r="A167" s="159"/>
+      <c r="B167" s="175"/>
     </row>
     <row r="168" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="160"/>
-      <c r="B168" s="176"/>
+      <c r="A168" s="159"/>
+      <c r="B168" s="175"/>
     </row>
     <row r="169" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="160"/>
-      <c r="B169" s="176"/>
+      <c r="A169" s="159"/>
+      <c r="B169" s="175"/>
     </row>
     <row r="170" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="160"/>
-      <c r="B170" s="176"/>
+      <c r="A170" s="159"/>
+      <c r="B170" s="175"/>
     </row>
     <row r="171" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="160"/>
-      <c r="B171" s="176"/>
+      <c r="A171" s="159"/>
+      <c r="B171" s="175"/>
     </row>
     <row r="172" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="160"/>
-      <c r="B172" s="176"/>
+      <c r="A172" s="159"/>
+      <c r="B172" s="175"/>
     </row>
     <row r="173" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="160"/>
-      <c r="B173" s="176"/>
+      <c r="A173" s="159"/>
+      <c r="B173" s="175"/>
     </row>
     <row r="174" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="160"/>
-      <c r="B174" s="176"/>
+      <c r="A174" s="159"/>
+      <c r="B174" s="175"/>
     </row>
     <row r="175" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="160"/>
-      <c r="B175" s="176"/>
+      <c r="A175" s="159"/>
+      <c r="B175" s="175"/>
     </row>
     <row r="176" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="160"/>
-      <c r="B176" s="176"/>
+      <c r="A176" s="159"/>
+      <c r="B176" s="175"/>
     </row>
     <row r="177" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="160"/>
-      <c r="B177" s="176"/>
+      <c r="A177" s="159"/>
+      <c r="B177" s="175"/>
     </row>
     <row r="178" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="160"/>
-      <c r="B178" s="176"/>
+      <c r="A178" s="159"/>
+      <c r="B178" s="175"/>
     </row>
     <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="160"/>
-      <c r="B179" s="176"/>
+      <c r="A179" s="159"/>
+      <c r="B179" s="175"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="159"/>
-      <c r="B180" s="176"/>
+      <c r="A180" s="158"/>
+      <c r="B180" s="175"/>
     </row>
     <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="159"/>
-      <c r="B181" s="176"/>
+      <c r="A181" s="158"/>
+      <c r="B181" s="175"/>
     </row>
     <row r="182" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="159"/>
-      <c r="B182" s="176"/>
+      <c r="A182" s="158"/>
+      <c r="B182" s="175"/>
     </row>
     <row r="183" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="159"/>
-      <c r="B183" s="176"/>
+      <c r="A183" s="158"/>
+      <c r="B183" s="175"/>
     </row>
     <row r="184" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="159"/>
-      <c r="B184" s="176"/>
+      <c r="A184" s="158"/>
+      <c r="B184" s="175"/>
     </row>
     <row r="185" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="159"/>
-      <c r="B185" s="176"/>
+      <c r="A185" s="158"/>
+      <c r="B185" s="175"/>
     </row>
     <row r="186" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="159"/>
-      <c r="B186" s="176"/>
+      <c r="A186" s="158"/>
+      <c r="B186" s="175"/>
     </row>
     <row r="187" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="159"/>
-      <c r="B187" s="176"/>
+      <c r="A187" s="158"/>
+      <c r="B187" s="175"/>
     </row>
     <row r="188" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="159"/>
-      <c r="B188" s="176"/>
+      <c r="A188" s="158"/>
+      <c r="B188" s="175"/>
     </row>
     <row r="189" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="159"/>
-      <c r="B189" s="176"/>
+      <c r="A189" s="158"/>
+      <c r="B189" s="175"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="161"/>
+      <c r="A190" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0C2B50-9079-437C-A985-32DE34DB183D}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41067B12-058E-4EA7-A14C-CBBC0D2CEBE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
   <si>
     <t>Product Name</t>
   </si>
@@ -3600,7 +3600,7 @@
   <dimension ref="A1:P190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3689,7 +3689,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="283"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41067B12-058E-4EA7-A14C-CBBC0D2CEBE3}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B9BED9-963E-4F09-823A-ABDF0424F976}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
   <si>
     <t>Product Name</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bug Screen Shot </t>
-  </si>
-  <si>
-    <t>Dev Comments</t>
   </si>
   <si>
     <t>Final Status</t>
@@ -936,12 +933,36 @@
 2. Log In.
 3. Check andriod app/Google Play download option in bottom-right</t>
   </si>
+  <si>
+    <t>Proyority Lavel Indicator</t>
+  </si>
+  <si>
+    <t>N/A - Not Effective</t>
+  </si>
+  <si>
+    <t>P0 - LOW</t>
+  </si>
+  <si>
+    <t>P1 - Medium</t>
+  </si>
+  <si>
+    <t>P2 - High</t>
+  </si>
+  <si>
+    <t>Priyority Lavel</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1142,8 +1163,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1311,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -2060,7 +2113,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2473,12 +2526,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2922,6 +2969,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3597,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:Q190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3618,16 +3701,19 @@
     <col min="11" max="11" width="13.5" style="109" customWidth="1"/>
     <col min="12" max="12" width="13.296875" style="109" customWidth="1"/>
     <col min="13" max="13" width="12.19921875" style="109" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="109"/>
+    <col min="14" max="14" width="8.796875" style="109"/>
+    <col min="15" max="15" width="23.59765625" style="109" customWidth="1"/>
+    <col min="16" max="16" width="21.8984375" style="109" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="287" t="s">
+    <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="283"/>
+      <c r="B1" s="281"/>
       <c r="C1" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3638,41 +3724,44 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="265" t="s">
-        <v>200</v>
+      <c r="G1" s="263" t="s">
+        <v>199</v>
       </c>
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="280" t="s">
+      <c r="L1" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="281"/>
-    </row>
-    <row r="2" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="287" t="s">
+      <c r="M1" s="279"/>
+      <c r="O1" s="287" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="70.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="283"/>
+      <c r="B2" s="281"/>
       <c r="C2" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="264" t="s">
-        <v>200</v>
+      <c r="E2" s="262" t="s">
+        <v>199</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H2" s="111"/>
       <c r="I2" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J2" s="111"/>
       <c r="K2" s="112"/>
@@ -3683,20 +3772,24 @@
         <f>COUNTIF(L8:L69, "Passed")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="287" t="s">
+      <c r="O2" s="289" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="286"/>
+    </row>
+    <row r="3" spans="1:17" ht="35.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="283"/>
+      <c r="B3" s="281"/>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="113" t="s">
         <v>10</v>
@@ -3713,12 +3806,16 @@
         <f>COUNTIF(L8:L368, "Failed")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="52.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="287" t="s">
+      <c r="O3" s="289" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="288"/>
+    </row>
+    <row r="4" spans="1:17" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="283"/>
+      <c r="B4" s="281"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3728,9 +3825,9 @@
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="111"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4" s="111"/>
       <c r="K4" s="112"/>
@@ -3741,21 +3838,24 @@
         <f>COUNTIF(L7:L372, "Not Executed")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="282" t="s">
+      <c r="O4" s="289" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="290"/>
+    </row>
+    <row r="5" spans="1:17" ht="35.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="286"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="282" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
       <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
       <c r="L5" s="7" t="s">
@@ -3765,8 +3865,12 @@
         <f>COUNTIF(L7:L372, "Out of Scope")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="O5" s="289" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="290"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A6" s="111"/>
       <c r="B6" s="116"/>
       <c r="C6" s="116"/>
@@ -3785,8 +3889,9 @@
         <f>SUM(M2:M5)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="293"/>
+    </row>
+    <row r="7" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -3817,51 +3922,55 @@
       <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="294" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="179">
+      <c r="Q7" s="291"/>
+    </row>
+    <row r="8" spans="1:17" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="177">
         <v>1</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" s="117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="180"/>
-      <c r="B9" s="210"/>
-      <c r="C9" s="266"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="291"/>
+    </row>
+    <row r="9" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="178"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3873,193 +3982,202 @@
       <c r="L9" s="32"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181">
+    <row r="10" spans="1:17" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="179">
         <v>2</v>
       </c>
-      <c r="B10" s="192" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="276" t="s">
+      <c r="B10" s="190" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="274" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="G10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>42</v>
-      </c>
       <c r="I10" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="K10" s="295" t="s">
+        <v>248</v>
+      </c>
       <c r="L10" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="181">
+    <row r="11" spans="1:17" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="179">
         <v>3</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="277"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="275"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:15" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="181">
+    <row r="12" spans="1:17" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="179">
         <v>4</v>
       </c>
-      <c r="B12" s="193"/>
-      <c r="C12" s="277"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="275"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" s="45"/>
+        <v>158</v>
+      </c>
+      <c r="K12" s="295" t="s">
+        <v>249</v>
+      </c>
       <c r="L12" s="118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="119"/>
     </row>
-    <row r="13" spans="1:15" ht="73" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="181">
+    <row r="13" spans="1:17" ht="73" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="179">
         <v>5</v>
       </c>
-      <c r="B13" s="193"/>
-      <c r="C13" s="277"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="275"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="295" t="s">
+        <v>248</v>
+      </c>
       <c r="L13" s="118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="119"/>
     </row>
-    <row r="14" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="181">
+    <row r="14" spans="1:17" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="179">
         <v>6</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="277"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="275"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="K14" s="296" t="s">
+        <v>248</v>
       </c>
       <c r="L14" s="118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" s="119"/>
     </row>
-    <row r="15" spans="1:15" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="182">
+    <row r="15" spans="1:17" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="180">
         <v>7</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="277"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="275"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>51</v>
-      </c>
       <c r="G15" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="120"/>
       <c r="L15" s="121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="122"/>
     </row>
-    <row r="16" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="183"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="278"/>
+    <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="181"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="276"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4074,63 +4192,63 @@
       <c r="O16" s="127"/>
     </row>
     <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="182">
+      <c r="A17" s="180">
         <v>8</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="277"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="275"/>
       <c r="D17" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="G17" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>42</v>
-      </c>
       <c r="I17" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="128"/>
       <c r="L17" s="129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" s="130"/>
       <c r="N17" s="127"/>
       <c r="O17" s="127"/>
     </row>
     <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="182">
+      <c r="A18" s="180">
         <v>9</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="277"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="275"/>
       <c r="E18" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="G18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="62" t="s">
         <v>194</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>195</v>
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="127"/>
       <c r="L18" s="131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="132"/>
       <c r="N18" s="127"/>
@@ -4140,591 +4258,601 @@
       <c r="A19" s="64">
         <v>10</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="279"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="277"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>198</v>
-      </c>
       <c r="G19" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J19" s="69"/>
       <c r="K19" s="90"/>
       <c r="L19" s="133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="134"/>
       <c r="N19" s="127"/>
     </row>
     <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="184">
+      <c r="A20" s="182">
         <v>11</v>
       </c>
-      <c r="B20" s="193"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="30"/>
       <c r="D20" s="70"/>
       <c r="E20" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20" s="75"/>
       <c r="K20" s="90"/>
       <c r="L20" s="135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" s="136"/>
       <c r="O20" s="127"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="185"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
       <c r="L21" s="137"/>
-      <c r="M21" s="216"/>
+      <c r="M21" s="214"/>
     </row>
     <row r="22" spans="1:15" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="186">
+      <c r="A22" s="184">
         <v>12</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="166" t="s">
-        <v>39</v>
+      <c r="B22" s="191"/>
+      <c r="C22" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="164" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="78" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="78" t="s">
-        <v>114</v>
       </c>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
       <c r="L22" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="186">
+      <c r="A23" s="184">
         <v>13</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="167"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="79"/>
       <c r="L23" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="186">
+      <c r="A24" s="184">
         <v>14</v>
       </c>
-      <c r="B24" s="193"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="167"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="77" t="s">
+      <c r="J24" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="297" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="184">
+        <v>15</v>
+      </c>
+      <c r="B25" s="191"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="F25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="186">
-        <v>15</v>
-      </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="138"/>
+      <c r="K25" s="297" t="s">
+        <v>248</v>
+      </c>
       <c r="L25" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="186">
+      <c r="A26" s="184">
         <v>16</v>
       </c>
-      <c r="B26" s="193"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="167"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="165"/>
       <c r="E26" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>119</v>
-      </c>
       <c r="G26" s="77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="79"/>
       <c r="L26" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="186">
+      <c r="A27" s="184">
         <v>17</v>
       </c>
-      <c r="B27" s="193"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="167"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="G27" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27" s="85"/>
       <c r="K27" s="79"/>
       <c r="L27" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="186">
+      <c r="A28" s="184">
         <v>18</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="167"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="21">
         <v>162987</v>
       </c>
       <c r="I28" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="297" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="184">
+        <v>19</v>
+      </c>
+      <c r="B29" s="191"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="82" t="s">
+      <c r="J29" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="139"/>
-      <c r="L28" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="186">
-        <v>19</v>
-      </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="84" t="s">
+      <c r="K29" s="297" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="184">
+        <v>20</v>
+      </c>
+      <c r="B30" s="191"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="21" t="s">
+      <c r="F30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="186">
-        <v>20</v>
-      </c>
-      <c r="B30" s="193"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="79"/>
       <c r="L30" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="186">
+      <c r="A31" s="184">
         <v>21</v>
       </c>
-      <c r="B31" s="193"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="167"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="226" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="297" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="184">
+        <v>22</v>
+      </c>
+      <c r="B32" s="191"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="J31" s="228" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" s="79"/>
-      <c r="L31" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="186">
-        <v>22</v>
-      </c>
-      <c r="B32" s="193"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="84" t="s">
+      <c r="F32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="227"/>
+      <c r="J32" s="225"/>
       <c r="K32" s="79"/>
       <c r="L32" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="186">
+      <c r="A33" s="184">
         <v>23</v>
       </c>
-      <c r="B33" s="193"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="H33" s="87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="186">
+      <c r="A34" s="184">
         <v>24</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>61</v>
-      </c>
       <c r="G34" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="88" t="s">
         <v>141</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>142</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="186">
+      <c r="A35" s="184">
         <v>25</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="186">
+      <c r="A36" s="184">
         <v>26</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="G36" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="88" t="s">
         <v>144</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>145</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36" s="105"/>
     </row>
     <row r="37" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="186">
+      <c r="A37" s="184">
         <v>27</v>
       </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="88" t="s">
         <v>146</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>147</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M37" s="105"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="186">
+      <c r="A38" s="184">
         <v>28</v>
       </c>
-      <c r="B38" s="193"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="88" t="s">
         <v>149</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" s="88" t="s">
-        <v>150</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38" s="105"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="186">
+      <c r="A39" s="184">
         <v>29</v>
       </c>
-      <c r="B39" s="193"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="89" t="str">
         <f>H43</f>
@@ -4734,865 +4862,873 @@
 Confirm Password: A123456@</v>
       </c>
       <c r="I39" s="88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M39" s="105"/>
     </row>
     <row r="40" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="186">
+      <c r="A40" s="184">
         <v>30</v>
       </c>
-      <c r="B40" s="193"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="88" t="s">
         <v>153</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>154</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M40" s="105"/>
     </row>
     <row r="41" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="186">
+      <c r="A41" s="184">
         <v>31</v>
       </c>
-      <c r="B41" s="193"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="168"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="88" t="s">
         <v>155</v>
-      </c>
-      <c r="I41" s="88" t="s">
-        <v>156</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M41" s="105"/>
     </row>
     <row r="42" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="186">
+      <c r="A42" s="184">
         <v>32</v>
       </c>
-      <c r="B42" s="193"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="168"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" s="85"/>
+      <c r="K42" s="297" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="105"/>
+    </row>
+    <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="184">
+        <v>33</v>
+      </c>
+      <c r="B43" s="191"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" s="105"/>
-    </row>
-    <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="186">
-        <v>33</v>
-      </c>
-      <c r="B43" s="193"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="84" t="s">
-        <v>73</v>
-      </c>
       <c r="F43" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="105"/>
     </row>
     <row r="44" spans="1:14" ht="261.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="186">
+      <c r="A44" s="184">
         <v>34</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="168"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G44" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M44" s="105"/>
     </row>
     <row r="45" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="186">
+      <c r="A45" s="184">
         <v>35</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="168"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="297" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="105"/>
+    </row>
+    <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="184">
+        <v>36</v>
+      </c>
+      <c r="B46" s="191"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="21" t="s">
+      <c r="F46" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="105" t="s">
+      <c r="J46" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="297" t="s">
+        <v>249</v>
+      </c>
+      <c r="L46" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="105"/>
+    </row>
+    <row r="47" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="184">
         <v>37</v>
       </c>
-      <c r="M45" s="105"/>
-    </row>
-    <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="186">
-        <v>36</v>
-      </c>
-      <c r="B46" s="193"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" s="105"/>
-    </row>
-    <row r="47" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="186">
-        <v>37</v>
-      </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="94" t="s">
         <v>176</v>
-      </c>
-      <c r="I47" s="94" t="s">
-        <v>177</v>
       </c>
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
-      <c r="L47" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="141"/>
+      <c r="L47" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="139"/>
       <c r="N47" s="85"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="202"/>
-      <c r="B48" s="195"/>
-      <c r="C48" s="218"/>
+      <c r="A48" s="200"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="216"/>
       <c r="D48" s="50"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="208"/>
-      <c r="J48" s="207"/>
-      <c r="K48" s="207"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="209"/>
-      <c r="N48" s="143"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="205"/>
+      <c r="K48" s="205"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="207"/>
+      <c r="N48" s="141"/>
     </row>
     <row r="49" spans="1:16" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="186">
+      <c r="A49" s="184">
         <v>38</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="165" t="s">
-        <v>190</v>
+      <c r="B49" s="191"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="163" t="s">
+        <v>189</v>
       </c>
       <c r="E49" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="96" t="s">
-        <v>88</v>
-      </c>
       <c r="G49" s="83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I49" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
-      <c r="L49" s="144" t="s">
-        <v>43</v>
-      </c>
-      <c r="M49" s="145"/>
+      <c r="L49" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="143"/>
     </row>
     <row r="50" spans="1:16" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="186">
+      <c r="A50" s="184">
         <v>39</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="164"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="162"/>
       <c r="E50" s="98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="88" t="s">
         <v>176</v>
-      </c>
-      <c r="I50" s="88" t="s">
-        <v>177</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:16" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="186">
+      <c r="A51" s="184">
         <v>40</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="164"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="162"/>
       <c r="E51" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="78" t="s">
         <v>90</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="78" t="s">
-        <v>91</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" s="22"/>
       <c r="P51" s="127"/>
     </row>
     <row r="52" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="186">
+      <c r="A52" s="184">
         <v>41</v>
       </c>
-      <c r="B52" s="193"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="164"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="162"/>
       <c r="E52" s="84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I52" s="88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="186">
+      <c r="A53" s="184">
         <v>42</v>
       </c>
-      <c r="B53" s="193"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="164"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="G53" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I53" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="184">
         <v>43</v>
       </c>
-      <c r="M53" s="22"/>
-    </row>
-    <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="186">
-        <v>43</v>
-      </c>
-      <c r="B54" s="193"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="164"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="162"/>
       <c r="E54" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="G54" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="297" t="s">
+        <v>248</v>
+      </c>
+      <c r="L54" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="185">
+        <v>44</v>
+      </c>
+      <c r="B55" s="191"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="22"/>
-    </row>
-    <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="187">
-        <v>44</v>
-      </c>
-      <c r="B55" s="193"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="84" t="s">
+      <c r="G55" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="88" t="s">
         <v>183</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="88" t="s">
-        <v>184</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
       <c r="L55" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="186">
+      <c r="A56" s="184">
         <v>45</v>
       </c>
-      <c r="B56" s="193"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
       <c r="E56" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="G56" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="232.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="186">
+      <c r="A57" s="184">
         <v>46</v>
       </c>
-      <c r="B57" s="193"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
+      <c r="B57" s="191"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
       <c r="E57" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="G57" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G57" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="21" t="s">
+      <c r="I57" s="88" t="s">
         <v>188</v>
-      </c>
-      <c r="I57" s="88" t="s">
-        <v>189</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:16" ht="258.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="186">
+      <c r="A58" s="184">
         <v>47</v>
       </c>
-      <c r="B58" s="193"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="191"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="G58" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" s="88" t="s">
         <v>101</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I58" s="88" t="s">
-        <v>102</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M58" s="105"/>
     </row>
     <row r="59" spans="1:16" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="202"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="196"/>
-      <c r="M59" s="196"/>
+      <c r="A59" s="200"/>
+      <c r="B59" s="191"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="198"/>
+      <c r="H59" s="198"/>
+      <c r="I59" s="198"/>
+      <c r="J59" s="198"/>
+      <c r="K59" s="199"/>
+      <c r="L59" s="194"/>
+      <c r="M59" s="194"/>
       <c r="N59" s="85"/>
     </row>
     <row r="60" spans="1:16" ht="188.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="186">
+      <c r="A60" s="184">
         <v>48</v>
       </c>
-      <c r="B60" s="193"/>
-      <c r="C60" s="170" t="s">
+      <c r="B60" s="191"/>
+      <c r="C60" s="168" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="174" t="s">
-        <v>209</v>
-      </c>
       <c r="E60" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="G60" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="H60" s="91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I60" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
       <c r="L60" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="186">
+      <c r="A61" s="184">
         <v>49</v>
       </c>
-      <c r="B61" s="193"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="171" t="s">
+      <c r="B61" s="191"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="G61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="I61" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="245">
+      <c r="A62" s="243">
         <v>50</v>
       </c>
-      <c r="B62" s="193"/>
-      <c r="C62" s="246"/>
-      <c r="D62" s="239"/>
-      <c r="E62" s="241" t="s">
+      <c r="B62" s="191"/>
+      <c r="C62" s="244"/>
+      <c r="D62" s="237"/>
+      <c r="E62" s="239" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="238" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="240" t="s">
+      <c r="G62" s="170" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="172" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="172" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="J62" s="173"/>
-      <c r="K62" s="172"/>
+      <c r="I62" s="171" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="171"/>
+      <c r="K62" s="170"/>
       <c r="L62" s="121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M62" s="121"/>
       <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:16" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="254"/>
-      <c r="B63" s="255"/>
-      <c r="C63" s="256"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="261"/>
-      <c r="G63" s="259"/>
-      <c r="H63" s="261"/>
-      <c r="I63" s="262"/>
-      <c r="J63" s="262"/>
-      <c r="K63" s="261"/>
-      <c r="L63" s="260"/>
-      <c r="M63" s="260"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="253"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="256"/>
+      <c r="F63" s="259"/>
+      <c r="G63" s="257"/>
+      <c r="H63" s="259"/>
+      <c r="I63" s="260"/>
+      <c r="J63" s="260"/>
+      <c r="K63" s="259"/>
+      <c r="L63" s="258"/>
+      <c r="M63" s="258"/>
       <c r="N63" s="126"/>
     </row>
     <row r="64" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="247">
+      <c r="A64" s="245">
         <v>51</v>
       </c>
-      <c r="B64" s="263" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="268" t="s">
+      <c r="B64" s="261" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="266" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="267" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="246" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="247" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="248" t="s">
+        <v>227</v>
+      </c>
+      <c r="H64" s="248" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="249" t="s">
+        <v>228</v>
+      </c>
+      <c r="J64" s="250"/>
+      <c r="K64" s="248"/>
+      <c r="L64" s="251" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="236"/>
+      <c r="N64" s="141"/>
+    </row>
+    <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="184">
+        <v>52</v>
+      </c>
+      <c r="B65" s="193"/>
+      <c r="C65" s="267" t="s">
         <v>218</v>
       </c>
-      <c r="D64" s="269" t="s">
+      <c r="D65" s="268" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="240" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="248" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="249" t="s">
+      <c r="G65" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="250" t="s">
+      <c r="H65" s="228" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="242" t="s">
         <v>228</v>
       </c>
-      <c r="H64" s="250" t="s">
+      <c r="J65" s="241"/>
+      <c r="K65" s="228"/>
+      <c r="L65" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="251" t="s">
+      <c r="M65" s="236"/>
+      <c r="N65" s="85"/>
+    </row>
+    <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="184">
+        <v>53</v>
+      </c>
+      <c r="B66" s="261"/>
+      <c r="C66" s="267" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="267" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="228" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" s="228" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="233" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="270" t="s">
         <v>229</v>
       </c>
-      <c r="J64" s="252"/>
-      <c r="K64" s="250"/>
-      <c r="L64" s="253" t="s">
-        <v>43</v>
-      </c>
-      <c r="M64" s="238"/>
-      <c r="N64" s="143"/>
-    </row>
-    <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="186">
-        <v>52</v>
-      </c>
-      <c r="B65" s="195"/>
-      <c r="C65" s="269" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="270" t="s">
+      <c r="J66" s="242"/>
+      <c r="K66" s="240"/>
+      <c r="L66" s="235" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="236"/>
+      <c r="N66" s="85"/>
+    </row>
+    <row r="67" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="184">
+        <v>54</v>
+      </c>
+      <c r="B67" s="227"/>
+      <c r="C67" s="269" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="F65" s="242" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="230" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" s="230" t="s">
+      <c r="E67" s="265" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="265" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" s="265" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="272" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="J67" s="234"/>
+      <c r="K67" s="273"/>
+      <c r="L67" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="244" t="s">
-        <v>229</v>
-      </c>
-      <c r="J65" s="243"/>
-      <c r="K65" s="230"/>
-      <c r="L65" s="238" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="238"/>
-      <c r="N65" s="85"/>
-    </row>
-    <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="186">
-        <v>53</v>
-      </c>
-      <c r="B66" s="263"/>
-      <c r="C66" s="269" t="s">
-        <v>222</v>
-      </c>
-      <c r="D66" s="269" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="230" t="s">
-        <v>225</v>
-      </c>
-      <c r="G66" s="230" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="235" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="272" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="244"/>
-      <c r="K66" s="242"/>
-      <c r="L66" s="237" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="238"/>
-      <c r="N66" s="85"/>
-    </row>
-    <row r="67" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="186">
-        <v>54</v>
-      </c>
-      <c r="B67" s="229"/>
-      <c r="C67" s="271" t="s">
-        <v>237</v>
-      </c>
-      <c r="D67" s="271" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="267" t="s">
-        <v>240</v>
-      </c>
-      <c r="F67" s="267" t="s">
-        <v>241</v>
-      </c>
-      <c r="G67" s="267" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="274" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="273" t="s">
-        <v>242</v>
-      </c>
-      <c r="J67" s="236"/>
-      <c r="K67" s="275"/>
-      <c r="L67" s="237" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="238"/>
-      <c r="N67" s="143"/>
+      <c r="M67" s="236"/>
+      <c r="N67" s="141"/>
     </row>
     <row r="68" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="202"/>
-      <c r="B68" s="203"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="204"/>
-      <c r="F68" s="205"/>
-      <c r="G68" s="205"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="231"/>
-      <c r="J68" s="231"/>
-      <c r="K68" s="232"/>
-      <c r="L68" s="233"/>
-      <c r="M68" s="234"/>
-      <c r="N68" s="143"/>
+      <c r="A68" s="200"/>
+      <c r="B68" s="201"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="202"/>
+      <c r="F68" s="203"/>
+      <c r="G68" s="203"/>
+      <c r="H68" s="229"/>
+      <c r="I68" s="229"/>
+      <c r="J68" s="229"/>
+      <c r="K68" s="230"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="232"/>
+      <c r="N68" s="141"/>
     </row>
     <row r="69" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="186">
+      <c r="A69" s="184">
         <v>55</v>
       </c>
-      <c r="B69" s="178"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="220" t="s">
-        <v>206</v>
+      <c r="B69" s="176"/>
+      <c r="C69" s="161"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="218" t="s">
+        <v>205</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="90"/>
-      <c r="H69" s="155"/>
+      <c r="H69" s="153"/>
       <c r="I69" s="104"/>
       <c r="J69" s="104"/>
       <c r="K69" s="83"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="144"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="142"/>
     </row>
     <row r="70" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="186">
+      <c r="A70" s="184">
         <v>55</v>
       </c>
-      <c r="B70" s="178"/>
-      <c r="C70" s="162"/>
-      <c r="D70" s="177"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="175"/>
       <c r="E70" s="103"/>
       <c r="F70" s="83"/>
       <c r="G70" s="83"/>
@@ -5604,16 +5740,16 @@
       <c r="M70" s="105"/>
     </row>
     <row r="71" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="186">
+      <c r="A71" s="184">
         <v>56</v>
       </c>
-      <c r="B71" s="178"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="221" t="s">
-        <v>213</v>
+      <c r="B71" s="176"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="219" t="s">
+        <v>212</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -5625,16 +5761,16 @@
       <c r="M71" s="105"/>
     </row>
     <row r="72" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="186">
+      <c r="A72" s="184">
         <v>57</v>
       </c>
-      <c r="B72" s="178"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="177"/>
-      <c r="E72" s="226" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="225"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="224" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="223"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
@@ -5644,12 +5780,12 @@
       <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="186">
+      <c r="A73" s="184">
         <v>58</v>
       </c>
-      <c r="B73" s="178"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="223"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="96"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -5657,36 +5793,36 @@
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="105"/>
-      <c r="L73" s="147"/>
-      <c r="M73" s="146"/>
+      <c r="L73" s="145"/>
+      <c r="M73" s="144"/>
     </row>
     <row r="74" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="186">
+      <c r="A74" s="184">
         <v>58</v>
       </c>
-      <c r="B74" s="176"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="104"/>
-      <c r="D74" s="224"/>
-      <c r="E74" s="219" t="s">
-        <v>215</v>
+      <c r="D74" s="222"/>
+      <c r="E74" s="217" t="s">
+        <v>214</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="105"/>
-      <c r="L74" s="148"/>
+      <c r="L74" s="146"/>
       <c r="M74" s="128"/>
     </row>
     <row r="75" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="186">
+      <c r="A75" s="184">
         <v>59</v>
       </c>
-      <c r="B75" s="176"/>
+      <c r="B75" s="174"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="222"/>
-      <c r="E75" s="219" t="s">
-        <v>216</v>
+      <c r="D75" s="220"/>
+      <c r="E75" s="217" t="s">
+        <v>215</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -5697,10 +5833,10 @@
       <c r="M75" s="128"/>
     </row>
     <row r="76" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="186">
+      <c r="A76" s="184">
         <v>60</v>
       </c>
-      <c r="B76" s="176"/>
+      <c r="B76" s="174"/>
       <c r="C76" s="27"/>
       <c r="D76" s="103"/>
       <c r="E76" s="22"/>
@@ -5710,12 +5846,12 @@
       <c r="I76" s="22"/>
       <c r="J76" s="79"/>
       <c r="K76" s="105"/>
-      <c r="L76" s="148"/>
+      <c r="L76" s="146"/>
       <c r="M76" s="128"/>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="186"/>
-      <c r="B77" s="176"/>
+      <c r="A77" s="184"/>
+      <c r="B77" s="174"/>
       <c r="C77" s="27"/>
       <c r="D77" s="103"/>
       <c r="E77" s="21"/>
@@ -5725,12 +5861,12 @@
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="105"/>
-      <c r="L77" s="148"/>
+      <c r="L77" s="146"/>
       <c r="M77" s="128"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="186"/>
-      <c r="B78" s="176"/>
+      <c r="A78" s="184"/>
+      <c r="B78" s="174"/>
       <c r="C78" s="27"/>
       <c r="D78" s="103"/>
       <c r="E78" s="21"/>
@@ -5740,12 +5876,12 @@
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
-      <c r="L78" s="148"/>
+      <c r="L78" s="146"/>
       <c r="M78" s="128"/>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="187"/>
-      <c r="B79" s="176"/>
+      <c r="A79" s="185"/>
+      <c r="B79" s="174"/>
       <c r="C79" s="106"/>
       <c r="D79" s="27"/>
       <c r="E79" s="21"/>
@@ -5755,12 +5891,12 @@
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="121"/>
-      <c r="L79" s="147"/>
+      <c r="L79" s="145"/>
       <c r="M79" s="128"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="186"/>
-      <c r="B80" s="176"/>
+      <c r="A80" s="184"/>
+      <c r="B80" s="174"/>
       <c r="C80" s="106"/>
       <c r="D80" s="27"/>
       <c r="E80" s="103"/>
@@ -5769,13 +5905,13 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="86"/>
-      <c r="K80" s="149"/>
-      <c r="L80" s="150"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="148"/>
       <c r="M80" s="128"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="186"/>
-      <c r="B81" s="176"/>
+      <c r="A81" s="184"/>
+      <c r="B81" s="174"/>
       <c r="C81" s="107"/>
       <c r="D81" s="108"/>
       <c r="E81" s="103"/>
@@ -5784,13 +5920,13 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="86"/>
-      <c r="K81" s="152"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="151"/>
+      <c r="K81" s="150"/>
+      <c r="L81" s="151"/>
+      <c r="M81" s="149"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="186"/>
-      <c r="B82" s="178"/>
+      <c r="A82" s="184"/>
+      <c r="B82" s="176"/>
       <c r="C82" s="90"/>
       <c r="D82" s="90"/>
       <c r="E82" s="102"/>
@@ -5799,441 +5935,441 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="86"/>
-      <c r="K82" s="152"/>
-      <c r="L82" s="153"/>
-      <c r="M82" s="154"/>
+      <c r="K82" s="150"/>
+      <c r="L82" s="151"/>
+      <c r="M82" s="152"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="186"/>
-      <c r="B83" s="176"/>
+      <c r="A83" s="184"/>
+      <c r="B83" s="174"/>
       <c r="M83" s="105"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="186"/>
-      <c r="B84" s="176"/>
+      <c r="A84" s="184"/>
+      <c r="B84" s="174"/>
     </row>
     <row r="85" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="188"/>
-      <c r="B85" s="176"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="174"/>
     </row>
     <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="188"/>
-      <c r="B86" s="176"/>
+      <c r="A86" s="186"/>
+      <c r="B86" s="174"/>
     </row>
     <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="188"/>
-      <c r="B87" s="176"/>
+      <c r="A87" s="186"/>
+      <c r="B87" s="174"/>
     </row>
     <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="188"/>
-      <c r="B88" s="176"/>
+      <c r="A88" s="186"/>
+      <c r="B88" s="174"/>
     </row>
     <row r="89" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="188"/>
-      <c r="B89" s="176"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="174"/>
     </row>
     <row r="90" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="188"/>
-      <c r="B90" s="176"/>
+      <c r="A90" s="186"/>
+      <c r="B90" s="174"/>
     </row>
     <row r="91" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="188"/>
-      <c r="B91" s="176"/>
+      <c r="A91" s="186"/>
+      <c r="B91" s="174"/>
     </row>
     <row r="92" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="188"/>
-      <c r="B92" s="176"/>
+      <c r="A92" s="186"/>
+      <c r="B92" s="174"/>
     </row>
     <row r="93" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="188"/>
-      <c r="B93" s="176"/>
+      <c r="A93" s="186"/>
+      <c r="B93" s="174"/>
     </row>
     <row r="94" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="188"/>
-      <c r="B94" s="176"/>
+      <c r="A94" s="186"/>
+      <c r="B94" s="174"/>
     </row>
     <row r="95" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="188"/>
-      <c r="B95" s="176"/>
+      <c r="A95" s="186"/>
+      <c r="B95" s="174"/>
     </row>
     <row r="96" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="188"/>
-      <c r="B96" s="176"/>
+      <c r="A96" s="186"/>
+      <c r="B96" s="174"/>
     </row>
     <row r="97" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="188"/>
-      <c r="B97" s="176"/>
+      <c r="A97" s="186"/>
+      <c r="B97" s="174"/>
     </row>
     <row r="98" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="188"/>
-      <c r="B98" s="176"/>
+      <c r="A98" s="186"/>
+      <c r="B98" s="174"/>
     </row>
     <row r="99" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="188"/>
-      <c r="B99" s="176"/>
+      <c r="A99" s="186"/>
+      <c r="B99" s="174"/>
     </row>
     <row r="100" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="188"/>
-      <c r="B100" s="176"/>
+      <c r="A100" s="186"/>
+      <c r="B100" s="174"/>
     </row>
     <row r="101" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="188"/>
-      <c r="B101" s="176"/>
+      <c r="A101" s="186"/>
+      <c r="B101" s="174"/>
     </row>
     <row r="102" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="188"/>
-      <c r="B102" s="176"/>
+      <c r="A102" s="186"/>
+      <c r="B102" s="174"/>
     </row>
     <row r="103" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="188"/>
-      <c r="B103" s="176"/>
+      <c r="A103" s="186"/>
+      <c r="B103" s="174"/>
     </row>
     <row r="104" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="188"/>
-      <c r="B104" s="176"/>
+      <c r="A104" s="186"/>
+      <c r="B104" s="174"/>
     </row>
     <row r="105" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="188"/>
-      <c r="B105" s="176"/>
+      <c r="A105" s="186"/>
+      <c r="B105" s="174"/>
     </row>
     <row r="106" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="188"/>
-      <c r="B106" s="176"/>
+      <c r="A106" s="186"/>
+      <c r="B106" s="174"/>
     </row>
     <row r="107" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="188"/>
-      <c r="B107" s="176"/>
+      <c r="A107" s="186"/>
+      <c r="B107" s="174"/>
     </row>
     <row r="108" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="188"/>
-      <c r="B108" s="176"/>
+      <c r="A108" s="186"/>
+      <c r="B108" s="174"/>
     </row>
     <row r="109" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="188"/>
-      <c r="B109" s="176"/>
+      <c r="A109" s="186"/>
+      <c r="B109" s="174"/>
     </row>
     <row r="110" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="188"/>
-      <c r="B110" s="176"/>
+      <c r="A110" s="186"/>
+      <c r="B110" s="174"/>
     </row>
     <row r="111" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="188"/>
-      <c r="B111" s="176"/>
+      <c r="A111" s="186"/>
+      <c r="B111" s="174"/>
     </row>
     <row r="112" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="188"/>
-      <c r="B112" s="176"/>
+      <c r="A112" s="186"/>
+      <c r="B112" s="174"/>
     </row>
     <row r="113" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="188"/>
-      <c r="B113" s="176"/>
+      <c r="A113" s="186"/>
+      <c r="B113" s="174"/>
     </row>
     <row r="114" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="188"/>
-      <c r="B114" s="176"/>
+      <c r="A114" s="186"/>
+      <c r="B114" s="174"/>
     </row>
     <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="188"/>
-      <c r="B115" s="176"/>
+      <c r="A115" s="186"/>
+      <c r="B115" s="174"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="189"/>
-      <c r="B116" s="176"/>
+      <c r="A116" s="187"/>
+      <c r="B116" s="174"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="190"/>
-      <c r="B117" s="176"/>
+      <c r="A117" s="188"/>
+      <c r="B117" s="174"/>
     </row>
     <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="190"/>
-      <c r="B118" s="176"/>
+      <c r="A118" s="188"/>
+      <c r="B118" s="174"/>
     </row>
     <row r="119" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="190"/>
-      <c r="B119" s="176"/>
+      <c r="A119" s="188"/>
+      <c r="B119" s="174"/>
     </row>
     <row r="120" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="190"/>
-      <c r="B120" s="176"/>
+      <c r="A120" s="188"/>
+      <c r="B120" s="174"/>
     </row>
     <row r="121" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="190"/>
-      <c r="B121" s="176"/>
+      <c r="A121" s="188"/>
+      <c r="B121" s="174"/>
     </row>
     <row r="122" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="190"/>
-      <c r="B122" s="176"/>
+      <c r="A122" s="188"/>
+      <c r="B122" s="174"/>
     </row>
     <row r="123" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="190"/>
-      <c r="B123" s="176"/>
+      <c r="A123" s="188"/>
+      <c r="B123" s="174"/>
     </row>
     <row r="124" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="190"/>
-      <c r="B124" s="176"/>
+      <c r="A124" s="188"/>
+      <c r="B124" s="174"/>
     </row>
     <row r="125" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="190"/>
-      <c r="B125" s="176"/>
+      <c r="A125" s="188"/>
+      <c r="B125" s="174"/>
     </row>
     <row r="126" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="190"/>
-      <c r="B126" s="176"/>
+      <c r="A126" s="188"/>
+      <c r="B126" s="174"/>
     </row>
     <row r="127" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="190"/>
-      <c r="B127" s="176"/>
+      <c r="A127" s="188"/>
+      <c r="B127" s="174"/>
     </row>
     <row r="128" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="190"/>
-      <c r="B128" s="176"/>
+      <c r="A128" s="188"/>
+      <c r="B128" s="174"/>
     </row>
     <row r="129" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="190"/>
-      <c r="B129" s="176"/>
+      <c r="A129" s="188"/>
+      <c r="B129" s="174"/>
     </row>
     <row r="130" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="190"/>
-      <c r="B130" s="176"/>
+      <c r="A130" s="188"/>
+      <c r="B130" s="174"/>
     </row>
     <row r="131" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="190"/>
-      <c r="B131" s="176"/>
+      <c r="A131" s="188"/>
+      <c r="B131" s="174"/>
     </row>
     <row r="132" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="190"/>
-      <c r="B132" s="176"/>
+      <c r="A132" s="188"/>
+      <c r="B132" s="174"/>
     </row>
     <row r="133" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="190"/>
-      <c r="B133" s="176"/>
+      <c r="A133" s="188"/>
+      <c r="B133" s="174"/>
     </row>
     <row r="134" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="190"/>
-      <c r="B134" s="176"/>
+      <c r="A134" s="188"/>
+      <c r="B134" s="174"/>
     </row>
     <row r="135" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="190"/>
-      <c r="B135" s="176"/>
+      <c r="A135" s="188"/>
+      <c r="B135" s="174"/>
     </row>
     <row r="136" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="190"/>
-      <c r="B136" s="176"/>
+      <c r="A136" s="188"/>
+      <c r="B136" s="174"/>
     </row>
     <row r="137" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="190"/>
-      <c r="B137" s="176"/>
+      <c r="A137" s="188"/>
+      <c r="B137" s="174"/>
     </row>
     <row r="138" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="190"/>
-      <c r="B138" s="176"/>
+      <c r="A138" s="188"/>
+      <c r="B138" s="174"/>
     </row>
     <row r="139" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="190"/>
-      <c r="B139" s="176"/>
+      <c r="A139" s="188"/>
+      <c r="B139" s="174"/>
     </row>
     <row r="140" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="190"/>
-      <c r="B140" s="176"/>
+      <c r="A140" s="188"/>
+      <c r="B140" s="174"/>
     </row>
     <row r="141" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="190"/>
-      <c r="B141" s="176"/>
+      <c r="A141" s="188"/>
+      <c r="B141" s="174"/>
     </row>
     <row r="142" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="190"/>
-      <c r="B142" s="176"/>
+      <c r="A142" s="188"/>
+      <c r="B142" s="174"/>
     </row>
     <row r="143" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="190"/>
-      <c r="B143" s="176"/>
+      <c r="A143" s="188"/>
+      <c r="B143" s="174"/>
     </row>
     <row r="144" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="190"/>
-      <c r="B144" s="176"/>
+      <c r="A144" s="188"/>
+      <c r="B144" s="174"/>
     </row>
     <row r="145" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="190"/>
-      <c r="B145" s="176"/>
+      <c r="A145" s="188"/>
+      <c r="B145" s="174"/>
     </row>
     <row r="146" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="190"/>
-      <c r="B146" s="176"/>
+      <c r="A146" s="188"/>
+      <c r="B146" s="174"/>
     </row>
     <row r="147" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="190"/>
-      <c r="B147" s="176"/>
+      <c r="A147" s="188"/>
+      <c r="B147" s="174"/>
     </row>
     <row r="148" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="190"/>
-      <c r="B148" s="176"/>
+      <c r="A148" s="188"/>
+      <c r="B148" s="174"/>
     </row>
     <row r="149" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="190"/>
-      <c r="B149" s="176"/>
+      <c r="A149" s="188"/>
+      <c r="B149" s="174"/>
     </row>
     <row r="150" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="190"/>
-      <c r="B150" s="176"/>
+      <c r="A150" s="188"/>
+      <c r="B150" s="174"/>
     </row>
     <row r="151" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="190"/>
-      <c r="B151" s="176"/>
+      <c r="A151" s="188"/>
+      <c r="B151" s="174"/>
     </row>
     <row r="152" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="190"/>
-      <c r="B152" s="176"/>
+      <c r="A152" s="188"/>
+      <c r="B152" s="174"/>
     </row>
     <row r="153" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="190"/>
-      <c r="B153" s="176"/>
+      <c r="A153" s="188"/>
+      <c r="B153" s="174"/>
     </row>
     <row r="154" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="190"/>
-      <c r="B154" s="176"/>
+      <c r="A154" s="188"/>
+      <c r="B154" s="174"/>
     </row>
     <row r="155" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="190"/>
-      <c r="B155" s="176"/>
+      <c r="A155" s="188"/>
+      <c r="B155" s="174"/>
     </row>
     <row r="156" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="190"/>
-      <c r="B156" s="176"/>
+      <c r="A156" s="188"/>
+      <c r="B156" s="174"/>
     </row>
     <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="190"/>
-      <c r="B157" s="176"/>
+      <c r="A157" s="188"/>
+      <c r="B157" s="174"/>
     </row>
     <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="190"/>
-      <c r="B158" s="176"/>
+      <c r="A158" s="188"/>
+      <c r="B158" s="174"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="191"/>
-      <c r="B159" s="175"/>
+      <c r="A159" s="189"/>
+      <c r="B159" s="173"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="157"/>
-      <c r="B160" s="175"/>
+      <c r="A160" s="155"/>
+      <c r="B160" s="173"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="158"/>
-      <c r="B161" s="175"/>
+      <c r="A161" s="156"/>
+      <c r="B161" s="173"/>
     </row>
     <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="158"/>
-      <c r="B162" s="175"/>
+      <c r="A162" s="156"/>
+      <c r="B162" s="173"/>
     </row>
     <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="158"/>
-      <c r="B163" s="175"/>
+      <c r="A163" s="156"/>
+      <c r="B163" s="173"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="159"/>
-      <c r="B164" s="175"/>
+      <c r="A164" s="157"/>
+      <c r="B164" s="173"/>
     </row>
     <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="159"/>
-      <c r="B165" s="175"/>
+      <c r="A165" s="157"/>
+      <c r="B165" s="173"/>
     </row>
     <row r="166" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="159"/>
-      <c r="B166" s="175"/>
+      <c r="A166" s="157"/>
+      <c r="B166" s="173"/>
     </row>
     <row r="167" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="159"/>
-      <c r="B167" s="175"/>
+      <c r="A167" s="157"/>
+      <c r="B167" s="173"/>
     </row>
     <row r="168" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="159"/>
-      <c r="B168" s="175"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="173"/>
     </row>
     <row r="169" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="159"/>
-      <c r="B169" s="175"/>
+      <c r="A169" s="157"/>
+      <c r="B169" s="173"/>
     </row>
     <row r="170" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="159"/>
-      <c r="B170" s="175"/>
+      <c r="A170" s="157"/>
+      <c r="B170" s="173"/>
     </row>
     <row r="171" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="159"/>
-      <c r="B171" s="175"/>
+      <c r="A171" s="157"/>
+      <c r="B171" s="173"/>
     </row>
     <row r="172" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="159"/>
-      <c r="B172" s="175"/>
+      <c r="A172" s="157"/>
+      <c r="B172" s="173"/>
     </row>
     <row r="173" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="159"/>
-      <c r="B173" s="175"/>
+      <c r="A173" s="157"/>
+      <c r="B173" s="173"/>
     </row>
     <row r="174" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="159"/>
-      <c r="B174" s="175"/>
+      <c r="A174" s="157"/>
+      <c r="B174" s="173"/>
     </row>
     <row r="175" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="159"/>
-      <c r="B175" s="175"/>
+      <c r="A175" s="157"/>
+      <c r="B175" s="173"/>
     </row>
     <row r="176" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="159"/>
-      <c r="B176" s="175"/>
+      <c r="A176" s="157"/>
+      <c r="B176" s="173"/>
     </row>
     <row r="177" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="159"/>
-      <c r="B177" s="175"/>
+      <c r="A177" s="157"/>
+      <c r="B177" s="173"/>
     </row>
     <row r="178" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="159"/>
-      <c r="B178" s="175"/>
+      <c r="A178" s="157"/>
+      <c r="B178" s="173"/>
     </row>
     <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="159"/>
-      <c r="B179" s="175"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="173"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="158"/>
-      <c r="B180" s="175"/>
+      <c r="A180" s="156"/>
+      <c r="B180" s="173"/>
     </row>
     <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="158"/>
-      <c r="B181" s="175"/>
+      <c r="A181" s="156"/>
+      <c r="B181" s="173"/>
     </row>
     <row r="182" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="158"/>
-      <c r="B182" s="175"/>
+      <c r="A182" s="156"/>
+      <c r="B182" s="173"/>
     </row>
     <row r="183" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="158"/>
-      <c r="B183" s="175"/>
+      <c r="A183" s="156"/>
+      <c r="B183" s="173"/>
     </row>
     <row r="184" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="158"/>
-      <c r="B184" s="175"/>
+      <c r="A184" s="156"/>
+      <c r="B184" s="173"/>
     </row>
     <row r="185" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="158"/>
-      <c r="B185" s="175"/>
+      <c r="A185" s="156"/>
+      <c r="B185" s="173"/>
     </row>
     <row r="186" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="158"/>
-      <c r="B186" s="175"/>
+      <c r="A186" s="156"/>
+      <c r="B186" s="173"/>
     </row>
     <row r="187" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="158"/>
-      <c r="B187" s="175"/>
+      <c r="A187" s="156"/>
+      <c r="B187" s="173"/>
     </row>
     <row r="188" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="158"/>
-      <c r="B188" s="175"/>
+      <c r="A188" s="156"/>
+      <c r="B188" s="173"/>
     </row>
     <row r="189" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="158"/>
-      <c r="B189" s="175"/>
+      <c r="A189" s="156"/>
+      <c r="B189" s="173"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="160"/>
+      <c r="A190" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B9BED9-963E-4F09-823A-ABDF0424F976}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98204021-7BF5-4219-AF49-FDE45CBA50DC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mind Mapping" sheetId="2" r:id="rId1"/>
+    <sheet name="Evaly_Manual_Testing" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="257">
   <si>
     <t>Product Name</t>
   </si>
@@ -310,12 +311,6 @@
     <t>Checking login wrong credentials in email and password field</t>
   </si>
   <si>
-    <t>1. Goto the URL
-https://www.bdshop.com/
-2. Click on login button at the right corner
-3. Input invalid credentials in email and password field</t>
-  </si>
-  <si>
     <t>Checking login valid credentials in email and password field</t>
   </si>
   <si>
@@ -345,16 +340,6 @@
   </si>
   <si>
     <t>Should allow user to login</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://www.bdshop.com/
-2. Click on login button at the right corner
-3.Click on 'Forgot Password' 
-4. Check the registered email
-5. Click on 'Set up a New Password'
-6. Enter new password
-7. Click on login</t>
   </si>
   <si>
     <t>Improvement 
@@ -663,12 +648,6 @@
 3. Enter enter in every field</t>
   </si>
   <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Click on login button at the right corner
-3. Keep both the fields blank</t>
-  </si>
-  <si>
     <t>Password: A123456@</t>
   </si>
   <si>
@@ -682,287 +661,337 @@
 Password: jhon71don</t>
   </si>
   <si>
+    <t>Should allow user to Log in</t>
+  </si>
+  <si>
+    <t>Verifying change the password code is sent to valid email 
+address</t>
+  </si>
+  <si>
+    <t>Ensuriing mask layer into the 'Entering new password' and 'Confirm new password' fields</t>
+  </si>
+  <si>
+    <t>Password should be like  '••••••••'</t>
+  </si>
+  <si>
+    <t>Password: A314295@
+Confirm Password: A314295@</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Eye Function Not Found</t>
+  </si>
+  <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
-3. Input valid credentials in email and password field</t>
-  </si>
-  <si>
-    <t>Should allow user to Log in</t>
+2. Click on 'Sign in' button at the right corner.
+3. Check the spelling and grammar of the website.</t>
+  </si>
+  <si>
+    <t>Varefying the font,text,color and style</t>
+  </si>
+  <si>
+    <t>Should be as per the requirment</t>
   </si>
   <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
+2. Click on 'Sign in' button at the right corner
+3. Check the font, text color and style.</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on 'Sign in' button at the right corner
+3. Check Password field</t>
+  </si>
+  <si>
+    <t>Expecting 'Eye Button' into the Password field</t>
+  </si>
+  <si>
+    <t>Should be as per expectation</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on 'Sign in' button at the right corner
+3. Check alignment of the fields</t>
+  </si>
+  <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>xolope8846@ahieh.com</t>
+  </si>
+  <si>
+    <t>Full name: Anik Chakraborty
+Email: xolope8846@ahieh.com
+Password: A123456@
+Confirm Password: A123456@</t>
+  </si>
+  <si>
+    <t>Full name: Anik Chakraborty
+Email: xolope8846@ahieh.com
+Password: A123456@</t>
+  </si>
+  <si>
+    <t>Email: xolope8846@ahieh.com
+Password: A123456@</t>
+  </si>
+  <si>
+    <t>Email: xolope8846@ahieh.com
+Password: A314295@</t>
+  </si>
+  <si>
+    <t>1. Grammatical mistakes should be emphasized.</t>
+  </si>
+  <si>
+    <t>Web application tasted in windows operating ststem.</t>
+  </si>
+  <si>
+    <t>Usabality Testing</t>
+  </si>
+  <si>
+    <t>Sign Up and Log In</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Sign In with Google not found</t>
+  </si>
+  <si>
+    <t>Sign In with Facebook not found</t>
+  </si>
+  <si>
+    <t>2. Need "Eye button" into Sign up page(Password and Confirm Password field)</t>
+  </si>
+  <si>
+    <t>3.Need "Asterisk" button into important fields.</t>
+  </si>
+  <si>
+    <t>4.Security should be strengthened.</t>
+  </si>
+  <si>
+    <t>5. Need proper maintanance.</t>
+  </si>
+  <si>
+    <t>Checking all kinds of functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI Testing</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>User main UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hopefully all the functions will work properly</t>
+  </si>
+  <si>
+    <t>Payment Getway Testing</t>
+  </si>
+  <si>
+    <t>Checking All kinds of payment methods Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment getway </t>
+  </si>
+  <si>
+    <t>Hopefully all the functions will work Properly</t>
+  </si>
+  <si>
+    <t>Checking alignments of all field</t>
+  </si>
+  <si>
+    <t>Should Be as per the requirments</t>
+  </si>
+  <si>
+    <t>Found as per requirments</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Log In
+3. Check main UI of user UI</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Log In.
+3. After Item selection check all kinds of payment methids</t>
+  </si>
+  <si>
+    <t>evaly(Web App)</t>
+  </si>
+  <si>
+    <t>Using Temp Mail and Temp Number service for Testing.</t>
+  </si>
+  <si>
+    <t>Full Web App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Chrome
+Microsoft Edge
+Mozila Firefox
+Opera </t>
+  </si>
+  <si>
+    <t>Main User UI Allignment and Functionality Testing</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>Mobile App Download</t>
+  </si>
+  <si>
+    <t>All Kinds of user functions</t>
+  </si>
+  <si>
+    <t>Download from "Google Play"</t>
+  </si>
+  <si>
+    <t>Download in android Phone</t>
+  </si>
+  <si>
+    <t>It should be download properly in Android environment(Android Phone)</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Log In.
+3. Check andriod app/Google Play download option in bottom-right</t>
+  </si>
+  <si>
+    <t>Proyority Lavel Indicator</t>
+  </si>
+  <si>
+    <t>N/A - Not Effective</t>
+  </si>
+  <si>
+    <t>P0 - LOW</t>
+  </si>
+  <si>
+    <t>P1 - Medium</t>
+  </si>
+  <si>
+    <t>P2 - High</t>
+  </si>
+  <si>
+    <t>Priyority Lavel</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on Sign in button at the right corner
+3. Keep both the fields blank</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on Sign in button at the right corner
+3. Input values in password field and check if it is masked</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://www.bdshop.com/
+2. Click on Sign in button at the right corner
+3. Input invalid credentials in email and password field</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on Sign in button at the right corner
+3. Input valid credentials in email and password field</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://evaly.com.bd/
+2. Click on Sign in button at the right corner
 3.Click on 'Forgot Password'
 4. Check email</t>
   </si>
   <si>
     <t xml:space="preserve">1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
+2. Click on Sign in button at the right corner
 3.Click on 'Forgot Password' multiple times
 </t>
   </si>
   <si>
-    <t>Verifying change the password code is sent to valid email 
-address</t>
-  </si>
-  <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
+2. Click on Sign in button at the right corner
 3.Click on 'Forgot Password' 
 4. Check the registered email</t>
   </si>
   <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
+2. Click on Sign in button at the right corner
 3.Click on 'Forgot Password' 
 4. Check the registered email
 5. Input Code from mail and set new password</t>
   </si>
   <si>
-    <t>Ensuriing mask layer into the 'Entering new password' and 'Confirm new password' fields</t>
-  </si>
-  <si>
-    <t>Password should be like  '••••••••'</t>
-  </si>
-  <si>
-    <t>Password: A314295@
-Confirm Password: A314295@</t>
-  </si>
-  <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on login button at the right corner
+2. Click on Sign in button at the right corner
 3.Click on 'Forgot Password' 
 4. Check the registered email
 5. Enter code for 'Set up a New Password'
 6. check mask layer</t>
   </si>
   <si>
-    <t>Log In</t>
-  </si>
-  <si>
-    <t>Eye Function Not Found</t>
+    <t>1. Goto the URL
+https://www.bdshop.com/
+2. Click on Sign in button at the right corner
+3.Click on 'Forgot Password' 
+4. Check the registered email
+5. Click on 'Set up a New Password'
+6. Enter new password
+7. Click on login</t>
   </si>
   <si>
     <t>1. Goto the URL
 https://evaly.com.bd/
-2. Click on 'Sign in' button at the right corner.
-3. Check the spelling and grammar of the website.</t>
-  </si>
-  <si>
-    <t>Varefying the font,text,color and style</t>
-  </si>
-  <si>
-    <t>Should be as per the requirment</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
+2. Click on 'Sign in' button at the right corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto the URL
 https://evaly.com.bd/
-2. Click on 'Sign in' button at the right corner
-3. Check the font, text color and style.</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Click on 'Sign in' button at the right corner
-3. Check Password field</t>
-  </si>
-  <si>
-    <t>Expecting 'Eye Button' into the Password field</t>
-  </si>
-  <si>
-    <t>Should be as per expectation</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Click on 'Sign in' button at the right corner
-3. Check alignment of the fields</t>
-  </si>
-  <si>
-    <t>13/05/2024</t>
-  </si>
-  <si>
-    <t>xolope8846@ahieh.com</t>
-  </si>
-  <si>
-    <t>Full name: Anik Chakraborty
-Email: xolope8846@ahieh.com
-Password: A123456@
-Confirm Password: A123456@</t>
-  </si>
-  <si>
-    <t>Full name: Anik Chakraborty
-Email: xolope8846@ahieh.com
-Password: A123456@</t>
-  </si>
-  <si>
-    <t>Email: xolope8846@ahieh.com
-Password: A123456@</t>
-  </si>
-  <si>
-    <t>Email: xolope8846@ahieh.com
-Password: A314295@</t>
-  </si>
-  <si>
-    <t>1. Grammatical mistakes should be emphasized.</t>
-  </si>
-  <si>
-    <t>Web application tasted in windows operating ststem.</t>
-  </si>
-  <si>
-    <t>Usabality Testing</t>
-  </si>
-  <si>
-    <t>Sign Up and Log In</t>
-  </si>
-  <si>
-    <t>User Management</t>
-  </si>
-  <si>
-    <t>Sign In with Google not found</t>
-  </si>
-  <si>
-    <t>Sign In with Facebook not found</t>
-  </si>
-  <si>
-    <t>2. Need "Eye button" into Sign up page(Password and Confirm Password field)</t>
-  </si>
-  <si>
-    <t>3.Need "Asterisk" button into important fields.</t>
-  </si>
-  <si>
-    <t>4.Security should be strengthened.</t>
-  </si>
-  <si>
-    <t>5. Need proper maintanance.</t>
-  </si>
-  <si>
-    <t>Checking all kinds of functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UI Testing</t>
-  </si>
-  <si>
-    <t>Functionality Testing</t>
-  </si>
-  <si>
-    <t>User main UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Hopefully all the functions will work properly</t>
-  </si>
-  <si>
-    <t>Payment Getway Testing</t>
-  </si>
-  <si>
-    <t>Checking All kinds of payment methods Functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment getway </t>
-  </si>
-  <si>
-    <t>Hopefully all the functions will work Properly</t>
-  </si>
-  <si>
-    <t>Checking alignments of all field</t>
-  </si>
-  <si>
-    <t>Should Be as per the requirments</t>
-  </si>
-  <si>
-    <t>Found as per requirments</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Log In
-3. Check main UI of user UI</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Log In.
-3. After Item selection check all kinds of payment methids</t>
-  </si>
-  <si>
-    <t>evaly(Web App)</t>
-  </si>
-  <si>
-    <t>Using Temp Mail and Temp Number service for Testing.</t>
-  </si>
-  <si>
-    <t>Full Web App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Chrome
-Microsoft Edge
-Mozila Firefox
-Opera </t>
-  </si>
-  <si>
-    <t>Main User UI Allignment and Functionality Testing</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>Mobile App Download</t>
-  </si>
-  <si>
-    <t>All Kinds of user functions</t>
-  </si>
-  <si>
-    <t>Download from "Google Play"</t>
-  </si>
-  <si>
-    <t>Download in android Phone</t>
-  </si>
-  <si>
-    <t>It should be download properly in Android environment(Android Phone)</t>
-  </si>
-  <si>
-    <t>1. Goto the URL
-https://evaly.com.bd/
-2. Log In.
-3. Check andriod app/Google Play download option in bottom-right</t>
-  </si>
-  <si>
-    <t>Proyority Lavel Indicator</t>
-  </si>
-  <si>
-    <t>N/A - Not Effective</t>
-  </si>
-  <si>
-    <t>P0 - LOW</t>
-  </si>
-  <si>
-    <t>P1 - Medium</t>
-  </si>
-  <si>
-    <t>P2 - High</t>
-  </si>
-  <si>
-    <t>Priyority Lavel</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P1</t>
+2. Click on 'Sign in' button at the right corner </t>
+  </si>
+  <si>
+    <t>Should allow user to Sign in</t>
+  </si>
+  <si>
+    <t>Sign in with Google' field or button found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1149,21 +1178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
@@ -1189,8 +1203,30 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1317,6 +1353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -2113,7 +2155,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2799,9 +2841,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2814,9 +2853,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2844,9 +2880,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2907,9 +2940,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2919,19 +2949,83 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,42 +3064,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -3383,6 +3442,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>153012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E56D58-B207-26B4-A65A-2825FEE6B755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4483252" y="1002229"/>
+          <a:ext cx="11307591" cy="4758675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3679,11 +3793,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659A000-3FEE-48B9-AF13-C43BCA0A1F0C}">
+  <dimension ref="G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="304" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A62" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3708,12 +3844,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="281"/>
+      <c r="B1" s="299"/>
       <c r="C1" s="23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3724,44 +3860,44 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="263" t="s">
-        <v>199</v>
+      <c r="G1" s="260" t="s">
+        <v>190</v>
       </c>
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="278" t="s">
+      <c r="L1" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="279"/>
-      <c r="O1" s="287" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="70.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="285" t="s">
+      <c r="M1" s="297"/>
+      <c r="O1" s="267" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="47.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="281"/>
+      <c r="B2" s="299"/>
       <c r="C2" s="31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="262" t="s">
-        <v>199</v>
+      <c r="E2" s="259" t="s">
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H2" s="111"/>
       <c r="I2" s="37" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J2" s="111"/>
       <c r="K2" s="112"/>
@@ -3769,27 +3905,27 @@
         <v>7</v>
       </c>
       <c r="M2" s="34">
-        <f>COUNTIF(L8:L69, "Passed")</f>
-        <v>41</v>
-      </c>
-      <c r="O2" s="289" t="s">
-        <v>243</v>
-      </c>
-      <c r="P2" s="286"/>
-    </row>
-    <row r="3" spans="1:17" ht="35.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="285" t="s">
+        <f>COUNTIF(L8:L71, "Passed")</f>
+        <v>42</v>
+      </c>
+      <c r="O2" s="269" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="266"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="281"/>
+      <c r="B3" s="299"/>
       <c r="C3" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="113" t="s">
         <v>10</v>
@@ -3803,19 +3939,19 @@
         <v>12</v>
       </c>
       <c r="M3" s="34">
-        <f>COUNTIF(L8:L368, "Failed")</f>
+        <f>COUNTIF(L8:L369, "Failed")</f>
+        <v>14</v>
+      </c>
+      <c r="O3" s="269" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" s="268"/>
+    </row>
+    <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="289" t="s">
-        <v>244</v>
-      </c>
-      <c r="P3" s="288"/>
-    </row>
-    <row r="4" spans="1:17" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="285" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="281"/>
+      <c r="B4" s="299"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3827,7 +3963,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="114"/>
       <c r="I4" s="37" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J4" s="111"/>
       <c r="K4" s="112"/>
@@ -3835,26 +3971,26 @@
         <v>16</v>
       </c>
       <c r="M4" s="34">
-        <f>COUNTIF(L7:L372, "Not Executed")</f>
+        <f>COUNTIF(L7:L373, "Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="289" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="290"/>
-    </row>
-    <row r="5" spans="1:17" ht="35.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="280" t="s">
+      <c r="O4" s="269" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="270"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="281"/>
-      <c r="C5" s="282" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="300" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
@@ -3862,13 +3998,13 @@
         <v>18</v>
       </c>
       <c r="M5" s="35">
-        <f>COUNTIF(L7:L372, "Out of Scope")</f>
+        <f>COUNTIF(L7:L373, "Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="289" t="s">
-        <v>246</v>
-      </c>
-      <c r="P5" s="290"/>
+      <c r="O5" s="269" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" s="270"/>
     </row>
     <row r="6" spans="1:17" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A6" s="111"/>
@@ -3887,9 +4023,9 @@
       </c>
       <c r="M6" s="36">
         <f>SUM(M2:M5)</f>
-        <v>54</v>
-      </c>
-      <c r="P6" s="293"/>
+        <v>56</v>
+      </c>
+      <c r="P6" s="273"/>
     </row>
     <row r="7" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -3922,8 +4058,8 @@
       <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="294" t="s">
-        <v>247</v>
+      <c r="K7" s="274" t="s">
+        <v>238</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>30</v>
@@ -3931,7 +4067,7 @@
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="291"/>
+      <c r="Q7" s="271"/>
     </row>
     <row r="8" spans="1:17" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="177">
@@ -3952,10 +4088,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I8" s="117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -3963,14 +4099,14 @@
         <v>42</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="292"/>
-      <c r="Q8" s="291"/>
+      <c r="O8" s="266"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="271"/>
     </row>
     <row r="9" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="178"/>
       <c r="B9" s="208"/>
-      <c r="C9" s="264"/>
+      <c r="C9" s="261"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3987,9 +4123,9 @@
         <v>2</v>
       </c>
       <c r="B10" s="190" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="274" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="292" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -4008,13 +4144,13 @@
         <v>41</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="295" t="s">
-        <v>248</v>
+        <v>155</v>
+      </c>
+      <c r="K10" s="275" t="s">
+        <v>239</v>
       </c>
       <c r="L10" s="105" t="s">
         <v>36</v>
@@ -4026,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="191"/>
-      <c r="C11" s="275"/>
+      <c r="C11" s="293"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>43</v>
@@ -4041,7 +4177,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -4055,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="191"/>
-      <c r="C12" s="275"/>
+      <c r="C12" s="293"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>45</v>
@@ -4070,13 +4206,13 @@
         <v>41</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="295" t="s">
-        <v>249</v>
+        <v>156</v>
+      </c>
+      <c r="K12" s="275" t="s">
+        <v>240</v>
       </c>
       <c r="L12" s="118" t="s">
         <v>36</v>
@@ -4088,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="191"/>
-      <c r="C13" s="275"/>
+      <c r="C13" s="293"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>47</v>
@@ -4097,17 +4233,17 @@
         <v>48</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="295" t="s">
-        <v>248</v>
+      <c r="K13" s="275" t="s">
+        <v>239</v>
       </c>
       <c r="L13" s="118" t="s">
         <v>36</v>
@@ -4119,10 +4255,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="191"/>
-      <c r="C14" s="275"/>
+      <c r="C14" s="293"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>44</v>
@@ -4132,13 +4268,13 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="296" t="s">
-        <v>248</v>
+        <v>181</v>
+      </c>
+      <c r="K14" s="276" t="s">
+        <v>239</v>
       </c>
       <c r="L14" s="118" t="s">
         <v>36</v>
@@ -4150,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="192"/>
-      <c r="C15" s="275"/>
+      <c r="C15" s="293"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>49</v>
@@ -4165,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="120"/>
@@ -4177,7 +4313,7 @@
     <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="181"/>
       <c r="B16" s="193"/>
-      <c r="C16" s="276"/>
+      <c r="C16" s="294"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4196,9 +4332,9 @@
         <v>8</v>
       </c>
       <c r="B17" s="192"/>
-      <c r="C17" s="275"/>
+      <c r="C17" s="293"/>
       <c r="D17" s="33" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>39</v>
@@ -4213,7 +4349,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="128"/>
@@ -4229,12 +4365,12 @@
         <v>9</v>
       </c>
       <c r="B18" s="191"/>
-      <c r="C18" s="275"/>
+      <c r="C18" s="293"/>
       <c r="E18" s="60" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>35</v>
@@ -4243,7 +4379,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="127"/>
@@ -4259,20 +4395,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="191"/>
-      <c r="C19" s="277"/>
+      <c r="C19" s="295"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" s="67" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="68" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J19" s="69"/>
       <c r="K19" s="90"/>
@@ -4300,7 +4436,7 @@
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="74" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J20" s="75"/>
       <c r="K20" s="90"/>
@@ -4337,19 +4473,19 @@
         <v>38</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
@@ -4366,7 +4502,7 @@
       <c r="C23" s="159"/>
       <c r="D23" s="165"/>
       <c r="E23" s="76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>54</v>
@@ -4376,7 +4512,7 @@
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="79"/>
@@ -4393,25 +4529,25 @@
       <c r="C24" s="159"/>
       <c r="D24" s="165"/>
       <c r="E24" s="76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" s="297" t="s">
-        <v>248</v>
+        <v>157</v>
+      </c>
+      <c r="K24" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L24" s="105" t="s">
         <v>36</v>
@@ -4426,7 +4562,7 @@
       <c r="C25" s="159"/>
       <c r="D25" s="165"/>
       <c r="E25" s="76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>54</v>
@@ -4435,16 +4571,16 @@
         <v>51</v>
       </c>
       <c r="H25" s="77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I25" s="81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="297" t="s">
-        <v>248</v>
+        <v>158</v>
+      </c>
+      <c r="K25" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L25" s="105" t="s">
         <v>36</v>
@@ -4459,17 +4595,17 @@
       <c r="C26" s="159"/>
       <c r="D26" s="165"/>
       <c r="E26" s="76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="77" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="79"/>
@@ -4486,19 +4622,19 @@
       <c r="C27" s="159"/>
       <c r="D27" s="165"/>
       <c r="E27" s="84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J27" s="85"/>
       <c r="K27" s="79"/>
@@ -4515,7 +4651,7 @@
       <c r="C28" s="159"/>
       <c r="D28" s="165"/>
       <c r="E28" s="84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>54</v>
@@ -4527,13 +4663,13 @@
         <v>162987</v>
       </c>
       <c r="I28" s="86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J28" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="297" t="s">
-        <v>248</v>
+        <v>159</v>
+      </c>
+      <c r="K28" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L28" s="105" t="s">
         <v>36</v>
@@ -4548,7 +4684,7 @@
       <c r="C29" s="159"/>
       <c r="D29" s="165"/>
       <c r="E29" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>54</v>
@@ -4560,13 +4696,13 @@
         <v>55</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="K29" s="297" t="s">
-        <v>248</v>
+        <v>160</v>
+      </c>
+      <c r="K29" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L29" s="105" t="s">
         <v>36</v>
@@ -4581,7 +4717,7 @@
       <c r="C30" s="159"/>
       <c r="D30" s="165"/>
       <c r="E30" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>53</v>
@@ -4590,10 +4726,10 @@
         <v>35</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="79"/>
@@ -4610,7 +4746,7 @@
       <c r="C31" s="159"/>
       <c r="D31" s="165"/>
       <c r="E31" s="84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>54</v>
@@ -4619,16 +4755,16 @@
         <v>51</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J31" s="226" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" s="297" t="s">
-        <v>248</v>
+        <v>161</v>
+      </c>
+      <c r="K31" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L31" s="105" t="s">
         <v>36</v>
@@ -4643,7 +4779,7 @@
       <c r="C32" s="159"/>
       <c r="D32" s="165"/>
       <c r="E32" s="84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>53</v>
@@ -4652,10 +4788,10 @@
         <v>35</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J32" s="225"/>
       <c r="K32" s="79"/>
@@ -4681,10 +4817,10 @@
         <v>58</v>
       </c>
       <c r="H33" s="87" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -4710,10 +4846,10 @@
         <v>58</v>
       </c>
       <c r="H34" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I34" s="88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -4739,10 +4875,10 @@
         <v>35</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -4768,10 +4904,10 @@
         <v>35</v>
       </c>
       <c r="H36" s="89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" s="88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -4788,7 +4924,7 @@
       <c r="C37" s="159"/>
       <c r="D37" s="165"/>
       <c r="E37" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>64</v>
@@ -4797,10 +4933,10 @@
         <v>35</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" s="88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -4820,16 +4956,16 @@
         <v>65</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
@@ -4862,7 +4998,7 @@
 Confirm Password: A123456@</v>
       </c>
       <c r="I39" s="88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -4888,10 +5024,10 @@
         <v>35</v>
       </c>
       <c r="H40" s="89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
@@ -4917,10 +5053,10 @@
         <v>35</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I41" s="88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -4946,14 +5082,14 @@
         <v>51</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" s="85"/>
-      <c r="K42" s="297" t="s">
-        <v>249</v>
+      <c r="K42" s="277" t="s">
+        <v>240</v>
       </c>
       <c r="L42" s="105" t="s">
         <v>36</v>
@@ -4977,10 +5113,10 @@
         <v>35</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
@@ -5006,10 +5142,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -5035,16 +5171,16 @@
         <v>51</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J45" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" s="297" t="s">
-        <v>249</v>
+        <v>202</v>
+      </c>
+      <c r="K45" s="277" t="s">
+        <v>240</v>
       </c>
       <c r="L45" s="105" t="s">
         <v>36</v>
@@ -5068,23 +5204,23 @@
         <v>51</v>
       </c>
       <c r="H46" s="77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J46" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="K46" s="297" t="s">
-        <v>249</v>
+        <v>201</v>
+      </c>
+      <c r="K46" s="277" t="s">
+        <v>240</v>
       </c>
       <c r="L46" s="105" t="s">
         <v>36</v>
       </c>
       <c r="M46" s="105"/>
     </row>
-    <row r="47" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="161.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="184">
         <v>37</v>
       </c>
@@ -5101,10 +5237,10 @@
         <v>35</v>
       </c>
       <c r="H47" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
@@ -5130,14 +5266,14 @@
       <c r="M48" s="207"/>
       <c r="N48" s="141"/>
     </row>
-    <row r="49" spans="1:16" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="128" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="184">
         <v>38</v>
       </c>
       <c r="B49" s="191"/>
       <c r="C49" s="159"/>
       <c r="D49" s="163" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E49" s="95" t="s">
         <v>86</v>
@@ -5152,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="I49" s="97" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -5178,10 +5314,10 @@
         <v>35</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I50" s="88" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -5207,10 +5343,10 @@
         <v>35</v>
       </c>
       <c r="H51" s="100" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -5220,7 +5356,7 @@
       <c r="M51" s="22"/>
       <c r="P51" s="127"/>
     </row>
-    <row r="52" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="184">
         <v>41</v>
       </c>
@@ -5228,19 +5364,19 @@
       <c r="C52" s="159"/>
       <c r="D52" s="162"/>
       <c r="E52" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I52" s="88" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
@@ -5249,7 +5385,7 @@
       </c>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="184">
         <v>42</v>
       </c>
@@ -5257,10 +5393,10 @@
       <c r="C53" s="159"/>
       <c r="D53" s="162"/>
       <c r="E53" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>35</v>
@@ -5269,7 +5405,7 @@
         <v>41</v>
       </c>
       <c r="I53" s="88" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
@@ -5286,10 +5422,10 @@
       <c r="C54" s="159"/>
       <c r="D54" s="162"/>
       <c r="E54" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>51</v>
@@ -5298,11 +5434,11 @@
         <v>41</v>
       </c>
       <c r="I54" s="88" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="J54" s="21"/>
-      <c r="K54" s="297" t="s">
-        <v>248</v>
+      <c r="K54" s="277" t="s">
+        <v>239</v>
       </c>
       <c r="L54" s="105" t="s">
         <v>36</v>
@@ -5317,10 +5453,10 @@
       <c r="C55" s="159"/>
       <c r="D55" s="162"/>
       <c r="E55" s="84" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>35</v>
@@ -5329,7 +5465,7 @@
         <v>41</v>
       </c>
       <c r="I55" s="88" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -5338,7 +5474,7 @@
       </c>
       <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="1:16" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="248.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="184">
         <v>45</v>
       </c>
@@ -5346,10 +5482,10 @@
       <c r="C56" s="162"/>
       <c r="D56" s="162"/>
       <c r="E56" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>35</v>
@@ -5358,7 +5494,7 @@
         <v>41</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -5367,7 +5503,7 @@
       </c>
       <c r="M56" s="22"/>
     </row>
-    <row r="57" spans="1:16" ht="232.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="262" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="184">
         <v>46</v>
       </c>
@@ -5375,19 +5511,19 @@
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
       <c r="E57" s="84" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I57" s="88" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -5396,27 +5532,27 @@
       </c>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="1:16" ht="258.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="271" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="184">
         <v>47</v>
       </c>
       <c r="B58" s="191"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
       <c r="E58" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I58" s="88" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
@@ -5425,446 +5561,475 @@
       </c>
       <c r="M58" s="105"/>
     </row>
-    <row r="59" spans="1:16" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="200"/>
+    <row r="59" spans="1:16" ht="190.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="184">
+        <v>48</v>
+      </c>
       <c r="B59" s="191"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="195"/>
-      <c r="E59" s="196"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="198"/>
-      <c r="H59" s="198"/>
-      <c r="I59" s="198"/>
-      <c r="J59" s="198"/>
-      <c r="K59" s="199"/>
-      <c r="L59" s="194"/>
-      <c r="M59" s="194"/>
-      <c r="N59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" ht="188.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="K59" s="277" t="s">
+        <v>240</v>
+      </c>
+      <c r="L59" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M59" s="105"/>
+    </row>
+    <row r="60" spans="1:16" ht="284" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="184">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" s="191"/>
-      <c r="C60" s="168" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="172" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="84" t="s">
-        <v>77</v>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="76" t="s">
+        <v>76</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H60" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="I60" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="H60" s="291" t="s">
+        <v>255</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="J60" s="290"/>
+      <c r="K60" s="277"/>
       <c r="L60" s="105" t="s">
         <v>42</v>
       </c>
       <c r="M60" s="105"/>
     </row>
-    <row r="61" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="184">
-        <v>49</v>
-      </c>
-      <c r="B61" s="191"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="169" t="s">
+    <row r="61" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="200"/>
+      <c r="B61" s="289"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="196"/>
+      <c r="F61" s="197"/>
+      <c r="G61" s="198"/>
+      <c r="H61" s="198"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="85"/>
+    </row>
+    <row r="62" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="184">
+        <v>50</v>
+      </c>
+      <c r="B62" s="191"/>
+      <c r="C62" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="105"/>
+    </row>
+    <row r="63" spans="1:16" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="184">
+        <v>51</v>
+      </c>
+      <c r="B63" s="191"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F63" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G63" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="105" t="s">
+      <c r="I63" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="105"/>
-    </row>
-    <row r="62" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="243">
-        <v>50</v>
-      </c>
-      <c r="B62" s="191"/>
-      <c r="C62" s="244"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="239" t="s">
+      <c r="M63" s="105"/>
+    </row>
+    <row r="64" spans="1:16" ht="209.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="241">
+        <v>52</v>
+      </c>
+      <c r="B64" s="191"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="235"/>
+      <c r="E64" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="238" t="s">
+      <c r="F64" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="170" t="s">
+      <c r="G64" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="H62" s="170" t="s">
+      <c r="H64" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" s="171"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="121" t="s">
+      <c r="I64" s="171" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" s="171"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="121"/>
-      <c r="N62" s="85"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="252"/>
-      <c r="B63" s="253"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="255"/>
-      <c r="E63" s="256"/>
-      <c r="F63" s="259"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="260"/>
-      <c r="J63" s="260"/>
-      <c r="K63" s="259"/>
-      <c r="L63" s="258"/>
-      <c r="M63" s="258"/>
-      <c r="N63" s="126"/>
-    </row>
-    <row r="64" spans="1:16" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="245">
-        <v>51</v>
-      </c>
-      <c r="B64" s="261" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="266" t="s">
+      <c r="M64" s="121"/>
+      <c r="N64" s="85"/>
+    </row>
+    <row r="65" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="249"/>
+      <c r="B65" s="250"/>
+      <c r="C65" s="251"/>
+      <c r="D65" s="252"/>
+      <c r="E65" s="253"/>
+      <c r="F65" s="256"/>
+      <c r="G65" s="254"/>
+      <c r="H65" s="256"/>
+      <c r="I65" s="257"/>
+      <c r="J65" s="257"/>
+      <c r="K65" s="256"/>
+      <c r="L65" s="255"/>
+      <c r="M65" s="255"/>
+      <c r="N65" s="126"/>
+    </row>
+    <row r="66" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="242">
+        <v>53</v>
+      </c>
+      <c r="B66" s="258" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="262" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="263" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="243" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="244" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="267" t="s">
+      <c r="G66" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="245" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="246" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="247" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="248" t="s">
-        <v>227</v>
-      </c>
-      <c r="H64" s="248" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="249" t="s">
-        <v>228</v>
-      </c>
-      <c r="J64" s="250"/>
-      <c r="K64" s="248"/>
-      <c r="L64" s="251" t="s">
+      <c r="J66" s="247"/>
+      <c r="K66" s="245"/>
+      <c r="L66" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="M64" s="236"/>
-      <c r="N64" s="141"/>
-    </row>
-    <row r="65" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="184">
-        <v>52</v>
-      </c>
-      <c r="B65" s="193"/>
-      <c r="C65" s="267" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="268" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" s="240" t="s">
-        <v>220</v>
-      </c>
-      <c r="G65" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="H65" s="228" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="242" t="s">
-        <v>228</v>
-      </c>
-      <c r="J65" s="241"/>
-      <c r="K65" s="228"/>
-      <c r="L65" s="236" t="s">
-        <v>42</v>
-      </c>
-      <c r="M65" s="236"/>
-      <c r="N65" s="85"/>
-    </row>
-    <row r="66" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="184">
-        <v>53</v>
-      </c>
-      <c r="B66" s="261"/>
-      <c r="C66" s="267" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="267" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="228" t="s">
-        <v>224</v>
-      </c>
-      <c r="G66" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="233" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="270" t="s">
-        <v>229</v>
-      </c>
-      <c r="J66" s="242"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="235" t="s">
-        <v>42</v>
-      </c>
-      <c r="M66" s="236"/>
-      <c r="N66" s="85"/>
-    </row>
-    <row r="67" spans="1:14" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M66" s="234"/>
+      <c r="N66" s="141"/>
+    </row>
+    <row r="67" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="184">
         <v>54</v>
       </c>
-      <c r="B67" s="227"/>
-      <c r="C67" s="269" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="269" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="265" t="s">
-        <v>239</v>
-      </c>
-      <c r="F67" s="265" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="265" t="s">
+      <c r="B67" s="193"/>
+      <c r="C67" s="263" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="264" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="238" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" s="228" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="228" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="240" t="s">
+        <v>219</v>
+      </c>
+      <c r="J67" s="239"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="234" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="234"/>
+      <c r="N67" s="85"/>
+    </row>
+    <row r="68" spans="1:15" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="184">
+        <v>55</v>
+      </c>
+      <c r="B68" s="258"/>
+      <c r="C68" s="263" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="263" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="228" t="s">
+        <v>215</v>
+      </c>
+      <c r="G68" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="272" t="s">
+      <c r="H68" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="271" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="234"/>
-      <c r="K67" s="273"/>
-      <c r="L67" s="235" t="s">
+      <c r="I68" s="265" t="s">
+        <v>220</v>
+      </c>
+      <c r="J68" s="240"/>
+      <c r="K68" s="238"/>
+      <c r="L68" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="236"/>
-      <c r="N67" s="141"/>
-    </row>
-    <row r="68" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="200"/>
-      <c r="B68" s="201"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="202"/>
-      <c r="F68" s="203"/>
-      <c r="G68" s="203"/>
-      <c r="H68" s="229"/>
-      <c r="I68" s="229"/>
-      <c r="J68" s="229"/>
-      <c r="K68" s="230"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="232"/>
-      <c r="N68" s="141"/>
-    </row>
-    <row r="69" spans="1:14" ht="75.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M68" s="234"/>
+      <c r="N68" s="85"/>
+    </row>
+    <row r="69" spans="1:15" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="184">
+        <v>56</v>
+      </c>
+      <c r="B69" s="227"/>
+      <c r="C69" s="280" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="280" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="281" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="281" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69" s="281" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="282" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="283" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" s="284"/>
+      <c r="K69" s="285"/>
+      <c r="L69" s="286" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="133"/>
+      <c r="N69" s="287"/>
+      <c r="O69" s="288"/>
+    </row>
+    <row r="70" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="200"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="202"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="278"/>
+      <c r="I70" s="207"/>
+      <c r="J70" s="279"/>
+      <c r="K70" s="229"/>
+      <c r="L70" s="230"/>
+      <c r="M70" s="231"/>
+      <c r="N70" s="141"/>
+    </row>
+    <row r="71" spans="1:15" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="184">
         <v>55</v>
       </c>
-      <c r="B69" s="176"/>
-      <c r="C69" s="161"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="218" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="142"/>
-      <c r="M69" s="142"/>
-    </row>
-    <row r="70" spans="1:14" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="184">
-        <v>55</v>
-      </c>
-      <c r="B70" s="176"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
-    </row>
-    <row r="71" spans="1:14" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="184">
-        <v>56</v>
-      </c>
       <c r="B71" s="176"/>
-      <c r="C71" s="160"/>
-      <c r="D71" s="175" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="219" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="105"/>
-    </row>
-    <row r="72" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="161"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="218" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="142"/>
+      <c r="M71" s="142"/>
+    </row>
+    <row r="72" spans="1:15" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="184">
         <v>57</v>
       </c>
       <c r="B72" s="176"/>
       <c r="C72" s="160"/>
-      <c r="D72" s="175"/>
-      <c r="E72" s="224" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="223"/>
+      <c r="D72" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="219" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="105"/>
-      <c r="M72" s="22"/>
-    </row>
-    <row r="73" spans="1:14" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K72" s="21"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="105"/>
+    </row>
+    <row r="73" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="184">
         <v>58</v>
       </c>
       <c r="B73" s="176"/>
       <c r="C73" s="160"/>
-      <c r="D73" s="221"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="21"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="224" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="223"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="145"/>
-      <c r="M73" s="144"/>
-    </row>
-    <row r="74" spans="1:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K73" s="79"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="22"/>
+    </row>
+    <row r="74" spans="1:15" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="184">
         <v>58</v>
       </c>
-      <c r="B74" s="174"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="222"/>
-      <c r="E74" s="217" t="s">
-        <v>214</v>
-      </c>
+      <c r="B74" s="176"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="221"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="105"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="128"/>
-    </row>
-    <row r="75" spans="1:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L74" s="145"/>
+      <c r="M74" s="144"/>
+    </row>
+    <row r="75" spans="1:15" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="184">
         <v>59</v>
       </c>
       <c r="B75" s="174"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="220"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="222"/>
       <c r="E75" s="217" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="21"/>
+        <v>205</v>
+      </c>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
-      <c r="J75" s="105"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="105"/>
+      <c r="L75" s="146"/>
       <c r="M75" s="128"/>
     </row>
-    <row r="76" spans="1:14" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="184">
         <v>60</v>
       </c>
       <c r="B76" s="174"/>
       <c r="C76" s="27"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="79"/>
+      <c r="D76" s="220"/>
+      <c r="E76" s="217" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="105"/>
       <c r="K76" s="105"/>
-      <c r="L76" s="146"/>
       <c r="M76" s="128"/>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="184"/>
       <c r="B77" s="174"/>
       <c r="C77" s="27"/>
       <c r="D77" s="103"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="79"/>
       <c r="K77" s="105"/>
       <c r="L77" s="146"/>
       <c r="M77" s="128"/>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="184"/>
       <c r="B78" s="174"/>
       <c r="C78" s="27"/>
@@ -5875,81 +6040,92 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="105"/>
       <c r="L78" s="146"/>
       <c r="M78" s="128"/>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="185"/>
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="184"/>
       <c r="B79" s="174"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="103"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="145"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="146"/>
       <c r="M79" s="128"/>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="184"/>
+    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="185"/>
       <c r="B80" s="174"/>
       <c r="C80" s="106"/>
       <c r="D80" s="27"/>
-      <c r="E80" s="103"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="86"/>
-      <c r="K80" s="147"/>
-      <c r="L80" s="148"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="121"/>
+      <c r="L80" s="145"/>
       <c r="M80" s="128"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="184"/>
       <c r="B81" s="174"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="108"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="103"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="86"/>
-      <c r="K81" s="150"/>
-      <c r="L81" s="151"/>
-      <c r="M81" s="149"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="128"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="184"/>
-      <c r="B82" s="176"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="13"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="86"/>
       <c r="K82" s="150"/>
       <c r="L82" s="151"/>
-      <c r="M82" s="152"/>
+      <c r="M82" s="149"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="184"/>
-      <c r="B83" s="174"/>
-      <c r="M83" s="105"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="150"/>
+      <c r="L83" s="151"/>
+      <c r="M83" s="152"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="184"/>
       <c r="B84" s="174"/>
-    </row>
-    <row r="85" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="186"/>
+      <c r="M84" s="105"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="184"/>
       <c r="B85" s="174"/>
     </row>
     <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6073,11 +6249,11 @@
       <c r="B115" s="174"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="187"/>
+      <c r="A116" s="186"/>
       <c r="B116" s="174"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="188"/>
+      <c r="A117" s="187"/>
       <c r="B117" s="174"/>
     </row>
     <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6245,15 +6421,15 @@
       <c r="B158" s="174"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="189"/>
-      <c r="B159" s="173"/>
+      <c r="A159" s="188"/>
+      <c r="B159" s="174"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="155"/>
+      <c r="A160" s="189"/>
       <c r="B160" s="173"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="156"/>
+      <c r="A161" s="155"/>
       <c r="B161" s="173"/>
     </row>
     <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6265,7 +6441,7 @@
       <c r="B163" s="173"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="157"/>
+      <c r="A164" s="156"/>
       <c r="B164" s="173"/>
     </row>
     <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6329,7 +6505,7 @@
       <c r="B179" s="173"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="156"/>
+      <c r="A180" s="157"/>
       <c r="B180" s="173"/>
     </row>
     <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6368,8 +6544,12 @@
       <c r="A189" s="156"/>
       <c r="B189" s="173"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="158"/>
+    <row r="190" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="156"/>
+      <c r="B190" s="173"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6382,22 +6562,22 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
+  <conditionalFormatting sqref="L73 K77:K78 K80 J76 L81:L83 L13:L20 L22:L53 K74:K75 L58:L71">
     <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
+  <conditionalFormatting sqref="L73 K77:K78 K80 J76 L81:L83 L13:L20 L22:L53 K74:K75 L58:L71">
     <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
+  <conditionalFormatting sqref="L73 K77:K78 K80 J76 L81:L83 L13:L20 L22:L53 K74:K75 L58:L71">
     <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72 K76:K77 K79 J75 L80:L82 L13:L20 L22:L53 K73:K74 L58:L70">
+  <conditionalFormatting sqref="L73 K77:K78 K80 J76 L81:L83 L13:L20 L22:L53 K74:K75 L58:L71">
     <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
@@ -6603,7 +6783,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L8 L72 K76:K77 J75 K79 L80:L82 K73:K74 L10:L70" xr:uid="{568807F5-88EF-4EC8-AD05-7652F536B404}">
+    <dataValidation type="list" allowBlank="1" sqref="L8 L73 K77:K78 J76 K80 L81:L83 K74:K75 L10:L71" xr:uid="{568807F5-88EF-4EC8-AD05-7652F536B404}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6624,10 +6804,11 @@
     <hyperlink ref="J14" r:id="rId14" xr:uid="{40A938E7-DD70-4FE5-A9FA-478AB2FB467F}"/>
     <hyperlink ref="J25" r:id="rId15" xr:uid="{47EF9A5C-499C-47B3-98FD-6A08787B48A6}"/>
     <hyperlink ref="J24" r:id="rId16" xr:uid="{0F933A1E-172C-4CA4-B94C-045F182650AC}"/>
-    <hyperlink ref="H60" r:id="rId17" display="jane9999" xr:uid="{87C126BC-AFF9-4D27-ADB0-30ED6F2D9267}"/>
+    <hyperlink ref="H62" r:id="rId17" display="jane9999" xr:uid="{87C126BC-AFF9-4D27-ADB0-30ED6F2D9267}"/>
     <hyperlink ref="J46" r:id="rId18" xr:uid="{FB111726-088D-4256-A0EC-0F26F5CF6738}"/>
+    <hyperlink ref="J59" r:id="rId19" xr:uid="{0698543D-6BDC-4627-A997-C01CE7C9CB2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98204021-7BF5-4219-AF49-FDE45CBA50DC}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A60802-31A3-42A1-8F02-898F71F6AE1E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Mapping" sheetId="2" r:id="rId1"/>
@@ -3028,6 +3028,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3064,7 +3065,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -3796,14 +3796,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659A000-3FEE-48B9-AF13-C43BCA0A1F0C}">
   <dimension ref="G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="E6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="11" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="304" t="s">
+      <c r="G11" s="292" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
@@ -3844,10 +3844,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299"/>
+      <c r="B1" s="300"/>
       <c r="C1" s="23" t="s">
         <v>221</v>
       </c>
@@ -3867,19 +3867,19 @@
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="296" t="s">
+      <c r="L1" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="297"/>
+      <c r="M1" s="298"/>
       <c r="O1" s="267" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="47.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="303" t="s">
+    <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="299"/>
+      <c r="B2" s="300"/>
       <c r="C2" s="31" t="s">
         <v>223</v>
       </c>
@@ -3914,10 +3914,10 @@
       <c r="P2" s="266"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="299"/>
+      <c r="B3" s="300"/>
       <c r="C3" s="2" t="s">
         <v>223</v>
       </c>
@@ -3948,10 +3948,10 @@
       <c r="P3" s="268"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="299"/>
+      <c r="B4" s="300"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3980,17 +3980,17 @@
       <c r="P4" s="270"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="299"/>
-      <c r="C5" s="300" t="s">
+      <c r="B5" s="300"/>
+      <c r="C5" s="301" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="303"/>
       <c r="H5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
@@ -4125,7 +4125,7 @@
       <c r="B10" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="293" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="191"/>
-      <c r="C11" s="293"/>
+      <c r="C11" s="294"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>43</v>
@@ -4191,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="191"/>
-      <c r="C12" s="293"/>
+      <c r="C12" s="294"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>45</v>
@@ -4224,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="191"/>
-      <c r="C13" s="293"/>
+      <c r="C13" s="294"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>47</v>
@@ -4255,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="191"/>
-      <c r="C14" s="293"/>
+      <c r="C14" s="294"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="192"/>
-      <c r="C15" s="293"/>
+      <c r="C15" s="294"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>49</v>
@@ -4313,7 +4313,7 @@
     <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="181"/>
       <c r="B16" s="193"/>
-      <c r="C16" s="294"/>
+      <c r="C16" s="295"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4332,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="192"/>
-      <c r="C17" s="293"/>
+      <c r="C17" s="294"/>
       <c r="D17" s="33" t="s">
         <v>180</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="191"/>
-      <c r="C18" s="293"/>
+      <c r="C18" s="294"/>
       <c r="E18" s="60" t="s">
         <v>183</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="191"/>
-      <c r="C19" s="295"/>
+      <c r="C19" s="296"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
         <v>187</v>

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A60802-31A3-42A1-8F02-898F71F6AE1E}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED5043F-6F16-459C-A727-FA8CD52CEA01}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mind Mapping" sheetId="2" r:id="rId1"/>
+    <sheet name="Mind_Mapping" sheetId="2" r:id="rId1"/>
     <sheet name="Evaly_Manual_Testing" sheetId="1" r:id="rId2"/>
+    <sheet name="Test-Summery&amp;Improvement-Scopes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
   <si>
     <t>Product Name</t>
   </si>
@@ -340,10 +341,6 @@
   </si>
   <si>
     <t>Should allow user to login</t>
-  </si>
-  <si>
-    <t>Improvement 
-Scopes</t>
   </si>
   <si>
     <t>Anik Chakraborty</t>
@@ -764,18 +761,6 @@
   </si>
   <si>
     <t>Sign In with Facebook not found</t>
-  </si>
-  <si>
-    <t>2. Need "Eye button" into Sign up page(Password and Confirm Password field)</t>
-  </si>
-  <si>
-    <t>3.Need "Asterisk" button into important fields.</t>
-  </si>
-  <si>
-    <t>4.Security should be strengthened.</t>
-  </si>
-  <si>
-    <t>5. Need proper maintanance.</t>
   </si>
   <si>
     <t>Checking all kinds of functionality</t>
@@ -986,12 +971,42 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Grammatical mistakes should be emphasized. 
+2. Need "Eye button" into Sign up page(Password and Confirm Password field) 
+3.Need "Asterisk" button into important fields. 
+4. Need "Sign In with Google" &amp; "Sign In with Facebook" in both "Log In" and "Sign up" page for easy access.
+5.Security should be strengthened. 
+6. Need proper maintanance. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+  </si>
+  <si>
+    <t>Improvement Scopes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1225,8 +1240,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,8 +1409,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2040,17 +2096,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -2149,13 +2194,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2820,9 +2942,6 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2832,25 +2951,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2868,10 +2987,10 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2886,16 +3005,16 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2904,19 +3023,19 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2946,7 +3065,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2955,27 +3074,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2988,10 +3092,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3029,6 +3133,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3064,6 +3195,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3442,6 +3612,961 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Execution Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test-Summery&amp;Improvement-Scopes'!$D$6:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>TEST CASE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Out of Scope</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test-Summery&amp;Improvement-Scopes'!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA77-4F35-8F2F-95C6767AA4D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3492,6 +4617,47 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98D22D1-E856-CCED-4B52-650A31420D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3803,8 +4969,8 @@
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="11" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="292" t="s">
-        <v>256</v>
+      <c r="G11" s="286" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3843,13 +5009,13 @@
     <col min="17" max="16384" width="8.796875" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="304" t="s">
+    <row r="1" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="300"/>
+      <c r="B1" s="303"/>
       <c r="C1" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3860,44 +5026,45 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="260" t="s">
-        <v>190</v>
+      <c r="G1" s="259" t="s">
+        <v>189</v>
       </c>
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="297" t="s">
+      <c r="L1" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="298"/>
-      <c r="O1" s="267" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="304" t="s">
+      <c r="M1" s="301"/>
+      <c r="O1" s="288" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="289"/>
+    </row>
+    <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="300"/>
+      <c r="B2" s="303"/>
       <c r="C2" s="31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="259" t="s">
-        <v>190</v>
+      <c r="E2" s="258" t="s">
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H2" s="111"/>
       <c r="I2" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J2" s="111"/>
       <c r="K2" s="112"/>
@@ -3908,24 +5075,24 @@
         <f>COUNTIF(L8:L71, "Passed")</f>
         <v>42</v>
       </c>
-      <c r="O2" s="269" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="266"/>
+      <c r="O2" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="P2" s="291"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="300"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="113" t="s">
         <v>10</v>
@@ -3942,16 +5109,16 @@
         <f>COUNTIF(L8:L369, "Failed")</f>
         <v>14</v>
       </c>
-      <c r="O3" s="269" t="s">
-        <v>235</v>
-      </c>
-      <c r="P3" s="268"/>
+      <c r="O3" s="290" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="292"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="300"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3963,7 +5130,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="114"/>
       <c r="I4" s="37" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J4" s="111"/>
       <c r="K4" s="112"/>
@@ -3974,23 +5141,23 @@
         <f>COUNTIF(L7:L373, "Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="269" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="270"/>
+      <c r="O4" s="290" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="293"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="301" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="303"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="304" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
@@ -4001,12 +5168,12 @@
         <f>COUNTIF(L7:L373, "Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="269" t="s">
-        <v>237</v>
-      </c>
-      <c r="P5" s="270"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="O5" s="290" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="293"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="116"/>
       <c r="C6" s="116"/>
@@ -4025,7 +5192,8 @@
         <f>SUM(M2:M5)</f>
         <v>56</v>
       </c>
-      <c r="P6" s="273"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="294"/>
     </row>
     <row r="7" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -4058,8 +5226,8 @@
       <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="274" t="s">
-        <v>238</v>
+      <c r="K7" s="268" t="s">
+        <v>233</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>30</v>
@@ -4067,7 +5235,7 @@
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="271"/>
+      <c r="Q7" s="266"/>
     </row>
     <row r="8" spans="1:17" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="177">
@@ -4088,10 +5256,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I8" s="117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -4099,14 +5267,14 @@
         <v>42</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="271"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="266"/>
     </row>
     <row r="9" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="178"/>
       <c r="B9" s="208"/>
-      <c r="C9" s="261"/>
+      <c r="C9" s="260"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4123,9 +5291,9 @@
         <v>2</v>
       </c>
       <c r="B10" s="190" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="293" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="296" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -4144,13 +5312,13 @@
         <v>41</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="275" t="s">
-        <v>239</v>
+        <v>154</v>
+      </c>
+      <c r="K10" s="269" t="s">
+        <v>234</v>
       </c>
       <c r="L10" s="105" t="s">
         <v>36</v>
@@ -4162,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="191"/>
-      <c r="C11" s="294"/>
+      <c r="C11" s="297"/>
       <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
         <v>43</v>
@@ -4177,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -4191,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="191"/>
-      <c r="C12" s="294"/>
+      <c r="C12" s="297"/>
       <c r="D12" s="41"/>
       <c r="E12" s="42" t="s">
         <v>45</v>
@@ -4206,13 +5374,13 @@
         <v>41</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="275" t="s">
-        <v>240</v>
+        <v>155</v>
+      </c>
+      <c r="K12" s="269" t="s">
+        <v>235</v>
       </c>
       <c r="L12" s="118" t="s">
         <v>36</v>
@@ -4224,7 +5392,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="191"/>
-      <c r="C13" s="294"/>
+      <c r="C13" s="297"/>
       <c r="D13" s="41"/>
       <c r="E13" s="44" t="s">
         <v>47</v>
@@ -4233,17 +5401,17 @@
         <v>48</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="275" t="s">
-        <v>239</v>
+      <c r="K13" s="269" t="s">
+        <v>234</v>
       </c>
       <c r="L13" s="118" t="s">
         <v>36</v>
@@ -4255,10 +5423,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="191"/>
-      <c r="C14" s="294"/>
+      <c r="C14" s="297"/>
       <c r="D14" s="41"/>
       <c r="E14" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>44</v>
@@ -4268,13 +5436,13 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="276" t="s">
-        <v>239</v>
+        <v>180</v>
+      </c>
+      <c r="K14" s="270" t="s">
+        <v>234</v>
       </c>
       <c r="L14" s="118" t="s">
         <v>36</v>
@@ -4286,7 +5454,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="192"/>
-      <c r="C15" s="294"/>
+      <c r="C15" s="297"/>
       <c r="D15" s="41"/>
       <c r="E15" s="46" t="s">
         <v>49</v>
@@ -4301,7 +5469,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="120"/>
@@ -4313,7 +5481,7 @@
     <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="181"/>
       <c r="B16" s="193"/>
-      <c r="C16" s="295"/>
+      <c r="C16" s="298"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -4332,9 +5500,9 @@
         <v>8</v>
       </c>
       <c r="B17" s="192"/>
-      <c r="C17" s="294"/>
+      <c r="C17" s="297"/>
       <c r="D17" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>39</v>
@@ -4349,7 +5517,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="128"/>
@@ -4365,12 +5533,12 @@
         <v>9</v>
       </c>
       <c r="B18" s="191"/>
-      <c r="C18" s="294"/>
+      <c r="C18" s="297"/>
       <c r="E18" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="61" t="s">
         <v>183</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>184</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>35</v>
@@ -4379,7 +5547,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="127"/>
@@ -4395,20 +5563,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="191"/>
-      <c r="C19" s="296"/>
+      <c r="C19" s="299"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="67" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>188</v>
       </c>
       <c r="G19" s="67" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J19" s="69"/>
       <c r="K19" s="90"/>
@@ -4436,7 +5604,7 @@
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="75"/>
       <c r="K20" s="90"/>
@@ -4473,19 +5641,19 @@
         <v>38</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
@@ -4502,7 +5670,7 @@
       <c r="C23" s="159"/>
       <c r="D23" s="165"/>
       <c r="E23" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>54</v>
@@ -4512,7 +5680,7 @@
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="79"/>
@@ -4529,25 +5697,25 @@
       <c r="C24" s="159"/>
       <c r="D24" s="165"/>
       <c r="E24" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="277" t="s">
-        <v>239</v>
+        <v>156</v>
+      </c>
+      <c r="K24" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L24" s="105" t="s">
         <v>36</v>
@@ -4562,7 +5730,7 @@
       <c r="C25" s="159"/>
       <c r="D25" s="165"/>
       <c r="E25" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>54</v>
@@ -4571,16 +5739,16 @@
         <v>51</v>
       </c>
       <c r="H25" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="277" t="s">
-        <v>239</v>
+        <v>157</v>
+      </c>
+      <c r="K25" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L25" s="105" t="s">
         <v>36</v>
@@ -4595,17 +5763,17 @@
       <c r="C26" s="159"/>
       <c r="D26" s="165"/>
       <c r="E26" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>115</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>116</v>
       </c>
       <c r="G26" s="77" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="79"/>
@@ -4622,19 +5790,19 @@
       <c r="C27" s="159"/>
       <c r="D27" s="165"/>
       <c r="E27" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="85"/>
       <c r="K27" s="79"/>
@@ -4651,7 +5819,7 @@
       <c r="C28" s="159"/>
       <c r="D28" s="165"/>
       <c r="E28" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>54</v>
@@ -4663,13 +5831,13 @@
         <v>162987</v>
       </c>
       <c r="I28" s="86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J28" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="277" t="s">
-        <v>239</v>
+        <v>158</v>
+      </c>
+      <c r="K28" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L28" s="105" t="s">
         <v>36</v>
@@ -4684,7 +5852,7 @@
       <c r="C29" s="159"/>
       <c r="D29" s="165"/>
       <c r="E29" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>54</v>
@@ -4696,13 +5864,13 @@
         <v>55</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="277" t="s">
-        <v>239</v>
+        <v>159</v>
+      </c>
+      <c r="K29" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L29" s="105" t="s">
         <v>36</v>
@@ -4717,7 +5885,7 @@
       <c r="C30" s="159"/>
       <c r="D30" s="165"/>
       <c r="E30" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>53</v>
@@ -4726,10 +5894,10 @@
         <v>35</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="79"/>
@@ -4746,7 +5914,7 @@
       <c r="C31" s="159"/>
       <c r="D31" s="165"/>
       <c r="E31" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>54</v>
@@ -4755,16 +5923,16 @@
         <v>51</v>
       </c>
       <c r="H31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="226" t="s">
-        <v>161</v>
-      </c>
-      <c r="K31" s="277" t="s">
-        <v>239</v>
+      <c r="J31" s="225" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L31" s="105" t="s">
         <v>36</v>
@@ -4779,7 +5947,7 @@
       <c r="C32" s="159"/>
       <c r="D32" s="165"/>
       <c r="E32" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>53</v>
@@ -4788,12 +5956,12 @@
         <v>35</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" s="225"/>
+        <v>135</v>
+      </c>
+      <c r="J32" s="224"/>
       <c r="K32" s="79"/>
       <c r="L32" s="105" t="s">
         <v>42</v>
@@ -4817,10 +5985,10 @@
         <v>58</v>
       </c>
       <c r="H33" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -4846,10 +6014,10 @@
         <v>58</v>
       </c>
       <c r="H34" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="88" t="s">
         <v>138</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>139</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -4875,10 +6043,10 @@
         <v>35</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -4904,10 +6072,10 @@
         <v>35</v>
       </c>
       <c r="H36" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="88" t="s">
         <v>141</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>142</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -4924,7 +6092,7 @@
       <c r="C37" s="159"/>
       <c r="D37" s="165"/>
       <c r="E37" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>64</v>
@@ -4933,10 +6101,10 @@
         <v>35</v>
       </c>
       <c r="H37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="88" t="s">
         <v>143</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>144</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -4956,16 +6124,16 @@
         <v>65</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
@@ -4998,7 +6166,7 @@
 Confirm Password: A123456@</v>
       </c>
       <c r="I39" s="88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -5024,10 +6192,10 @@
         <v>35</v>
       </c>
       <c r="H40" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="88" t="s">
         <v>150</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>151</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
@@ -5053,10 +6221,10 @@
         <v>35</v>
       </c>
       <c r="H41" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="88" t="s">
         <v>152</v>
-      </c>
-      <c r="I41" s="88" t="s">
-        <v>153</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -5082,14 +6250,14 @@
         <v>51</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J42" s="85"/>
-      <c r="K42" s="277" t="s">
-        <v>240</v>
+      <c r="K42" s="271" t="s">
+        <v>235</v>
       </c>
       <c r="L42" s="105" t="s">
         <v>36</v>
@@ -5113,10 +6281,10 @@
         <v>35</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
@@ -5142,10 +6310,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -5171,16 +6339,16 @@
         <v>51</v>
       </c>
       <c r="H45" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="88" t="s">
-        <v>167</v>
-      </c>
       <c r="J45" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="K45" s="277" t="s">
-        <v>240</v>
+        <v>201</v>
+      </c>
+      <c r="K45" s="271" t="s">
+        <v>235</v>
       </c>
       <c r="L45" s="105" t="s">
         <v>36</v>
@@ -5204,16 +6372,16 @@
         <v>51</v>
       </c>
       <c r="H46" s="77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J46" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="K46" s="277" t="s">
-        <v>240</v>
+        <v>200</v>
+      </c>
+      <c r="K46" s="271" t="s">
+        <v>235</v>
       </c>
       <c r="L46" s="105" t="s">
         <v>36</v>
@@ -5237,10 +6405,10 @@
         <v>35</v>
       </c>
       <c r="H47" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="94" t="s">
         <v>172</v>
-      </c>
-      <c r="I47" s="94" t="s">
-        <v>173</v>
       </c>
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
@@ -5273,7 +6441,7 @@
       <c r="B49" s="191"/>
       <c r="C49" s="159"/>
       <c r="D49" s="163" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E49" s="95" t="s">
         <v>86</v>
@@ -5288,7 +6456,7 @@
         <v>41</v>
       </c>
       <c r="I49" s="97" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -5314,10 +6482,10 @@
         <v>35</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I50" s="88" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -5343,10 +6511,10 @@
         <v>35</v>
       </c>
       <c r="H51" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -5367,16 +6535,16 @@
         <v>90</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I52" s="88" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
@@ -5405,7 +6573,7 @@
         <v>41</v>
       </c>
       <c r="I53" s="88" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
@@ -5434,11 +6602,11 @@
         <v>41</v>
       </c>
       <c r="I54" s="88" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J54" s="21"/>
-      <c r="K54" s="277" t="s">
-        <v>239</v>
+      <c r="K54" s="271" t="s">
+        <v>234</v>
       </c>
       <c r="L54" s="105" t="s">
         <v>36</v>
@@ -5453,7 +6621,7 @@
       <c r="C55" s="159"/>
       <c r="D55" s="162"/>
       <c r="E55" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>95</v>
@@ -5465,7 +6633,7 @@
         <v>41</v>
       </c>
       <c r="I55" s="88" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -5494,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -5511,19 +6679,19 @@
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
       <c r="E57" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I57" s="88" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -5549,10 +6717,10 @@
         <v>35</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I58" s="88" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
@@ -5572,22 +6740,22 @@
         <v>75</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>51</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I59" s="88" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J59" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="K59" s="277" t="s">
-        <v>240</v>
+        <v>201</v>
+      </c>
+      <c r="K59" s="271" t="s">
+        <v>235</v>
       </c>
       <c r="L59" s="105" t="s">
         <v>36</v>
@@ -5605,19 +6773,19 @@
         <v>76</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="291" t="s">
-        <v>255</v>
+      <c r="H60" s="285" t="s">
+        <v>250</v>
       </c>
       <c r="I60" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="J60" s="290"/>
-      <c r="K60" s="277"/>
+        <v>248</v>
+      </c>
+      <c r="J60" s="284"/>
+      <c r="K60" s="271"/>
       <c r="L60" s="105" t="s">
         <v>42</v>
       </c>
@@ -5625,7 +6793,7 @@
     </row>
     <row r="61" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="200"/>
-      <c r="B61" s="289"/>
+      <c r="B61" s="283"/>
       <c r="C61" s="195"/>
       <c r="D61" s="195"/>
       <c r="E61" s="196"/>
@@ -5645,10 +6813,10 @@
       </c>
       <c r="B62" s="191"/>
       <c r="C62" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="172" t="s">
         <v>198</v>
-      </c>
-      <c r="D62" s="172" t="s">
-        <v>199</v>
       </c>
       <c r="E62" s="84" t="s">
         <v>77</v>
@@ -5660,10 +6828,10 @@
         <v>79</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I62" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
@@ -5692,7 +6860,7 @@
         <v>82</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -5702,16 +6870,16 @@
       <c r="M63" s="105"/>
     </row>
     <row r="64" spans="1:16" ht="209.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="241">
+      <c r="A64" s="240">
         <v>52</v>
       </c>
       <c r="B64" s="191"/>
       <c r="C64" s="162"/>
-      <c r="D64" s="235"/>
-      <c r="E64" s="237" t="s">
+      <c r="D64" s="234"/>
+      <c r="E64" s="236" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="236" t="s">
+      <c r="F64" s="235" t="s">
         <v>84</v>
       </c>
       <c r="G64" s="170" t="s">
@@ -5721,7 +6889,7 @@
         <v>85</v>
       </c>
       <c r="I64" s="171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J64" s="171"/>
       <c r="K64" s="170"/>
@@ -5732,55 +6900,55 @@
       <c r="N64" s="85"/>
     </row>
     <row r="65" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="249"/>
-      <c r="B65" s="250"/>
-      <c r="C65" s="251"/>
-      <c r="D65" s="252"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="256"/>
-      <c r="G65" s="254"/>
-      <c r="H65" s="256"/>
-      <c r="I65" s="257"/>
-      <c r="J65" s="257"/>
-      <c r="K65" s="256"/>
-      <c r="L65" s="255"/>
-      <c r="M65" s="255"/>
+      <c r="A65" s="248"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="251"/>
+      <c r="E65" s="252"/>
+      <c r="F65" s="255"/>
+      <c r="G65" s="253"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="256"/>
+      <c r="K65" s="255"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
       <c r="N65" s="126"/>
     </row>
     <row r="66" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="242">
+      <c r="A66" s="241">
         <v>53</v>
       </c>
-      <c r="B66" s="258" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="262" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="263" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="243" t="s">
-        <v>216</v>
-      </c>
-      <c r="F66" s="244" t="s">
-        <v>217</v>
-      </c>
-      <c r="G66" s="245" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="245" t="s">
+      <c r="B66" s="257" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="261" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="262" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="243" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="244" t="s">
+        <v>213</v>
+      </c>
+      <c r="H66" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="246" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="247"/>
-      <c r="K66" s="245"/>
-      <c r="L66" s="248" t="s">
+      <c r="I66" s="245" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" s="246"/>
+      <c r="K66" s="244"/>
+      <c r="L66" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="M66" s="234"/>
+      <c r="M66" s="233"/>
       <c r="N66" s="141"/>
     </row>
     <row r="67" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5788,103 +6956,103 @@
         <v>54</v>
       </c>
       <c r="B67" s="193"/>
-      <c r="C67" s="263" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="264" t="s">
-        <v>228</v>
+      <c r="C67" s="262" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="263" t="s">
+        <v>223</v>
       </c>
       <c r="E67" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="238" t="s">
-        <v>211</v>
-      </c>
-      <c r="G67" s="228" t="s">
-        <v>218</v>
-      </c>
-      <c r="H67" s="228" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="237" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" s="227" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="240" t="s">
-        <v>219</v>
-      </c>
-      <c r="J67" s="239"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="234" t="s">
+      <c r="I67" s="239" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="238"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="234"/>
+      <c r="M67" s="233"/>
       <c r="N67" s="85"/>
     </row>
     <row r="68" spans="1:15" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="184">
         <v>55</v>
       </c>
-      <c r="B68" s="258"/>
-      <c r="C68" s="263" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="263" t="s">
-        <v>214</v>
+      <c r="B68" s="257"/>
+      <c r="C68" s="262" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="262" t="s">
+        <v>209</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="F68" s="228" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="227" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" s="227" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="231" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="264" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="232" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="265" t="s">
-        <v>220</v>
-      </c>
-      <c r="J68" s="240"/>
-      <c r="K68" s="238"/>
-      <c r="L68" s="233" t="s">
+      <c r="J68" s="239"/>
+      <c r="K68" s="237"/>
+      <c r="L68" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="234"/>
+      <c r="M68" s="233"/>
       <c r="N68" s="85"/>
     </row>
     <row r="69" spans="1:15" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="184">
         <v>56</v>
       </c>
-      <c r="B69" s="227"/>
-      <c r="C69" s="280" t="s">
+      <c r="B69" s="226"/>
+      <c r="C69" s="274" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="274" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="275" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="275" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" s="275" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="276" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="277" t="s">
         <v>227</v>
       </c>
-      <c r="D69" s="280" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" s="281" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="281" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" s="281" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="282" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="283" t="s">
-        <v>232</v>
-      </c>
-      <c r="J69" s="284"/>
-      <c r="K69" s="285"/>
-      <c r="L69" s="286" t="s">
+      <c r="J69" s="278"/>
+      <c r="K69" s="279"/>
+      <c r="L69" s="280" t="s">
         <v>42</v>
       </c>
       <c r="M69" s="133"/>
-      <c r="N69" s="287"/>
-      <c r="O69" s="288"/>
+      <c r="N69" s="281"/>
+      <c r="O69" s="282"/>
     </row>
     <row r="70" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="200"/>
@@ -5894,12 +7062,12 @@
       <c r="E70" s="202"/>
       <c r="F70" s="203"/>
       <c r="G70" s="203"/>
-      <c r="H70" s="278"/>
+      <c r="H70" s="272"/>
       <c r="I70" s="207"/>
-      <c r="J70" s="279"/>
-      <c r="K70" s="229"/>
-      <c r="L70" s="230"/>
-      <c r="M70" s="231"/>
+      <c r="J70" s="273"/>
+      <c r="K70" s="228"/>
+      <c r="L70" s="229"/>
+      <c r="M70" s="230"/>
       <c r="N70" s="141"/>
     </row>
     <row r="71" spans="1:15" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5910,7 +7078,7 @@
       <c r="C71" s="161"/>
       <c r="D71" s="167"/>
       <c r="E71" s="218" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F71" s="90"/>
       <c r="G71" s="90"/>
@@ -5927,12 +7095,8 @@
       </c>
       <c r="B72" s="176"/>
       <c r="C72" s="160"/>
-      <c r="D72" s="175" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="219" t="s">
-        <v>203</v>
-      </c>
+      <c r="D72" s="175"/>
+      <c r="E72" s="219"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
@@ -5948,11 +7112,9 @@
       </c>
       <c r="B73" s="176"/>
       <c r="C73" s="160"/>
-      <c r="D73" s="175"/>
-      <c r="E73" s="224" t="s">
-        <v>204</v>
-      </c>
-      <c r="F73" s="223"/>
+      <c r="D73" s="262"/>
+      <c r="E73" s="223"/>
+      <c r="F73" s="222"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -5983,11 +7145,9 @@
         <v>59</v>
       </c>
       <c r="B75" s="174"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="222"/>
-      <c r="E75" s="217" t="s">
-        <v>205</v>
-      </c>
+      <c r="C75" s="295"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="217"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -6003,9 +7163,7 @@
       <c r="B76" s="174"/>
       <c r="C76" s="27"/>
       <c r="D76" s="220"/>
-      <c r="E76" s="217" t="s">
-        <v>206</v>
-      </c>
+      <c r="E76" s="217"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -6811,4 +7969,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA236BE-BCCA-4DED-BC00-BC104045B4E1}">
+  <dimension ref="C6:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="112"/>
+      <c r="D6" s="300" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="301"/>
+    </row>
+    <row r="7" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="112"/>
+      <c r="D7" s="287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="112"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="112"/>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="34">
+        <f>COUNTIF(D12:D367, "Not Executed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="115"/>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="35">
+        <f>COUNTIF(D12:D367, "Out of Scope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="112"/>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="36">
+        <f>SUM(E7:E10)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="6:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="318" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="319"/>
+      <c r="H18" s="319"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="319"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="319"/>
+      <c r="M18" s="320"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="309" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="310"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="310"/>
+      <c r="J19" s="310"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="311"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="312"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="313"/>
+      <c r="J20" s="313"/>
+      <c r="K20" s="313"/>
+      <c r="L20" s="313"/>
+      <c r="M20" s="314"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="312"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="313"/>
+      <c r="I21" s="313"/>
+      <c r="J21" s="313"/>
+      <c r="K21" s="313"/>
+      <c r="L21" s="313"/>
+      <c r="M21" s="314"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="312"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="313"/>
+      <c r="J22" s="313"/>
+      <c r="K22" s="313"/>
+      <c r="L22" s="313"/>
+      <c r="M22" s="314"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="312"/>
+      <c r="G23" s="313"/>
+      <c r="H23" s="313"/>
+      <c r="I23" s="313"/>
+      <c r="J23" s="313"/>
+      <c r="K23" s="313"/>
+      <c r="L23" s="313"/>
+      <c r="M23" s="314"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="312"/>
+      <c r="G24" s="313"/>
+      <c r="H24" s="313"/>
+      <c r="I24" s="313"/>
+      <c r="J24" s="313"/>
+      <c r="K24" s="313"/>
+      <c r="L24" s="313"/>
+      <c r="M24" s="314"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="312"/>
+      <c r="G25" s="313"/>
+      <c r="H25" s="313"/>
+      <c r="I25" s="313"/>
+      <c r="J25" s="313"/>
+      <c r="K25" s="313"/>
+      <c r="L25" s="313"/>
+      <c r="M25" s="314"/>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="312"/>
+      <c r="G26" s="313"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="313"/>
+      <c r="J26" s="313"/>
+      <c r="K26" s="313"/>
+      <c r="L26" s="313"/>
+      <c r="M26" s="314"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="312"/>
+      <c r="G27" s="313"/>
+      <c r="H27" s="313"/>
+      <c r="I27" s="313"/>
+      <c r="J27" s="313"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="313"/>
+      <c r="M27" s="314"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="312"/>
+      <c r="G28" s="313"/>
+      <c r="H28" s="313"/>
+      <c r="I28" s="313"/>
+      <c r="J28" s="313"/>
+      <c r="K28" s="313"/>
+      <c r="L28" s="313"/>
+      <c r="M28" s="314"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="312"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="313"/>
+      <c r="J29" s="313"/>
+      <c r="K29" s="313"/>
+      <c r="L29" s="313"/>
+      <c r="M29" s="314"/>
+    </row>
+    <row r="30" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="315"/>
+      <c r="G30" s="316"/>
+      <c r="H30" s="316"/>
+      <c r="I30" s="316"/>
+      <c r="J30" s="316"/>
+      <c r="K30" s="316"/>
+      <c r="L30" s="316"/>
+      <c r="M30" s="317"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F19:M30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED5043F-6F16-459C-A727-FA8CD52CEA01}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5997860D-DAFB-462F-9266-FCE0C803C7FD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind_Mapping" sheetId="2" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3172,32 +3172,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3226,14 +3232,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3709,6 +3712,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3730,6 +3738,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3751,6 +3764,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3772,6 +3790,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3793,6 +3816,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3814,6 +3842,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D785-40B9-8E73-BCE93397BF7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4984,8 +5017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5005,15 +5038,15 @@
     <col min="13" max="13" width="12.19921875" style="109" customWidth="1"/>
     <col min="14" max="14" width="8.796875" style="109"/>
     <col min="15" max="15" width="23.59765625" style="109" customWidth="1"/>
-    <col min="16" max="16" width="21.8984375" style="109" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="109" customWidth="1"/>
     <col min="17" max="16384" width="8.796875" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="307" t="s">
+    <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="303"/>
+      <c r="B1" s="302"/>
       <c r="C1" s="23" t="s">
         <v>216</v>
       </c>
@@ -5033,20 +5066,20 @@
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="308" t="s">
+      <c r="L1" s="320" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="301"/>
+      <c r="M1" s="321"/>
       <c r="O1" s="288" t="s">
         <v>228</v>
       </c>
       <c r="P1" s="289"/>
     </row>
     <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="303"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="31" t="s">
         <v>218</v>
       </c>
@@ -5081,10 +5114,10 @@
       <c r="P2" s="291"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="303"/>
+      <c r="B3" s="302"/>
       <c r="C3" s="2" t="s">
         <v>218</v>
       </c>
@@ -5115,10 +5148,10 @@
       <c r="P3" s="292"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="306" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="303"/>
+      <c r="B4" s="302"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -5147,17 +5180,17 @@
       <c r="P4" s="293"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="301" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="303"/>
-      <c r="C5" s="304" t="s">
+      <c r="B5" s="302"/>
+      <c r="C5" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="305"/>
       <c r="H5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
@@ -5237,7 +5270,7 @@
       </c>
       <c r="Q7" s="266"/>
     </row>
-    <row r="8" spans="1:17" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="116" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="177">
         <v>1</v>
       </c>
@@ -7975,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA236BE-BCCA-4DED-BC00-BC104045B4E1}">
   <dimension ref="C6:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -7987,10 +8020,10 @@
   <sheetData>
     <row r="6" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="112"/>
-      <c r="D6" s="300" t="s">
+      <c r="D6" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="301"/>
+      <c r="E6" s="300"/>
     </row>
     <row r="7" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="112"/>
@@ -8042,138 +8075,138 @@
     </row>
     <row r="17" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="6:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="318" t="s">
+      <c r="F18" s="308" t="s">
         <v>253</v>
       </c>
-      <c r="G18" s="319"/>
-      <c r="H18" s="319"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="319"/>
-      <c r="M18" s="320"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="310"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="309" t="s">
+      <c r="F19" s="311" t="s">
         <v>252</v>
       </c>
-      <c r="G19" s="310"/>
-      <c r="H19" s="310"/>
-      <c r="I19" s="310"/>
-      <c r="J19" s="310"/>
-      <c r="K19" s="310"/>
-      <c r="L19" s="310"/>
-      <c r="M19" s="311"/>
+      <c r="G19" s="312"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="312"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="312"/>
+      <c r="L19" s="312"/>
+      <c r="M19" s="313"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="312"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="313"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="314"/>
+      <c r="F20" s="314"/>
+      <c r="G20" s="315"/>
+      <c r="H20" s="315"/>
+      <c r="I20" s="315"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="315"/>
+      <c r="M20" s="316"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="312"/>
-      <c r="G21" s="313"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="313"/>
-      <c r="K21" s="313"/>
-      <c r="L21" s="313"/>
-      <c r="M21" s="314"/>
+      <c r="F21" s="314"/>
+      <c r="G21" s="315"/>
+      <c r="H21" s="315"/>
+      <c r="I21" s="315"/>
+      <c r="J21" s="315"/>
+      <c r="K21" s="315"/>
+      <c r="L21" s="315"/>
+      <c r="M21" s="316"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="312"/>
-      <c r="G22" s="313"/>
-      <c r="H22" s="313"/>
-      <c r="I22" s="313"/>
-      <c r="J22" s="313"/>
-      <c r="K22" s="313"/>
-      <c r="L22" s="313"/>
-      <c r="M22" s="314"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="315"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="315"/>
+      <c r="J22" s="315"/>
+      <c r="K22" s="315"/>
+      <c r="L22" s="315"/>
+      <c r="M22" s="316"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="312"/>
-      <c r="G23" s="313"/>
-      <c r="H23" s="313"/>
-      <c r="I23" s="313"/>
-      <c r="J23" s="313"/>
-      <c r="K23" s="313"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="314"/>
+      <c r="F23" s="314"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="315"/>
+      <c r="I23" s="315"/>
+      <c r="J23" s="315"/>
+      <c r="K23" s="315"/>
+      <c r="L23" s="315"/>
+      <c r="M23" s="316"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="312"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="313"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="314"/>
+      <c r="F24" s="314"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
+      <c r="I24" s="315"/>
+      <c r="J24" s="315"/>
+      <c r="K24" s="315"/>
+      <c r="L24" s="315"/>
+      <c r="M24" s="316"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="312"/>
-      <c r="G25" s="313"/>
-      <c r="H25" s="313"/>
-      <c r="I25" s="313"/>
-      <c r="J25" s="313"/>
-      <c r="K25" s="313"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="314"/>
+      <c r="F25" s="314"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="315"/>
+      <c r="M25" s="316"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="312"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="313"/>
-      <c r="I26" s="313"/>
-      <c r="J26" s="313"/>
-      <c r="K26" s="313"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="314"/>
+      <c r="F26" s="314"/>
+      <c r="G26" s="315"/>
+      <c r="H26" s="315"/>
+      <c r="I26" s="315"/>
+      <c r="J26" s="315"/>
+      <c r="K26" s="315"/>
+      <c r="L26" s="315"/>
+      <c r="M26" s="316"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="312"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="313"/>
-      <c r="I27" s="313"/>
-      <c r="J27" s="313"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="314"/>
+      <c r="F27" s="314"/>
+      <c r="G27" s="315"/>
+      <c r="H27" s="315"/>
+      <c r="I27" s="315"/>
+      <c r="J27" s="315"/>
+      <c r="K27" s="315"/>
+      <c r="L27" s="315"/>
+      <c r="M27" s="316"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="312"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="313"/>
-      <c r="I28" s="313"/>
-      <c r="J28" s="313"/>
-      <c r="K28" s="313"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="314"/>
+      <c r="F28" s="314"/>
+      <c r="G28" s="315"/>
+      <c r="H28" s="315"/>
+      <c r="I28" s="315"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="315"/>
+      <c r="L28" s="315"/>
+      <c r="M28" s="316"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="312"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="314"/>
+      <c r="F29" s="314"/>
+      <c r="G29" s="315"/>
+      <c r="H29" s="315"/>
+      <c r="I29" s="315"/>
+      <c r="J29" s="315"/>
+      <c r="K29" s="315"/>
+      <c r="L29" s="315"/>
+      <c r="M29" s="316"/>
     </row>
     <row r="30" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="315"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="316"/>
-      <c r="I30" s="316"/>
-      <c r="J30" s="316"/>
-      <c r="K30" s="316"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="317"/>
+      <c r="F30" s="317"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="318"/>
+      <c r="J30" s="318"/>
+      <c r="K30" s="318"/>
+      <c r="L30" s="318"/>
+      <c r="M30" s="319"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5997860D-DAFB-462F-9266-FCE0C803C7FD}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F07779-38CA-4BBE-AE9C-BAFF7726D7A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind_Mapping" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="253">
   <si>
     <t>Product Name</t>
   </si>
@@ -813,9 +813,6 @@
   </si>
   <si>
     <t>evaly(Web App)</t>
-  </si>
-  <si>
-    <t>Using Temp Mail and Temp Number service for Testing.</t>
   </si>
   <si>
     <t>Full Web App</t>
@@ -1416,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2271,13 +2268,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3172,30 +3184,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3232,11 +3250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4662,13 +4677,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279015</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9621</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5003,7 +5018,7 @@
   <sheetData>
     <row r="11" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G11" s="286" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5017,8 +5032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5043,10 +5058,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="302"/>
+      <c r="B1" s="303"/>
       <c r="C1" s="23" t="s">
         <v>216</v>
       </c>
@@ -5066,22 +5081,22 @@
       <c r="I1" s="111"/>
       <c r="J1" s="85"/>
       <c r="K1" s="112"/>
-      <c r="L1" s="320" t="s">
+      <c r="L1" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="321"/>
+      <c r="M1" s="301"/>
       <c r="O1" s="288" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P1" s="289"/>
     </row>
     <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="302"/>
+      <c r="B2" s="303"/>
       <c r="C2" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -5093,7 +5108,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="111"/>
       <c r="I2" s="37" t="s">
@@ -5109,17 +5124,17 @@
         <v>42</v>
       </c>
       <c r="O2" s="290" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P2" s="291"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="302"/>
+      <c r="B3" s="303"/>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -5143,15 +5158,15 @@
         <v>14</v>
       </c>
       <c r="O3" s="290" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P3" s="292"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="302"/>
+      <c r="B4" s="303"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -5162,9 +5177,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="114"/>
-      <c r="I4" s="37" t="s">
-        <v>217</v>
-      </c>
+      <c r="I4" s="322"/>
       <c r="J4" s="111"/>
       <c r="K4" s="112"/>
       <c r="L4" s="6" t="s">
@@ -5175,22 +5188,22 @@
         <v>0</v>
       </c>
       <c r="O4" s="290" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P4" s="293"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="303" t="s">
+      <c r="B5" s="303"/>
+      <c r="C5" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="115"/>
@@ -5202,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="290" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P5" s="293"/>
     </row>
@@ -5260,7 +5273,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="268" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>30</v>
@@ -5289,7 +5302,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I8" s="117" t="s">
         <v>101</v>
@@ -5351,7 +5364,7 @@
         <v>154</v>
       </c>
       <c r="K10" s="269" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L10" s="105" t="s">
         <v>36</v>
@@ -5413,7 +5426,7 @@
         <v>155</v>
       </c>
       <c r="K12" s="269" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L12" s="118" t="s">
         <v>36</v>
@@ -5444,7 +5457,7 @@
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="269" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L13" s="118" t="s">
         <v>36</v>
@@ -5475,7 +5488,7 @@
         <v>180</v>
       </c>
       <c r="K14" s="270" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L14" s="118" t="s">
         <v>36</v>
@@ -5748,7 +5761,7 @@
         <v>156</v>
       </c>
       <c r="K24" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L24" s="105" t="s">
         <v>36</v>
@@ -5781,7 +5794,7 @@
         <v>157</v>
       </c>
       <c r="K25" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L25" s="105" t="s">
         <v>36</v>
@@ -5870,7 +5883,7 @@
         <v>158</v>
       </c>
       <c r="K28" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L28" s="105" t="s">
         <v>36</v>
@@ -5903,7 +5916,7 @@
         <v>159</v>
       </c>
       <c r="K29" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L29" s="105" t="s">
         <v>36</v>
@@ -5965,7 +5978,7 @@
         <v>160</v>
       </c>
       <c r="K31" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L31" s="105" t="s">
         <v>36</v>
@@ -6290,7 +6303,7 @@
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L42" s="105" t="s">
         <v>36</v>
@@ -6381,7 +6394,7 @@
         <v>201</v>
       </c>
       <c r="K45" s="271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L45" s="105" t="s">
         <v>36</v>
@@ -6414,7 +6427,7 @@
         <v>200</v>
       </c>
       <c r="K46" s="271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L46" s="105" t="s">
         <v>36</v>
@@ -6474,7 +6487,7 @@
       <c r="B49" s="191"/>
       <c r="C49" s="159"/>
       <c r="D49" s="163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49" s="95" t="s">
         <v>86</v>
@@ -6489,7 +6502,7 @@
         <v>41</v>
       </c>
       <c r="I49" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -6518,7 +6531,7 @@
         <v>171</v>
       </c>
       <c r="I50" s="88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -6547,7 +6560,7 @@
         <v>173</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -6577,7 +6590,7 @@
         <v>193</v>
       </c>
       <c r="I52" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
@@ -6606,7 +6619,7 @@
         <v>41</v>
       </c>
       <c r="I53" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
@@ -6635,11 +6648,11 @@
         <v>41</v>
       </c>
       <c r="I54" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="271" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L54" s="105" t="s">
         <v>36</v>
@@ -6666,7 +6679,7 @@
         <v>41</v>
       </c>
       <c r="I55" s="88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -6695,7 +6708,7 @@
         <v>41</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -6724,7 +6737,7 @@
         <v>178</v>
       </c>
       <c r="I57" s="88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -6753,7 +6766,7 @@
         <v>194</v>
       </c>
       <c r="I58" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
@@ -6773,7 +6786,7 @@
         <v>75</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>51</v>
@@ -6782,13 +6795,13 @@
         <v>165</v>
       </c>
       <c r="I59" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J59" s="89" t="s">
         <v>201</v>
       </c>
       <c r="K59" s="271" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L59" s="105" t="s">
         <v>36</v>
@@ -6806,16 +6819,16 @@
         <v>76</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H60" s="285" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I60" s="78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J60" s="284"/>
       <c r="K60" s="271"/>
@@ -6953,7 +6966,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="261" t="s">
         <v>203</v>
@@ -6993,7 +7006,7 @@
         <v>204</v>
       </c>
       <c r="D67" s="263" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E67" s="66" t="s">
         <v>202</v>
@@ -7058,16 +7071,16 @@
       </c>
       <c r="B69" s="226"/>
       <c r="C69" s="274" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" s="274" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="275" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="275" t="s">
+      <c r="F69" s="275" t="s">
         <v>225</v>
-      </c>
-      <c r="F69" s="275" t="s">
-        <v>226</v>
       </c>
       <c r="G69" s="275" t="s">
         <v>35</v>
@@ -7076,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="I69" s="277" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J69" s="278"/>
       <c r="K69" s="279"/>
@@ -8008,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA236BE-BCCA-4DED-BC00-BC104045B4E1}">
   <dimension ref="C6:M30"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8020,10 +8033,10 @@
   <sheetData>
     <row r="6" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="112"/>
-      <c r="D6" s="307" t="s">
+      <c r="D6" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="300"/>
+      <c r="E6" s="309"/>
     </row>
     <row r="7" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="112"/>
@@ -8075,138 +8088,138 @@
     </row>
     <row r="17" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="6:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="308" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="309"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="309"/>
-      <c r="L18" s="309"/>
-      <c r="M18" s="310"/>
+      <c r="F18" s="310" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
+      <c r="I18" s="311"/>
+      <c r="J18" s="311"/>
+      <c r="K18" s="311"/>
+      <c r="L18" s="311"/>
+      <c r="M18" s="312"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="311" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="312"/>
-      <c r="H19" s="312"/>
-      <c r="I19" s="312"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="312"/>
-      <c r="L19" s="312"/>
-      <c r="M19" s="313"/>
+      <c r="F19" s="313" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="314"/>
+      <c r="H19" s="314"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="314"/>
+      <c r="K19" s="314"/>
+      <c r="L19" s="314"/>
+      <c r="M19" s="315"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="314"/>
-      <c r="G20" s="315"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="315"/>
-      <c r="J20" s="315"/>
-      <c r="K20" s="315"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="316"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="317"/>
+      <c r="H20" s="317"/>
+      <c r="I20" s="317"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="317"/>
+      <c r="L20" s="317"/>
+      <c r="M20" s="318"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="314"/>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="315"/>
-      <c r="K21" s="315"/>
-      <c r="L21" s="315"/>
-      <c r="M21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
+      <c r="K21" s="317"/>
+      <c r="L21" s="317"/>
+      <c r="M21" s="318"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="314"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="315"/>
-      <c r="J22" s="315"/>
-      <c r="K22" s="315"/>
-      <c r="L22" s="315"/>
-      <c r="M22" s="316"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="317"/>
+      <c r="H22" s="317"/>
+      <c r="I22" s="317"/>
+      <c r="J22" s="317"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="318"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="314"/>
-      <c r="G23" s="315"/>
-      <c r="H23" s="315"/>
-      <c r="I23" s="315"/>
-      <c r="J23" s="315"/>
-      <c r="K23" s="315"/>
-      <c r="L23" s="315"/>
-      <c r="M23" s="316"/>
+      <c r="F23" s="316"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="317"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="317"/>
+      <c r="M23" s="318"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="314"/>
-      <c r="G24" s="315"/>
-      <c r="H24" s="315"/>
-      <c r="I24" s="315"/>
-      <c r="J24" s="315"/>
-      <c r="K24" s="315"/>
-      <c r="L24" s="315"/>
-      <c r="M24" s="316"/>
+      <c r="F24" s="316"/>
+      <c r="G24" s="317"/>
+      <c r="H24" s="317"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
+      <c r="M24" s="318"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="314"/>
-      <c r="G25" s="315"/>
-      <c r="H25" s="315"/>
-      <c r="I25" s="315"/>
-      <c r="J25" s="315"/>
-      <c r="K25" s="315"/>
-      <c r="L25" s="315"/>
-      <c r="M25" s="316"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="317"/>
+      <c r="H25" s="317"/>
+      <c r="I25" s="317"/>
+      <c r="J25" s="317"/>
+      <c r="K25" s="317"/>
+      <c r="L25" s="317"/>
+      <c r="M25" s="318"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="314"/>
-      <c r="G26" s="315"/>
-      <c r="H26" s="315"/>
-      <c r="I26" s="315"/>
-      <c r="J26" s="315"/>
-      <c r="K26" s="315"/>
-      <c r="L26" s="315"/>
-      <c r="M26" s="316"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="317"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
+      <c r="M26" s="318"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="314"/>
-      <c r="G27" s="315"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="315"/>
-      <c r="J27" s="315"/>
-      <c r="K27" s="315"/>
-      <c r="L27" s="315"/>
-      <c r="M27" s="316"/>
+      <c r="F27" s="316"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="318"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="314"/>
-      <c r="G28" s="315"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="315"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="315"/>
-      <c r="M28" s="316"/>
+      <c r="F28" s="316"/>
+      <c r="G28" s="317"/>
+      <c r="H28" s="317"/>
+      <c r="I28" s="317"/>
+      <c r="J28" s="317"/>
+      <c r="K28" s="317"/>
+      <c r="L28" s="317"/>
+      <c r="M28" s="318"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="314"/>
-      <c r="G29" s="315"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="315"/>
-      <c r="K29" s="315"/>
-      <c r="L29" s="315"/>
-      <c r="M29" s="316"/>
+      <c r="F29" s="316"/>
+      <c r="G29" s="317"/>
+      <c r="H29" s="317"/>
+      <c r="I29" s="317"/>
+      <c r="J29" s="317"/>
+      <c r="K29" s="317"/>
+      <c r="L29" s="317"/>
+      <c r="M29" s="318"/>
     </row>
     <row r="30" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="317"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="318"/>
-      <c r="J30" s="318"/>
-      <c r="K30" s="318"/>
-      <c r="L30" s="318"/>
-      <c r="M30" s="319"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="320"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="320"/>
+      <c r="L30" s="320"/>
+      <c r="M30" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F07779-38CA-4BBE-AE9C-BAFF7726D7A2}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D836051E-788A-444E-AB43-D03D5B99403C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="253">
   <si>
     <t>Product Name</t>
   </si>
@@ -1413,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2268,21 +2268,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2399,9 +2384,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3172,6 +3154,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3208,6 +3193,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3249,9 +3237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4619,16 +4604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550843</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>160663</xdr:rowOff>
+      <xdr:rowOff>137711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>153012</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38253</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22951</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4657,8 +4642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4483252" y="1002229"/>
-          <a:ext cx="11307591" cy="4758675"/>
+          <a:off x="4460301" y="979277"/>
+          <a:ext cx="10641987" cy="4559759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4709,6 +4694,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5008,16 +5009,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659A000-3FEE-48B9-AF13-C43BCA0A1F0C}">
-  <dimension ref="G11"/>
+  <dimension ref="G11:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView topLeftCell="E5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="11" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="286" t="s">
+      <c r="G11" s="285" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA31" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5032,29 +5038,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="109"/>
-    <col min="2" max="2" width="13.8984375" style="109" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="109" customWidth="1"/>
-    <col min="4" max="4" width="15" style="109" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="109" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="109" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="109" customWidth="1"/>
-    <col min="8" max="8" width="14" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="109" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="109" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="109" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="109" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" style="109" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="109"/>
-    <col min="15" max="15" width="23.59765625" style="109" customWidth="1"/>
-    <col min="16" max="16" width="11.8984375" style="109" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="109"/>
+    <col min="1" max="1" width="8.796875" style="108"/>
+    <col min="2" max="2" width="13.8984375" style="108" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="108" customWidth="1"/>
+    <col min="4" max="4" width="15" style="108" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="108" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="108" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="108" customWidth="1"/>
+    <col min="8" max="8" width="14" style="108" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="108" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="108" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="108" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="108" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" style="108" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="108"/>
+    <col min="15" max="15" width="23.59765625" style="108" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="108" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5074,21 +5080,21 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="259" t="s">
+      <c r="G1" s="258" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="112"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="300" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="301"/>
-      <c r="O1" s="288" t="s">
+      <c r="O1" s="287" t="s">
         <v>227</v>
       </c>
-      <c r="P1" s="289"/>
+      <c r="P1" s="288"/>
     </row>
     <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="307" t="s">
@@ -5101,7 +5107,7 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="258" t="s">
+      <c r="E2" s="257" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -5110,12 +5116,12 @@
       <c r="G2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="37" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="308" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
@@ -5123,10 +5129,10 @@
         <f>COUNTIF(L8:L71, "Passed")</f>
         <v>42</v>
       </c>
-      <c r="O2" s="290" t="s">
+      <c r="O2" s="289" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="291"/>
+      <c r="P2" s="290"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="307" t="s">
@@ -5142,14 +5148,15 @@
       <c r="E3" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="308"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
@@ -5157,10 +5164,10 @@
         <f>COUNTIF(L8:L369, "Failed")</f>
         <v>14</v>
       </c>
-      <c r="O3" s="290" t="s">
+      <c r="O3" s="289" t="s">
         <v>229</v>
       </c>
-      <c r="P3" s="292"/>
+      <c r="P3" s="291"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="307" t="s">
@@ -5172,14 +5179,14 @@
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="112" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
@@ -5187,10 +5194,10 @@
         <f>COUNTIF(L7:L373, "Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="290" t="s">
+      <c r="O4" s="289" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="293"/>
+      <c r="P4" s="292"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="302" t="s">
@@ -5204,9 +5211,9 @@
       <c r="E5" s="305"/>
       <c r="F5" s="305"/>
       <c r="G5" s="306"/>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="H5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -5214,23 +5221,23 @@
         <f>COUNTIF(L7:L373, "Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="290" t="s">
+      <c r="O5" s="289" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="293"/>
+      <c r="P5" s="292"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="111"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
@@ -5238,8 +5245,8 @@
         <f>SUM(M2:M5)</f>
         <v>56</v>
       </c>
-      <c r="O6" s="289"/>
-      <c r="P6" s="294"/>
+      <c r="O6" s="288"/>
+      <c r="P6" s="293"/>
     </row>
     <row r="7" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -5272,7 +5279,7 @@
       <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="267" t="s">
         <v>232</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -5281,13 +5288,13 @@
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="266"/>
+      <c r="Q7" s="265"/>
     </row>
     <row r="8" spans="1:17" ht="116" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="177">
+      <c r="A8" s="176">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
@@ -5301,26 +5308,26 @@
       <c r="G8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="116" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="109" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="O8" s="265"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="266"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="265"/>
     </row>
     <row r="9" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="178"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="260"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -5333,10 +5340,10 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="179">
+      <c r="A10" s="178">
         <v>2</v>
       </c>
-      <c r="B10" s="190" t="s">
+      <c r="B10" s="189" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="296" t="s">
@@ -5345,40 +5352,40 @@
       <c r="D10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="269" t="s">
+      <c r="K10" s="268" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="105" t="s">
+      <c r="L10" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="179">
+      <c r="A11" s="178">
         <v>3</v>
       </c>
-      <c r="B11" s="191"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="297"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="37" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -5390,24 +5397,24 @@
       <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>102</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="179">
+      <c r="A12" s="178">
         <v>4</v>
       </c>
-      <c r="B12" s="191"/>
+      <c r="B12" s="190"/>
       <c r="C12" s="297"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -5419,133 +5426,133 @@
       <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="269" t="s">
+      <c r="K12" s="268" t="s">
         <v>234</v>
       </c>
-      <c r="L12" s="118" t="s">
+      <c r="L12" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="119"/>
+      <c r="M12" s="118"/>
     </row>
     <row r="13" spans="1:17" ht="73" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="179">
+      <c r="A13" s="178">
         <v>5</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="297"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="269" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="268" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="118" t="s">
+      <c r="L13" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="119"/>
+      <c r="M13" s="118"/>
     </row>
     <row r="14" spans="1:17" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="179">
+      <c r="A14" s="178">
         <v>6</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="297"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="43" t="s">
         <v>162</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="270" t="s">
+      <c r="K14" s="269" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="118" t="s">
+      <c r="L14" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="119"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:17" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="180">
+      <c r="A15" s="179">
         <v>7</v>
       </c>
-      <c r="B15" s="192"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="297"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121" t="s">
+      <c r="J15" s="48"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="181"/>
-      <c r="B16" s="193"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="298"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="126"/>
     </row>
     <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="180">
+      <c r="A17" s="179">
         <v>8</v>
       </c>
-      <c r="B17" s="192"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="297"/>
       <c r="D17" s="33" t="s">
         <v>179</v>
@@ -5556,226 +5563,226 @@
       <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="130"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
     </row>
     <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180">
+      <c r="A18" s="179">
         <v>9</v>
       </c>
-      <c r="B18" s="191"/>
+      <c r="B18" s="190"/>
       <c r="C18" s="297"/>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="131" t="s">
+      <c r="J18" s="62"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="132"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
     </row>
     <row r="19" spans="1:15" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>10</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="299"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68" t="s">
+      <c r="H19" s="66"/>
+      <c r="I19" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="133" t="s">
+      <c r="J19" s="68"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="134"/>
-      <c r="N19" s="127"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="126"/>
     </row>
     <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="182">
+      <c r="A20" s="181">
         <v>11</v>
       </c>
-      <c r="B20" s="191"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74" t="s">
+      <c r="H20" s="72"/>
+      <c r="I20" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="135" t="s">
+      <c r="J20" s="74"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="136"/>
-      <c r="O20" s="127"/>
+      <c r="M20" s="135"/>
+      <c r="O20" s="126"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="183"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="214"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="213"/>
     </row>
     <row r="22" spans="1:15" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="184">
+      <c r="A22" s="183">
         <v>12</v>
       </c>
-      <c r="B22" s="191"/>
-      <c r="C22" s="154" t="s">
+      <c r="B22" s="190"/>
+      <c r="C22" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="75" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="76" t="s">
         <v>108</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="105" t="s">
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="184">
+      <c r="A23" s="183">
         <v>13</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="76" t="s">
+      <c r="B23" s="190"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="76" t="s">
         <v>111</v>
       </c>
       <c r="J23" s="21"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="105" t="s">
+      <c r="K23" s="78"/>
+      <c r="L23" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="184">
+      <c r="A24" s="183">
         <v>14</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="76" t="s">
+      <c r="B24" s="190"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="75" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="271" t="s">
+      <c r="K24" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="184">
+      <c r="A25" s="183">
         <v>15</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="76" t="s">
+      <c r="B25" s="190"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="75" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -5784,58 +5791,58 @@
       <c r="G25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="81" t="s">
+      <c r="I25" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="82" t="s">
+      <c r="J25" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="271" t="s">
+      <c r="K25" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="105" t="s">
+      <c r="L25" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="184">
+      <c r="A26" s="183">
         <v>16</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="76" t="s">
+      <c r="B26" s="190"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="76" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="21"/>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="105" t="s">
+      <c r="J26" s="82"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="184">
+      <c r="A27" s="183">
         <v>17</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="84" t="s">
+      <c r="B27" s="190"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="83" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -5847,24 +5854,24 @@
       <c r="H27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="85"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="105" t="s">
+      <c r="J27" s="84"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="184">
+      <c r="A28" s="183">
         <v>18</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="84" t="s">
+      <c r="B28" s="190"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="83" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -5876,28 +5883,28 @@
       <c r="H28" s="21">
         <v>162987</v>
       </c>
-      <c r="I28" s="86" t="s">
+      <c r="I28" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="82" t="s">
+      <c r="J28" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="271" t="s">
+      <c r="K28" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L28" s="105" t="s">
+      <c r="L28" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="184">
+      <c r="A29" s="183">
         <v>19</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="84" t="s">
+      <c r="B29" s="190"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="83" t="s">
         <v>129</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -5912,25 +5919,25 @@
       <c r="I29" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="80" t="s">
+      <c r="J29" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="271" t="s">
+      <c r="K29" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L29" s="105" t="s">
+      <c r="L29" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="184">
+      <c r="A30" s="183">
         <v>20</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="84" t="s">
+      <c r="B30" s="190"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="83" t="s">
         <v>130</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -5946,20 +5953,20 @@
         <v>126</v>
       </c>
       <c r="J30" s="21"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="105" t="s">
+      <c r="K30" s="78"/>
+      <c r="L30" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="184">
+      <c r="A31" s="183">
         <v>21</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="84" t="s">
+      <c r="B31" s="190"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="83" t="s">
         <v>131</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -5974,25 +5981,25 @@
       <c r="I31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="225" t="s">
+      <c r="J31" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="271" t="s">
+      <c r="K31" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L31" s="105" t="s">
+      <c r="L31" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="184">
+      <c r="A32" s="183">
         <v>22</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="84" t="s">
+      <c r="B32" s="190"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="83" t="s">
         <v>134</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -6007,21 +6014,21 @@
       <c r="I32" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="224"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="105" t="s">
+      <c r="J32" s="223"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184">
+      <c r="A33" s="183">
         <v>23</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="84" t="s">
+      <c r="B33" s="190"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="83" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -6030,27 +6037,27 @@
       <c r="G33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="88" t="s">
+      <c r="I33" s="87" t="s">
         <v>136</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="105" t="s">
+      <c r="L33" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="184">
+      <c r="A34" s="183">
         <v>24</v>
       </c>
-      <c r="B34" s="191"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="84" t="s">
+      <c r="B34" s="190"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="83" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -6059,27 +6066,27 @@
       <c r="G34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="88" t="s">
+      <c r="I34" s="87" t="s">
         <v>138</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="105" t="s">
+      <c r="L34" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="184">
+      <c r="A35" s="183">
         <v>25</v>
       </c>
-      <c r="B35" s="191"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="84" t="s">
+      <c r="B35" s="190"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="83" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -6088,27 +6095,27 @@
       <c r="G35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="88" t="s">
+      <c r="I35" s="87" t="s">
         <v>139</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="105" t="s">
+      <c r="L35" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="184">
+      <c r="A36" s="183">
         <v>26</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="44" t="s">
+      <c r="B36" s="190"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="43" t="s">
         <v>62</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -6117,27 +6124,27 @@
       <c r="G36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="89" t="s">
+      <c r="H36" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="88" t="s">
+      <c r="I36" s="87" t="s">
         <v>141</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="105" t="s">
+      <c r="L36" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="105"/>
+      <c r="M36" s="104"/>
     </row>
     <row r="37" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="184">
+      <c r="A37" s="183">
         <v>27</v>
       </c>
-      <c r="B37" s="191"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="44" t="s">
+      <c r="B37" s="190"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="43" t="s">
         <v>144</v>
       </c>
       <c r="F37" s="13" t="s">
@@ -6149,24 +6156,24 @@
       <c r="H37" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="87" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="105" t="s">
+      <c r="L37" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="105"/>
+      <c r="M37" s="104"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="184">
+      <c r="A38" s="183">
         <v>28</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="44" t="s">
+      <c r="B38" s="190"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="43" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -6178,24 +6185,24 @@
       <c r="H38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="88" t="s">
+      <c r="I38" s="87" t="s">
         <v>146</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="105" t="s">
+      <c r="L38" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="105"/>
+      <c r="M38" s="104"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="184">
+      <c r="A39" s="183">
         <v>29</v>
       </c>
-      <c r="B39" s="191"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="44" t="s">
+      <c r="B39" s="190"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -6204,31 +6211,31 @@
       <c r="G39" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="89" t="str">
+      <c r="H39" s="88" t="str">
         <f>H43</f>
         <v>Full name: Anik Chakraborty
 Email: xolope8846@ahieh.com
 Password: A123456@
 Confirm Password: A123456@</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="87" t="s">
         <v>148</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="105" t="s">
+      <c r="L39" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="105"/>
+      <c r="M39" s="104"/>
     </row>
     <row r="40" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="184">
+      <c r="A40" s="183">
         <v>30</v>
       </c>
-      <c r="B40" s="191"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="44" t="s">
+      <c r="B40" s="190"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="43" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -6237,27 +6244,27 @@
       <c r="G40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="89" t="s">
+      <c r="H40" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="87" t="s">
         <v>150</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="105" t="s">
+      <c r="L40" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="105"/>
+      <c r="M40" s="104"/>
     </row>
     <row r="41" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="184">
+      <c r="A41" s="183">
         <v>31</v>
       </c>
-      <c r="B41" s="191"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="44" t="s">
+      <c r="B41" s="190"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="43" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -6269,24 +6276,24 @@
       <c r="H41" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="87" t="s">
         <v>152</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="105" t="s">
+      <c r="L41" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="105"/>
+      <c r="M41" s="104"/>
     </row>
     <row r="42" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="184">
+      <c r="A42" s="183">
         <v>32</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="44" t="s">
+      <c r="B42" s="190"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="43" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -6295,29 +6302,29 @@
       <c r="G42" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="88" t="s">
+      <c r="H42" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="88" t="s">
+      <c r="I42" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="271" t="s">
+      <c r="J42" s="84"/>
+      <c r="K42" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="L42" s="105" t="s">
+      <c r="L42" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="105"/>
+      <c r="M42" s="104"/>
     </row>
     <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="184">
+      <c r="A43" s="183">
         <v>33</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="84" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="83" t="s">
         <v>72</v>
       </c>
       <c r="F43" s="21" t="s">
@@ -6326,27 +6333,27 @@
       <c r="G43" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="88" t="s">
+      <c r="H43" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="87" t="s">
         <v>161</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="105" t="s">
+      <c r="L43" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="105"/>
+      <c r="M43" s="104"/>
     </row>
     <row r="44" spans="1:14" ht="261.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="184">
+      <c r="A44" s="183">
         <v>34</v>
       </c>
-      <c r="B44" s="191"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="84" t="s">
+      <c r="B44" s="190"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="83" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -6355,27 +6362,27 @@
       <c r="G44" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="88" t="s">
+      <c r="H44" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="87" t="s">
         <v>164</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="105" t="s">
+      <c r="L44" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="105"/>
+      <c r="M44" s="104"/>
     </row>
     <row r="45" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="184">
+      <c r="A45" s="183">
         <v>35</v>
       </c>
-      <c r="B45" s="191"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="84" t="s">
+      <c r="B45" s="190"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="83" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -6387,28 +6394,28 @@
       <c r="H45" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I45" s="88" t="s">
+      <c r="I45" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="J45" s="89" t="s">
+      <c r="J45" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="271" t="s">
+      <c r="K45" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="L45" s="105" t="s">
+      <c r="L45" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="105"/>
+      <c r="M45" s="104"/>
     </row>
     <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="184">
+      <c r="A46" s="183">
         <v>36</v>
       </c>
-      <c r="B46" s="191"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="76" t="s">
+      <c r="B46" s="190"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="75" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -6417,111 +6424,111 @@
       <c r="G46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="78" t="s">
+      <c r="I46" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="89" t="s">
+      <c r="J46" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="K46" s="271" t="s">
+      <c r="K46" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="105" t="s">
+      <c r="L46" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="105"/>
+      <c r="M46" s="104"/>
     </row>
     <row r="47" spans="1:14" ht="161.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="184">
+      <c r="A47" s="183">
         <v>37</v>
       </c>
-      <c r="B47" s="191"/>
-      <c r="C47" s="159"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="92" t="s">
+      <c r="B47" s="190"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="93" t="s">
+      <c r="F47" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="93" t="s">
+      <c r="H47" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="94" t="s">
+      <c r="I47" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="138" t="s">
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="139"/>
-      <c r="N47" s="85"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="200"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="205"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="207"/>
-      <c r="N48" s="141"/>
+      <c r="A48" s="199"/>
+      <c r="B48" s="192"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="206"/>
+      <c r="N48" s="140"/>
     </row>
     <row r="49" spans="1:16" ht="128" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="184">
+      <c r="A49" s="183">
         <v>38</v>
       </c>
-      <c r="B49" s="191"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="163" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="95" t="s">
+      <c r="E49" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="96" t="s">
+      <c r="F49" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="83" t="s">
+      <c r="G49" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="97" t="s">
+      <c r="I49" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="142" t="s">
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="143"/>
+      <c r="M49" s="142"/>
     </row>
     <row r="50" spans="1:16" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="184">
+      <c r="A50" s="183">
         <v>39</v>
       </c>
-      <c r="B50" s="191"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="98" t="s">
+      <c r="B50" s="190"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="84" t="s">
+      <c r="F50" s="83" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="21" t="s">
@@ -6530,24 +6537,24 @@
       <c r="H50" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="88" t="s">
+      <c r="I50" s="87" t="s">
         <v>236</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="105" t="s">
+      <c r="L50" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:16" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="184">
+      <c r="A51" s="183">
         <v>40</v>
       </c>
-      <c r="B51" s="191"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="99" t="s">
+      <c r="B51" s="190"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="98" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -6556,28 +6563,28 @@
       <c r="G51" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="100" t="s">
+      <c r="H51" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="I51" s="78" t="s">
+      <c r="I51" s="77" t="s">
         <v>238</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="105" t="s">
+      <c r="L51" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="P51" s="127"/>
+      <c r="P51" s="126"/>
     </row>
     <row r="52" spans="1:16" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="184">
+      <c r="A52" s="183">
         <v>41</v>
       </c>
-      <c r="B52" s="191"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="84" t="s">
+      <c r="B52" s="190"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="83" t="s">
         <v>90</v>
       </c>
       <c r="F52" s="21" t="s">
@@ -6589,24 +6596,24 @@
       <c r="H52" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I52" s="88" t="s">
+      <c r="I52" s="87" t="s">
         <v>239</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="105" t="s">
+      <c r="L52" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:16" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="184">
+      <c r="A53" s="183">
         <v>42</v>
       </c>
-      <c r="B53" s="191"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="84" t="s">
+      <c r="B53" s="190"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="83" t="s">
         <v>91</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -6618,24 +6625,24 @@
       <c r="H53" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="87" t="s">
         <v>240</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="105" t="s">
+      <c r="L53" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="184">
+      <c r="A54" s="183">
         <v>43</v>
       </c>
-      <c r="B54" s="191"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="101" t="s">
+      <c r="B54" s="190"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="100" t="s">
         <v>93</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -6647,26 +6654,26 @@
       <c r="H54" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="88" t="s">
+      <c r="I54" s="87" t="s">
         <v>241</v>
       </c>
       <c r="J54" s="21"/>
-      <c r="K54" s="271" t="s">
+      <c r="K54" s="270" t="s">
         <v>233</v>
       </c>
-      <c r="L54" s="105" t="s">
+      <c r="L54" s="104" t="s">
         <v>36</v>
       </c>
       <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="185">
+      <c r="A55" s="184">
         <v>44</v>
       </c>
-      <c r="B55" s="191"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="84" t="s">
+      <c r="B55" s="190"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="83" t="s">
         <v>175</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -6678,24 +6685,24 @@
       <c r="H55" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="88" t="s">
+      <c r="I55" s="87" t="s">
         <v>242</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
-      <c r="L55" s="105" t="s">
+      <c r="L55" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="248.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="184">
+      <c r="A56" s="183">
         <v>45</v>
       </c>
-      <c r="B56" s="191"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="84" t="s">
+      <c r="B56" s="190"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="83" t="s">
         <v>96</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -6707,24 +6714,24 @@
       <c r="H56" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="78" t="s">
+      <c r="I56" s="77" t="s">
         <v>243</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
-      <c r="L56" s="105" t="s">
+      <c r="L56" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="262" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="184">
+      <c r="A57" s="183">
         <v>46</v>
       </c>
-      <c r="B57" s="191"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="84" t="s">
+      <c r="B57" s="190"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="83" t="s">
         <v>176</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -6736,24 +6743,24 @@
       <c r="H57" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I57" s="88" t="s">
+      <c r="I57" s="87" t="s">
         <v>244</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
-      <c r="L57" s="105" t="s">
+      <c r="L57" s="104" t="s">
         <v>42</v>
       </c>
       <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:16" ht="271" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="184">
+      <c r="A58" s="183">
         <v>47</v>
       </c>
-      <c r="B58" s="191"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="84" t="s">
+      <c r="B58" s="190"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="83" t="s">
         <v>98</v>
       </c>
       <c r="F58" s="21" t="s">
@@ -6765,24 +6772,24 @@
       <c r="H58" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I58" s="88" t="s">
+      <c r="I58" s="87" t="s">
         <v>245</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
-      <c r="L58" s="105" t="s">
+      <c r="L58" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="105"/>
+      <c r="M58" s="104"/>
     </row>
     <row r="59" spans="1:16" ht="190.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="184">
+      <c r="A59" s="183">
         <v>48</v>
       </c>
-      <c r="B59" s="191"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="84" t="s">
+      <c r="B59" s="190"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="83" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -6794,28 +6801,28 @@
       <c r="H59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="88" t="s">
+      <c r="I59" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="J59" s="89" t="s">
+      <c r="J59" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="K59" s="271" t="s">
+      <c r="K59" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="L59" s="105" t="s">
+      <c r="L59" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="105"/>
+      <c r="M59" s="104"/>
     </row>
     <row r="60" spans="1:16" ht="284" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="184">
+      <c r="A60" s="183">
         <v>49</v>
       </c>
-      <c r="B60" s="191"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="76" t="s">
+      <c r="B60" s="190"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="75" t="s">
         <v>76</v>
       </c>
       <c r="F60" s="21" t="s">
@@ -6824,47 +6831,47 @@
       <c r="G60" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="285" t="s">
+      <c r="H60" s="284" t="s">
         <v>249</v>
       </c>
-      <c r="I60" s="78" t="s">
+      <c r="I60" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="J60" s="284"/>
-      <c r="K60" s="271"/>
-      <c r="L60" s="105" t="s">
+      <c r="J60" s="283"/>
+      <c r="K60" s="270"/>
+      <c r="L60" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M60" s="105"/>
+      <c r="M60" s="104"/>
     </row>
     <row r="61" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="200"/>
-      <c r="B61" s="283"/>
-      <c r="C61" s="195"/>
-      <c r="D61" s="195"/>
-      <c r="E61" s="196"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="198"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="194"/>
-      <c r="M61" s="194"/>
-      <c r="N61" s="85"/>
+      <c r="A61" s="199"/>
+      <c r="B61" s="282"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="194"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="196"/>
+      <c r="G61" s="197"/>
+      <c r="H61" s="197"/>
+      <c r="I61" s="197"/>
+      <c r="J61" s="197"/>
+      <c r="K61" s="198"/>
+      <c r="L61" s="193"/>
+      <c r="M61" s="193"/>
+      <c r="N61" s="84"/>
     </row>
     <row r="62" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="184">
+      <c r="A62" s="183">
         <v>50</v>
       </c>
-      <c r="B62" s="191"/>
-      <c r="C62" s="168" t="s">
+      <c r="B62" s="190"/>
+      <c r="C62" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="172" t="s">
+      <c r="D62" s="171" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="83" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -6873,27 +6880,27 @@
       <c r="G62" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H62" s="91" t="s">
+      <c r="H62" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="I62" s="77" t="s">
+      <c r="I62" s="76" t="s">
         <v>168</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
-      <c r="L62" s="105" t="s">
+      <c r="L62" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="105"/>
+      <c r="M62" s="104"/>
     </row>
     <row r="63" spans="1:16" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="184">
+      <c r="A63" s="183">
         <v>51</v>
       </c>
-      <c r="B63" s="191"/>
-      <c r="C63" s="162"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="169" t="s">
+      <c r="B63" s="190"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -6910,349 +6917,349 @@
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
-      <c r="L63" s="105" t="s">
+      <c r="L63" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M63" s="105"/>
+      <c r="M63" s="104"/>
     </row>
     <row r="64" spans="1:16" ht="209.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="240">
+      <c r="A64" s="239">
         <v>52</v>
       </c>
-      <c r="B64" s="191"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="236" t="s">
+      <c r="B64" s="190"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="233"/>
+      <c r="E64" s="235" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="235" t="s">
+      <c r="F64" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="170" t="s">
+      <c r="G64" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="170" t="s">
+      <c r="H64" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="171" t="s">
+      <c r="I64" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="171"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="121" t="s">
+      <c r="J64" s="170"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="M64" s="121"/>
-      <c r="N64" s="85"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="84"/>
     </row>
     <row r="65" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="248"/>
-      <c r="B65" s="249"/>
-      <c r="C65" s="250"/>
-      <c r="D65" s="251"/>
-      <c r="E65" s="252"/>
-      <c r="F65" s="255"/>
-      <c r="G65" s="253"/>
-      <c r="H65" s="255"/>
-      <c r="I65" s="256"/>
-      <c r="J65" s="256"/>
-      <c r="K65" s="255"/>
-      <c r="L65" s="254"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="126"/>
+      <c r="A65" s="247"/>
+      <c r="B65" s="248"/>
+      <c r="C65" s="249"/>
+      <c r="D65" s="250"/>
+      <c r="E65" s="251"/>
+      <c r="F65" s="254"/>
+      <c r="G65" s="252"/>
+      <c r="H65" s="254"/>
+      <c r="I65" s="255"/>
+      <c r="J65" s="255"/>
+      <c r="K65" s="254"/>
+      <c r="L65" s="253"/>
+      <c r="M65" s="253"/>
+      <c r="N65" s="125"/>
     </row>
     <row r="66" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="241">
+      <c r="A66" s="240">
         <v>53</v>
       </c>
-      <c r="B66" s="257" t="s">
+      <c r="B66" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="261" t="s">
+      <c r="C66" s="260" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="262" t="s">
+      <c r="D66" s="261" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="242" t="s">
+      <c r="E66" s="241" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="243" t="s">
+      <c r="F66" s="242" t="s">
         <v>212</v>
       </c>
-      <c r="G66" s="244" t="s">
+      <c r="G66" s="243" t="s">
         <v>213</v>
       </c>
-      <c r="H66" s="244" t="s">
+      <c r="H66" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="245" t="s">
+      <c r="I66" s="244" t="s">
         <v>214</v>
       </c>
-      <c r="J66" s="246"/>
-      <c r="K66" s="244"/>
-      <c r="L66" s="247" t="s">
+      <c r="J66" s="245"/>
+      <c r="K66" s="243"/>
+      <c r="L66" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="M66" s="233"/>
-      <c r="N66" s="141"/>
+      <c r="M66" s="232"/>
+      <c r="N66" s="140"/>
     </row>
     <row r="67" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="184">
+      <c r="A67" s="183">
         <v>54</v>
       </c>
-      <c r="B67" s="193"/>
-      <c r="C67" s="262" t="s">
+      <c r="B67" s="192"/>
+      <c r="C67" s="261" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="262" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="237" t="s">
+      <c r="F67" s="236" t="s">
         <v>206</v>
       </c>
-      <c r="G67" s="227" t="s">
+      <c r="G67" s="226" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="227" t="s">
+      <c r="H67" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="239" t="s">
+      <c r="I67" s="238" t="s">
         <v>214</v>
       </c>
-      <c r="J67" s="238"/>
-      <c r="K67" s="227"/>
-      <c r="L67" s="233" t="s">
+      <c r="J67" s="237"/>
+      <c r="K67" s="226"/>
+      <c r="L67" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="233"/>
-      <c r="N67" s="85"/>
+      <c r="M67" s="232"/>
+      <c r="N67" s="84"/>
     </row>
     <row r="68" spans="1:15" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="184">
+      <c r="A68" s="183">
         <v>55</v>
       </c>
-      <c r="B68" s="257"/>
-      <c r="C68" s="262" t="s">
+      <c r="B68" s="256"/>
+      <c r="C68" s="261" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="262" t="s">
+      <c r="D68" s="261" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="227" t="s">
+      <c r="F68" s="226" t="s">
         <v>210</v>
       </c>
-      <c r="G68" s="227" t="s">
+      <c r="G68" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="231" t="s">
+      <c r="H68" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="264" t="s">
+      <c r="I68" s="263" t="s">
         <v>215</v>
       </c>
-      <c r="J68" s="239"/>
-      <c r="K68" s="237"/>
-      <c r="L68" s="232" t="s">
+      <c r="J68" s="238"/>
+      <c r="K68" s="236"/>
+      <c r="L68" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="233"/>
-      <c r="N68" s="85"/>
+      <c r="M68" s="232"/>
+      <c r="N68" s="84"/>
     </row>
     <row r="69" spans="1:15" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="184">
+      <c r="A69" s="183">
         <v>56</v>
       </c>
-      <c r="B69" s="226"/>
-      <c r="C69" s="274" t="s">
+      <c r="B69" s="225"/>
+      <c r="C69" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="274" t="s">
+      <c r="D69" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="275" t="s">
+      <c r="E69" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="275" t="s">
+      <c r="F69" s="274" t="s">
         <v>225</v>
       </c>
-      <c r="G69" s="275" t="s">
+      <c r="G69" s="274" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="276" t="s">
+      <c r="H69" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="277" t="s">
+      <c r="I69" s="276" t="s">
         <v>226</v>
       </c>
-      <c r="J69" s="278"/>
-      <c r="K69" s="279"/>
-      <c r="L69" s="280" t="s">
+      <c r="J69" s="277"/>
+      <c r="K69" s="278"/>
+      <c r="L69" s="279" t="s">
         <v>42</v>
       </c>
-      <c r="M69" s="133"/>
-      <c r="N69" s="281"/>
-      <c r="O69" s="282"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="280"/>
+      <c r="O69" s="281"/>
     </row>
     <row r="70" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="200"/>
-      <c r="B70" s="201"/>
-      <c r="C70" s="195"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="202"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="272"/>
-      <c r="I70" s="207"/>
-      <c r="J70" s="273"/>
-      <c r="K70" s="228"/>
-      <c r="L70" s="229"/>
-      <c r="M70" s="230"/>
-      <c r="N70" s="141"/>
+      <c r="A70" s="199"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="194"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="202"/>
+      <c r="G70" s="202"/>
+      <c r="H70" s="271"/>
+      <c r="I70" s="206"/>
+      <c r="J70" s="272"/>
+      <c r="K70" s="227"/>
+      <c r="L70" s="228"/>
+      <c r="M70" s="229"/>
+      <c r="N70" s="140"/>
     </row>
     <row r="71" spans="1:15" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="184">
+      <c r="A71" s="183">
         <v>55</v>
       </c>
-      <c r="B71" s="176"/>
-      <c r="C71" s="161"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="218" t="s">
+      <c r="B71" s="175"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="166"/>
+      <c r="E71" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="153"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="142"/>
-      <c r="M71" s="142"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="141"/>
+      <c r="M71" s="141"/>
     </row>
     <row r="72" spans="1:15" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="184">
+      <c r="A72" s="183">
         <v>57</v>
       </c>
-      <c r="B72" s="176"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="175"/>
-      <c r="E72" s="219"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="174"/>
+      <c r="E72" s="218"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="105"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="104"/>
     </row>
     <row r="73" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="184">
+      <c r="A73" s="183">
         <v>58</v>
       </c>
-      <c r="B73" s="176"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="262"/>
-      <c r="E73" s="223"/>
-      <c r="F73" s="222"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="261"/>
+      <c r="E73" s="222"/>
+      <c r="F73" s="221"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="105"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="104"/>
       <c r="M73" s="22"/>
     </row>
     <row r="74" spans="1:15" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="184">
+      <c r="A74" s="183">
         <v>58</v>
       </c>
-      <c r="B74" s="176"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="221"/>
-      <c r="E74" s="96"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="220"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="145"/>
-      <c r="M74" s="144"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="143"/>
     </row>
     <row r="75" spans="1:15" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="184">
+      <c r="A75" s="183">
         <v>59</v>
       </c>
-      <c r="B75" s="174"/>
-      <c r="C75" s="295"/>
-      <c r="D75" s="227"/>
-      <c r="E75" s="217"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="294"/>
+      <c r="D75" s="226"/>
+      <c r="E75" s="216"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="128"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="145"/>
+      <c r="M75" s="127"/>
     </row>
     <row r="76" spans="1:15" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="184">
+      <c r="A76" s="183">
         <v>60</v>
       </c>
-      <c r="B76" s="174"/>
+      <c r="B76" s="173"/>
       <c r="C76" s="27"/>
-      <c r="D76" s="220"/>
-      <c r="E76" s="217"/>
+      <c r="D76" s="219"/>
+      <c r="E76" s="216"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="M76" s="128"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="M76" s="127"/>
     </row>
     <row r="77" spans="1:15" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="184"/>
-      <c r="B77" s="174"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="103"/>
+      <c r="D77" s="102"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="128"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="145"/>
+      <c r="M77" s="127"/>
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="184"/>
-      <c r="B78" s="174"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="27"/>
-      <c r="D78" s="103"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="146"/>
-      <c r="M78" s="128"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="127"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="184"/>
-      <c r="B79" s="174"/>
+      <c r="A79" s="183"/>
+      <c r="B79" s="173"/>
       <c r="C79" s="27"/>
-      <c r="D79" s="103"/>
+      <c r="D79" s="102"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -7260,13 +7267,13 @@
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
-      <c r="L79" s="146"/>
-      <c r="M79" s="128"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="127"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="185"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="106"/>
+      <c r="A80" s="184"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="105"/>
       <c r="D80" s="27"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -7274,489 +7281,489 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
-      <c r="K80" s="121"/>
-      <c r="L80" s="145"/>
-      <c r="M80" s="128"/>
+      <c r="K80" s="120"/>
+      <c r="L80" s="144"/>
+      <c r="M80" s="127"/>
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="184"/>
-      <c r="B81" s="174"/>
-      <c r="C81" s="106"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="105"/>
       <c r="D81" s="27"/>
-      <c r="E81" s="103"/>
+      <c r="E81" s="102"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
-      <c r="J81" s="86"/>
-      <c r="K81" s="147"/>
-      <c r="L81" s="148"/>
-      <c r="M81" s="128"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="127"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="184"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="103"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="102"/>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
-      <c r="J82" s="86"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="151"/>
-      <c r="M82" s="149"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="149"/>
+      <c r="L82" s="150"/>
+      <c r="M82" s="148"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="184"/>
-      <c r="B83" s="176"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="102"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="13"/>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
-      <c r="J83" s="86"/>
-      <c r="K83" s="150"/>
-      <c r="L83" s="151"/>
-      <c r="M83" s="152"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="149"/>
+      <c r="L83" s="150"/>
+      <c r="M83" s="151"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="184"/>
-      <c r="B84" s="174"/>
-      <c r="M84" s="105"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="173"/>
+      <c r="M84" s="104"/>
     </row>
     <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="184"/>
-      <c r="B85" s="174"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="173"/>
     </row>
     <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="186"/>
-      <c r="B86" s="174"/>
+      <c r="A86" s="185"/>
+      <c r="B86" s="173"/>
     </row>
     <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="186"/>
-      <c r="B87" s="174"/>
+      <c r="A87" s="185"/>
+      <c r="B87" s="173"/>
     </row>
     <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="186"/>
-      <c r="B88" s="174"/>
+      <c r="A88" s="185"/>
+      <c r="B88" s="173"/>
     </row>
     <row r="89" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="186"/>
-      <c r="B89" s="174"/>
+      <c r="A89" s="185"/>
+      <c r="B89" s="173"/>
     </row>
     <row r="90" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="186"/>
-      <c r="B90" s="174"/>
+      <c r="A90" s="185"/>
+      <c r="B90" s="173"/>
     </row>
     <row r="91" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="186"/>
-      <c r="B91" s="174"/>
+      <c r="A91" s="185"/>
+      <c r="B91" s="173"/>
     </row>
     <row r="92" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="186"/>
-      <c r="B92" s="174"/>
+      <c r="A92" s="185"/>
+      <c r="B92" s="173"/>
     </row>
     <row r="93" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="186"/>
-      <c r="B93" s="174"/>
+      <c r="A93" s="185"/>
+      <c r="B93" s="173"/>
     </row>
     <row r="94" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="186"/>
-      <c r="B94" s="174"/>
+      <c r="A94" s="185"/>
+      <c r="B94" s="173"/>
     </row>
     <row r="95" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="186"/>
-      <c r="B95" s="174"/>
+      <c r="A95" s="185"/>
+      <c r="B95" s="173"/>
     </row>
     <row r="96" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="186"/>
-      <c r="B96" s="174"/>
+      <c r="A96" s="185"/>
+      <c r="B96" s="173"/>
     </row>
     <row r="97" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="186"/>
-      <c r="B97" s="174"/>
+      <c r="A97" s="185"/>
+      <c r="B97" s="173"/>
     </row>
     <row r="98" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="186"/>
-      <c r="B98" s="174"/>
+      <c r="A98" s="185"/>
+      <c r="B98" s="173"/>
     </row>
     <row r="99" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="186"/>
-      <c r="B99" s="174"/>
+      <c r="A99" s="185"/>
+      <c r="B99" s="173"/>
     </row>
     <row r="100" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="186"/>
-      <c r="B100" s="174"/>
+      <c r="A100" s="185"/>
+      <c r="B100" s="173"/>
     </row>
     <row r="101" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="186"/>
-      <c r="B101" s="174"/>
+      <c r="A101" s="185"/>
+      <c r="B101" s="173"/>
     </row>
     <row r="102" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="186"/>
-      <c r="B102" s="174"/>
+      <c r="A102" s="185"/>
+      <c r="B102" s="173"/>
     </row>
     <row r="103" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="186"/>
-      <c r="B103" s="174"/>
+      <c r="A103" s="185"/>
+      <c r="B103" s="173"/>
     </row>
     <row r="104" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="186"/>
-      <c r="B104" s="174"/>
+      <c r="A104" s="185"/>
+      <c r="B104" s="173"/>
     </row>
     <row r="105" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="186"/>
-      <c r="B105" s="174"/>
+      <c r="A105" s="185"/>
+      <c r="B105" s="173"/>
     </row>
     <row r="106" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="186"/>
-      <c r="B106" s="174"/>
+      <c r="A106" s="185"/>
+      <c r="B106" s="173"/>
     </row>
     <row r="107" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="186"/>
-      <c r="B107" s="174"/>
+      <c r="A107" s="185"/>
+      <c r="B107" s="173"/>
     </row>
     <row r="108" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="186"/>
-      <c r="B108" s="174"/>
+      <c r="A108" s="185"/>
+      <c r="B108" s="173"/>
     </row>
     <row r="109" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="186"/>
-      <c r="B109" s="174"/>
+      <c r="A109" s="185"/>
+      <c r="B109" s="173"/>
     </row>
     <row r="110" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="186"/>
-      <c r="B110" s="174"/>
+      <c r="A110" s="185"/>
+      <c r="B110" s="173"/>
     </row>
     <row r="111" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="186"/>
-      <c r="B111" s="174"/>
+      <c r="A111" s="185"/>
+      <c r="B111" s="173"/>
     </row>
     <row r="112" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="186"/>
-      <c r="B112" s="174"/>
+      <c r="A112" s="185"/>
+      <c r="B112" s="173"/>
     </row>
     <row r="113" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="186"/>
-      <c r="B113" s="174"/>
+      <c r="A113" s="185"/>
+      <c r="B113" s="173"/>
     </row>
     <row r="114" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="186"/>
-      <c r="B114" s="174"/>
+      <c r="A114" s="185"/>
+      <c r="B114" s="173"/>
     </row>
     <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="186"/>
-      <c r="B115" s="174"/>
+      <c r="A115" s="185"/>
+      <c r="B115" s="173"/>
     </row>
     <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="186"/>
-      <c r="B116" s="174"/>
+      <c r="A116" s="185"/>
+      <c r="B116" s="173"/>
     </row>
     <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="187"/>
-      <c r="B117" s="174"/>
+      <c r="A117" s="186"/>
+      <c r="B117" s="173"/>
     </row>
     <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="188"/>
-      <c r="B118" s="174"/>
+      <c r="A118" s="187"/>
+      <c r="B118" s="173"/>
     </row>
     <row r="119" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="188"/>
-      <c r="B119" s="174"/>
+      <c r="A119" s="187"/>
+      <c r="B119" s="173"/>
     </row>
     <row r="120" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="188"/>
-      <c r="B120" s="174"/>
+      <c r="A120" s="187"/>
+      <c r="B120" s="173"/>
     </row>
     <row r="121" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="188"/>
-      <c r="B121" s="174"/>
+      <c r="A121" s="187"/>
+      <c r="B121" s="173"/>
     </row>
     <row r="122" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="188"/>
-      <c r="B122" s="174"/>
+      <c r="A122" s="187"/>
+      <c r="B122" s="173"/>
     </row>
     <row r="123" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="188"/>
-      <c r="B123" s="174"/>
+      <c r="A123" s="187"/>
+      <c r="B123" s="173"/>
     </row>
     <row r="124" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="188"/>
-      <c r="B124" s="174"/>
+      <c r="A124" s="187"/>
+      <c r="B124" s="173"/>
     </row>
     <row r="125" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="188"/>
-      <c r="B125" s="174"/>
+      <c r="A125" s="187"/>
+      <c r="B125" s="173"/>
     </row>
     <row r="126" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="188"/>
-      <c r="B126" s="174"/>
+      <c r="A126" s="187"/>
+      <c r="B126" s="173"/>
     </row>
     <row r="127" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="188"/>
-      <c r="B127" s="174"/>
+      <c r="A127" s="187"/>
+      <c r="B127" s="173"/>
     </row>
     <row r="128" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="188"/>
-      <c r="B128" s="174"/>
+      <c r="A128" s="187"/>
+      <c r="B128" s="173"/>
     </row>
     <row r="129" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="188"/>
-      <c r="B129" s="174"/>
+      <c r="A129" s="187"/>
+      <c r="B129" s="173"/>
     </row>
     <row r="130" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="188"/>
-      <c r="B130" s="174"/>
+      <c r="A130" s="187"/>
+      <c r="B130" s="173"/>
     </row>
     <row r="131" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="188"/>
-      <c r="B131" s="174"/>
+      <c r="A131" s="187"/>
+      <c r="B131" s="173"/>
     </row>
     <row r="132" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="188"/>
-      <c r="B132" s="174"/>
+      <c r="A132" s="187"/>
+      <c r="B132" s="173"/>
     </row>
     <row r="133" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="188"/>
-      <c r="B133" s="174"/>
+      <c r="A133" s="187"/>
+      <c r="B133" s="173"/>
     </row>
     <row r="134" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="188"/>
-      <c r="B134" s="174"/>
+      <c r="A134" s="187"/>
+      <c r="B134" s="173"/>
     </row>
     <row r="135" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="188"/>
-      <c r="B135" s="174"/>
+      <c r="A135" s="187"/>
+      <c r="B135" s="173"/>
     </row>
     <row r="136" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="188"/>
-      <c r="B136" s="174"/>
+      <c r="A136" s="187"/>
+      <c r="B136" s="173"/>
     </row>
     <row r="137" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="188"/>
-      <c r="B137" s="174"/>
+      <c r="A137" s="187"/>
+      <c r="B137" s="173"/>
     </row>
     <row r="138" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="188"/>
-      <c r="B138" s="174"/>
+      <c r="A138" s="187"/>
+      <c r="B138" s="173"/>
     </row>
     <row r="139" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="188"/>
-      <c r="B139" s="174"/>
+      <c r="A139" s="187"/>
+      <c r="B139" s="173"/>
     </row>
     <row r="140" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="188"/>
-      <c r="B140" s="174"/>
+      <c r="A140" s="187"/>
+      <c r="B140" s="173"/>
     </row>
     <row r="141" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="188"/>
-      <c r="B141" s="174"/>
+      <c r="A141" s="187"/>
+      <c r="B141" s="173"/>
     </row>
     <row r="142" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="188"/>
-      <c r="B142" s="174"/>
+      <c r="A142" s="187"/>
+      <c r="B142" s="173"/>
     </row>
     <row r="143" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="188"/>
-      <c r="B143" s="174"/>
+      <c r="A143" s="187"/>
+      <c r="B143" s="173"/>
     </row>
     <row r="144" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="188"/>
-      <c r="B144" s="174"/>
+      <c r="A144" s="187"/>
+      <c r="B144" s="173"/>
     </row>
     <row r="145" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="188"/>
-      <c r="B145" s="174"/>
+      <c r="A145" s="187"/>
+      <c r="B145" s="173"/>
     </row>
     <row r="146" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="188"/>
-      <c r="B146" s="174"/>
+      <c r="A146" s="187"/>
+      <c r="B146" s="173"/>
     </row>
     <row r="147" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="188"/>
-      <c r="B147" s="174"/>
+      <c r="A147" s="187"/>
+      <c r="B147" s="173"/>
     </row>
     <row r="148" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="188"/>
-      <c r="B148" s="174"/>
+      <c r="A148" s="187"/>
+      <c r="B148" s="173"/>
     </row>
     <row r="149" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="188"/>
-      <c r="B149" s="174"/>
+      <c r="A149" s="187"/>
+      <c r="B149" s="173"/>
     </row>
     <row r="150" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="188"/>
-      <c r="B150" s="174"/>
+      <c r="A150" s="187"/>
+      <c r="B150" s="173"/>
     </row>
     <row r="151" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="188"/>
-      <c r="B151" s="174"/>
+      <c r="A151" s="187"/>
+      <c r="B151" s="173"/>
     </row>
     <row r="152" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="188"/>
-      <c r="B152" s="174"/>
+      <c r="A152" s="187"/>
+      <c r="B152" s="173"/>
     </row>
     <row r="153" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="188"/>
-      <c r="B153" s="174"/>
+      <c r="A153" s="187"/>
+      <c r="B153" s="173"/>
     </row>
     <row r="154" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="188"/>
-      <c r="B154" s="174"/>
+      <c r="A154" s="187"/>
+      <c r="B154" s="173"/>
     </row>
     <row r="155" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="188"/>
-      <c r="B155" s="174"/>
+      <c r="A155" s="187"/>
+      <c r="B155" s="173"/>
     </row>
     <row r="156" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="188"/>
-      <c r="B156" s="174"/>
+      <c r="A156" s="187"/>
+      <c r="B156" s="173"/>
     </row>
     <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="188"/>
-      <c r="B157" s="174"/>
+      <c r="A157" s="187"/>
+      <c r="B157" s="173"/>
     </row>
     <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="188"/>
-      <c r="B158" s="174"/>
+      <c r="A158" s="187"/>
+      <c r="B158" s="173"/>
     </row>
     <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="188"/>
-      <c r="B159" s="174"/>
+      <c r="A159" s="187"/>
+      <c r="B159" s="173"/>
     </row>
     <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="189"/>
-      <c r="B160" s="173"/>
+      <c r="A160" s="188"/>
+      <c r="B160" s="172"/>
     </row>
     <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="155"/>
-      <c r="B161" s="173"/>
+      <c r="A161" s="154"/>
+      <c r="B161" s="172"/>
     </row>
     <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="156"/>
-      <c r="B162" s="173"/>
+      <c r="A162" s="155"/>
+      <c r="B162" s="172"/>
     </row>
     <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="156"/>
-      <c r="B163" s="173"/>
+      <c r="A163" s="155"/>
+      <c r="B163" s="172"/>
     </row>
     <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="156"/>
-      <c r="B164" s="173"/>
+      <c r="A164" s="155"/>
+      <c r="B164" s="172"/>
     </row>
     <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="157"/>
-      <c r="B165" s="173"/>
+      <c r="A165" s="156"/>
+      <c r="B165" s="172"/>
     </row>
     <row r="166" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="157"/>
-      <c r="B166" s="173"/>
+      <c r="A166" s="156"/>
+      <c r="B166" s="172"/>
     </row>
     <row r="167" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="157"/>
-      <c r="B167" s="173"/>
+      <c r="A167" s="156"/>
+      <c r="B167" s="172"/>
     </row>
     <row r="168" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="157"/>
-      <c r="B168" s="173"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="172"/>
     </row>
     <row r="169" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="157"/>
-      <c r="B169" s="173"/>
+      <c r="A169" s="156"/>
+      <c r="B169" s="172"/>
     </row>
     <row r="170" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="157"/>
-      <c r="B170" s="173"/>
+      <c r="A170" s="156"/>
+      <c r="B170" s="172"/>
     </row>
     <row r="171" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="157"/>
-      <c r="B171" s="173"/>
+      <c r="A171" s="156"/>
+      <c r="B171" s="172"/>
     </row>
     <row r="172" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="157"/>
-      <c r="B172" s="173"/>
+      <c r="A172" s="156"/>
+      <c r="B172" s="172"/>
     </row>
     <row r="173" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="157"/>
-      <c r="B173" s="173"/>
+      <c r="A173" s="156"/>
+      <c r="B173" s="172"/>
     </row>
     <row r="174" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="157"/>
-      <c r="B174" s="173"/>
+      <c r="A174" s="156"/>
+      <c r="B174" s="172"/>
     </row>
     <row r="175" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="157"/>
-      <c r="B175" s="173"/>
+      <c r="A175" s="156"/>
+      <c r="B175" s="172"/>
     </row>
     <row r="176" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="157"/>
-      <c r="B176" s="173"/>
+      <c r="A176" s="156"/>
+      <c r="B176" s="172"/>
     </row>
     <row r="177" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="157"/>
-      <c r="B177" s="173"/>
+      <c r="A177" s="156"/>
+      <c r="B177" s="172"/>
     </row>
     <row r="178" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="157"/>
-      <c r="B178" s="173"/>
+      <c r="A178" s="156"/>
+      <c r="B178" s="172"/>
     </row>
     <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="157"/>
-      <c r="B179" s="173"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="172"/>
     </row>
     <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="157"/>
-      <c r="B180" s="173"/>
+      <c r="A180" s="156"/>
+      <c r="B180" s="172"/>
     </row>
     <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="156"/>
-      <c r="B181" s="173"/>
+      <c r="A181" s="155"/>
+      <c r="B181" s="172"/>
     </row>
     <row r="182" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="156"/>
-      <c r="B182" s="173"/>
+      <c r="A182" s="155"/>
+      <c r="B182" s="172"/>
     </row>
     <row r="183" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="156"/>
-      <c r="B183" s="173"/>
+      <c r="A183" s="155"/>
+      <c r="B183" s="172"/>
     </row>
     <row r="184" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="156"/>
-      <c r="B184" s="173"/>
+      <c r="A184" s="155"/>
+      <c r="B184" s="172"/>
     </row>
     <row r="185" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="156"/>
-      <c r="B185" s="173"/>
+      <c r="A185" s="155"/>
+      <c r="B185" s="172"/>
     </row>
     <row r="186" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="156"/>
-      <c r="B186" s="173"/>
+      <c r="A186" s="155"/>
+      <c r="B186" s="172"/>
     </row>
     <row r="187" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="156"/>
-      <c r="B187" s="173"/>
+      <c r="A187" s="155"/>
+      <c r="B187" s="172"/>
     </row>
     <row r="188" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="156"/>
-      <c r="B188" s="173"/>
+      <c r="A188" s="155"/>
+      <c r="B188" s="172"/>
     </row>
     <row r="189" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="156"/>
-      <c r="B189" s="173"/>
+      <c r="A189" s="155"/>
+      <c r="B189" s="172"/>
     </row>
     <row r="190" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="156"/>
-      <c r="B190" s="173"/>
+      <c r="A190" s="155"/>
+      <c r="B190" s="172"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="158"/>
+      <c r="A191" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C10:C19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A5:B5"/>
@@ -7765,6 +7772,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="L73 K77:K78 K80 J76 L81:L83 L13:L20 L22:L53 K74:K75 L58:L71">
     <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
@@ -8022,7 +8030,7 @@
   <dimension ref="C6:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:M30"/>
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8032,15 +8040,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="112"/>
-      <c r="D6" s="308" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="309"/>
+      <c r="E6" s="310"/>
     </row>
     <row r="7" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="112"/>
-      <c r="D7" s="287" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="286" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="34">
@@ -8048,7 +8056,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="112"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
@@ -8057,7 +8065,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="112"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
@@ -8067,7 +8075,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="115"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
@@ -8077,7 +8085,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="112"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
@@ -8086,140 +8094,140 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="6:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="310" t="s">
+    <row r="17" spans="6:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="6:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="311" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="312"/>
+      <c r="G18" s="312"/>
+      <c r="H18" s="312"/>
+      <c r="I18" s="312"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="312"/>
+      <c r="L18" s="312"/>
+      <c r="M18" s="313"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="313" t="s">
+      <c r="F19" s="314" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="314"/>
-      <c r="H19" s="314"/>
-      <c r="I19" s="314"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="314"/>
-      <c r="M19" s="315"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="315"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="315"/>
+      <c r="M19" s="316"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="316"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="317"/>
-      <c r="L20" s="317"/>
-      <c r="M20" s="318"/>
+      <c r="F20" s="317"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
+      <c r="J20" s="318"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="318"/>
+      <c r="M20" s="319"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="316"/>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="317"/>
-      <c r="L21" s="317"/>
-      <c r="M21" s="318"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="318"/>
+      <c r="J21" s="318"/>
+      <c r="K21" s="318"/>
+      <c r="L21" s="318"/>
+      <c r="M21" s="319"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="316"/>
-      <c r="G22" s="317"/>
-      <c r="H22" s="317"/>
-      <c r="I22" s="317"/>
-      <c r="J22" s="317"/>
-      <c r="K22" s="317"/>
-      <c r="L22" s="317"/>
-      <c r="M22" s="318"/>
+      <c r="F22" s="317"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="318"/>
+      <c r="J22" s="318"/>
+      <c r="K22" s="318"/>
+      <c r="L22" s="318"/>
+      <c r="M22" s="319"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="316"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="317"/>
-      <c r="K23" s="317"/>
-      <c r="L23" s="317"/>
-      <c r="M23" s="318"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="318"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="319"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="316"/>
-      <c r="G24" s="317"/>
-      <c r="H24" s="317"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
-      <c r="M24" s="318"/>
+      <c r="F24" s="317"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
+      <c r="K24" s="318"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="319"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="316"/>
-      <c r="G25" s="317"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="318"/>
+      <c r="F25" s="317"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="318"/>
+      <c r="K25" s="318"/>
+      <c r="L25" s="318"/>
+      <c r="M25" s="319"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="316"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="318"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="318"/>
+      <c r="J26" s="318"/>
+      <c r="K26" s="318"/>
+      <c r="L26" s="318"/>
+      <c r="M26" s="319"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="316"/>
-      <c r="G27" s="317"/>
-      <c r="H27" s="317"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="317"/>
-      <c r="L27" s="317"/>
-      <c r="M27" s="318"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="318"/>
+      <c r="I27" s="318"/>
+      <c r="J27" s="318"/>
+      <c r="K27" s="318"/>
+      <c r="L27" s="318"/>
+      <c r="M27" s="319"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="316"/>
-      <c r="G28" s="317"/>
-      <c r="H28" s="317"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="317"/>
-      <c r="K28" s="317"/>
-      <c r="L28" s="317"/>
-      <c r="M28" s="318"/>
+      <c r="F28" s="317"/>
+      <c r="G28" s="318"/>
+      <c r="H28" s="318"/>
+      <c r="I28" s="318"/>
+      <c r="J28" s="318"/>
+      <c r="K28" s="318"/>
+      <c r="L28" s="318"/>
+      <c r="M28" s="319"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="316"/>
-      <c r="G29" s="317"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="317"/>
-      <c r="L29" s="317"/>
-      <c r="M29" s="318"/>
+      <c r="F29" s="317"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="318"/>
+      <c r="K29" s="318"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="319"/>
     </row>
     <row r="30" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="319"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="320"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="321"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="321"/>
+      <c r="K30" s="321"/>
+      <c r="L30" s="321"/>
+      <c r="M30" s="322"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestCase_evaly.xlsx
+++ b/TestCase_evaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6114dc348a9fa98/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D836051E-788A-444E-AB43-D03D5B99403C}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{41010D70-76A5-48BC-8D8F-2DD4D5D2B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC807496-D9CA-4990-898A-E5E5E0C4C04D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{77623B9D-BA37-48BF-8D5C-054253C4DAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind_Mapping" sheetId="2" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1272,6 +1272,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -1413,7 +1421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1610,41 +1618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1817,19 +1790,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -1918,17 +1878,6 @@
         <color theme="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2031,49 +1980,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2274,7 +2180,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2354,16 +2260,13 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,7 +2275,7 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,7 +2296,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,7 +2311,7 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2417,85 +2320,85 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,7 +2419,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2540,13 +2443,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2555,7 +2458,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2564,22 +2467,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,15 +2485,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2630,7 +2518,7 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2639,13 +2527,13 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2654,25 +2542,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2690,7 +2578,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2699,7 +2587,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2708,76 +2596,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2786,76 +2641,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2870,34 +2707,34 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2915,130 +2752,124 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,19 +2881,19 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3086,31 +2917,31 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3119,7 +2950,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3130,43 +2961,40 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3202,41 +3030,104 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4604,16 +4495,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>550843</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137711</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>22951</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>153012</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22952</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,14 +4527,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4460301" y="979277"/>
-          <a:ext cx="10641987" cy="4559759"/>
+          <a:off x="1124638" y="520241"/>
+          <a:ext cx="10626687" cy="4184879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4709,6 +4599,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5011,14 +4905,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659A000-3FEE-48B9-AF13-C43BCA0A1F0C}">
   <dimension ref="G11:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="11" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="285" t="s">
+      <c r="G11" s="260" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5036,38 +4930,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDB474-22B0-441C-A58C-3A41055B7993}">
-  <dimension ref="A1:Q191"/>
+  <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="108"/>
-    <col min="2" max="2" width="13.8984375" style="108" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="108" customWidth="1"/>
-    <col min="4" max="4" width="15" style="108" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="108" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="108" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="108" customWidth="1"/>
-    <col min="8" max="8" width="14" style="108" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="108" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="108" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="108" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="108" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" style="108" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="108"/>
-    <col min="15" max="15" width="23.59765625" style="108" customWidth="1"/>
-    <col min="16" max="16" width="11.8984375" style="108" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="108"/>
+    <col min="1" max="1" width="8.796875" style="102"/>
+    <col min="2" max="2" width="13.8984375" style="102" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="15" style="102" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="102" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="102" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="102" customWidth="1"/>
+    <col min="8" max="8" width="14" style="102" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="102" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="102" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="102" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="102" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" style="102" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="102"/>
+    <col min="15" max="15" width="23.59765625" style="102" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="102" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="303"/>
+      <c r="B1" s="277"/>
       <c r="C1" s="23" t="s">
         <v>216</v>
       </c>
@@ -5080,173 +4974,173 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="258" t="s">
+      <c r="G1" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="300" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="301"/>
-      <c r="O1" s="287" t="s">
+      <c r="M1" s="275"/>
+      <c r="O1" s="262" t="s">
         <v>227</v>
       </c>
-      <c r="P1" s="288"/>
+      <c r="P1" s="263"/>
     </row>
     <row r="2" spans="1:17" ht="54.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="281" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="277"/>
+      <c r="C2" s="30" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="257" t="s">
+      <c r="E2" s="232" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="308" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="317" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="33">
         <f>COUNTIF(L8:L71, "Passed")</f>
         <v>42</v>
       </c>
-      <c r="O2" s="289" t="s">
+      <c r="O2" s="264" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="290"/>
+      <c r="P2" s="265"/>
     </row>
     <row r="3" spans="1:17" ht="26.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="303"/>
+      <c r="B3" s="277"/>
       <c r="C3" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="106" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="308"/>
-      <c r="K3" s="111"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="282"/>
+      <c r="K3" s="105"/>
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="33">
         <f>COUNTIF(L8:L369, "Failed")</f>
         <v>14</v>
       </c>
-      <c r="O3" s="289" t="s">
+      <c r="O3" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="P3" s="291"/>
+      <c r="P3" s="266"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="303"/>
+      <c r="B4" s="277"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="106" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="295"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <f>COUNTIF(L7:L373, "Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="289" t="s">
+      <c r="O4" s="264" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="292"/>
+      <c r="P4" s="267"/>
     </row>
     <row r="5" spans="1:17" ht="27.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="303"/>
-      <c r="C5" s="304" t="s">
+      <c r="B5" s="277"/>
+      <c r="C5" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="34">
         <f>COUNTIF(L7:L373, "Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="289" t="s">
+      <c r="O5" s="264" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="292"/>
+      <c r="P5" s="267"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="110"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <f>SUM(M2:M5)</f>
         <v>56</v>
       </c>
-      <c r="O6" s="288"/>
-      <c r="P6" s="293"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="268"/>
     </row>
     <row r="7" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -5279,7 +5173,7 @@
       <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="267" t="s">
+      <c r="K7" s="242" t="s">
         <v>232</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -5288,13 +5182,13 @@
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="265"/>
+      <c r="Q7" s="240"/>
     </row>
     <row r="8" spans="1:17" ht="116" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="176">
+      <c r="A8" s="157">
         <v>1</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
@@ -5308,26 +5202,26 @@
       <c r="G8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="I8" s="110" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="109" t="s">
+      <c r="L8" s="103" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="265"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="240"/>
     </row>
     <row r="9" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="259"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -5336,56 +5230,56 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="203.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="178">
+      <c r="A10" s="159">
         <v>2</v>
       </c>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="166" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="296" t="s">
+      <c r="C10" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="268" t="s">
+      <c r="K10" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="178">
+      <c r="A11" s="159">
         <v>3</v>
       </c>
-      <c r="B11" s="190"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="37" t="s">
+      <c r="B11" s="167"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -5397,24 +5291,24 @@
       <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>102</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="178">
+      <c r="A12" s="159">
         <v>4</v>
       </c>
-      <c r="B12" s="190"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="B12" s="167"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -5426,363 +5320,363 @@
       <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="268" t="s">
+      <c r="K12" s="243" t="s">
         <v>234</v>
       </c>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="118"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:17" ht="73" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="178">
+      <c r="A13" s="159">
         <v>5</v>
       </c>
-      <c r="B13" s="190"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="167"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="268" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="117" t="s">
+      <c r="L13" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="118"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:17" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="178">
+      <c r="A14" s="159">
         <v>6</v>
       </c>
-      <c r="B14" s="190"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="167"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="42" t="s">
         <v>162</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="269" t="s">
+      <c r="K14" s="244" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="117" t="s">
+      <c r="L14" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="118"/>
+      <c r="M14" s="112"/>
     </row>
     <row r="15" spans="1:17" ht="176.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="179">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="168"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="121"/>
+      <c r="M15" s="115"/>
     </row>
     <row r="16" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="180"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="126"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
     </row>
     <row r="17" spans="1:15" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="179">
+      <c r="A17" s="160">
         <v>8</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="168"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="129"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
     </row>
     <row r="18" spans="1:15" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="179">
+      <c r="A18" s="160">
         <v>9</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="297"/>
-      <c r="E18" s="59" t="s">
+      <c r="B18" s="167"/>
+      <c r="C18" s="271"/>
+      <c r="E18" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="130" t="s">
+      <c r="J18" s="61"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="120.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63">
+      <c r="A19" s="62">
         <v>10</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65" t="s">
+      <c r="B19" s="167"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="132" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="120"/>
     </row>
     <row r="20" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="181">
+      <c r="A20" s="162">
         <v>11</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70" t="s">
+      <c r="B20" s="167"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="134" t="s">
+      <c r="J20" s="73"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="135"/>
-      <c r="O20" s="126"/>
+      <c r="M20" s="129"/>
+      <c r="O20" s="120"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="182"/>
-      <c r="B21" s="214"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="213"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="190"/>
     </row>
     <row r="22" spans="1:15" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="183">
+      <c r="A22" s="164">
         <v>12</v>
       </c>
-      <c r="B22" s="190"/>
-      <c r="C22" s="153" t="s">
+      <c r="B22" s="167"/>
+      <c r="C22" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="163" t="s">
+      <c r="D22" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="74" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="75" t="s">
         <v>108</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="104" t="s">
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="183">
+      <c r="A23" s="164">
         <v>13</v>
       </c>
-      <c r="B23" s="190"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="75" t="s">
+      <c r="B23" s="167"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="75" t="s">
         <v>111</v>
       </c>
       <c r="J23" s="21"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="104" t="s">
+      <c r="K23" s="77"/>
+      <c r="L23" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="183">
+      <c r="A24" s="164">
         <v>14</v>
       </c>
-      <c r="B24" s="190"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="75" t="s">
+      <c r="B24" s="167"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="74" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="270" t="s">
+      <c r="K24" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="183">
+      <c r="A25" s="164">
         <v>15</v>
       </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="75" t="s">
+      <c r="B25" s="167"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="74" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -5791,58 +5685,58 @@
       <c r="G25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="76" t="s">
+      <c r="H25" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="270" t="s">
+      <c r="K25" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="104" t="s">
+      <c r="L25" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="183">
+      <c r="A26" s="164">
         <v>16</v>
       </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="75" t="s">
+      <c r="B26" s="167"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="75" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="21"/>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="104" t="s">
+      <c r="J26" s="81"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="183">
+      <c r="A27" s="164">
         <v>17</v>
       </c>
-      <c r="B27" s="190"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="83" t="s">
+      <c r="B27" s="167"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="82" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -5854,24 +5748,24 @@
       <c r="H27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="104" t="s">
+      <c r="J27" s="83"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="183">
+      <c r="A28" s="164">
         <v>18</v>
       </c>
-      <c r="B28" s="190"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="83" t="s">
+      <c r="B28" s="167"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="82" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -5883,28 +5777,28 @@
       <c r="H28" s="21">
         <v>162987</v>
       </c>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="81" t="s">
+      <c r="J28" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="270" t="s">
+      <c r="K28" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L28" s="104" t="s">
+      <c r="L28" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="183">
+      <c r="A29" s="164">
         <v>19</v>
       </c>
-      <c r="B29" s="190"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="83" t="s">
+      <c r="B29" s="167"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="82" t="s">
         <v>129</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -5919,25 +5813,25 @@
       <c r="I29" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="79" t="s">
+      <c r="J29" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="270" t="s">
+      <c r="K29" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="L29" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="183">
+      <c r="A30" s="164">
         <v>20</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="83" t="s">
+      <c r="B30" s="167"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="82" t="s">
         <v>130</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -5953,20 +5847,20 @@
         <v>126</v>
       </c>
       <c r="J30" s="21"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="104" t="s">
+      <c r="K30" s="77"/>
+      <c r="L30" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="183">
+      <c r="A31" s="164">
         <v>21</v>
       </c>
-      <c r="B31" s="190"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="83" t="s">
+      <c r="B31" s="167"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="82" t="s">
         <v>131</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -5981,25 +5875,25 @@
       <c r="I31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="224" t="s">
+      <c r="J31" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="270" t="s">
+      <c r="K31" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L31" s="104" t="s">
+      <c r="L31" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:15" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="183">
+      <c r="A32" s="164">
         <v>22</v>
       </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="83" t="s">
+      <c r="B32" s="167"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="82" t="s">
         <v>134</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -6014,21 +5908,21 @@
       <c r="I32" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="223"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="104" t="s">
+      <c r="J32" s="198"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183">
+      <c r="A33" s="164">
         <v>23</v>
       </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="83" t="s">
+      <c r="B33" s="167"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="82" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -6037,27 +5931,27 @@
       <c r="G33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="86" t="s">
         <v>136</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="104" t="s">
+      <c r="L33" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="183">
+      <c r="A34" s="164">
         <v>24</v>
       </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="83" t="s">
+      <c r="B34" s="167"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="82" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -6066,27 +5960,27 @@
       <c r="G34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="88" t="s">
+      <c r="H34" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="87" t="s">
+      <c r="I34" s="86" t="s">
         <v>138</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="104" t="s">
+      <c r="L34" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="183">
+      <c r="A35" s="164">
         <v>25</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="83" t="s">
+      <c r="B35" s="167"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="82" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -6095,27 +5989,27 @@
       <c r="G35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="88" t="s">
+      <c r="H35" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="87" t="s">
+      <c r="I35" s="86" t="s">
         <v>139</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="104" t="s">
+      <c r="L35" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="183">
+      <c r="A36" s="164">
         <v>26</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="43" t="s">
+      <c r="B36" s="167"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -6124,27 +6018,27 @@
       <c r="G36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="88" t="s">
+      <c r="H36" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="87" t="s">
+      <c r="I36" s="86" t="s">
         <v>141</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="104" t="s">
+      <c r="L36" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="104"/>
+      <c r="M36" s="101"/>
     </row>
     <row r="37" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="183">
+      <c r="A37" s="164">
         <v>27</v>
       </c>
-      <c r="B37" s="190"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="43" t="s">
+      <c r="B37" s="167"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="42" t="s">
         <v>144</v>
       </c>
       <c r="F37" s="13" t="s">
@@ -6156,24 +6050,24 @@
       <c r="H37" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="87" t="s">
+      <c r="I37" s="86" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="104" t="s">
+      <c r="L37" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="104"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="183">
+      <c r="A38" s="164">
         <v>28</v>
       </c>
-      <c r="B38" s="190"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="43" t="s">
+      <c r="B38" s="167"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="42" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -6185,24 +6079,24 @@
       <c r="H38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="I38" s="86" t="s">
         <v>146</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="104" t="s">
+      <c r="L38" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="104"/>
+      <c r="M38" s="101"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="183">
+      <c r="A39" s="164">
         <v>29</v>
       </c>
-      <c r="B39" s="190"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="43" t="s">
+      <c r="B39" s="167"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="42" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -6211,31 +6105,31 @@
       <c r="G39" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="88" t="str">
+      <c r="H39" s="87" t="str">
         <f>H43</f>
         <v>Full name: Anik Chakraborty
 Email: xolope8846@ahieh.com
 Password: A123456@
 Confirm Password: A123456@</v>
       </c>
-      <c r="I39" s="87" t="s">
+      <c r="I39" s="86" t="s">
         <v>148</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="104" t="s">
+      <c r="L39" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="104"/>
+      <c r="M39" s="101"/>
     </row>
     <row r="40" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="183">
+      <c r="A40" s="164">
         <v>30</v>
       </c>
-      <c r="B40" s="190"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="43" t="s">
+      <c r="B40" s="167"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="42" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -6244,27 +6138,27 @@
       <c r="G40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="87" t="s">
+      <c r="I40" s="86" t="s">
         <v>150</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="104" t="s">
+      <c r="L40" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="104"/>
+      <c r="M40" s="101"/>
     </row>
     <row r="41" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="183">
+      <c r="A41" s="164">
         <v>31</v>
       </c>
-      <c r="B41" s="190"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="43" t="s">
+      <c r="B41" s="167"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="42" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -6276,24 +6170,24 @@
       <c r="H41" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="87" t="s">
+      <c r="I41" s="86" t="s">
         <v>152</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="104" t="s">
+      <c r="L41" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="104"/>
+      <c r="M41" s="101"/>
     </row>
     <row r="42" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="183">
+      <c r="A42" s="164">
         <v>32</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="43" t="s">
+      <c r="B42" s="167"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="42" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -6302,29 +6196,29 @@
       <c r="G42" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="87" t="s">
+      <c r="H42" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="87" t="s">
+      <c r="I42" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="270" t="s">
+      <c r="J42" s="83"/>
+      <c r="K42" s="245" t="s">
         <v>234</v>
       </c>
-      <c r="L42" s="104" t="s">
+      <c r="L42" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="104"/>
+      <c r="M42" s="101"/>
     </row>
     <row r="43" spans="1:14" ht="174.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="183">
+      <c r="A43" s="164">
         <v>33</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="83" t="s">
+      <c r="B43" s="167"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="82" t="s">
         <v>72</v>
       </c>
       <c r="F43" s="21" t="s">
@@ -6333,27 +6227,27 @@
       <c r="G43" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="87" t="s">
+      <c r="H43" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="87" t="s">
+      <c r="I43" s="86" t="s">
         <v>161</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="104" t="s">
+      <c r="L43" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="104"/>
+      <c r="M43" s="101"/>
     </row>
     <row r="44" spans="1:14" ht="261.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="183">
+      <c r="A44" s="164">
         <v>34</v>
       </c>
-      <c r="B44" s="190"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="83" t="s">
+      <c r="B44" s="167"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="82" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -6362,27 +6256,27 @@
       <c r="G44" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="87" t="s">
+      <c r="H44" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="86" t="s">
         <v>164</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="104" t="s">
+      <c r="L44" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="104"/>
+      <c r="M44" s="101"/>
     </row>
     <row r="45" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="183">
+      <c r="A45" s="164">
         <v>35</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="83" t="s">
+      <c r="B45" s="167"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="82" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -6394,28 +6288,28 @@
       <c r="H45" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I45" s="87" t="s">
+      <c r="I45" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="J45" s="88" t="s">
+      <c r="J45" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="270" t="s">
+      <c r="K45" s="245" t="s">
         <v>234</v>
       </c>
-      <c r="L45" s="104" t="s">
+      <c r="L45" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="104"/>
+      <c r="M45" s="101"/>
     </row>
     <row r="46" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="183">
+      <c r="A46" s="164">
         <v>36</v>
       </c>
-      <c r="B46" s="190"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="75" t="s">
+      <c r="B46" s="167"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="74" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -6424,111 +6318,111 @@
       <c r="G46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="76" t="s">
+      <c r="H46" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="77" t="s">
+      <c r="I46" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="88" t="s">
+      <c r="J46" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="K46" s="270" t="s">
+      <c r="K46" s="245" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="104" t="s">
+      <c r="L46" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="104"/>
+      <c r="M46" s="101"/>
     </row>
     <row r="47" spans="1:14" ht="161.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="183">
+      <c r="A47" s="164">
         <v>37</v>
       </c>
-      <c r="B47" s="190"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="91" t="s">
+      <c r="B47" s="167"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="92" t="s">
+      <c r="F47" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="92" t="s">
+      <c r="G47" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="92" t="s">
+      <c r="H47" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="93" t="s">
+      <c r="I47" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="137" t="s">
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="138"/>
-      <c r="N47" s="84"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="83"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="199"/>
-      <c r="B48" s="192"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="206"/>
-      <c r="N48" s="140"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="180"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="181"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="181"/>
+      <c r="K48" s="181"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="134"/>
     </row>
     <row r="49" spans="1:16" ht="128" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="183">
+      <c r="A49" s="164">
         <v>38</v>
       </c>
-      <c r="B49" s="190"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="162" t="s">
+      <c r="B49" s="167"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="95" t="s">
+      <c r="F49" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="82" t="s">
+      <c r="G49" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="82" t="s">
+      <c r="H49" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="96" t="s">
+      <c r="I49" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="141" t="s">
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="142"/>
+      <c r="M49" s="136"/>
     </row>
     <row r="50" spans="1:16" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="183">
+      <c r="A50" s="164">
         <v>39</v>
       </c>
-      <c r="B50" s="190"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="97" t="s">
+      <c r="B50" s="167"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F50" s="82" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="21" t="s">
@@ -6537,24 +6431,24 @@
       <c r="H50" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="87" t="s">
+      <c r="I50" s="86" t="s">
         <v>236</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="104" t="s">
+      <c r="L50" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:16" ht="149.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="183">
+      <c r="A51" s="164">
         <v>40</v>
       </c>
-      <c r="B51" s="190"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="98" t="s">
+      <c r="B51" s="167"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="97" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -6563,28 +6457,28 @@
       <c r="G51" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="99" t="s">
+      <c r="H51" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="I51" s="77" t="s">
+      <c r="I51" s="76" t="s">
         <v>238</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="104" t="s">
+      <c r="L51" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="P51" s="126"/>
+      <c r="P51" s="120"/>
     </row>
     <row r="52" spans="1:16" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="183">
+      <c r="A52" s="164">
         <v>41</v>
       </c>
-      <c r="B52" s="190"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="83" t="s">
+      <c r="B52" s="167"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="82" t="s">
         <v>90</v>
       </c>
       <c r="F52" s="21" t="s">
@@ -6596,24 +6490,24 @@
       <c r="H52" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I52" s="87" t="s">
+      <c r="I52" s="86" t="s">
         <v>239</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="104" t="s">
+      <c r="L52" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:16" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="183">
+      <c r="A53" s="164">
         <v>42</v>
       </c>
-      <c r="B53" s="190"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="83" t="s">
+      <c r="B53" s="167"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="82" t="s">
         <v>91</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -6625,24 +6519,24 @@
       <c r="H53" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="87" t="s">
+      <c r="I53" s="86" t="s">
         <v>240</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="104" t="s">
+      <c r="L53" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:16" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="183">
+      <c r="A54" s="164">
         <v>43</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="100" t="s">
+      <c r="B54" s="167"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="99" t="s">
         <v>93</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -6654,26 +6548,26 @@
       <c r="H54" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="87" t="s">
+      <c r="I54" s="86" t="s">
         <v>241</v>
       </c>
       <c r="J54" s="21"/>
-      <c r="K54" s="270" t="s">
+      <c r="K54" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="L54" s="104" t="s">
+      <c r="L54" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:16" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="184">
+      <c r="A55" s="165">
         <v>44</v>
       </c>
-      <c r="B55" s="190"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="83" t="s">
+      <c r="B55" s="167"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="82" t="s">
         <v>175</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -6685,24 +6579,24 @@
       <c r="H55" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="87" t="s">
+      <c r="I55" s="86" t="s">
         <v>242</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
-      <c r="L55" s="104" t="s">
+      <c r="L55" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="248.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="183">
+      <c r="A56" s="164">
         <v>45</v>
       </c>
-      <c r="B56" s="190"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="83" t="s">
+      <c r="B56" s="167"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="82" t="s">
         <v>96</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -6714,24 +6608,24 @@
       <c r="H56" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="77" t="s">
+      <c r="I56" s="76" t="s">
         <v>243</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
-      <c r="L56" s="104" t="s">
+      <c r="L56" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="262" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="183">
+      <c r="A57" s="164">
         <v>46</v>
       </c>
-      <c r="B57" s="190"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="83" t="s">
+      <c r="B57" s="167"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="82" t="s">
         <v>176</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -6743,24 +6637,24 @@
       <c r="H57" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I57" s="87" t="s">
+      <c r="I57" s="86" t="s">
         <v>244</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
-      <c r="L57" s="104" t="s">
+      <c r="L57" s="101" t="s">
         <v>42</v>
       </c>
       <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:16" ht="271" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="183">
+      <c r="A58" s="164">
         <v>47</v>
       </c>
-      <c r="B58" s="190"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="83" t="s">
+      <c r="B58" s="167"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="82" t="s">
         <v>98</v>
       </c>
       <c r="F58" s="21" t="s">
@@ -6772,24 +6666,24 @@
       <c r="H58" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I58" s="87" t="s">
+      <c r="I58" s="86" t="s">
         <v>245</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
-      <c r="L58" s="104" t="s">
+      <c r="L58" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="104"/>
+      <c r="M58" s="101"/>
     </row>
     <row r="59" spans="1:16" ht="190.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="183">
+      <c r="A59" s="164">
         <v>48</v>
       </c>
-      <c r="B59" s="190"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="83" t="s">
+      <c r="B59" s="167"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="82" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -6801,28 +6695,28 @@
       <c r="H59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="87" t="s">
+      <c r="I59" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="J59" s="88" t="s">
+      <c r="J59" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="K59" s="270" t="s">
+      <c r="K59" s="245" t="s">
         <v>234</v>
       </c>
-      <c r="L59" s="104" t="s">
+      <c r="L59" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="104"/>
+      <c r="M59" s="101"/>
     </row>
     <row r="60" spans="1:16" ht="284" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="183">
+      <c r="A60" s="164">
         <v>49</v>
       </c>
-      <c r="B60" s="190"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="75" t="s">
+      <c r="B60" s="167"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="74" t="s">
         <v>76</v>
       </c>
       <c r="F60" s="21" t="s">
@@ -6831,47 +6725,47 @@
       <c r="G60" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="284" t="s">
+      <c r="H60" s="259" t="s">
         <v>249</v>
       </c>
-      <c r="I60" s="77" t="s">
+      <c r="I60" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="J60" s="283"/>
-      <c r="K60" s="270"/>
-      <c r="L60" s="104" t="s">
+      <c r="J60" s="258"/>
+      <c r="K60" s="245"/>
+      <c r="L60" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M60" s="104"/>
+      <c r="M60" s="101"/>
     </row>
     <row r="61" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="199"/>
-      <c r="B61" s="282"/>
-      <c r="C61" s="194"/>
-      <c r="D61" s="194"/>
-      <c r="E61" s="195"/>
-      <c r="F61" s="196"/>
-      <c r="G61" s="197"/>
-      <c r="H61" s="197"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="198"/>
-      <c r="L61" s="193"/>
-      <c r="M61" s="193"/>
-      <c r="N61" s="84"/>
+      <c r="A61" s="176"/>
+      <c r="B61" s="257"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="174"/>
+      <c r="H61" s="174"/>
+      <c r="I61" s="174"/>
+      <c r="J61" s="174"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="170"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="83"/>
     </row>
     <row r="62" spans="1:16" ht="228" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="183">
+      <c r="A62" s="164">
         <v>50</v>
       </c>
-      <c r="B62" s="190"/>
-      <c r="C62" s="167" t="s">
+      <c r="B62" s="167"/>
+      <c r="C62" s="150" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="171" t="s">
+      <c r="D62" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="83" t="s">
+      <c r="E62" s="82" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -6880,27 +6774,27 @@
       <c r="G62" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H62" s="90" t="s">
+      <c r="H62" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="I62" s="76" t="s">
+      <c r="I62" s="75" t="s">
         <v>168</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
-      <c r="L62" s="104" t="s">
+      <c r="L62" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="104"/>
+      <c r="M62" s="101"/>
     </row>
     <row r="63" spans="1:16" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="183">
+      <c r="A63" s="164">
         <v>51</v>
       </c>
-      <c r="B63" s="190"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="168" t="s">
+      <c r="B63" s="167"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="151" t="s">
         <v>80</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -6917,850 +6811,3438 @@
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
-      <c r="L63" s="104" t="s">
+      <c r="L63" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M63" s="104"/>
+      <c r="M63" s="101"/>
     </row>
     <row r="64" spans="1:16" ht="209.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="239">
+      <c r="A64" s="214">
         <v>52</v>
       </c>
-      <c r="B64" s="190"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="233"/>
-      <c r="E64" s="235" t="s">
+      <c r="B64" s="167"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="208"/>
+      <c r="E64" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="234" t="s">
+      <c r="F64" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="169" t="s">
+      <c r="G64" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="169" t="s">
+      <c r="H64" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="170" t="s">
+      <c r="I64" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="170"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="120" t="s">
+      <c r="J64" s="153"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="M64" s="120"/>
-      <c r="N64" s="84"/>
-    </row>
-    <row r="65" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="247"/>
-      <c r="B65" s="248"/>
-      <c r="C65" s="249"/>
-      <c r="D65" s="250"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="254"/>
-      <c r="G65" s="252"/>
-      <c r="H65" s="254"/>
-      <c r="I65" s="255"/>
-      <c r="J65" s="255"/>
-      <c r="K65" s="254"/>
-      <c r="L65" s="253"/>
-      <c r="M65" s="253"/>
-      <c r="N65" s="125"/>
-    </row>
-    <row r="66" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="240">
+      <c r="M64" s="114"/>
+      <c r="N64" s="83"/>
+    </row>
+    <row r="65" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="226"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="229"/>
+      <c r="I65" s="230"/>
+      <c r="J65" s="230"/>
+      <c r="K65" s="229"/>
+      <c r="L65" s="228"/>
+      <c r="M65" s="228"/>
+      <c r="N65" s="119"/>
+    </row>
+    <row r="66" spans="1:20" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="215">
         <v>53</v>
       </c>
-      <c r="B66" s="256" t="s">
+      <c r="B66" s="231" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="260" t="s">
+      <c r="C66" s="235" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="261" t="s">
+      <c r="D66" s="236" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="241" t="s">
+      <c r="E66" s="216" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="242" t="s">
+      <c r="F66" s="217" t="s">
         <v>212</v>
       </c>
-      <c r="G66" s="243" t="s">
+      <c r="G66" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="H66" s="243" t="s">
+      <c r="H66" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="244" t="s">
+      <c r="I66" s="219" t="s">
         <v>214</v>
       </c>
-      <c r="J66" s="245"/>
-      <c r="K66" s="243"/>
-      <c r="L66" s="246" t="s">
+      <c r="J66" s="220"/>
+      <c r="K66" s="218"/>
+      <c r="L66" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="M66" s="232"/>
-      <c r="N66" s="140"/>
-    </row>
-    <row r="67" spans="1:15" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="183">
+      <c r="M66" s="207"/>
+      <c r="N66" s="134"/>
+    </row>
+    <row r="67" spans="1:20" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="164">
         <v>54</v>
       </c>
-      <c r="B67" s="192"/>
-      <c r="C67" s="261" t="s">
+      <c r="B67" s="169"/>
+      <c r="C67" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="262" t="s">
+      <c r="D67" s="237" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="65" t="s">
+      <c r="E67" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="236" t="s">
+      <c r="F67" s="211" t="s">
         <v>206</v>
       </c>
-      <c r="G67" s="226" t="s">
+      <c r="G67" s="201" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="226" t="s">
+      <c r="H67" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="238" t="s">
+      <c r="I67" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="J67" s="237"/>
-      <c r="K67" s="226"/>
-      <c r="L67" s="232" t="s">
+      <c r="J67" s="212"/>
+      <c r="K67" s="201"/>
+      <c r="L67" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="232"/>
-      <c r="N67" s="84"/>
-    </row>
-    <row r="68" spans="1:15" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="183">
+      <c r="M67" s="207"/>
+      <c r="N67" s="83"/>
+    </row>
+    <row r="68" spans="1:20" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="164">
         <v>55</v>
       </c>
-      <c r="B68" s="256"/>
-      <c r="C68" s="261" t="s">
+      <c r="B68" s="231"/>
+      <c r="C68" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="261" t="s">
+      <c r="D68" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="65" t="s">
+      <c r="E68" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="226" t="s">
+      <c r="F68" s="201" t="s">
         <v>210</v>
       </c>
-      <c r="G68" s="226" t="s">
+      <c r="G68" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="230" t="s">
+      <c r="H68" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="263" t="s">
+      <c r="I68" s="238" t="s">
         <v>215</v>
       </c>
-      <c r="J68" s="238"/>
-      <c r="K68" s="236"/>
-      <c r="L68" s="231" t="s">
+      <c r="J68" s="213"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="232"/>
-      <c r="N68" s="84"/>
-    </row>
-    <row r="69" spans="1:15" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="183">
+      <c r="M68" s="207"/>
+      <c r="N68" s="83"/>
+    </row>
+    <row r="69" spans="1:20" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="164">
         <v>56</v>
       </c>
-      <c r="B69" s="225"/>
-      <c r="C69" s="273" t="s">
+      <c r="B69" s="200"/>
+      <c r="C69" s="248" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="273" t="s">
+      <c r="D69" s="248" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="274" t="s">
+      <c r="E69" s="249" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="274" t="s">
+      <c r="F69" s="249" t="s">
         <v>225</v>
       </c>
-      <c r="G69" s="274" t="s">
+      <c r="G69" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="275" t="s">
+      <c r="H69" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="276" t="s">
+      <c r="I69" s="251" t="s">
         <v>226</v>
       </c>
-      <c r="J69" s="277"/>
-      <c r="K69" s="278"/>
-      <c r="L69" s="279" t="s">
+      <c r="J69" s="252"/>
+      <c r="K69" s="253"/>
+      <c r="L69" s="254" t="s">
         <v>42</v>
       </c>
-      <c r="M69" s="132"/>
-      <c r="N69" s="280"/>
-      <c r="O69" s="281"/>
-    </row>
-    <row r="70" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="199"/>
-      <c r="B70" s="200"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="202"/>
-      <c r="G70" s="202"/>
-      <c r="H70" s="271"/>
-      <c r="I70" s="206"/>
-      <c r="J70" s="272"/>
-      <c r="K70" s="227"/>
-      <c r="L70" s="228"/>
-      <c r="M70" s="229"/>
-      <c r="N70" s="140"/>
-    </row>
-    <row r="71" spans="1:15" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="183">
+      <c r="M69" s="126"/>
+      <c r="N69" s="255"/>
+      <c r="O69" s="256"/>
+    </row>
+    <row r="70" spans="1:20" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="176"/>
+      <c r="B70" s="177"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="178"/>
+      <c r="F70" s="179"/>
+      <c r="G70" s="179"/>
+      <c r="H70" s="246"/>
+      <c r="I70" s="183"/>
+      <c r="J70" s="247"/>
+      <c r="K70" s="202"/>
+      <c r="L70" s="203"/>
+      <c r="M70" s="204"/>
+      <c r="N70" s="134"/>
+    </row>
+    <row r="71" spans="1:20" ht="6.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="164">
         <v>55</v>
       </c>
-      <c r="B71" s="175"/>
-      <c r="C71" s="160"/>
-      <c r="D71" s="166"/>
-      <c r="E71" s="217" t="s">
+      <c r="B71" s="156"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="141"/>
-      <c r="M71" s="141"/>
-    </row>
-    <row r="72" spans="1:15" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="183">
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="139"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
+    </row>
+    <row r="72" spans="1:20" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="164">
         <v>57</v>
       </c>
-      <c r="B72" s="175"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="174"/>
-      <c r="E72" s="218"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="194"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="104"/>
-    </row>
-    <row r="73" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="183">
+      <c r="L72" s="77"/>
+      <c r="M72" s="101"/>
+    </row>
+    <row r="73" spans="1:20" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="164">
         <v>58</v>
       </c>
-      <c r="B73" s="175"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="261"/>
-      <c r="E73" s="222"/>
-      <c r="F73" s="221"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="236"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="196"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="104"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="101"/>
       <c r="M73" s="22"/>
     </row>
-    <row r="74" spans="1:15" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="183">
+    <row r="74" spans="1:20" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="164">
         <v>58</v>
       </c>
-      <c r="B74" s="175"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="220"/>
-      <c r="E74" s="95"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="94"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="143"/>
-    </row>
-    <row r="75" spans="1:15" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="183">
+      <c r="K74" s="101"/>
+      <c r="L74" s="138"/>
+      <c r="M74" s="137"/>
+    </row>
+    <row r="75" spans="1:20" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="214">
         <v>59</v>
       </c>
-      <c r="B75" s="173"/>
-      <c r="C75" s="294"/>
-      <c r="D75" s="226"/>
-      <c r="E75" s="216"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="145"/>
-      <c r="M75" s="127"/>
-    </row>
-    <row r="76" spans="1:15" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="183">
+      <c r="B75" s="298"/>
+      <c r="C75" s="303"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="299"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="312"/>
+      <c r="M75" s="113"/>
+    </row>
+    <row r="76" spans="1:20" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="313">
         <v>60</v>
       </c>
-      <c r="B76" s="173"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-      <c r="M76" s="127"/>
-    </row>
-    <row r="77" spans="1:15" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="183"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="145"/>
-      <c r="M77" s="127"/>
-    </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="183"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="104"/>
-      <c r="L78" s="145"/>
-      <c r="M78" s="127"/>
-    </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="183"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="145"/>
-      <c r="M79" s="127"/>
-    </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="184"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="120"/>
-      <c r="L80" s="144"/>
-      <c r="M80" s="127"/>
-    </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="183"/>
-      <c r="B81" s="173"/>
-      <c r="C81" s="105"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="146"/>
-      <c r="L81" s="147"/>
-      <c r="M81" s="127"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="183"/>
-      <c r="B82" s="173"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="149"/>
-      <c r="L82" s="150"/>
-      <c r="M82" s="148"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="183"/>
-      <c r="B83" s="175"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="150"/>
-      <c r="M83" s="151"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="183"/>
-      <c r="B84" s="173"/>
-      <c r="M84" s="104"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="183"/>
-      <c r="B85" s="173"/>
-    </row>
-    <row r="86" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="185"/>
-      <c r="B86" s="173"/>
-    </row>
-    <row r="87" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="185"/>
-      <c r="B87" s="173"/>
-    </row>
-    <row r="88" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="185"/>
-      <c r="B88" s="173"/>
-    </row>
-    <row r="89" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="185"/>
-      <c r="B89" s="173"/>
-    </row>
-    <row r="90" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="185"/>
-      <c r="B90" s="173"/>
-    </row>
-    <row r="91" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="185"/>
-      <c r="B91" s="173"/>
-    </row>
-    <row r="92" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="185"/>
-      <c r="B92" s="173"/>
-    </row>
-    <row r="93" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="185"/>
-      <c r="B93" s="173"/>
-    </row>
-    <row r="94" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="185"/>
-      <c r="B94" s="173"/>
-    </row>
-    <row r="95" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="185"/>
-      <c r="B95" s="173"/>
-    </row>
-    <row r="96" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="185"/>
-      <c r="B96" s="173"/>
-    </row>
-    <row r="97" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="185"/>
-      <c r="B97" s="173"/>
-    </row>
-    <row r="98" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="185"/>
-      <c r="B98" s="173"/>
-    </row>
-    <row r="99" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="185"/>
-      <c r="B99" s="173"/>
-    </row>
-    <row r="100" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="185"/>
-      <c r="B100" s="173"/>
-    </row>
-    <row r="101" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="185"/>
-      <c r="B101" s="173"/>
-    </row>
-    <row r="102" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="185"/>
-      <c r="B102" s="173"/>
-    </row>
-    <row r="103" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="185"/>
-      <c r="B103" s="173"/>
-    </row>
-    <row r="104" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="185"/>
-      <c r="B104" s="173"/>
-    </row>
-    <row r="105" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="185"/>
-      <c r="B105" s="173"/>
-    </row>
-    <row r="106" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="185"/>
-      <c r="B106" s="173"/>
-    </row>
-    <row r="107" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="185"/>
-      <c r="B107" s="173"/>
-    </row>
-    <row r="108" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="185"/>
-      <c r="B108" s="173"/>
-    </row>
-    <row r="109" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="185"/>
-      <c r="B109" s="173"/>
-    </row>
-    <row r="110" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="185"/>
-      <c r="B110" s="173"/>
-    </row>
-    <row r="111" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="185"/>
-      <c r="B111" s="173"/>
-    </row>
-    <row r="112" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="185"/>
-      <c r="B112" s="173"/>
-    </row>
-    <row r="113" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="185"/>
-      <c r="B113" s="173"/>
-    </row>
-    <row r="114" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="185"/>
-      <c r="B114" s="173"/>
-    </row>
-    <row r="115" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="185"/>
-      <c r="B115" s="173"/>
-    </row>
-    <row r="116" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="185"/>
-      <c r="B116" s="173"/>
-    </row>
-    <row r="117" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="186"/>
-      <c r="B117" s="173"/>
-    </row>
-    <row r="118" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="187"/>
-      <c r="B118" s="173"/>
-    </row>
-    <row r="119" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="187"/>
-      <c r="B119" s="173"/>
-    </row>
-    <row r="120" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="187"/>
-      <c r="B120" s="173"/>
-    </row>
-    <row r="121" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="187"/>
-      <c r="B121" s="173"/>
-    </row>
-    <row r="122" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="187"/>
-      <c r="B122" s="173"/>
-    </row>
-    <row r="123" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="187"/>
-      <c r="B123" s="173"/>
-    </row>
-    <row r="124" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="187"/>
-      <c r="B124" s="173"/>
-    </row>
-    <row r="125" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="187"/>
-      <c r="B125" s="173"/>
-    </row>
-    <row r="126" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="187"/>
-      <c r="B126" s="173"/>
-    </row>
-    <row r="127" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="187"/>
-      <c r="B127" s="173"/>
-    </row>
-    <row r="128" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="187"/>
-      <c r="B128" s="173"/>
-    </row>
-    <row r="129" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="187"/>
-      <c r="B129" s="173"/>
-    </row>
-    <row r="130" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="187"/>
-      <c r="B130" s="173"/>
-    </row>
-    <row r="131" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="187"/>
-      <c r="B131" s="173"/>
-    </row>
-    <row r="132" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="187"/>
-      <c r="B132" s="173"/>
-    </row>
-    <row r="133" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="187"/>
-      <c r="B133" s="173"/>
-    </row>
-    <row r="134" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="187"/>
-      <c r="B134" s="173"/>
-    </row>
-    <row r="135" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="187"/>
-      <c r="B135" s="173"/>
-    </row>
-    <row r="136" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="187"/>
-      <c r="B136" s="173"/>
-    </row>
-    <row r="137" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="187"/>
-      <c r="B137" s="173"/>
-    </row>
-    <row r="138" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="187"/>
-      <c r="B138" s="173"/>
-    </row>
-    <row r="139" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="187"/>
-      <c r="B139" s="173"/>
-    </row>
-    <row r="140" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="187"/>
-      <c r="B140" s="173"/>
-    </row>
-    <row r="141" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="187"/>
-      <c r="B141" s="173"/>
-    </row>
-    <row r="142" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="187"/>
-      <c r="B142" s="173"/>
-    </row>
-    <row r="143" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="187"/>
-      <c r="B143" s="173"/>
-    </row>
-    <row r="144" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="187"/>
-      <c r="B144" s="173"/>
-    </row>
-    <row r="145" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="187"/>
-      <c r="B145" s="173"/>
-    </row>
-    <row r="146" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="187"/>
-      <c r="B146" s="173"/>
-    </row>
-    <row r="147" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="187"/>
-      <c r="B147" s="173"/>
-    </row>
-    <row r="148" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="187"/>
-      <c r="B148" s="173"/>
-    </row>
-    <row r="149" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="187"/>
-      <c r="B149" s="173"/>
-    </row>
-    <row r="150" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="187"/>
-      <c r="B150" s="173"/>
-    </row>
-    <row r="151" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="187"/>
-      <c r="B151" s="173"/>
-    </row>
-    <row r="152" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="187"/>
-      <c r="B152" s="173"/>
-    </row>
-    <row r="153" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="187"/>
-      <c r="B153" s="173"/>
-    </row>
-    <row r="154" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="187"/>
-      <c r="B154" s="173"/>
-    </row>
-    <row r="155" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="187"/>
-      <c r="B155" s="173"/>
-    </row>
-    <row r="156" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="187"/>
-      <c r="B156" s="173"/>
-    </row>
-    <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="187"/>
-      <c r="B157" s="173"/>
-    </row>
-    <row r="158" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="187"/>
-      <c r="B158" s="173"/>
-    </row>
-    <row r="159" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="187"/>
-      <c r="B159" s="173"/>
-    </row>
-    <row r="160" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="188"/>
-      <c r="B160" s="172"/>
-    </row>
-    <row r="161" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="154"/>
-      <c r="B161" s="172"/>
-    </row>
-    <row r="162" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="155"/>
-      <c r="B162" s="172"/>
-    </row>
-    <row r="163" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="155"/>
-      <c r="B163" s="172"/>
-    </row>
-    <row r="164" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="155"/>
-      <c r="B164" s="172"/>
-    </row>
-    <row r="165" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="156"/>
-      <c r="B165" s="172"/>
-    </row>
-    <row r="166" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="156"/>
-      <c r="B166" s="172"/>
-    </row>
-    <row r="167" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="156"/>
-      <c r="B167" s="172"/>
-    </row>
-    <row r="168" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="156"/>
-      <c r="B168" s="172"/>
-    </row>
-    <row r="169" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="156"/>
-      <c r="B169" s="172"/>
-    </row>
-    <row r="170" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="156"/>
-      <c r="B170" s="172"/>
-    </row>
-    <row r="171" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="156"/>
-      <c r="B171" s="172"/>
-    </row>
-    <row r="172" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="156"/>
-      <c r="B172" s="172"/>
-    </row>
-    <row r="173" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="156"/>
-      <c r="B173" s="172"/>
-    </row>
-    <row r="174" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="156"/>
-      <c r="B174" s="172"/>
-    </row>
-    <row r="175" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="156"/>
-      <c r="B175" s="172"/>
-    </row>
-    <row r="176" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="156"/>
-      <c r="B176" s="172"/>
-    </row>
-    <row r="177" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="156"/>
-      <c r="B177" s="172"/>
-    </row>
-    <row r="178" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="156"/>
-      <c r="B178" s="172"/>
-    </row>
-    <row r="179" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="156"/>
-      <c r="B179" s="172"/>
-    </row>
-    <row r="180" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="156"/>
-      <c r="B180" s="172"/>
-    </row>
-    <row r="181" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="155"/>
-      <c r="B181" s="172"/>
-    </row>
-    <row r="182" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="155"/>
-      <c r="B182" s="172"/>
-    </row>
-    <row r="183" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="155"/>
-      <c r="B183" s="172"/>
-    </row>
-    <row r="184" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="155"/>
-      <c r="B184" s="172"/>
-    </row>
-    <row r="185" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="155"/>
-      <c r="B185" s="172"/>
-    </row>
-    <row r="186" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="155"/>
-      <c r="B186" s="172"/>
-    </row>
-    <row r="187" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="155"/>
-      <c r="B187" s="172"/>
-    </row>
-    <row r="188" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="155"/>
-      <c r="B188" s="172"/>
-    </row>
-    <row r="189" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="155"/>
-      <c r="B189" s="172"/>
-    </row>
-    <row r="190" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="155"/>
-      <c r="B190" s="172"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="157"/>
+      <c r="B76" s="314"/>
+      <c r="C76" s="207"/>
+      <c r="D76" s="315"/>
+      <c r="E76" s="316"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
+      <c r="J76" s="207"/>
+      <c r="K76" s="207"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+    </row>
+    <row r="77" spans="1:20" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="300"/>
+      <c r="B77" s="301"/>
+      <c r="C77" s="302"/>
+      <c r="D77" s="303"/>
+      <c r="E77" s="304"/>
+      <c r="F77" s="304"/>
+      <c r="G77" s="304"/>
+      <c r="H77" s="304"/>
+      <c r="I77" s="304"/>
+      <c r="J77" s="305"/>
+      <c r="K77" s="302"/>
+      <c r="L77" s="302"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="120"/>
+      <c r="R77" s="120"/>
+      <c r="S77" s="120"/>
+      <c r="T77" s="120"/>
+    </row>
+    <row r="78" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="300"/>
+      <c r="B78" s="301"/>
+      <c r="C78" s="302"/>
+      <c r="D78" s="303"/>
+      <c r="E78" s="306"/>
+      <c r="F78" s="306"/>
+      <c r="G78" s="306"/>
+      <c r="H78" s="306"/>
+      <c r="I78" s="306"/>
+      <c r="J78" s="306"/>
+      <c r="K78" s="302"/>
+      <c r="L78" s="302"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
+      <c r="T78" s="120"/>
+    </row>
+    <row r="79" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="300"/>
+      <c r="B79" s="301"/>
+      <c r="C79" s="302"/>
+      <c r="D79" s="303"/>
+      <c r="E79" s="306"/>
+      <c r="F79" s="306"/>
+      <c r="G79" s="306"/>
+      <c r="H79" s="306"/>
+      <c r="I79" s="306"/>
+      <c r="J79" s="306"/>
+      <c r="K79" s="306"/>
+      <c r="L79" s="302"/>
+      <c r="M79" s="120"/>
+      <c r="N79" s="120"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="120"/>
+      <c r="Q79" s="120"/>
+      <c r="R79" s="120"/>
+      <c r="S79" s="120"/>
+      <c r="T79" s="120"/>
+    </row>
+    <row r="80" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="307"/>
+      <c r="B80" s="301"/>
+      <c r="C80" s="308"/>
+      <c r="D80" s="302"/>
+      <c r="E80" s="306"/>
+      <c r="F80" s="306"/>
+      <c r="G80" s="306"/>
+      <c r="H80" s="306"/>
+      <c r="I80" s="306"/>
+      <c r="J80" s="306"/>
+      <c r="K80" s="302"/>
+      <c r="L80" s="304"/>
+      <c r="M80" s="120"/>
+      <c r="N80" s="120"/>
+      <c r="O80" s="120"/>
+      <c r="P80" s="120"/>
+      <c r="Q80" s="120"/>
+      <c r="R80" s="120"/>
+      <c r="S80" s="120"/>
+      <c r="T80" s="120"/>
+    </row>
+    <row r="81" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="300"/>
+      <c r="B81" s="301"/>
+      <c r="C81" s="308"/>
+      <c r="D81" s="302"/>
+      <c r="E81" s="303"/>
+      <c r="F81" s="306"/>
+      <c r="G81" s="306"/>
+      <c r="H81" s="306"/>
+      <c r="I81" s="306"/>
+      <c r="J81" s="306"/>
+      <c r="K81" s="306"/>
+      <c r="L81" s="302"/>
+      <c r="M81" s="120"/>
+      <c r="N81" s="120"/>
+      <c r="O81" s="120"/>
+      <c r="P81" s="120"/>
+      <c r="Q81" s="120"/>
+      <c r="R81" s="120"/>
+      <c r="S81" s="120"/>
+      <c r="T81" s="120"/>
+    </row>
+    <row r="82" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="300"/>
+      <c r="B82" s="301"/>
+      <c r="C82" s="308"/>
+      <c r="D82" s="309"/>
+      <c r="E82" s="303"/>
+      <c r="F82" s="306"/>
+      <c r="G82" s="306"/>
+      <c r="H82" s="306"/>
+      <c r="I82" s="306"/>
+      <c r="J82" s="306"/>
+      <c r="K82" s="305"/>
+      <c r="L82" s="302"/>
+      <c r="M82" s="304"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="120"/>
+      <c r="P82" s="120"/>
+      <c r="Q82" s="120"/>
+      <c r="R82" s="120"/>
+      <c r="S82" s="120"/>
+      <c r="T82" s="120"/>
+    </row>
+    <row r="83" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="300"/>
+      <c r="B83" s="301"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="310"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="306"/>
+      <c r="H83" s="306"/>
+      <c r="I83" s="306"/>
+      <c r="J83" s="306"/>
+      <c r="K83" s="305"/>
+      <c r="L83" s="302"/>
+      <c r="M83" s="304"/>
+      <c r="N83" s="120"/>
+      <c r="O83" s="120"/>
+      <c r="P83" s="120"/>
+      <c r="Q83" s="120"/>
+      <c r="R83" s="120"/>
+      <c r="S83" s="120"/>
+      <c r="T83" s="120"/>
+    </row>
+    <row r="84" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="300"/>
+      <c r="B84" s="301"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="120"/>
+      <c r="G84" s="120"/>
+      <c r="H84" s="120"/>
+      <c r="I84" s="120"/>
+      <c r="J84" s="120"/>
+      <c r="K84" s="120"/>
+      <c r="L84" s="120"/>
+      <c r="M84" s="302"/>
+      <c r="N84" s="120"/>
+      <c r="O84" s="120"/>
+      <c r="P84" s="120"/>
+      <c r="Q84" s="120"/>
+      <c r="R84" s="120"/>
+      <c r="S84" s="120"/>
+      <c r="T84" s="120"/>
+    </row>
+    <row r="85" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="300"/>
+      <c r="B85" s="301"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
+      <c r="G85" s="120"/>
+      <c r="H85" s="120"/>
+      <c r="I85" s="120"/>
+      <c r="J85" s="120"/>
+      <c r="K85" s="120"/>
+      <c r="L85" s="120"/>
+      <c r="M85" s="120"/>
+      <c r="N85" s="120"/>
+      <c r="O85" s="120"/>
+      <c r="P85" s="120"/>
+      <c r="Q85" s="120"/>
+      <c r="R85" s="120"/>
+      <c r="S85" s="120"/>
+      <c r="T85" s="120"/>
+    </row>
+    <row r="86" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="311"/>
+      <c r="B86" s="301"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="120"/>
+      <c r="O86" s="120"/>
+      <c r="P86" s="120"/>
+      <c r="Q86" s="120"/>
+      <c r="R86" s="120"/>
+      <c r="S86" s="120"/>
+      <c r="T86" s="120"/>
+    </row>
+    <row r="87" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="311"/>
+      <c r="B87" s="301"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="120"/>
+      <c r="G87" s="120"/>
+      <c r="H87" s="120"/>
+      <c r="I87" s="120"/>
+      <c r="J87" s="120"/>
+      <c r="K87" s="120"/>
+      <c r="L87" s="120"/>
+      <c r="M87" s="120"/>
+      <c r="N87" s="120"/>
+      <c r="O87" s="120"/>
+      <c r="P87" s="120"/>
+      <c r="Q87" s="120"/>
+      <c r="R87" s="120"/>
+      <c r="S87" s="120"/>
+      <c r="T87" s="120"/>
+    </row>
+    <row r="88" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="311"/>
+      <c r="B88" s="301"/>
+      <c r="C88" s="120"/>
+      <c r="D88" s="120"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="120"/>
+      <c r="H88" s="120"/>
+      <c r="I88" s="120"/>
+      <c r="J88" s="120"/>
+      <c r="K88" s="120"/>
+      <c r="L88" s="120"/>
+      <c r="M88" s="120"/>
+      <c r="N88" s="120"/>
+      <c r="O88" s="120"/>
+      <c r="P88" s="120"/>
+      <c r="Q88" s="120"/>
+      <c r="R88" s="120"/>
+      <c r="S88" s="120"/>
+      <c r="T88" s="120"/>
+    </row>
+    <row r="89" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="311"/>
+      <c r="B89" s="301"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="120"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="120"/>
+      <c r="G89" s="120"/>
+      <c r="H89" s="120"/>
+      <c r="I89" s="120"/>
+      <c r="J89" s="120"/>
+      <c r="K89" s="120"/>
+      <c r="L89" s="120"/>
+      <c r="M89" s="120"/>
+      <c r="N89" s="120"/>
+      <c r="O89" s="120"/>
+      <c r="P89" s="120"/>
+      <c r="Q89" s="120"/>
+      <c r="R89" s="120"/>
+      <c r="S89" s="120"/>
+      <c r="T89" s="120"/>
+    </row>
+    <row r="90" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="311"/>
+      <c r="B90" s="301"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
+      <c r="E90" s="120"/>
+      <c r="F90" s="120"/>
+      <c r="G90" s="120"/>
+      <c r="H90" s="120"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="120"/>
+      <c r="K90" s="120"/>
+      <c r="L90" s="120"/>
+      <c r="M90" s="120"/>
+      <c r="N90" s="120"/>
+      <c r="O90" s="120"/>
+      <c r="P90" s="120"/>
+      <c r="Q90" s="120"/>
+      <c r="R90" s="120"/>
+      <c r="S90" s="120"/>
+      <c r="T90" s="120"/>
+    </row>
+    <row r="91" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="311"/>
+      <c r="B91" s="301"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="120"/>
+      <c r="G91" s="120"/>
+      <c r="H91" s="120"/>
+      <c r="I91" s="120"/>
+      <c r="J91" s="120"/>
+      <c r="K91" s="120"/>
+      <c r="L91" s="120"/>
+      <c r="M91" s="120"/>
+      <c r="N91" s="120"/>
+      <c r="O91" s="120"/>
+      <c r="P91" s="120"/>
+      <c r="Q91" s="120"/>
+      <c r="R91" s="120"/>
+      <c r="S91" s="120"/>
+      <c r="T91" s="120"/>
+    </row>
+    <row r="92" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="311"/>
+      <c r="B92" s="301"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="120"/>
+      <c r="E92" s="120"/>
+      <c r="F92" s="120"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="120"/>
+      <c r="I92" s="120"/>
+      <c r="J92" s="120"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="120"/>
+      <c r="N92" s="120"/>
+      <c r="O92" s="120"/>
+      <c r="P92" s="120"/>
+      <c r="Q92" s="120"/>
+      <c r="R92" s="120"/>
+      <c r="S92" s="120"/>
+      <c r="T92" s="120"/>
+    </row>
+    <row r="93" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="311"/>
+      <c r="B93" s="301"/>
+      <c r="C93" s="120"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="120"/>
+      <c r="H93" s="120"/>
+      <c r="I93" s="120"/>
+      <c r="J93" s="120"/>
+      <c r="K93" s="120"/>
+      <c r="L93" s="120"/>
+      <c r="M93" s="120"/>
+      <c r="N93" s="120"/>
+      <c r="O93" s="120"/>
+      <c r="P93" s="120"/>
+      <c r="Q93" s="120"/>
+      <c r="R93" s="120"/>
+      <c r="S93" s="120"/>
+      <c r="T93" s="120"/>
+    </row>
+    <row r="94" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="311"/>
+      <c r="B94" s="301"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="120"/>
+      <c r="H94" s="120"/>
+      <c r="I94" s="120"/>
+      <c r="J94" s="120"/>
+      <c r="K94" s="120"/>
+      <c r="L94" s="120"/>
+      <c r="M94" s="120"/>
+      <c r="N94" s="120"/>
+      <c r="O94" s="120"/>
+      <c r="P94" s="120"/>
+      <c r="Q94" s="120"/>
+      <c r="R94" s="120"/>
+      <c r="S94" s="120"/>
+      <c r="T94" s="120"/>
+    </row>
+    <row r="95" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="311"/>
+      <c r="B95" s="301"/>
+      <c r="C95" s="120"/>
+      <c r="D95" s="120"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="120"/>
+      <c r="G95" s="120"/>
+      <c r="H95" s="120"/>
+      <c r="I95" s="120"/>
+      <c r="J95" s="120"/>
+      <c r="K95" s="120"/>
+      <c r="L95" s="120"/>
+      <c r="M95" s="120"/>
+      <c r="N95" s="120"/>
+      <c r="O95" s="120"/>
+      <c r="P95" s="120"/>
+      <c r="Q95" s="120"/>
+      <c r="R95" s="120"/>
+      <c r="S95" s="120"/>
+      <c r="T95" s="120"/>
+    </row>
+    <row r="96" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="311"/>
+      <c r="B96" s="301"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="120"/>
+      <c r="I96" s="120"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="120"/>
+      <c r="O96" s="120"/>
+      <c r="P96" s="120"/>
+      <c r="Q96" s="120"/>
+      <c r="R96" s="120"/>
+      <c r="S96" s="120"/>
+      <c r="T96" s="120"/>
+    </row>
+    <row r="97" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="311"/>
+      <c r="B97" s="301"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="120"/>
+      <c r="E97" s="120"/>
+      <c r="F97" s="120"/>
+      <c r="G97" s="120"/>
+      <c r="H97" s="120"/>
+      <c r="I97" s="120"/>
+      <c r="J97" s="120"/>
+      <c r="K97" s="120"/>
+      <c r="L97" s="120"/>
+      <c r="M97" s="120"/>
+      <c r="N97" s="120"/>
+      <c r="O97" s="120"/>
+      <c r="P97" s="120"/>
+      <c r="Q97" s="120"/>
+      <c r="R97" s="120"/>
+      <c r="S97" s="120"/>
+      <c r="T97" s="120"/>
+    </row>
+    <row r="98" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="311"/>
+      <c r="B98" s="301"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="120"/>
+      <c r="E98" s="120"/>
+      <c r="F98" s="120"/>
+      <c r="G98" s="120"/>
+      <c r="H98" s="120"/>
+      <c r="I98" s="120"/>
+      <c r="J98" s="120"/>
+      <c r="K98" s="120"/>
+      <c r="L98" s="120"/>
+      <c r="M98" s="120"/>
+      <c r="N98" s="120"/>
+      <c r="O98" s="120"/>
+      <c r="P98" s="120"/>
+      <c r="Q98" s="120"/>
+      <c r="R98" s="120"/>
+      <c r="S98" s="120"/>
+      <c r="T98" s="120"/>
+    </row>
+    <row r="99" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="311"/>
+      <c r="B99" s="301"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="120"/>
+      <c r="H99" s="120"/>
+      <c r="I99" s="120"/>
+      <c r="J99" s="120"/>
+      <c r="K99" s="120"/>
+      <c r="L99" s="120"/>
+      <c r="M99" s="120"/>
+      <c r="N99" s="120"/>
+      <c r="O99" s="120"/>
+      <c r="P99" s="120"/>
+      <c r="Q99" s="120"/>
+      <c r="R99" s="120"/>
+      <c r="S99" s="120"/>
+      <c r="T99" s="120"/>
+    </row>
+    <row r="100" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="311"/>
+      <c r="B100" s="301"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="120"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="120"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="120"/>
+      <c r="I100" s="120"/>
+      <c r="J100" s="120"/>
+      <c r="K100" s="120"/>
+      <c r="L100" s="120"/>
+      <c r="M100" s="120"/>
+      <c r="N100" s="120"/>
+      <c r="O100" s="120"/>
+      <c r="P100" s="120"/>
+      <c r="Q100" s="120"/>
+      <c r="R100" s="120"/>
+      <c r="S100" s="120"/>
+      <c r="T100" s="120"/>
+    </row>
+    <row r="101" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="311"/>
+      <c r="B101" s="301"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="120"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="120"/>
+      <c r="G101" s="120"/>
+      <c r="H101" s="120"/>
+      <c r="I101" s="120"/>
+      <c r="J101" s="120"/>
+      <c r="K101" s="120"/>
+      <c r="L101" s="120"/>
+      <c r="M101" s="120"/>
+      <c r="N101" s="120"/>
+      <c r="O101" s="120"/>
+      <c r="P101" s="120"/>
+      <c r="Q101" s="120"/>
+      <c r="R101" s="120"/>
+      <c r="S101" s="120"/>
+      <c r="T101" s="120"/>
+    </row>
+    <row r="102" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="311"/>
+      <c r="B102" s="301"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="120"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
+      <c r="J102" s="120"/>
+      <c r="K102" s="120"/>
+      <c r="L102" s="120"/>
+      <c r="M102" s="120"/>
+      <c r="N102" s="120"/>
+      <c r="O102" s="120"/>
+      <c r="P102" s="120"/>
+      <c r="Q102" s="120"/>
+      <c r="R102" s="120"/>
+      <c r="S102" s="120"/>
+      <c r="T102" s="120"/>
+    </row>
+    <row r="103" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="311"/>
+      <c r="B103" s="301"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
+      <c r="H103" s="120"/>
+      <c r="I103" s="120"/>
+      <c r="J103" s="120"/>
+      <c r="K103" s="120"/>
+      <c r="L103" s="120"/>
+      <c r="M103" s="120"/>
+      <c r="N103" s="120"/>
+      <c r="O103" s="120"/>
+      <c r="P103" s="120"/>
+      <c r="Q103" s="120"/>
+      <c r="R103" s="120"/>
+      <c r="S103" s="120"/>
+      <c r="T103" s="120"/>
+    </row>
+    <row r="104" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="311"/>
+      <c r="B104" s="301"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="120"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="120"/>
+      <c r="L104" s="120"/>
+      <c r="M104" s="120"/>
+      <c r="N104" s="120"/>
+      <c r="O104" s="120"/>
+      <c r="P104" s="120"/>
+      <c r="Q104" s="120"/>
+      <c r="R104" s="120"/>
+      <c r="S104" s="120"/>
+      <c r="T104" s="120"/>
+    </row>
+    <row r="105" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="311"/>
+      <c r="B105" s="301"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="120"/>
+      <c r="L105" s="120"/>
+      <c r="M105" s="120"/>
+      <c r="N105" s="120"/>
+      <c r="O105" s="120"/>
+      <c r="P105" s="120"/>
+      <c r="Q105" s="120"/>
+      <c r="R105" s="120"/>
+      <c r="S105" s="120"/>
+      <c r="T105" s="120"/>
+    </row>
+    <row r="106" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="311"/>
+      <c r="B106" s="301"/>
+      <c r="C106" s="120"/>
+      <c r="D106" s="120"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="120"/>
+      <c r="K106" s="120"/>
+      <c r="L106" s="120"/>
+      <c r="M106" s="120"/>
+      <c r="N106" s="120"/>
+      <c r="O106" s="120"/>
+      <c r="P106" s="120"/>
+      <c r="Q106" s="120"/>
+      <c r="R106" s="120"/>
+      <c r="S106" s="120"/>
+      <c r="T106" s="120"/>
+    </row>
+    <row r="107" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="311"/>
+      <c r="B107" s="301"/>
+      <c r="C107" s="120"/>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="120"/>
+      <c r="I107" s="120"/>
+      <c r="J107" s="120"/>
+      <c r="K107" s="120"/>
+      <c r="L107" s="120"/>
+      <c r="M107" s="120"/>
+      <c r="N107" s="120"/>
+      <c r="O107" s="120"/>
+      <c r="P107" s="120"/>
+      <c r="Q107" s="120"/>
+      <c r="R107" s="120"/>
+      <c r="S107" s="120"/>
+      <c r="T107" s="120"/>
+    </row>
+    <row r="108" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="311"/>
+      <c r="B108" s="301"/>
+      <c r="C108" s="120"/>
+      <c r="D108" s="120"/>
+      <c r="E108" s="120"/>
+      <c r="F108" s="120"/>
+      <c r="G108" s="120"/>
+      <c r="H108" s="120"/>
+      <c r="I108" s="120"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="120"/>
+      <c r="O108" s="120"/>
+      <c r="P108" s="120"/>
+      <c r="Q108" s="120"/>
+      <c r="R108" s="120"/>
+      <c r="S108" s="120"/>
+      <c r="T108" s="120"/>
+    </row>
+    <row r="109" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="311"/>
+      <c r="B109" s="301"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="120"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="120"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="120"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="120"/>
+      <c r="K109" s="120"/>
+      <c r="L109" s="120"/>
+      <c r="M109" s="120"/>
+      <c r="N109" s="120"/>
+      <c r="O109" s="120"/>
+      <c r="P109" s="120"/>
+      <c r="Q109" s="120"/>
+      <c r="R109" s="120"/>
+      <c r="S109" s="120"/>
+      <c r="T109" s="120"/>
+    </row>
+    <row r="110" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="311"/>
+      <c r="B110" s="301"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="120"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="120"/>
+      <c r="I110" s="120"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="120"/>
+      <c r="N110" s="120"/>
+      <c r="O110" s="120"/>
+      <c r="P110" s="120"/>
+      <c r="Q110" s="120"/>
+      <c r="R110" s="120"/>
+      <c r="S110" s="120"/>
+      <c r="T110" s="120"/>
+    </row>
+    <row r="111" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="311"/>
+      <c r="B111" s="301"/>
+      <c r="C111" s="120"/>
+      <c r="D111" s="120"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="120"/>
+      <c r="G111" s="120"/>
+      <c r="H111" s="120"/>
+      <c r="I111" s="120"/>
+      <c r="J111" s="120"/>
+      <c r="K111" s="120"/>
+      <c r="L111" s="120"/>
+      <c r="M111" s="120"/>
+      <c r="N111" s="120"/>
+      <c r="O111" s="120"/>
+      <c r="P111" s="120"/>
+      <c r="Q111" s="120"/>
+      <c r="R111" s="120"/>
+      <c r="S111" s="120"/>
+      <c r="T111" s="120"/>
+    </row>
+    <row r="112" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="311"/>
+      <c r="B112" s="301"/>
+      <c r="C112" s="120"/>
+      <c r="D112" s="120"/>
+      <c r="E112" s="120"/>
+      <c r="F112" s="120"/>
+      <c r="G112" s="120"/>
+      <c r="H112" s="120"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="120"/>
+      <c r="N112" s="120"/>
+      <c r="O112" s="120"/>
+      <c r="P112" s="120"/>
+      <c r="Q112" s="120"/>
+      <c r="R112" s="120"/>
+      <c r="S112" s="120"/>
+      <c r="T112" s="120"/>
+    </row>
+    <row r="113" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="311"/>
+      <c r="B113" s="301"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="120"/>
+      <c r="F113" s="120"/>
+      <c r="G113" s="120"/>
+      <c r="H113" s="120"/>
+      <c r="I113" s="120"/>
+      <c r="J113" s="120"/>
+      <c r="K113" s="120"/>
+      <c r="L113" s="120"/>
+      <c r="M113" s="120"/>
+      <c r="N113" s="120"/>
+      <c r="O113" s="120"/>
+      <c r="P113" s="120"/>
+      <c r="Q113" s="120"/>
+      <c r="R113" s="120"/>
+      <c r="S113" s="120"/>
+      <c r="T113" s="120"/>
+    </row>
+    <row r="114" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="311"/>
+      <c r="B114" s="301"/>
+      <c r="C114" s="120"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="120"/>
+      <c r="F114" s="120"/>
+      <c r="G114" s="120"/>
+      <c r="H114" s="120"/>
+      <c r="I114" s="120"/>
+      <c r="J114" s="120"/>
+      <c r="K114" s="120"/>
+      <c r="L114" s="120"/>
+      <c r="M114" s="120"/>
+      <c r="N114" s="120"/>
+      <c r="O114" s="120"/>
+      <c r="P114" s="120"/>
+      <c r="Q114" s="120"/>
+      <c r="R114" s="120"/>
+      <c r="S114" s="120"/>
+      <c r="T114" s="120"/>
+    </row>
+    <row r="115" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="311"/>
+      <c r="B115" s="301"/>
+      <c r="C115" s="120"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="120"/>
+      <c r="H115" s="120"/>
+      <c r="I115" s="120"/>
+      <c r="J115" s="120"/>
+      <c r="K115" s="120"/>
+      <c r="L115" s="120"/>
+      <c r="M115" s="120"/>
+      <c r="N115" s="120"/>
+      <c r="O115" s="120"/>
+      <c r="P115" s="120"/>
+      <c r="Q115" s="120"/>
+      <c r="R115" s="120"/>
+      <c r="S115" s="120"/>
+      <c r="T115" s="120"/>
+    </row>
+    <row r="116" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="311"/>
+      <c r="B116" s="301"/>
+      <c r="C116" s="120"/>
+      <c r="D116" s="120"/>
+      <c r="E116" s="120"/>
+      <c r="F116" s="120"/>
+      <c r="G116" s="120"/>
+      <c r="H116" s="120"/>
+      <c r="I116" s="120"/>
+      <c r="J116" s="120"/>
+      <c r="K116" s="120"/>
+      <c r="L116" s="120"/>
+      <c r="M116" s="120"/>
+      <c r="N116" s="120"/>
+      <c r="O116" s="120"/>
+      <c r="P116" s="120"/>
+      <c r="Q116" s="120"/>
+      <c r="R116" s="120"/>
+      <c r="S116" s="120"/>
+      <c r="T116" s="120"/>
+    </row>
+    <row r="117" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="311"/>
+      <c r="B117" s="301"/>
+      <c r="C117" s="120"/>
+      <c r="D117" s="120"/>
+      <c r="E117" s="120"/>
+      <c r="F117" s="120"/>
+      <c r="G117" s="120"/>
+      <c r="H117" s="120"/>
+      <c r="I117" s="120"/>
+      <c r="J117" s="120"/>
+      <c r="K117" s="120"/>
+      <c r="L117" s="120"/>
+      <c r="M117" s="120"/>
+      <c r="N117" s="120"/>
+      <c r="O117" s="120"/>
+      <c r="P117" s="120"/>
+      <c r="Q117" s="120"/>
+      <c r="R117" s="120"/>
+      <c r="S117" s="120"/>
+      <c r="T117" s="120"/>
+    </row>
+    <row r="118" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="311"/>
+      <c r="B118" s="301"/>
+      <c r="C118" s="120"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="120"/>
+      <c r="G118" s="120"/>
+      <c r="H118" s="120"/>
+      <c r="I118" s="120"/>
+      <c r="J118" s="120"/>
+      <c r="K118" s="120"/>
+      <c r="L118" s="120"/>
+      <c r="M118" s="120"/>
+      <c r="N118" s="120"/>
+      <c r="O118" s="120"/>
+      <c r="P118" s="120"/>
+      <c r="Q118" s="120"/>
+      <c r="R118" s="120"/>
+      <c r="S118" s="120"/>
+      <c r="T118" s="120"/>
+    </row>
+    <row r="119" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="311"/>
+      <c r="B119" s="301"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="120"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
+      <c r="P119" s="120"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="120"/>
+      <c r="S119" s="120"/>
+      <c r="T119" s="120"/>
+    </row>
+    <row r="120" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="311"/>
+      <c r="B120" s="301"/>
+      <c r="C120" s="120"/>
+      <c r="D120" s="120"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="120"/>
+      <c r="G120" s="120"/>
+      <c r="H120" s="120"/>
+      <c r="I120" s="120"/>
+      <c r="J120" s="120"/>
+      <c r="K120" s="120"/>
+      <c r="L120" s="120"/>
+      <c r="M120" s="120"/>
+      <c r="N120" s="120"/>
+      <c r="O120" s="120"/>
+      <c r="P120" s="120"/>
+      <c r="Q120" s="120"/>
+      <c r="R120" s="120"/>
+      <c r="S120" s="120"/>
+      <c r="T120" s="120"/>
+    </row>
+    <row r="121" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="311"/>
+      <c r="B121" s="301"/>
+      <c r="C121" s="120"/>
+      <c r="D121" s="120"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="120"/>
+      <c r="G121" s="120"/>
+      <c r="H121" s="120"/>
+      <c r="I121" s="120"/>
+      <c r="J121" s="120"/>
+      <c r="K121" s="120"/>
+      <c r="L121" s="120"/>
+      <c r="M121" s="120"/>
+      <c r="N121" s="120"/>
+      <c r="O121" s="120"/>
+      <c r="P121" s="120"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="120"/>
+      <c r="S121" s="120"/>
+      <c r="T121" s="120"/>
+    </row>
+    <row r="122" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="311"/>
+      <c r="B122" s="301"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="120"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="120"/>
+      <c r="G122" s="120"/>
+      <c r="H122" s="120"/>
+      <c r="I122" s="120"/>
+      <c r="J122" s="120"/>
+      <c r="K122" s="120"/>
+      <c r="L122" s="120"/>
+      <c r="M122" s="120"/>
+      <c r="N122" s="120"/>
+      <c r="O122" s="120"/>
+      <c r="P122" s="120"/>
+      <c r="Q122" s="120"/>
+      <c r="R122" s="120"/>
+      <c r="S122" s="120"/>
+      <c r="T122" s="120"/>
+    </row>
+    <row r="123" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="311"/>
+      <c r="B123" s="301"/>
+      <c r="C123" s="120"/>
+      <c r="D123" s="120"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="120"/>
+      <c r="G123" s="120"/>
+      <c r="H123" s="120"/>
+      <c r="I123" s="120"/>
+      <c r="J123" s="120"/>
+      <c r="K123" s="120"/>
+      <c r="L123" s="120"/>
+      <c r="M123" s="120"/>
+      <c r="N123" s="120"/>
+      <c r="O123" s="120"/>
+      <c r="P123" s="120"/>
+      <c r="Q123" s="120"/>
+      <c r="R123" s="120"/>
+      <c r="S123" s="120"/>
+      <c r="T123" s="120"/>
+    </row>
+    <row r="124" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="311"/>
+      <c r="B124" s="301"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="120"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120"/>
+      <c r="G124" s="120"/>
+      <c r="H124" s="120"/>
+      <c r="I124" s="120"/>
+      <c r="J124" s="120"/>
+      <c r="K124" s="120"/>
+      <c r="L124" s="120"/>
+      <c r="M124" s="120"/>
+      <c r="N124" s="120"/>
+      <c r="O124" s="120"/>
+      <c r="P124" s="120"/>
+      <c r="Q124" s="120"/>
+      <c r="R124" s="120"/>
+      <c r="S124" s="120"/>
+      <c r="T124" s="120"/>
+    </row>
+    <row r="125" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="311"/>
+      <c r="B125" s="301"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="120"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="120"/>
+      <c r="G125" s="120"/>
+      <c r="H125" s="120"/>
+      <c r="I125" s="120"/>
+      <c r="J125" s="120"/>
+      <c r="K125" s="120"/>
+      <c r="L125" s="120"/>
+      <c r="M125" s="120"/>
+      <c r="N125" s="120"/>
+      <c r="O125" s="120"/>
+      <c r="P125" s="120"/>
+      <c r="Q125" s="120"/>
+      <c r="R125" s="120"/>
+      <c r="S125" s="120"/>
+      <c r="T125" s="120"/>
+    </row>
+    <row r="126" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="311"/>
+      <c r="B126" s="301"/>
+      <c r="C126" s="120"/>
+      <c r="D126" s="120"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="120"/>
+      <c r="G126" s="120"/>
+      <c r="H126" s="120"/>
+      <c r="I126" s="120"/>
+      <c r="J126" s="120"/>
+      <c r="K126" s="120"/>
+      <c r="L126" s="120"/>
+      <c r="M126" s="120"/>
+      <c r="N126" s="120"/>
+      <c r="O126" s="120"/>
+      <c r="P126" s="120"/>
+      <c r="Q126" s="120"/>
+      <c r="R126" s="120"/>
+      <c r="S126" s="120"/>
+      <c r="T126" s="120"/>
+    </row>
+    <row r="127" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="311"/>
+      <c r="B127" s="301"/>
+      <c r="C127" s="120"/>
+      <c r="D127" s="120"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="120"/>
+      <c r="G127" s="120"/>
+      <c r="H127" s="120"/>
+      <c r="I127" s="120"/>
+      <c r="J127" s="120"/>
+      <c r="K127" s="120"/>
+      <c r="L127" s="120"/>
+      <c r="M127" s="120"/>
+      <c r="N127" s="120"/>
+      <c r="O127" s="120"/>
+      <c r="P127" s="120"/>
+      <c r="Q127" s="120"/>
+      <c r="R127" s="120"/>
+      <c r="S127" s="120"/>
+      <c r="T127" s="120"/>
+    </row>
+    <row r="128" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="311"/>
+      <c r="B128" s="301"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="120"/>
+      <c r="E128" s="120"/>
+      <c r="F128" s="120"/>
+      <c r="G128" s="120"/>
+      <c r="H128" s="120"/>
+      <c r="I128" s="120"/>
+      <c r="J128" s="120"/>
+      <c r="K128" s="120"/>
+      <c r="L128" s="120"/>
+      <c r="M128" s="120"/>
+      <c r="N128" s="120"/>
+      <c r="O128" s="120"/>
+      <c r="P128" s="120"/>
+      <c r="Q128" s="120"/>
+      <c r="R128" s="120"/>
+      <c r="S128" s="120"/>
+      <c r="T128" s="120"/>
+    </row>
+    <row r="129" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="311"/>
+      <c r="B129" s="301"/>
+      <c r="C129" s="120"/>
+      <c r="D129" s="120"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="120"/>
+      <c r="G129" s="120"/>
+      <c r="H129" s="120"/>
+      <c r="I129" s="120"/>
+      <c r="J129" s="120"/>
+      <c r="K129" s="120"/>
+      <c r="L129" s="120"/>
+      <c r="M129" s="120"/>
+      <c r="N129" s="120"/>
+      <c r="O129" s="120"/>
+      <c r="P129" s="120"/>
+      <c r="Q129" s="120"/>
+      <c r="R129" s="120"/>
+      <c r="S129" s="120"/>
+      <c r="T129" s="120"/>
+    </row>
+    <row r="130" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="311"/>
+      <c r="B130" s="301"/>
+      <c r="C130" s="120"/>
+      <c r="D130" s="120"/>
+      <c r="E130" s="120"/>
+      <c r="F130" s="120"/>
+      <c r="G130" s="120"/>
+      <c r="H130" s="120"/>
+      <c r="I130" s="120"/>
+      <c r="J130" s="120"/>
+      <c r="K130" s="120"/>
+      <c r="L130" s="120"/>
+      <c r="M130" s="120"/>
+      <c r="N130" s="120"/>
+      <c r="O130" s="120"/>
+      <c r="P130" s="120"/>
+      <c r="Q130" s="120"/>
+      <c r="R130" s="120"/>
+      <c r="S130" s="120"/>
+      <c r="T130" s="120"/>
+    </row>
+    <row r="131" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="311"/>
+      <c r="B131" s="301"/>
+      <c r="C131" s="120"/>
+      <c r="D131" s="120"/>
+      <c r="E131" s="120"/>
+      <c r="F131" s="120"/>
+      <c r="G131" s="120"/>
+      <c r="H131" s="120"/>
+      <c r="I131" s="120"/>
+      <c r="J131" s="120"/>
+      <c r="K131" s="120"/>
+      <c r="L131" s="120"/>
+      <c r="M131" s="120"/>
+      <c r="N131" s="120"/>
+      <c r="O131" s="120"/>
+      <c r="P131" s="120"/>
+      <c r="Q131" s="120"/>
+      <c r="R131" s="120"/>
+      <c r="S131" s="120"/>
+      <c r="T131" s="120"/>
+    </row>
+    <row r="132" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="311"/>
+      <c r="B132" s="301"/>
+      <c r="C132" s="120"/>
+      <c r="D132" s="120"/>
+      <c r="E132" s="120"/>
+      <c r="F132" s="120"/>
+      <c r="G132" s="120"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="120"/>
+      <c r="J132" s="120"/>
+      <c r="K132" s="120"/>
+      <c r="L132" s="120"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="120"/>
+      <c r="O132" s="120"/>
+      <c r="P132" s="120"/>
+      <c r="Q132" s="120"/>
+      <c r="R132" s="120"/>
+      <c r="S132" s="120"/>
+      <c r="T132" s="120"/>
+    </row>
+    <row r="133" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="311"/>
+      <c r="B133" s="301"/>
+      <c r="C133" s="120"/>
+      <c r="D133" s="120"/>
+      <c r="E133" s="120"/>
+      <c r="F133" s="120"/>
+      <c r="G133" s="120"/>
+      <c r="H133" s="120"/>
+      <c r="I133" s="120"/>
+      <c r="J133" s="120"/>
+      <c r="K133" s="120"/>
+      <c r="L133" s="120"/>
+      <c r="M133" s="120"/>
+      <c r="N133" s="120"/>
+      <c r="O133" s="120"/>
+      <c r="P133" s="120"/>
+      <c r="Q133" s="120"/>
+      <c r="R133" s="120"/>
+      <c r="S133" s="120"/>
+      <c r="T133" s="120"/>
+    </row>
+    <row r="134" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="311"/>
+      <c r="B134" s="301"/>
+      <c r="C134" s="120"/>
+      <c r="D134" s="120"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="120"/>
+      <c r="G134" s="120"/>
+      <c r="H134" s="120"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="120"/>
+      <c r="K134" s="120"/>
+      <c r="L134" s="120"/>
+      <c r="M134" s="120"/>
+      <c r="N134" s="120"/>
+      <c r="O134" s="120"/>
+      <c r="P134" s="120"/>
+      <c r="Q134" s="120"/>
+      <c r="R134" s="120"/>
+      <c r="S134" s="120"/>
+      <c r="T134" s="120"/>
+    </row>
+    <row r="135" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="311"/>
+      <c r="B135" s="301"/>
+      <c r="C135" s="120"/>
+      <c r="D135" s="120"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="120"/>
+      <c r="G135" s="120"/>
+      <c r="H135" s="120"/>
+      <c r="I135" s="120"/>
+      <c r="J135" s="120"/>
+      <c r="K135" s="120"/>
+      <c r="L135" s="120"/>
+      <c r="M135" s="120"/>
+      <c r="N135" s="120"/>
+      <c r="O135" s="120"/>
+      <c r="P135" s="120"/>
+      <c r="Q135" s="120"/>
+      <c r="R135" s="120"/>
+      <c r="S135" s="120"/>
+      <c r="T135" s="120"/>
+    </row>
+    <row r="136" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="311"/>
+      <c r="B136" s="301"/>
+      <c r="C136" s="120"/>
+      <c r="D136" s="120"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
+      <c r="G136" s="120"/>
+      <c r="H136" s="120"/>
+      <c r="I136" s="120"/>
+      <c r="J136" s="120"/>
+      <c r="K136" s="120"/>
+      <c r="L136" s="120"/>
+      <c r="M136" s="120"/>
+      <c r="N136" s="120"/>
+      <c r="O136" s="120"/>
+      <c r="P136" s="120"/>
+      <c r="Q136" s="120"/>
+      <c r="R136" s="120"/>
+      <c r="S136" s="120"/>
+      <c r="T136" s="120"/>
+    </row>
+    <row r="137" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="311"/>
+      <c r="B137" s="301"/>
+      <c r="C137" s="120"/>
+      <c r="D137" s="120"/>
+      <c r="E137" s="120"/>
+      <c r="F137" s="120"/>
+      <c r="G137" s="120"/>
+      <c r="H137" s="120"/>
+      <c r="I137" s="120"/>
+      <c r="J137" s="120"/>
+      <c r="K137" s="120"/>
+      <c r="L137" s="120"/>
+      <c r="M137" s="120"/>
+      <c r="N137" s="120"/>
+      <c r="O137" s="120"/>
+      <c r="P137" s="120"/>
+      <c r="Q137" s="120"/>
+      <c r="R137" s="120"/>
+      <c r="S137" s="120"/>
+      <c r="T137" s="120"/>
+    </row>
+    <row r="138" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="311"/>
+      <c r="B138" s="301"/>
+      <c r="C138" s="120"/>
+      <c r="D138" s="120"/>
+      <c r="E138" s="120"/>
+      <c r="F138" s="120"/>
+      <c r="G138" s="120"/>
+      <c r="H138" s="120"/>
+      <c r="I138" s="120"/>
+      <c r="J138" s="120"/>
+      <c r="K138" s="120"/>
+      <c r="L138" s="120"/>
+      <c r="M138" s="120"/>
+      <c r="N138" s="120"/>
+      <c r="O138" s="120"/>
+      <c r="P138" s="120"/>
+      <c r="Q138" s="120"/>
+      <c r="R138" s="120"/>
+      <c r="S138" s="120"/>
+      <c r="T138" s="120"/>
+    </row>
+    <row r="139" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="311"/>
+      <c r="B139" s="301"/>
+      <c r="C139" s="120"/>
+      <c r="D139" s="120"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="120"/>
+      <c r="G139" s="120"/>
+      <c r="H139" s="120"/>
+      <c r="I139" s="120"/>
+      <c r="J139" s="120"/>
+      <c r="K139" s="120"/>
+      <c r="L139" s="120"/>
+      <c r="M139" s="120"/>
+      <c r="N139" s="120"/>
+      <c r="O139" s="120"/>
+      <c r="P139" s="120"/>
+      <c r="Q139" s="120"/>
+      <c r="R139" s="120"/>
+      <c r="S139" s="120"/>
+      <c r="T139" s="120"/>
+    </row>
+    <row r="140" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="311"/>
+      <c r="B140" s="301"/>
+      <c r="C140" s="120"/>
+      <c r="D140" s="120"/>
+      <c r="E140" s="120"/>
+      <c r="F140" s="120"/>
+      <c r="G140" s="120"/>
+      <c r="H140" s="120"/>
+      <c r="I140" s="120"/>
+      <c r="J140" s="120"/>
+      <c r="K140" s="120"/>
+      <c r="L140" s="120"/>
+      <c r="M140" s="120"/>
+      <c r="N140" s="120"/>
+      <c r="O140" s="120"/>
+      <c r="P140" s="120"/>
+      <c r="Q140" s="120"/>
+      <c r="R140" s="120"/>
+      <c r="S140" s="120"/>
+      <c r="T140" s="120"/>
+    </row>
+    <row r="141" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="311"/>
+      <c r="B141" s="301"/>
+      <c r="C141" s="120"/>
+      <c r="D141" s="120"/>
+      <c r="E141" s="120"/>
+      <c r="F141" s="120"/>
+      <c r="G141" s="120"/>
+      <c r="H141" s="120"/>
+      <c r="I141" s="120"/>
+      <c r="J141" s="120"/>
+      <c r="K141" s="120"/>
+      <c r="L141" s="120"/>
+      <c r="M141" s="120"/>
+      <c r="N141" s="120"/>
+      <c r="O141" s="120"/>
+      <c r="P141" s="120"/>
+      <c r="Q141" s="120"/>
+      <c r="R141" s="120"/>
+      <c r="S141" s="120"/>
+      <c r="T141" s="120"/>
+    </row>
+    <row r="142" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="311"/>
+      <c r="B142" s="301"/>
+      <c r="C142" s="120"/>
+      <c r="D142" s="120"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="120"/>
+      <c r="G142" s="120"/>
+      <c r="H142" s="120"/>
+      <c r="I142" s="120"/>
+      <c r="J142" s="120"/>
+      <c r="K142" s="120"/>
+      <c r="L142" s="120"/>
+      <c r="M142" s="120"/>
+      <c r="N142" s="120"/>
+      <c r="O142" s="120"/>
+      <c r="P142" s="120"/>
+      <c r="Q142" s="120"/>
+      <c r="R142" s="120"/>
+      <c r="S142" s="120"/>
+      <c r="T142" s="120"/>
+    </row>
+    <row r="143" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="311"/>
+      <c r="B143" s="301"/>
+      <c r="C143" s="120"/>
+      <c r="D143" s="120"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="120"/>
+      <c r="G143" s="120"/>
+      <c r="H143" s="120"/>
+      <c r="I143" s="120"/>
+      <c r="J143" s="120"/>
+      <c r="K143" s="120"/>
+      <c r="L143" s="120"/>
+      <c r="M143" s="120"/>
+      <c r="N143" s="120"/>
+      <c r="O143" s="120"/>
+      <c r="P143" s="120"/>
+      <c r="Q143" s="120"/>
+      <c r="R143" s="120"/>
+      <c r="S143" s="120"/>
+      <c r="T143" s="120"/>
+    </row>
+    <row r="144" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="311"/>
+      <c r="B144" s="301"/>
+      <c r="C144" s="120"/>
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="120"/>
+      <c r="G144" s="120"/>
+      <c r="H144" s="120"/>
+      <c r="I144" s="120"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="120"/>
+      <c r="L144" s="120"/>
+      <c r="M144" s="120"/>
+      <c r="N144" s="120"/>
+      <c r="O144" s="120"/>
+      <c r="P144" s="120"/>
+      <c r="Q144" s="120"/>
+      <c r="R144" s="120"/>
+      <c r="S144" s="120"/>
+      <c r="T144" s="120"/>
+    </row>
+    <row r="145" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="311"/>
+      <c r="B145" s="301"/>
+      <c r="C145" s="120"/>
+      <c r="D145" s="120"/>
+      <c r="E145" s="120"/>
+      <c r="F145" s="120"/>
+      <c r="G145" s="120"/>
+      <c r="H145" s="120"/>
+      <c r="I145" s="120"/>
+      <c r="J145" s="120"/>
+      <c r="K145" s="120"/>
+      <c r="L145" s="120"/>
+      <c r="M145" s="120"/>
+      <c r="N145" s="120"/>
+      <c r="O145" s="120"/>
+      <c r="P145" s="120"/>
+      <c r="Q145" s="120"/>
+      <c r="R145" s="120"/>
+      <c r="S145" s="120"/>
+      <c r="T145" s="120"/>
+    </row>
+    <row r="146" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="311"/>
+      <c r="B146" s="301"/>
+      <c r="C146" s="120"/>
+      <c r="D146" s="120"/>
+      <c r="E146" s="120"/>
+      <c r="F146" s="120"/>
+      <c r="G146" s="120"/>
+      <c r="H146" s="120"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="120"/>
+      <c r="L146" s="120"/>
+      <c r="M146" s="120"/>
+      <c r="N146" s="120"/>
+      <c r="O146" s="120"/>
+      <c r="P146" s="120"/>
+      <c r="Q146" s="120"/>
+      <c r="R146" s="120"/>
+      <c r="S146" s="120"/>
+      <c r="T146" s="120"/>
+    </row>
+    <row r="147" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="311"/>
+      <c r="B147" s="301"/>
+      <c r="C147" s="120"/>
+      <c r="D147" s="120"/>
+      <c r="E147" s="120"/>
+      <c r="F147" s="120"/>
+      <c r="G147" s="120"/>
+      <c r="H147" s="120"/>
+      <c r="I147" s="120"/>
+      <c r="J147" s="120"/>
+      <c r="K147" s="120"/>
+      <c r="L147" s="120"/>
+      <c r="M147" s="120"/>
+      <c r="N147" s="120"/>
+      <c r="O147" s="120"/>
+      <c r="P147" s="120"/>
+      <c r="Q147" s="120"/>
+      <c r="R147" s="120"/>
+      <c r="S147" s="120"/>
+      <c r="T147" s="120"/>
+    </row>
+    <row r="148" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="311"/>
+      <c r="B148" s="301"/>
+      <c r="C148" s="120"/>
+      <c r="D148" s="120"/>
+      <c r="E148" s="120"/>
+      <c r="F148" s="120"/>
+      <c r="G148" s="120"/>
+      <c r="H148" s="120"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="120"/>
+      <c r="L148" s="120"/>
+      <c r="M148" s="120"/>
+      <c r="N148" s="120"/>
+      <c r="O148" s="120"/>
+      <c r="P148" s="120"/>
+      <c r="Q148" s="120"/>
+      <c r="R148" s="120"/>
+      <c r="S148" s="120"/>
+      <c r="T148" s="120"/>
+    </row>
+    <row r="149" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="311"/>
+      <c r="B149" s="301"/>
+      <c r="C149" s="120"/>
+      <c r="D149" s="120"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="120"/>
+      <c r="G149" s="120"/>
+      <c r="H149" s="120"/>
+      <c r="I149" s="120"/>
+      <c r="J149" s="120"/>
+      <c r="K149" s="120"/>
+      <c r="L149" s="120"/>
+      <c r="M149" s="120"/>
+      <c r="N149" s="120"/>
+      <c r="O149" s="120"/>
+      <c r="P149" s="120"/>
+      <c r="Q149" s="120"/>
+      <c r="R149" s="120"/>
+      <c r="S149" s="120"/>
+      <c r="T149" s="120"/>
+    </row>
+    <row r="150" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="311"/>
+      <c r="B150" s="301"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="120"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="120"/>
+      <c r="G150" s="120"/>
+      <c r="H150" s="120"/>
+      <c r="I150" s="120"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="120"/>
+      <c r="M150" s="120"/>
+      <c r="N150" s="120"/>
+      <c r="O150" s="120"/>
+      <c r="P150" s="120"/>
+      <c r="Q150" s="120"/>
+      <c r="R150" s="120"/>
+      <c r="S150" s="120"/>
+      <c r="T150" s="120"/>
+    </row>
+    <row r="151" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="311"/>
+      <c r="B151" s="301"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="120"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="120"/>
+      <c r="G151" s="120"/>
+      <c r="H151" s="120"/>
+      <c r="I151" s="120"/>
+      <c r="J151" s="120"/>
+      <c r="K151" s="120"/>
+      <c r="L151" s="120"/>
+      <c r="M151" s="120"/>
+      <c r="N151" s="120"/>
+      <c r="O151" s="120"/>
+      <c r="P151" s="120"/>
+      <c r="Q151" s="120"/>
+      <c r="R151" s="120"/>
+      <c r="S151" s="120"/>
+      <c r="T151" s="120"/>
+    </row>
+    <row r="152" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="311"/>
+      <c r="B152" s="301"/>
+      <c r="C152" s="120"/>
+      <c r="D152" s="120"/>
+      <c r="E152" s="120"/>
+      <c r="F152" s="120"/>
+      <c r="G152" s="120"/>
+      <c r="H152" s="120"/>
+      <c r="I152" s="120"/>
+      <c r="J152" s="120"/>
+      <c r="K152" s="120"/>
+      <c r="L152" s="120"/>
+      <c r="M152" s="120"/>
+      <c r="N152" s="120"/>
+      <c r="O152" s="120"/>
+      <c r="P152" s="120"/>
+      <c r="Q152" s="120"/>
+      <c r="R152" s="120"/>
+      <c r="S152" s="120"/>
+      <c r="T152" s="120"/>
+    </row>
+    <row r="153" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A153" s="311"/>
+      <c r="B153" s="301"/>
+      <c r="C153" s="120"/>
+      <c r="D153" s="120"/>
+      <c r="E153" s="120"/>
+      <c r="F153" s="120"/>
+      <c r="G153" s="120"/>
+      <c r="H153" s="120"/>
+      <c r="I153" s="120"/>
+      <c r="J153" s="120"/>
+      <c r="K153" s="120"/>
+      <c r="L153" s="120"/>
+      <c r="M153" s="120"/>
+      <c r="N153" s="120"/>
+      <c r="O153" s="120"/>
+      <c r="P153" s="120"/>
+      <c r="Q153" s="120"/>
+      <c r="R153" s="120"/>
+      <c r="S153" s="120"/>
+      <c r="T153" s="120"/>
+    </row>
+    <row r="154" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A154" s="311"/>
+      <c r="B154" s="301"/>
+      <c r="C154" s="120"/>
+      <c r="D154" s="120"/>
+      <c r="E154" s="120"/>
+      <c r="F154" s="120"/>
+      <c r="G154" s="120"/>
+      <c r="H154" s="120"/>
+      <c r="I154" s="120"/>
+      <c r="J154" s="120"/>
+      <c r="K154" s="120"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="120"/>
+      <c r="N154" s="120"/>
+      <c r="O154" s="120"/>
+      <c r="P154" s="120"/>
+      <c r="Q154" s="120"/>
+      <c r="R154" s="120"/>
+      <c r="S154" s="120"/>
+      <c r="T154" s="120"/>
+    </row>
+    <row r="155" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="311"/>
+      <c r="B155" s="301"/>
+      <c r="C155" s="120"/>
+      <c r="D155" s="120"/>
+      <c r="E155" s="120"/>
+      <c r="F155" s="120"/>
+      <c r="G155" s="120"/>
+      <c r="H155" s="120"/>
+      <c r="I155" s="120"/>
+      <c r="J155" s="120"/>
+      <c r="K155" s="120"/>
+      <c r="L155" s="120"/>
+      <c r="M155" s="120"/>
+      <c r="N155" s="120"/>
+      <c r="O155" s="120"/>
+      <c r="P155" s="120"/>
+      <c r="Q155" s="120"/>
+      <c r="R155" s="120"/>
+      <c r="S155" s="120"/>
+      <c r="T155" s="120"/>
+    </row>
+    <row r="156" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A156" s="311"/>
+      <c r="B156" s="301"/>
+      <c r="C156" s="120"/>
+      <c r="D156" s="120"/>
+      <c r="E156" s="120"/>
+      <c r="F156" s="120"/>
+      <c r="G156" s="120"/>
+      <c r="H156" s="120"/>
+      <c r="I156" s="120"/>
+      <c r="J156" s="120"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="120"/>
+      <c r="N156" s="120"/>
+      <c r="O156" s="120"/>
+      <c r="P156" s="120"/>
+      <c r="Q156" s="120"/>
+      <c r="R156" s="120"/>
+      <c r="S156" s="120"/>
+      <c r="T156" s="120"/>
+    </row>
+    <row r="157" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="311"/>
+      <c r="B157" s="301"/>
+      <c r="C157" s="120"/>
+      <c r="D157" s="120"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
+      <c r="G157" s="120"/>
+      <c r="H157" s="120"/>
+      <c r="I157" s="120"/>
+      <c r="J157" s="120"/>
+      <c r="K157" s="120"/>
+      <c r="L157" s="120"/>
+      <c r="M157" s="120"/>
+      <c r="N157" s="120"/>
+      <c r="O157" s="120"/>
+      <c r="P157" s="120"/>
+      <c r="Q157" s="120"/>
+      <c r="R157" s="120"/>
+      <c r="S157" s="120"/>
+      <c r="T157" s="120"/>
+    </row>
+    <row r="158" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="311"/>
+      <c r="B158" s="301"/>
+      <c r="C158" s="120"/>
+      <c r="D158" s="120"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
+      <c r="P158" s="120"/>
+      <c r="Q158" s="120"/>
+      <c r="R158" s="120"/>
+      <c r="S158" s="120"/>
+      <c r="T158" s="120"/>
+    </row>
+    <row r="159" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="311"/>
+      <c r="B159" s="301"/>
+      <c r="C159" s="120"/>
+      <c r="D159" s="120"/>
+      <c r="E159" s="120"/>
+      <c r="F159" s="120"/>
+      <c r="G159" s="120"/>
+      <c r="H159" s="120"/>
+      <c r="I159" s="120"/>
+      <c r="J159" s="120"/>
+      <c r="K159" s="120"/>
+      <c r="L159" s="120"/>
+      <c r="M159" s="120"/>
+      <c r="N159" s="120"/>
+      <c r="O159" s="120"/>
+      <c r="P159" s="120"/>
+      <c r="Q159" s="120"/>
+      <c r="R159" s="120"/>
+      <c r="S159" s="120"/>
+      <c r="T159" s="120"/>
+    </row>
+    <row r="160" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="311"/>
+      <c r="B160" s="301"/>
+      <c r="C160" s="120"/>
+      <c r="D160" s="120"/>
+      <c r="E160" s="120"/>
+      <c r="F160" s="120"/>
+      <c r="G160" s="120"/>
+      <c r="H160" s="120"/>
+      <c r="I160" s="120"/>
+      <c r="J160" s="120"/>
+      <c r="K160" s="120"/>
+      <c r="L160" s="120"/>
+      <c r="M160" s="120"/>
+      <c r="N160" s="120"/>
+      <c r="O160" s="120"/>
+      <c r="P160" s="120"/>
+      <c r="Q160" s="120"/>
+      <c r="R160" s="120"/>
+      <c r="S160" s="120"/>
+      <c r="T160" s="120"/>
+    </row>
+    <row r="161" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A161" s="311"/>
+      <c r="B161" s="301"/>
+      <c r="C161" s="120"/>
+      <c r="D161" s="120"/>
+      <c r="E161" s="120"/>
+      <c r="F161" s="120"/>
+      <c r="G161" s="120"/>
+      <c r="H161" s="120"/>
+      <c r="I161" s="120"/>
+      <c r="J161" s="120"/>
+      <c r="K161" s="120"/>
+      <c r="L161" s="120"/>
+      <c r="M161" s="120"/>
+      <c r="N161" s="120"/>
+      <c r="O161" s="120"/>
+      <c r="P161" s="120"/>
+      <c r="Q161" s="120"/>
+      <c r="R161" s="120"/>
+      <c r="S161" s="120"/>
+      <c r="T161" s="120"/>
+    </row>
+    <row r="162" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A162" s="311"/>
+      <c r="B162" s="301"/>
+      <c r="C162" s="120"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="120"/>
+      <c r="F162" s="120"/>
+      <c r="G162" s="120"/>
+      <c r="H162" s="120"/>
+      <c r="I162" s="120"/>
+      <c r="J162" s="120"/>
+      <c r="K162" s="120"/>
+      <c r="L162" s="120"/>
+      <c r="M162" s="120"/>
+      <c r="N162" s="120"/>
+      <c r="O162" s="120"/>
+      <c r="P162" s="120"/>
+      <c r="Q162" s="120"/>
+      <c r="R162" s="120"/>
+      <c r="S162" s="120"/>
+      <c r="T162" s="120"/>
+    </row>
+    <row r="163" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="311"/>
+      <c r="B163" s="301"/>
+      <c r="C163" s="120"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="120"/>
+      <c r="F163" s="120"/>
+      <c r="G163" s="120"/>
+      <c r="H163" s="120"/>
+      <c r="I163" s="120"/>
+      <c r="J163" s="120"/>
+      <c r="K163" s="120"/>
+      <c r="L163" s="120"/>
+      <c r="M163" s="120"/>
+      <c r="N163" s="120"/>
+      <c r="O163" s="120"/>
+      <c r="P163" s="120"/>
+      <c r="Q163" s="120"/>
+      <c r="R163" s="120"/>
+      <c r="S163" s="120"/>
+      <c r="T163" s="120"/>
+    </row>
+    <row r="164" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="311"/>
+      <c r="B164" s="301"/>
+      <c r="C164" s="120"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="120"/>
+      <c r="F164" s="120"/>
+      <c r="G164" s="120"/>
+      <c r="H164" s="120"/>
+      <c r="I164" s="120"/>
+      <c r="J164" s="120"/>
+      <c r="K164" s="120"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="120"/>
+      <c r="N164" s="120"/>
+      <c r="O164" s="120"/>
+      <c r="P164" s="120"/>
+      <c r="Q164" s="120"/>
+      <c r="R164" s="120"/>
+      <c r="S164" s="120"/>
+      <c r="T164" s="120"/>
+    </row>
+    <row r="165" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="311"/>
+      <c r="B165" s="301"/>
+      <c r="C165" s="120"/>
+      <c r="D165" s="120"/>
+      <c r="E165" s="120"/>
+      <c r="F165" s="120"/>
+      <c r="G165" s="120"/>
+      <c r="H165" s="120"/>
+      <c r="I165" s="120"/>
+      <c r="J165" s="120"/>
+      <c r="K165" s="120"/>
+      <c r="L165" s="120"/>
+      <c r="M165" s="120"/>
+      <c r="N165" s="120"/>
+      <c r="O165" s="120"/>
+      <c r="P165" s="120"/>
+      <c r="Q165" s="120"/>
+      <c r="R165" s="120"/>
+      <c r="S165" s="120"/>
+      <c r="T165" s="120"/>
+    </row>
+    <row r="166" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="311"/>
+      <c r="B166" s="301"/>
+      <c r="C166" s="120"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="120"/>
+      <c r="F166" s="120"/>
+      <c r="G166" s="120"/>
+      <c r="H166" s="120"/>
+      <c r="I166" s="120"/>
+      <c r="J166" s="120"/>
+      <c r="K166" s="120"/>
+      <c r="L166" s="120"/>
+      <c r="M166" s="120"/>
+      <c r="N166" s="120"/>
+      <c r="O166" s="120"/>
+      <c r="P166" s="120"/>
+      <c r="Q166" s="120"/>
+      <c r="R166" s="120"/>
+      <c r="S166" s="120"/>
+      <c r="T166" s="120"/>
+    </row>
+    <row r="167" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="311"/>
+      <c r="B167" s="301"/>
+      <c r="C167" s="120"/>
+      <c r="D167" s="120"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="120"/>
+      <c r="G167" s="120"/>
+      <c r="H167" s="120"/>
+      <c r="I167" s="120"/>
+      <c r="J167" s="120"/>
+      <c r="K167" s="120"/>
+      <c r="L167" s="120"/>
+      <c r="M167" s="120"/>
+      <c r="N167" s="120"/>
+      <c r="O167" s="120"/>
+      <c r="P167" s="120"/>
+      <c r="Q167" s="120"/>
+      <c r="R167" s="120"/>
+      <c r="S167" s="120"/>
+      <c r="T167" s="120"/>
+    </row>
+    <row r="168" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="311"/>
+      <c r="B168" s="301"/>
+      <c r="C168" s="120"/>
+      <c r="D168" s="120"/>
+      <c r="E168" s="120"/>
+      <c r="F168" s="120"/>
+      <c r="G168" s="120"/>
+      <c r="H168" s="120"/>
+      <c r="I168" s="120"/>
+      <c r="J168" s="120"/>
+      <c r="K168" s="120"/>
+      <c r="L168" s="120"/>
+      <c r="M168" s="120"/>
+      <c r="N168" s="120"/>
+      <c r="O168" s="120"/>
+      <c r="P168" s="120"/>
+      <c r="Q168" s="120"/>
+      <c r="R168" s="120"/>
+      <c r="S168" s="120"/>
+      <c r="T168" s="120"/>
+    </row>
+    <row r="169" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="311"/>
+      <c r="B169" s="301"/>
+      <c r="C169" s="120"/>
+      <c r="D169" s="120"/>
+      <c r="E169" s="120"/>
+      <c r="F169" s="120"/>
+      <c r="G169" s="120"/>
+      <c r="H169" s="120"/>
+      <c r="I169" s="120"/>
+      <c r="J169" s="120"/>
+      <c r="K169" s="120"/>
+      <c r="L169" s="120"/>
+      <c r="M169" s="120"/>
+      <c r="N169" s="120"/>
+      <c r="O169" s="120"/>
+      <c r="P169" s="120"/>
+      <c r="Q169" s="120"/>
+      <c r="R169" s="120"/>
+      <c r="S169" s="120"/>
+      <c r="T169" s="120"/>
+    </row>
+    <row r="170" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A170" s="311"/>
+      <c r="B170" s="301"/>
+      <c r="C170" s="120"/>
+      <c r="D170" s="120"/>
+      <c r="E170" s="120"/>
+      <c r="F170" s="120"/>
+      <c r="G170" s="120"/>
+      <c r="H170" s="120"/>
+      <c r="I170" s="120"/>
+      <c r="J170" s="120"/>
+      <c r="K170" s="120"/>
+      <c r="L170" s="120"/>
+      <c r="M170" s="120"/>
+      <c r="N170" s="120"/>
+      <c r="O170" s="120"/>
+      <c r="P170" s="120"/>
+      <c r="Q170" s="120"/>
+      <c r="R170" s="120"/>
+      <c r="S170" s="120"/>
+      <c r="T170" s="120"/>
+    </row>
+    <row r="171" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="311"/>
+      <c r="B171" s="301"/>
+      <c r="C171" s="120"/>
+      <c r="D171" s="120"/>
+      <c r="E171" s="120"/>
+      <c r="F171" s="120"/>
+      <c r="G171" s="120"/>
+      <c r="H171" s="120"/>
+      <c r="I171" s="120"/>
+      <c r="J171" s="120"/>
+      <c r="K171" s="120"/>
+      <c r="L171" s="120"/>
+      <c r="M171" s="120"/>
+      <c r="N171" s="120"/>
+      <c r="O171" s="120"/>
+      <c r="P171" s="120"/>
+      <c r="Q171" s="120"/>
+      <c r="R171" s="120"/>
+      <c r="S171" s="120"/>
+      <c r="T171" s="120"/>
+    </row>
+    <row r="172" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="311"/>
+      <c r="B172" s="301"/>
+      <c r="C172" s="120"/>
+      <c r="D172" s="120"/>
+      <c r="E172" s="120"/>
+      <c r="F172" s="120"/>
+      <c r="G172" s="120"/>
+      <c r="H172" s="120"/>
+      <c r="I172" s="120"/>
+      <c r="J172" s="120"/>
+      <c r="K172" s="120"/>
+      <c r="L172" s="120"/>
+      <c r="M172" s="120"/>
+      <c r="N172" s="120"/>
+      <c r="O172" s="120"/>
+      <c r="P172" s="120"/>
+      <c r="Q172" s="120"/>
+      <c r="R172" s="120"/>
+      <c r="S172" s="120"/>
+      <c r="T172" s="120"/>
+    </row>
+    <row r="173" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A173" s="311"/>
+      <c r="B173" s="301"/>
+      <c r="C173" s="120"/>
+      <c r="D173" s="120"/>
+      <c r="E173" s="120"/>
+      <c r="F173" s="120"/>
+      <c r="G173" s="120"/>
+      <c r="H173" s="120"/>
+      <c r="I173" s="120"/>
+      <c r="J173" s="120"/>
+      <c r="K173" s="120"/>
+      <c r="L173" s="120"/>
+      <c r="M173" s="120"/>
+      <c r="N173" s="120"/>
+      <c r="O173" s="120"/>
+      <c r="P173" s="120"/>
+      <c r="Q173" s="120"/>
+      <c r="R173" s="120"/>
+      <c r="S173" s="120"/>
+      <c r="T173" s="120"/>
+    </row>
+    <row r="174" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A174" s="311"/>
+      <c r="B174" s="301"/>
+      <c r="C174" s="120"/>
+      <c r="D174" s="120"/>
+      <c r="E174" s="120"/>
+      <c r="F174" s="120"/>
+      <c r="G174" s="120"/>
+      <c r="H174" s="120"/>
+      <c r="I174" s="120"/>
+      <c r="J174" s="120"/>
+      <c r="K174" s="120"/>
+      <c r="L174" s="120"/>
+      <c r="M174" s="120"/>
+      <c r="N174" s="120"/>
+      <c r="O174" s="120"/>
+      <c r="P174" s="120"/>
+      <c r="Q174" s="120"/>
+      <c r="R174" s="120"/>
+      <c r="S174" s="120"/>
+      <c r="T174" s="120"/>
+    </row>
+    <row r="175" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A175" s="311"/>
+      <c r="B175" s="301"/>
+      <c r="C175" s="120"/>
+      <c r="D175" s="120"/>
+      <c r="E175" s="120"/>
+      <c r="F175" s="120"/>
+      <c r="G175" s="120"/>
+      <c r="H175" s="120"/>
+      <c r="I175" s="120"/>
+      <c r="J175" s="120"/>
+      <c r="K175" s="120"/>
+      <c r="L175" s="120"/>
+      <c r="M175" s="120"/>
+      <c r="N175" s="120"/>
+      <c r="O175" s="120"/>
+      <c r="P175" s="120"/>
+      <c r="Q175" s="120"/>
+      <c r="R175" s="120"/>
+      <c r="S175" s="120"/>
+      <c r="T175" s="120"/>
+    </row>
+    <row r="176" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A176" s="311"/>
+      <c r="B176" s="301"/>
+      <c r="C176" s="120"/>
+      <c r="D176" s="120"/>
+      <c r="E176" s="120"/>
+      <c r="F176" s="120"/>
+      <c r="G176" s="120"/>
+      <c r="H176" s="120"/>
+      <c r="I176" s="120"/>
+      <c r="J176" s="120"/>
+      <c r="K176" s="120"/>
+      <c r="L176" s="120"/>
+      <c r="M176" s="120"/>
+      <c r="N176" s="120"/>
+      <c r="O176" s="120"/>
+      <c r="P176" s="120"/>
+      <c r="Q176" s="120"/>
+      <c r="R176" s="120"/>
+      <c r="S176" s="120"/>
+      <c r="T176" s="120"/>
+    </row>
+    <row r="177" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A177" s="311"/>
+      <c r="B177" s="301"/>
+      <c r="C177" s="120"/>
+      <c r="D177" s="120"/>
+      <c r="E177" s="120"/>
+      <c r="F177" s="120"/>
+      <c r="G177" s="120"/>
+      <c r="H177" s="120"/>
+      <c r="I177" s="120"/>
+      <c r="J177" s="120"/>
+      <c r="K177" s="120"/>
+      <c r="L177" s="120"/>
+      <c r="M177" s="120"/>
+      <c r="N177" s="120"/>
+      <c r="O177" s="120"/>
+      <c r="P177" s="120"/>
+      <c r="Q177" s="120"/>
+      <c r="R177" s="120"/>
+      <c r="S177" s="120"/>
+      <c r="T177" s="120"/>
+    </row>
+    <row r="178" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A178" s="311"/>
+      <c r="B178" s="301"/>
+      <c r="C178" s="120"/>
+      <c r="D178" s="120"/>
+      <c r="E178" s="120"/>
+      <c r="F178" s="120"/>
+      <c r="G178" s="120"/>
+      <c r="H178" s="120"/>
+      <c r="I178" s="120"/>
+      <c r="J178" s="120"/>
+      <c r="K178" s="120"/>
+      <c r="L178" s="120"/>
+      <c r="M178" s="120"/>
+      <c r="N178" s="120"/>
+      <c r="O178" s="120"/>
+      <c r="P178" s="120"/>
+      <c r="Q178" s="120"/>
+      <c r="R178" s="120"/>
+      <c r="S178" s="120"/>
+      <c r="T178" s="120"/>
+    </row>
+    <row r="179" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A179" s="311"/>
+      <c r="B179" s="301"/>
+      <c r="C179" s="120"/>
+      <c r="D179" s="120"/>
+      <c r="E179" s="120"/>
+      <c r="F179" s="120"/>
+      <c r="G179" s="120"/>
+      <c r="H179" s="120"/>
+      <c r="I179" s="120"/>
+      <c r="J179" s="120"/>
+      <c r="K179" s="120"/>
+      <c r="L179" s="120"/>
+      <c r="M179" s="120"/>
+      <c r="N179" s="120"/>
+      <c r="O179" s="120"/>
+      <c r="P179" s="120"/>
+      <c r="Q179" s="120"/>
+      <c r="R179" s="120"/>
+      <c r="S179" s="120"/>
+      <c r="T179" s="120"/>
+    </row>
+    <row r="180" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A180" s="311"/>
+      <c r="B180" s="301"/>
+      <c r="C180" s="120"/>
+      <c r="D180" s="120"/>
+      <c r="E180" s="120"/>
+      <c r="F180" s="120"/>
+      <c r="G180" s="120"/>
+      <c r="H180" s="120"/>
+      <c r="I180" s="120"/>
+      <c r="J180" s="120"/>
+      <c r="K180" s="120"/>
+      <c r="L180" s="120"/>
+      <c r="M180" s="120"/>
+      <c r="N180" s="120"/>
+      <c r="O180" s="120"/>
+      <c r="P180" s="120"/>
+      <c r="Q180" s="120"/>
+      <c r="R180" s="120"/>
+      <c r="S180" s="120"/>
+      <c r="T180" s="120"/>
+    </row>
+    <row r="181" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A181" s="311"/>
+      <c r="B181" s="301"/>
+      <c r="C181" s="120"/>
+      <c r="D181" s="120"/>
+      <c r="E181" s="120"/>
+      <c r="F181" s="120"/>
+      <c r="G181" s="120"/>
+      <c r="H181" s="120"/>
+      <c r="I181" s="120"/>
+      <c r="J181" s="120"/>
+      <c r="K181" s="120"/>
+      <c r="L181" s="120"/>
+      <c r="M181" s="120"/>
+      <c r="N181" s="120"/>
+      <c r="O181" s="120"/>
+      <c r="P181" s="120"/>
+      <c r="Q181" s="120"/>
+      <c r="R181" s="120"/>
+      <c r="S181" s="120"/>
+      <c r="T181" s="120"/>
+    </row>
+    <row r="182" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A182" s="311"/>
+      <c r="B182" s="301"/>
+      <c r="C182" s="120"/>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
+      <c r="F182" s="120"/>
+      <c r="G182" s="120"/>
+      <c r="H182" s="120"/>
+      <c r="I182" s="120"/>
+      <c r="J182" s="120"/>
+      <c r="K182" s="120"/>
+      <c r="L182" s="120"/>
+      <c r="M182" s="120"/>
+      <c r="N182" s="120"/>
+      <c r="O182" s="120"/>
+      <c r="P182" s="120"/>
+      <c r="Q182" s="120"/>
+      <c r="R182" s="120"/>
+      <c r="S182" s="120"/>
+      <c r="T182" s="120"/>
+    </row>
+    <row r="183" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A183" s="311"/>
+      <c r="B183" s="301"/>
+      <c r="C183" s="120"/>
+      <c r="D183" s="120"/>
+      <c r="E183" s="120"/>
+      <c r="F183" s="120"/>
+      <c r="G183" s="120"/>
+      <c r="H183" s="120"/>
+      <c r="I183" s="120"/>
+      <c r="J183" s="120"/>
+      <c r="K183" s="120"/>
+      <c r="L183" s="120"/>
+      <c r="M183" s="120"/>
+      <c r="N183" s="120"/>
+      <c r="O183" s="120"/>
+      <c r="P183" s="120"/>
+      <c r="Q183" s="120"/>
+      <c r="R183" s="120"/>
+      <c r="S183" s="120"/>
+      <c r="T183" s="120"/>
+    </row>
+    <row r="184" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A184" s="311"/>
+      <c r="B184" s="301"/>
+      <c r="C184" s="120"/>
+      <c r="D184" s="120"/>
+      <c r="E184" s="120"/>
+      <c r="F184" s="120"/>
+      <c r="G184" s="120"/>
+      <c r="H184" s="120"/>
+      <c r="I184" s="120"/>
+      <c r="J184" s="120"/>
+      <c r="K184" s="120"/>
+      <c r="L184" s="120"/>
+      <c r="M184" s="120"/>
+      <c r="N184" s="120"/>
+      <c r="O184" s="120"/>
+      <c r="P184" s="120"/>
+      <c r="Q184" s="120"/>
+      <c r="R184" s="120"/>
+      <c r="S184" s="120"/>
+      <c r="T184" s="120"/>
+    </row>
+    <row r="185" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A185" s="311"/>
+      <c r="B185" s="301"/>
+      <c r="C185" s="120"/>
+      <c r="D185" s="120"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="120"/>
+      <c r="G185" s="120"/>
+      <c r="H185" s="120"/>
+      <c r="I185" s="120"/>
+      <c r="J185" s="120"/>
+      <c r="K185" s="120"/>
+      <c r="L185" s="120"/>
+      <c r="M185" s="120"/>
+      <c r="N185" s="120"/>
+      <c r="O185" s="120"/>
+      <c r="P185" s="120"/>
+      <c r="Q185" s="120"/>
+      <c r="R185" s="120"/>
+      <c r="S185" s="120"/>
+      <c r="T185" s="120"/>
+    </row>
+    <row r="186" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A186" s="311"/>
+      <c r="B186" s="301"/>
+      <c r="C186" s="120"/>
+      <c r="D186" s="120"/>
+      <c r="E186" s="120"/>
+      <c r="F186" s="120"/>
+      <c r="G186" s="120"/>
+      <c r="H186" s="120"/>
+      <c r="I186" s="120"/>
+      <c r="J186" s="120"/>
+      <c r="K186" s="120"/>
+      <c r="L186" s="120"/>
+      <c r="M186" s="120"/>
+      <c r="N186" s="120"/>
+      <c r="O186" s="120"/>
+      <c r="P186" s="120"/>
+      <c r="Q186" s="120"/>
+      <c r="R186" s="120"/>
+      <c r="S186" s="120"/>
+      <c r="T186" s="120"/>
+    </row>
+    <row r="187" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A187" s="311"/>
+      <c r="B187" s="301"/>
+      <c r="C187" s="120"/>
+      <c r="D187" s="120"/>
+      <c r="E187" s="120"/>
+      <c r="F187" s="120"/>
+      <c r="G187" s="120"/>
+      <c r="H187" s="120"/>
+      <c r="I187" s="120"/>
+      <c r="J187" s="120"/>
+      <c r="K187" s="120"/>
+      <c r="L187" s="120"/>
+      <c r="M187" s="120"/>
+      <c r="N187" s="120"/>
+      <c r="O187" s="120"/>
+      <c r="P187" s="120"/>
+      <c r="Q187" s="120"/>
+      <c r="R187" s="120"/>
+      <c r="S187" s="120"/>
+      <c r="T187" s="120"/>
+    </row>
+    <row r="188" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="311"/>
+      <c r="B188" s="301"/>
+      <c r="C188" s="120"/>
+      <c r="D188" s="120"/>
+      <c r="E188" s="120"/>
+      <c r="F188" s="120"/>
+      <c r="G188" s="120"/>
+      <c r="H188" s="120"/>
+      <c r="I188" s="120"/>
+      <c r="J188" s="120"/>
+      <c r="K188" s="120"/>
+      <c r="L188" s="120"/>
+      <c r="M188" s="120"/>
+      <c r="N188" s="120"/>
+      <c r="O188" s="120"/>
+      <c r="P188" s="120"/>
+      <c r="Q188" s="120"/>
+      <c r="R188" s="120"/>
+      <c r="S188" s="120"/>
+      <c r="T188" s="120"/>
+    </row>
+    <row r="189" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A189" s="311"/>
+      <c r="B189" s="301"/>
+      <c r="C189" s="120"/>
+      <c r="D189" s="120"/>
+      <c r="E189" s="120"/>
+      <c r="F189" s="120"/>
+      <c r="G189" s="120"/>
+      <c r="H189" s="120"/>
+      <c r="I189" s="120"/>
+      <c r="J189" s="120"/>
+      <c r="K189" s="120"/>
+      <c r="L189" s="120"/>
+      <c r="M189" s="120"/>
+      <c r="N189" s="120"/>
+      <c r="O189" s="120"/>
+      <c r="P189" s="120"/>
+      <c r="Q189" s="120"/>
+      <c r="R189" s="120"/>
+      <c r="S189" s="120"/>
+      <c r="T189" s="120"/>
+    </row>
+    <row r="190" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A190" s="311"/>
+      <c r="B190" s="301"/>
+      <c r="C190" s="120"/>
+      <c r="D190" s="120"/>
+      <c r="E190" s="120"/>
+      <c r="F190" s="120"/>
+      <c r="G190" s="120"/>
+      <c r="H190" s="120"/>
+      <c r="I190" s="120"/>
+      <c r="J190" s="120"/>
+      <c r="K190" s="120"/>
+      <c r="L190" s="120"/>
+      <c r="M190" s="120"/>
+      <c r="N190" s="120"/>
+      <c r="O190" s="120"/>
+      <c r="P190" s="120"/>
+      <c r="Q190" s="120"/>
+      <c r="R190" s="120"/>
+      <c r="S190" s="120"/>
+      <c r="T190" s="120"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" s="297"/>
+      <c r="B191" s="120"/>
+      <c r="C191" s="120"/>
+      <c r="D191" s="120"/>
+      <c r="E191" s="120"/>
+      <c r="F191" s="120"/>
+      <c r="G191" s="120"/>
+      <c r="H191" s="120"/>
+      <c r="I191" s="120"/>
+      <c r="J191" s="120"/>
+      <c r="K191" s="120"/>
+      <c r="L191" s="120"/>
+      <c r="M191" s="120"/>
+      <c r="N191" s="120"/>
+      <c r="O191" s="120"/>
+      <c r="P191" s="120"/>
+      <c r="Q191" s="120"/>
+      <c r="R191" s="120"/>
+      <c r="S191" s="120"/>
+      <c r="T191" s="120"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" s="120"/>
+      <c r="B192" s="120"/>
+      <c r="C192" s="120"/>
+      <c r="D192" s="120"/>
+      <c r="E192" s="120"/>
+      <c r="F192" s="120"/>
+      <c r="G192" s="120"/>
+      <c r="H192" s="120"/>
+      <c r="I192" s="120"/>
+      <c r="J192" s="120"/>
+      <c r="K192" s="120"/>
+      <c r="L192" s="120"/>
+      <c r="M192" s="120"/>
+      <c r="N192" s="120"/>
+      <c r="O192" s="120"/>
+      <c r="P192" s="120"/>
+      <c r="Q192" s="120"/>
+      <c r="R192" s="120"/>
+      <c r="S192" s="120"/>
+      <c r="T192" s="120"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A193" s="120"/>
+      <c r="B193" s="120"/>
+      <c r="C193" s="120"/>
+      <c r="D193" s="120"/>
+      <c r="E193" s="120"/>
+      <c r="F193" s="120"/>
+      <c r="G193" s="120"/>
+      <c r="H193" s="120"/>
+      <c r="I193" s="120"/>
+      <c r="J193" s="120"/>
+      <c r="K193" s="120"/>
+      <c r="L193" s="120"/>
+      <c r="M193" s="120"/>
+      <c r="N193" s="120"/>
+      <c r="O193" s="120"/>
+      <c r="P193" s="120"/>
+      <c r="Q193" s="120"/>
+      <c r="R193" s="120"/>
+      <c r="S193" s="120"/>
+      <c r="T193" s="120"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A194" s="120"/>
+      <c r="B194" s="120"/>
+      <c r="C194" s="120"/>
+      <c r="D194" s="120"/>
+      <c r="E194" s="120"/>
+      <c r="F194" s="120"/>
+      <c r="G194" s="120"/>
+      <c r="H194" s="120"/>
+      <c r="I194" s="120"/>
+      <c r="J194" s="120"/>
+      <c r="K194" s="120"/>
+      <c r="L194" s="120"/>
+      <c r="M194" s="120"/>
+      <c r="N194" s="120"/>
+      <c r="O194" s="120"/>
+      <c r="P194" s="120"/>
+      <c r="Q194" s="120"/>
+      <c r="R194" s="120"/>
+      <c r="S194" s="120"/>
+      <c r="T194" s="120"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A195" s="120"/>
+      <c r="B195" s="120"/>
+      <c r="C195" s="120"/>
+      <c r="D195" s="120"/>
+      <c r="E195" s="120"/>
+      <c r="F195" s="120"/>
+      <c r="G195" s="120"/>
+      <c r="H195" s="120"/>
+      <c r="I195" s="120"/>
+      <c r="J195" s="120"/>
+      <c r="K195" s="120"/>
+      <c r="L195" s="120"/>
+      <c r="M195" s="120"/>
+      <c r="N195" s="120"/>
+      <c r="O195" s="120"/>
+      <c r="P195" s="120"/>
+      <c r="Q195" s="120"/>
+      <c r="R195" s="120"/>
+      <c r="S195" s="120"/>
+      <c r="T195" s="120"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A196" s="120"/>
+      <c r="B196" s="120"/>
+      <c r="C196" s="120"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="120"/>
+      <c r="F196" s="120"/>
+      <c r="G196" s="120"/>
+      <c r="H196" s="120"/>
+      <c r="I196" s="120"/>
+      <c r="J196" s="120"/>
+      <c r="K196" s="120"/>
+      <c r="L196" s="120"/>
+      <c r="M196" s="120"/>
+      <c r="N196" s="120"/>
+      <c r="O196" s="120"/>
+      <c r="P196" s="120"/>
+      <c r="Q196" s="120"/>
+      <c r="R196" s="120"/>
+      <c r="S196" s="120"/>
+      <c r="T196" s="120"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" s="120"/>
+      <c r="B197" s="120"/>
+      <c r="C197" s="120"/>
+      <c r="D197" s="120"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
+      <c r="P197" s="120"/>
+      <c r="Q197" s="120"/>
+      <c r="R197" s="120"/>
+      <c r="S197" s="120"/>
+      <c r="T197" s="120"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" s="120"/>
+      <c r="B198" s="120"/>
+      <c r="C198" s="120"/>
+      <c r="D198" s="120"/>
+      <c r="E198" s="120"/>
+      <c r="F198" s="120"/>
+      <c r="G198" s="120"/>
+      <c r="H198" s="120"/>
+      <c r="I198" s="120"/>
+      <c r="J198" s="120"/>
+      <c r="K198" s="120"/>
+      <c r="L198" s="120"/>
+      <c r="M198" s="120"/>
+      <c r="N198" s="120"/>
+      <c r="O198" s="120"/>
+      <c r="P198" s="120"/>
+      <c r="Q198" s="120"/>
+      <c r="R198" s="120"/>
+      <c r="S198" s="120"/>
+      <c r="T198" s="120"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" s="120"/>
+      <c r="B199" s="120"/>
+      <c r="C199" s="120"/>
+      <c r="D199" s="120"/>
+      <c r="E199" s="120"/>
+      <c r="F199" s="120"/>
+      <c r="G199" s="120"/>
+      <c r="H199" s="120"/>
+      <c r="I199" s="120"/>
+      <c r="J199" s="120"/>
+      <c r="K199" s="120"/>
+      <c r="L199" s="120"/>
+      <c r="M199" s="120"/>
+      <c r="N199" s="120"/>
+      <c r="O199" s="120"/>
+      <c r="P199" s="120"/>
+      <c r="Q199" s="120"/>
+      <c r="R199" s="120"/>
+      <c r="S199" s="120"/>
+      <c r="T199" s="120"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" s="120"/>
+      <c r="B200" s="120"/>
+      <c r="C200" s="120"/>
+      <c r="D200" s="120"/>
+      <c r="E200" s="120"/>
+      <c r="F200" s="120"/>
+      <c r="G200" s="120"/>
+      <c r="H200" s="120"/>
+      <c r="I200" s="120"/>
+      <c r="J200" s="120"/>
+      <c r="K200" s="120"/>
+      <c r="L200" s="120"/>
+      <c r="M200" s="120"/>
+      <c r="N200" s="120"/>
+      <c r="O200" s="120"/>
+      <c r="P200" s="120"/>
+      <c r="Q200" s="120"/>
+      <c r="R200" s="120"/>
+      <c r="S200" s="120"/>
+      <c r="T200" s="120"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" s="120"/>
+      <c r="B201" s="120"/>
+      <c r="C201" s="120"/>
+      <c r="D201" s="120"/>
+      <c r="E201" s="120"/>
+      <c r="F201" s="120"/>
+      <c r="G201" s="120"/>
+      <c r="H201" s="120"/>
+      <c r="I201" s="120"/>
+      <c r="J201" s="120"/>
+      <c r="K201" s="120"/>
+      <c r="L201" s="120"/>
+      <c r="M201" s="120"/>
+      <c r="N201" s="120"/>
+      <c r="O201" s="120"/>
+      <c r="P201" s="120"/>
+      <c r="Q201" s="120"/>
+      <c r="R201" s="120"/>
+      <c r="S201" s="120"/>
+      <c r="T201" s="120"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" s="120"/>
+      <c r="B202" s="120"/>
+      <c r="C202" s="120"/>
+      <c r="D202" s="120"/>
+      <c r="E202" s="120"/>
+      <c r="F202" s="120"/>
+      <c r="G202" s="120"/>
+      <c r="H202" s="120"/>
+      <c r="I202" s="120"/>
+      <c r="J202" s="120"/>
+      <c r="K202" s="120"/>
+      <c r="L202" s="120"/>
+      <c r="M202" s="120"/>
+      <c r="N202" s="120"/>
+      <c r="O202" s="120"/>
+      <c r="P202" s="120"/>
+      <c r="Q202" s="120"/>
+      <c r="R202" s="120"/>
+      <c r="S202" s="120"/>
+      <c r="T202" s="120"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" s="120"/>
+      <c r="B203" s="120"/>
+      <c r="C203" s="120"/>
+      <c r="D203" s="120"/>
+      <c r="E203" s="120"/>
+      <c r="F203" s="120"/>
+      <c r="G203" s="120"/>
+      <c r="H203" s="120"/>
+      <c r="I203" s="120"/>
+      <c r="J203" s="120"/>
+      <c r="K203" s="120"/>
+      <c r="L203" s="120"/>
+      <c r="M203" s="120"/>
+      <c r="N203" s="120"/>
+      <c r="O203" s="120"/>
+      <c r="P203" s="120"/>
+      <c r="Q203" s="120"/>
+      <c r="R203" s="120"/>
+      <c r="S203" s="120"/>
+      <c r="T203" s="120"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" s="120"/>
+      <c r="B204" s="120"/>
+      <c r="C204" s="120"/>
+      <c r="D204" s="120"/>
+      <c r="E204" s="120"/>
+      <c r="F204" s="120"/>
+      <c r="G204" s="120"/>
+      <c r="H204" s="120"/>
+      <c r="I204" s="120"/>
+      <c r="J204" s="120"/>
+      <c r="K204" s="120"/>
+      <c r="L204" s="120"/>
+      <c r="M204" s="120"/>
+      <c r="N204" s="120"/>
+      <c r="O204" s="120"/>
+      <c r="P204" s="120"/>
+      <c r="Q204" s="120"/>
+      <c r="R204" s="120"/>
+      <c r="S204" s="120"/>
+      <c r="T204" s="120"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" s="120"/>
+      <c r="B205" s="120"/>
+      <c r="C205" s="120"/>
+      <c r="D205" s="120"/>
+      <c r="E205" s="120"/>
+      <c r="F205" s="120"/>
+      <c r="G205" s="120"/>
+      <c r="H205" s="120"/>
+      <c r="I205" s="120"/>
+      <c r="J205" s="120"/>
+      <c r="K205" s="120"/>
+      <c r="L205" s="120"/>
+      <c r="M205" s="120"/>
+      <c r="N205" s="120"/>
+      <c r="O205" s="120"/>
+      <c r="P205" s="120"/>
+      <c r="Q205" s="120"/>
+      <c r="R205" s="120"/>
+      <c r="S205" s="120"/>
+      <c r="T205" s="120"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" s="120"/>
+      <c r="B206" s="120"/>
+      <c r="C206" s="120"/>
+      <c r="D206" s="120"/>
+      <c r="E206" s="120"/>
+      <c r="F206" s="120"/>
+      <c r="G206" s="120"/>
+      <c r="H206" s="120"/>
+      <c r="I206" s="120"/>
+      <c r="J206" s="120"/>
+      <c r="K206" s="120"/>
+      <c r="L206" s="120"/>
+      <c r="M206" s="120"/>
+      <c r="N206" s="120"/>
+      <c r="O206" s="120"/>
+      <c r="P206" s="120"/>
+      <c r="Q206" s="120"/>
+      <c r="R206" s="120"/>
+      <c r="S206" s="120"/>
+      <c r="T206" s="120"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" s="120"/>
+      <c r="B207" s="120"/>
+      <c r="C207" s="120"/>
+      <c r="D207" s="120"/>
+      <c r="E207" s="120"/>
+      <c r="F207" s="120"/>
+      <c r="G207" s="120"/>
+      <c r="H207" s="120"/>
+      <c r="I207" s="120"/>
+      <c r="J207" s="120"/>
+      <c r="K207" s="120"/>
+      <c r="L207" s="120"/>
+      <c r="M207" s="120"/>
+      <c r="N207" s="120"/>
+      <c r="O207" s="120"/>
+      <c r="P207" s="120"/>
+      <c r="Q207" s="120"/>
+      <c r="R207" s="120"/>
+      <c r="S207" s="120"/>
+      <c r="T207" s="120"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" s="120"/>
+      <c r="B208" s="120"/>
+      <c r="C208" s="120"/>
+      <c r="D208" s="120"/>
+      <c r="E208" s="120"/>
+      <c r="F208" s="120"/>
+      <c r="G208" s="120"/>
+      <c r="H208" s="120"/>
+      <c r="I208" s="120"/>
+      <c r="J208" s="120"/>
+      <c r="K208" s="120"/>
+      <c r="L208" s="120"/>
+      <c r="M208" s="120"/>
+      <c r="N208" s="120"/>
+      <c r="O208" s="120"/>
+      <c r="P208" s="120"/>
+      <c r="Q208" s="120"/>
+      <c r="R208" s="120"/>
+      <c r="S208" s="120"/>
+      <c r="T208" s="120"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" s="120"/>
+      <c r="B209" s="120"/>
+      <c r="C209" s="120"/>
+      <c r="D209" s="120"/>
+      <c r="E209" s="120"/>
+      <c r="F209" s="120"/>
+      <c r="G209" s="120"/>
+      <c r="H209" s="120"/>
+      <c r="I209" s="120"/>
+      <c r="J209" s="120"/>
+      <c r="K209" s="120"/>
+      <c r="L209" s="120"/>
+      <c r="M209" s="120"/>
+      <c r="N209" s="120"/>
+      <c r="O209" s="120"/>
+      <c r="P209" s="120"/>
+      <c r="Q209" s="120"/>
+      <c r="R209" s="120"/>
+      <c r="S209" s="120"/>
+      <c r="T209" s="120"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" s="120"/>
+      <c r="B210" s="120"/>
+      <c r="C210" s="120"/>
+      <c r="D210" s="120"/>
+      <c r="E210" s="120"/>
+      <c r="F210" s="120"/>
+      <c r="G210" s="120"/>
+      <c r="H210" s="120"/>
+      <c r="I210" s="120"/>
+      <c r="J210" s="120"/>
+      <c r="K210" s="120"/>
+      <c r="L210" s="120"/>
+      <c r="M210" s="120"/>
+      <c r="N210" s="120"/>
+      <c r="O210" s="120"/>
+      <c r="P210" s="120"/>
+      <c r="Q210" s="120"/>
+      <c r="R210" s="120"/>
+      <c r="S210" s="120"/>
+      <c r="T210" s="120"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" s="120"/>
+      <c r="B211" s="120"/>
+      <c r="C211" s="120"/>
+      <c r="D211" s="120"/>
+      <c r="E211" s="120"/>
+      <c r="F211" s="120"/>
+      <c r="G211" s="120"/>
+      <c r="H211" s="120"/>
+      <c r="I211" s="120"/>
+      <c r="J211" s="120"/>
+      <c r="K211" s="120"/>
+      <c r="L211" s="120"/>
+      <c r="M211" s="120"/>
+      <c r="N211" s="120"/>
+      <c r="O211" s="120"/>
+      <c r="P211" s="120"/>
+      <c r="Q211" s="120"/>
+      <c r="R211" s="120"/>
+      <c r="S211" s="120"/>
+      <c r="T211" s="120"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="120"/>
+      <c r="B212" s="120"/>
+      <c r="C212" s="120"/>
+      <c r="D212" s="120"/>
+      <c r="E212" s="120"/>
+      <c r="F212" s="120"/>
+      <c r="G212" s="120"/>
+      <c r="H212" s="120"/>
+      <c r="I212" s="120"/>
+      <c r="J212" s="120"/>
+      <c r="K212" s="120"/>
+      <c r="L212" s="120"/>
+      <c r="M212" s="120"/>
+      <c r="N212" s="120"/>
+      <c r="O212" s="120"/>
+      <c r="P212" s="120"/>
+      <c r="Q212" s="120"/>
+      <c r="R212" s="120"/>
+      <c r="S212" s="120"/>
+      <c r="T212" s="120"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213" s="120"/>
+      <c r="B213" s="120"/>
+      <c r="C213" s="120"/>
+      <c r="D213" s="120"/>
+      <c r="E213" s="120"/>
+      <c r="F213" s="120"/>
+      <c r="G213" s="120"/>
+      <c r="H213" s="120"/>
+      <c r="I213" s="120"/>
+      <c r="J213" s="120"/>
+      <c r="K213" s="120"/>
+      <c r="L213" s="120"/>
+      <c r="M213" s="120"/>
+      <c r="N213" s="120"/>
+      <c r="O213" s="120"/>
+      <c r="P213" s="120"/>
+      <c r="Q213" s="120"/>
+      <c r="R213" s="120"/>
+      <c r="S213" s="120"/>
+      <c r="T213" s="120"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A214" s="120"/>
+      <c r="B214" s="120"/>
+      <c r="C214" s="120"/>
+      <c r="D214" s="120"/>
+      <c r="E214" s="120"/>
+      <c r="F214" s="120"/>
+      <c r="G214" s="120"/>
+      <c r="H214" s="120"/>
+      <c r="I214" s="120"/>
+      <c r="J214" s="120"/>
+      <c r="K214" s="120"/>
+      <c r="L214" s="120"/>
+      <c r="M214" s="120"/>
+      <c r="N214" s="120"/>
+      <c r="O214" s="120"/>
+      <c r="P214" s="120"/>
+      <c r="Q214" s="120"/>
+      <c r="R214" s="120"/>
+      <c r="S214" s="120"/>
+      <c r="T214" s="120"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A215" s="120"/>
+      <c r="B215" s="120"/>
+      <c r="C215" s="120"/>
+      <c r="D215" s="120"/>
+      <c r="E215" s="120"/>
+      <c r="F215" s="120"/>
+      <c r="G215" s="120"/>
+      <c r="H215" s="120"/>
+      <c r="I215" s="120"/>
+      <c r="J215" s="120"/>
+      <c r="K215" s="120"/>
+      <c r="L215" s="120"/>
+      <c r="M215" s="120"/>
+      <c r="N215" s="120"/>
+      <c r="O215" s="120"/>
+      <c r="P215" s="120"/>
+      <c r="Q215" s="120"/>
+      <c r="R215" s="120"/>
+      <c r="S215" s="120"/>
+      <c r="T215" s="120"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A216" s="120"/>
+      <c r="B216" s="120"/>
+      <c r="C216" s="120"/>
+      <c r="D216" s="120"/>
+      <c r="E216" s="120"/>
+      <c r="F216" s="120"/>
+      <c r="G216" s="120"/>
+      <c r="H216" s="120"/>
+      <c r="I216" s="120"/>
+      <c r="J216" s="120"/>
+      <c r="K216" s="120"/>
+      <c r="L216" s="120"/>
+      <c r="M216" s="120"/>
+      <c r="N216" s="120"/>
+      <c r="O216" s="120"/>
+      <c r="P216" s="120"/>
+      <c r="Q216" s="120"/>
+      <c r="R216" s="120"/>
+      <c r="S216" s="120"/>
+      <c r="T216" s="120"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A217" s="120"/>
+      <c r="B217" s="120"/>
+      <c r="C217" s="120"/>
+      <c r="D217" s="120"/>
+      <c r="E217" s="120"/>
+      <c r="F217" s="120"/>
+      <c r="G217" s="120"/>
+      <c r="H217" s="120"/>
+      <c r="I217" s="120"/>
+      <c r="J217" s="120"/>
+      <c r="K217" s="120"/>
+      <c r="L217" s="120"/>
+      <c r="M217" s="120"/>
+      <c r="N217" s="120"/>
+      <c r="O217" s="120"/>
+      <c r="P217" s="120"/>
+      <c r="Q217" s="120"/>
+      <c r="R217" s="120"/>
+      <c r="S217" s="120"/>
+      <c r="T217" s="120"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A218" s="120"/>
+      <c r="B218" s="120"/>
+      <c r="C218" s="120"/>
+      <c r="D218" s="120"/>
+      <c r="E218" s="120"/>
+      <c r="F218" s="120"/>
+      <c r="G218" s="120"/>
+      <c r="H218" s="120"/>
+      <c r="I218" s="120"/>
+      <c r="J218" s="120"/>
+      <c r="K218" s="120"/>
+      <c r="L218" s="120"/>
+      <c r="M218" s="120"/>
+      <c r="N218" s="120"/>
+      <c r="O218" s="120"/>
+      <c r="P218" s="120"/>
+      <c r="Q218" s="120"/>
+      <c r="R218" s="120"/>
+      <c r="S218" s="120"/>
+      <c r="T218" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8029,7 +10511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA236BE-BCCA-4DED-BC00-BC104045B4E1}">
   <dimension ref="C6:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
@@ -8040,194 +10522,194 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="111"/>
-      <c r="D6" s="309" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="283" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="310"/>
+      <c r="E6" s="284"/>
     </row>
     <row r="7" spans="3:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="111"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="111"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="111"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>COUNTIF(D12:D367, "Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="114"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <f>COUNTIF(D12:D367, "Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="111"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f>SUM(E7:E10)</f>
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="6:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="311" t="s">
+      <c r="F18" s="285" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="312"/>
-      <c r="H18" s="312"/>
-      <c r="I18" s="312"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="312"/>
-      <c r="L18" s="312"/>
-      <c r="M18" s="313"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="286"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="286"/>
+      <c r="L18" s="286"/>
+      <c r="M18" s="287"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="314" t="s">
+      <c r="F19" s="288" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="315"/>
-      <c r="L19" s="315"/>
-      <c r="M19" s="316"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="289"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="289"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="289"/>
+      <c r="M19" s="290"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="317"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="318"/>
-      <c r="M20" s="319"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="292"/>
+      <c r="J20" s="292"/>
+      <c r="K20" s="292"/>
+      <c r="L20" s="292"/>
+      <c r="M20" s="293"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="317"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
-      <c r="I21" s="318"/>
-      <c r="J21" s="318"/>
-      <c r="K21" s="318"/>
-      <c r="L21" s="318"/>
-      <c r="M21" s="319"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="292"/>
+      <c r="J21" s="292"/>
+      <c r="K21" s="292"/>
+      <c r="L21" s="292"/>
+      <c r="M21" s="293"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="317"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="318"/>
-      <c r="L22" s="318"/>
-      <c r="M22" s="319"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="292"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="292"/>
+      <c r="L22" s="292"/>
+      <c r="M22" s="293"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="317"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="318"/>
-      <c r="L23" s="318"/>
-      <c r="M23" s="319"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="293"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="317"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
-      <c r="K24" s="318"/>
-      <c r="L24" s="318"/>
-      <c r="M24" s="319"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="293"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="317"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="318"/>
-      <c r="J25" s="318"/>
-      <c r="K25" s="318"/>
-      <c r="L25" s="318"/>
-      <c r="M25" s="319"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="292"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="293"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="317"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="318"/>
-      <c r="I26" s="318"/>
-      <c r="J26" s="318"/>
-      <c r="K26" s="318"/>
-      <c r="L26" s="318"/>
-      <c r="M26" s="319"/>
+      <c r="F26" s="291"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="292"/>
+      <c r="K26" s="292"/>
+      <c r="L26" s="292"/>
+      <c r="M26" s="293"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="317"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="318"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="318"/>
-      <c r="K27" s="318"/>
-      <c r="L27" s="318"/>
-      <c r="M27" s="319"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="293"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="317"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="318"/>
-      <c r="I28" s="318"/>
-      <c r="J28" s="318"/>
-      <c r="K28" s="318"/>
-      <c r="L28" s="318"/>
-      <c r="M28" s="319"/>
+      <c r="F28" s="291"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="293"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="317"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="318"/>
-      <c r="K29" s="318"/>
-      <c r="L29" s="318"/>
-      <c r="M29" s="319"/>
+      <c r="F29" s="291"/>
+      <c r="G29" s="292"/>
+      <c r="H29" s="292"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="293"/>
     </row>
     <row r="30" spans="6:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="320"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="321"/>
-      <c r="J30" s="321"/>
-      <c r="K30" s="321"/>
-      <c r="L30" s="321"/>
-      <c r="M30" s="322"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="295"/>
+      <c r="H30" s="295"/>
+      <c r="I30" s="295"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="295"/>
+      <c r="L30" s="295"/>
+      <c r="M30" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="3">
